--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -1,50 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\Desktop\Desktop\Cmd Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\Desktop\Cmd Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BFC4D0-F481-49A8-B8C8-B4EFE0D7DBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23E56B2-142B-4361-A249-E331FD5848AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="ls cmd" sheetId="1" r:id="rId1"/>
-    <sheet name="grep cmd" sheetId="2" r:id="rId2"/>
-    <sheet name="find cmd" sheetId="3" r:id="rId3"/>
-    <sheet name="tree cmd" sheetId="4" r:id="rId4"/>
-    <sheet name="touch cmd" sheetId="6" r:id="rId5"/>
+    <sheet name="ls" sheetId="1" r:id="rId1"/>
+    <sheet name="grep" sheetId="2" r:id="rId2"/>
+    <sheet name="find" sheetId="3" r:id="rId3"/>
+    <sheet name="tree" sheetId="4" r:id="rId4"/>
+    <sheet name="touch" sheetId="6" r:id="rId5"/>
     <sheet name="vi" sheetId="5" r:id="rId6"/>
     <sheet name="shells" sheetId="8" r:id="rId7"/>
-    <sheet name="nmap" sheetId="7" r:id="rId8"/>
+    <sheet name="nmap" sheetId="9" r:id="rId8"/>
+    <sheet name="tcpdump" sheetId="15" r:id="rId9"/>
+    <sheet name="awk" sheetId="10" r:id="rId10"/>
+    <sheet name="sort" sheetId="11" r:id="rId11"/>
+    <sheet name="head" sheetId="13" r:id="rId12"/>
+    <sheet name="cut" sheetId="14" r:id="rId13"/>
+    <sheet name="uniq" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="542">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -18754,12 +18748,3524 @@
   <si>
     <t>highlight the differences between file1 and file2 in vim</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'nmap'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">network mapper
+network exploration tool
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>determine what hosts are available, what services are offered on those hosts, what the host OS is etc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PORT STATE KEY:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>open -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>app on host is listening for connections</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>closed -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no listener, no application listening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filtered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>firewall, ACL or other obstacle blocking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unfiltered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>responsive, but NMAP can't determine open/closed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>scanme.nmap.org</t>
+  </si>
+  <si>
+    <t>nmap</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nmap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  = print options</t>
+    </r>
+  </si>
+  <si>
+    <t>scan an open nmap server!</t>
+  </si>
+  <si>
+    <r>
+      <t>prints a long</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> list</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of common nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>options</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>SYNTAX</t>
+  </si>
+  <si>
+    <t>nmap  [scan type]  [options]  {target specification}</t>
+  </si>
+  <si>
+    <t>nmap scanme.nmap.org</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nmap &lt;hostname&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = scan hostname with nmap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nmap &lt;IP address&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= scan an IP address with nmap</t>
+    </r>
+  </si>
+  <si>
+    <t>[ ] = optional,  { } = mandatory</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nmap &lt;IP with CIDR&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = scan a subnet using CIDR notation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nmap</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> scans 'scanme.nmap.org'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+uses DNS to resolve hostname
+if hostname resolves to more than one IP, only the first IP is used, but if you wish to scan ALL IPs that resolve to that hostname, use the '--resolve-all' option</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nmap &lt;IP range&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = scan an IP range using 'octet range addressing'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scans the '192.168.1.1 - 254'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> range
+you can also give it ranges in different octets, e.g. 'nmap 192.168.1-3.1-254'</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap 192.168.1.1-254</t>
+  </si>
+  <si>
+    <t>nmap -iL ipList.txt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scans the hosts found in the 'ipList.txt'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file
+list of hosts in file must be seperated by spaces, tabs or newlines
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--exclude &lt;host(s)&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = exclude hosts from the scan</t>
+    </r>
+  </si>
+  <si>
+    <t>BASIC SCANS</t>
+  </si>
+  <si>
+    <t>SPECIFYING TARGETS</t>
+  </si>
+  <si>
+    <t>nmap --exclude 192.168.1.2-5 192.168.1.1-100</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-iL &lt;file name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = scan list of hosts from a file</t>
+    </r>
+  </si>
+  <si>
+    <t>Linux 'awk'</t>
+  </si>
+  <si>
+    <t>pattern scanning and processing language</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= field separator</t>
+    </r>
+  </si>
+  <si>
+    <t>awk -F "." '{print $1"."$2"."$3"."$4}'</t>
+  </si>
+  <si>
+    <r>
+      <t>uses</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> awk</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to grab</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first value before</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first '.'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grabs the second value between the first '.' and the second '.'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then grabs the 3rd value between the second '.' and the third '.' and so on
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"."</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = signals that a period should be the delimiter between values</t>
+    </r>
+  </si>
+  <si>
+    <t>Linux 'sort'</t>
+  </si>
+  <si>
+    <t>sorts lines of text files</t>
+  </si>
+  <si>
+    <t>Linux 'uniq'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = prefix lines with number of occurrences</t>
+    </r>
+  </si>
+  <si>
+    <t>uniq -c</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">report or omit repeated lines
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with no options, matching lines are merged to the first occerrence</t>
+    </r>
+  </si>
+  <si>
+    <t>displays the number of occurences of a value before the value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = sort according to numerical value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = reverse the sort</t>
+    </r>
+  </si>
+  <si>
+    <t>sort -n</t>
+  </si>
+  <si>
+    <t>sort -r</t>
+  </si>
+  <si>
+    <t>sorts according to the first numeric value in the line</t>
+  </si>
+  <si>
+    <t>takes the sorted results and reverses the sorting</t>
+  </si>
+  <si>
+    <t>Linux 'head'</t>
+  </si>
+  <si>
+    <t>output the first part of files</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = print the first &lt;n&gt; number of lines</t>
+    </r>
+  </si>
+  <si>
+    <t>head -n 5</t>
+  </si>
+  <si>
+    <t>head will display the first 5 lines</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-n -&lt;n&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = print all but the last &lt;n&gt; number of lines</t>
+    </r>
+  </si>
+  <si>
+    <t>head -n -5</t>
+  </si>
+  <si>
+    <t>head will display all BUT the last 5 lines</t>
+  </si>
+  <si>
+    <t>Linux 'cut'</t>
+  </si>
+  <si>
+    <t>remove sections from each line of a file</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-f &lt;n&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = select only these fields</t>
+    </r>
+  </si>
+  <si>
+    <t>cut -f 1-4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-d &lt;symbol&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = specify a delimiter</t>
+    </r>
+  </si>
+  <si>
+    <t>cut -f 1-4 -d "."</t>
+  </si>
+  <si>
+    <t>tells 'cut' to remove everything BUT  fields 1-4, but you must specify a delimiter</t>
+  </si>
+  <si>
+    <t>tells 'cut' to remove everything BUT fields 1-4, with a period as the delimiter</t>
+  </si>
+  <si>
+    <t>Linux tcpdump</t>
+  </si>
+  <si>
+    <t>tool used to capture &amp; read network traffic</t>
+  </si>
+  <si>
+    <t>sudo tcpdump -w testFile.pcap</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">grabs network traffic from default network interface and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>writes</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> what it captures to a file called 'testFile.pcap'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> contents of a traffic capture file</t>
+    </r>
+  </si>
+  <si>
+    <t>tcpdump -r testFile.pcap</t>
+  </si>
+  <si>
+    <t>reads the contents of a packet capture file and displays it</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the number of packets captured and stop once a specified number of packets are captured</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo tcpdump -c 20</t>
+  </si>
+  <si>
+    <t>standard items reported on every capture:</t>
+  </si>
+  <si>
+    <t>packets captured</t>
+  </si>
+  <si>
+    <t>the number of packets actually captured by tcpdump</t>
+  </si>
+  <si>
+    <t>normally the number of packets that the filter actually obtained, 
+but this can vary by OS</t>
+  </si>
+  <si>
+    <t>packets received by filter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>standard packet timestamp:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>packets dropped by kernel</t>
+  </si>
+  <si>
+    <t>packets dropped due to a lack of buffer space, but packets can also be dropped/reported by this number due a other reasons which will vary by OS</t>
+  </si>
+  <si>
+    <t>Hrs : Mins : Seconds : Fractions/second</t>
+  </si>
+  <si>
+    <t>(since midnight)</t>
+  </si>
+  <si>
+    <t>sudo tcpdump -A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = set </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buffer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> size</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo tcpdump -B 4096</t>
+  </si>
+  <si>
+    <r>
+      <t>captures &amp; prints each packet but does so with a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4 MiB buffer</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, instead of the default 2 MiB buffer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">use case: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">you may need to ingest a large number of packets very quickly via tcpdump, and you may need to tweak the default buffer size to catch up if you see many dropped packets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> numbers are in KiB (kilobytes), so if you specify '-B 1', you are setting the buffer to 1 KiB (or 1 KB)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '4096' is 4 MiB, or 4 MB
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>captures &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prints each packet in ASCII</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> encoding
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does not print layer 2/Data Link layer headers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>captures the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> first 20 network packets</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it sees and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>then automatically stops capturing packets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = print in packet in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASCII</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> encoding</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = only show the number of packets captured</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo tcpdump --count</t>
+  </si>
+  <si>
+    <t>captures network packets but instead of displaying the packets, it only shows the number of packets captured</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-C &lt;number&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = capture &lt;number&gt; of MB before rolling over to a new capture file</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo tcpdump -C 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">captures </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 MB of traffic before closing the current file and opening a new one</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to begin writing to
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use case:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you have a large amoung of network traffic you need to capture but are limited on the capture file size you can work with
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;number&gt; is the number of MB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tcpdump must have permissions to write to directory
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldb</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = load byte 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldh</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = load half word (2-bytes - 32-bit architecture)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jeq</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = jump if equals specified value
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ret</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = return specified value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[23]</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = starting at offset 23 into the raw packet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[12]</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = starting at offset 12 into the raw packet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">jt </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= jump if true
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jf</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = jump if false
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jt 2  jf 4</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = jump to instruction (002) if true, but jump to instruction (004) if false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(000)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = instruction '0' of command
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(001)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = instruction '1' of command
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(002) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= instruction '2' of command
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(003)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = instruction '3' of command</t>
+    </r>
+  </si>
+  <si>
+    <t>tcpdump -d tcp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">displays the Berkely Packet Filter (BPF) filter instruction set for filtering on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'tcp'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> traffic
+Essentially the '-d' option</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> displays the filtering logic</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that is given to the computer by tcpdump</t>
+    </r>
+  </si>
+  <si>
+    <t>tcpdump -D</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = displays the mac addresses for each packet/frame</t>
+    </r>
+  </si>
+  <si>
+    <t>tcpdump -e</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tells tcpdump to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list interfaces</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> available to capture traffic on. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if you don't specificy which interface to listen on when running tcpdump, it will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default to number 1 on this list</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> also shows their status and a short description</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the available </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interfaces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to capture on</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dump)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BPF filtering logic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instructions being handed to the computer by your tcpdump command</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = use file for filter expression</t>
+    </r>
+  </si>
+  <si>
+    <t>tcpdump -F fileWithFilter</t>
+  </si>
+  <si>
+    <t>runs tcpdump and prints the data-link layer (OSI layer 2) frame header for each packet. This essentially shows the MAC address for each packet.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">runs tcpdump, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>utilizing</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the contents of the file </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'fileWithFilter' as the filter expression</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use case:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you have a complex tcpdump filter such as BPF that you want to run from time to time, but you don't want to type out the complex filter each time</t>
+    </r>
+  </si>
+  <si>
+    <t>tcpdump -G 10 -w %b-%d_%H:%M:%S_captureFile</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-G &lt;n&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = rotate capture file every &lt;n&gt; seconds</t>
+    </r>
+  </si>
+  <si>
+    <t>tcpdump -h</t>
+  </si>
+  <si>
+    <t>prints a brief help message. 
+help message contains the tcpdump version, libpcap version, and OpenSSL version, as we as a quick guide to tcpdump options</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = prints a brief help message</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;fileName&gt; = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>write</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> traffic capture to a file</t>
+    </r>
+  </si>
+  <si>
+    <t>%b = abbreviated month (e.g. Aug)
+%d = day of month as decimal (e.g. 12)
+%H = hour as decimal using 24-hr clock
+%M = minute as decimal number
+%S = second as a decimal number</t>
+  </si>
+  <si>
+    <t>tcpdump --version</t>
+  </si>
+  <si>
+    <t>prints the tcpdump and libpcap versions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = prints the tcpdump and libpcap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>versions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;name&gt; = specify the interface you wish to listen on </t>
+    </r>
+  </si>
+  <si>
+    <t>tcpdump -i eth0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">runs tcpdump and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listens</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for network traffic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eth0</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' interface only.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if no interface is specified, tcpdump will use the lowest numbered, active (up) interface</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>runs tcpdump and creates a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> new file every 10 seconds</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, writing the captured packets to a new file each time, printing the time stamp at the beginning of the file name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-w</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = write packets to a file
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if you do not specify a timestamp with strftime, tcpdump will overwrite the previous filename with the new filename every &lt;n&gt; seconds
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">%b-%d_%H:%M:%S </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= time stamp in strftime</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap 192.168.56.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nmap scans the IP address '192.168.56.108'
+</t>
+  </si>
+  <si>
+    <t>nmap 192.168.56.0/24</t>
+  </si>
+  <si>
+    <r>
+      <t>nmap</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> scans the '192.168.56.0/24' subnet</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+(192.168.1.0 - 255 range)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap 192.168.56.100-110 --excludefile excludeList.txt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--exludefile &lt;file name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = skip scanning a list of IPs found in a file </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>never</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> perform (reverse) DNS lookup on active IP addresses found</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap -n 192.168.56.100-110</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-R </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= always perform (reverse) DNS lookup on on target IP addresses</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap -R 192.168.56.100-110</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scans the '192.168.1.1-100' range, skipping the '192.168.1.2-5' range</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use case:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you need to nmap a range of IPs but also need to avoid scanning sensitive servers
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scans the '192.168.56.100-110' range, skipping the IP(s) found in the 'excludeList.txt' file</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use case:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you need to nmap a range of IPs but also need to avoid scanning sensitive servers, and you don't want to manually type in the 'no-scan' range every time you run a scan
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scans the '192.168.56.100-110' range, and does not attempt to resolve the hostname of any active IP address found.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">use case: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>when scanning a large amount of IP addresses, utilizing the '-n' option can speed up scanning time significantly. Additionally, less traffic is created on the network.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">scans the '192.168.56.100-110' range, and attempts to resolve the hostname of ALL IP addresses that it scans
+note: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">normally reverse DNS is only performed against responsive (online) hosts. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--resolve-all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= if specified hostname resolves to more than one IP address, scan all of them</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap --resolve-all DNS-LinuxMint.asap.com</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scans the host 'DNS-LinuxMint.asap.com' and if the hostname resolves to more than one IP address, scan all of them</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the default behavior is to only scan the first IP address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--unique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = scan each IP only once</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap --unique nmap 192.168.56.100-110 192.168.56.108-111</t>
+  </si>
+  <si>
+    <r>
+      <t>nmap</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> scans both the *.100-110 range AND the *.108-111 range, and avoid scanning the same IP twice, despite the ranges overlapping
+use case: if </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>there are a lot of overlapping IP addresses in the ranges you give nmap, but you don't want to scan the same IP multiple times, and you don't want to see the scan results for the same IP multiple times either</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--dns-servers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = specify the dns server(s) that you wish to use for name resolution</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap --dns-servers 192.168.56.108 192.168.56.105-110</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scans the '192.168.56.105-110' range, using the '192.168.56.108' host as the DNS resolver</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">note: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by default nmap will use the DNS server from your /etc/resolv.conf file (unix) or registry (windows)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-sL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = list scan, lists hosts by querying DNS</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap -sL 192.168.56.100-110</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>queries DNS for the hostnames in the '192.168.56.100-110' range</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (this is called a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reverse DNS lookup</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">use case: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">perform a quick scan to ensure that the IP ranges you're scanning have the expected domain name attached to them
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">note: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this scan cannot be combined with other options as it querys DNS, it doesn't query the actual hosts</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HOST DISCOVERY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if no host discovery options are specified, and you're a privileged user, then by default nmap will send an ICMP echo request, a TCP SYN packet to port 443,  a TCP ACK packet to port 80, and an ICMP timestamp request
+If no host discovery options are specified, and you're an UNprivileged user, then by default nmap will send a SYN packet to ports 80 and 443
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all host discovery scans are sometimes referred to as 'ping scans'</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18817,8 +22323,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18831,8 +22344,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -18840,12 +22359,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -18951,8 +22519,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -18962,6 +22593,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19284,24 +22933,24 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -19312,7 +22961,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -19323,7 +22972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -19334,7 +22983,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
@@ -19345,7 +22994,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>82</v>
       </c>
@@ -19356,7 +23005,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -19367,7 +23016,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -19378,7 +23027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>81</v>
       </c>
@@ -19389,7 +23038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>170</v>
       </c>
@@ -19400,7 +23049,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>169</v>
       </c>
@@ -19411,7 +23060,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>167</v>
       </c>
@@ -19422,7 +23071,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>168</v>
       </c>
@@ -19433,7 +23082,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -19444,7 +23093,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>80</v>
       </c>
@@ -19455,7 +23104,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>79</v>
       </c>
@@ -19466,7 +23115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -19480,6 +23129,251 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43823669-EFD8-43EB-A359-D7480668BEF6}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="38"/>
+    </row>
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052E72CA-1731-48AE-9B7E-B9E8A0144CA6}">
+  <dimension ref="A3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>435</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3784FF0-F038-40BE-B11F-87E1438AD14B}">
+  <dimension ref="A3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70DB8B6-5F67-4869-98C0-42C5D9956483}">
+  <dimension ref="A3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49969255-3A5B-4747-B20A-C7D337DB7232}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -19491,21 +23385,21 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.44140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="63.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -19515,7 +23409,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -19526,7 +23420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -19538,7 +23432,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>87</v>
       </c>
@@ -19550,7 +23444,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>269</v>
       </c>
@@ -19562,7 +23456,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -19574,7 +23468,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>264</v>
       </c>
@@ -19586,7 +23480,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -19598,7 +23492,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -19610,7 +23504,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>275</v>
       </c>
@@ -19622,7 +23516,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -19634,7 +23528,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>218</v>
       </c>
@@ -19646,7 +23540,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -19658,7 +23552,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -19670,7 +23564,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -19682,7 +23576,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -19694,7 +23588,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>224</v>
       </c>
@@ -19706,7 +23600,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -19718,7 +23612,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -19729,7 +23623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>322</v>
       </c>
@@ -19738,7 +23632,7 @@
       </c>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>227</v>
       </c>
@@ -19750,7 +23644,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>229</v>
       </c>
@@ -19762,7 +23656,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>231</v>
       </c>
@@ -19774,7 +23668,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -19785,7 +23679,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -19806,37 +23700,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7E7EB8-4E18-4D64-AC42-D83D365B21CF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -19847,7 +23741,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -19858,7 +23752,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>104</v>
       </c>
@@ -19869,7 +23763,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>89</v>
       </c>
@@ -19883,7 +23777,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>119</v>
       </c>
@@ -19894,7 +23788,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>90</v>
       </c>
@@ -19905,7 +23799,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>92</v>
       </c>
@@ -19916,7 +23810,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>93</v>
       </c>
@@ -19927,7 +23821,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
@@ -19938,7 +23832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
@@ -19949,7 +23843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>99</v>
       </c>
@@ -19960,7 +23854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>103</v>
       </c>
@@ -19971,7 +23865,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>101</v>
       </c>
@@ -19982,7 +23876,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>196</v>
       </c>
@@ -19993,7 +23887,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -20004,7 +23898,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>203</v>
       </c>
@@ -20015,7 +23909,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -20026,7 +23920,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>108</v>
       </c>
@@ -20037,7 +23931,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>109</v>
       </c>
@@ -20048,7 +23942,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
@@ -20059,7 +23953,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>112</v>
       </c>
@@ -20070,7 +23964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>111</v>
       </c>
@@ -20081,7 +23975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>113</v>
       </c>
@@ -20092,7 +23986,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>114</v>
       </c>
@@ -20103,7 +23997,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
@@ -20114,7 +24008,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -20125,7 +24019,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -20136,7 +24030,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -20147,7 +24041,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>253</v>
       </c>
@@ -20168,40 +24062,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA3776D-D7ED-43EF-93A0-E7F7C2F14453}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C1:C1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -20212,7 +24106,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
@@ -20223,7 +24117,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>136</v>
       </c>
@@ -20234,7 +24128,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>139</v>
       </c>
@@ -20245,7 +24139,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>140</v>
       </c>
@@ -20256,7 +24150,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>142</v>
       </c>
@@ -20267,7 +24161,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>151</v>
       </c>
@@ -20278,7 +24172,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>152</v>
       </c>
@@ -20289,7 +24183,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>156</v>
       </c>
@@ -20300,7 +24194,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
@@ -20311,7 +24205,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>166</v>
       </c>
@@ -20322,7 +24216,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
@@ -20333,7 +24227,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>177</v>
       </c>
@@ -20344,7 +24238,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>178</v>
       </c>
@@ -20355,7 +24249,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>181</v>
       </c>
@@ -20366,7 +24260,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -20377,7 +24271,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>150</v>
       </c>
@@ -20388,7 +24282,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>183</v>
       </c>
@@ -20399,7 +24293,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>67</v>
       </c>
@@ -20410,7 +24304,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>186</v>
       </c>
@@ -20421,7 +24315,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>232</v>
       </c>
@@ -20432,7 +24326,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>234</v>
       </c>
@@ -20443,7 +24337,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>236</v>
       </c>
@@ -20454,7 +24348,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>240</v>
       </c>
@@ -20465,7 +24359,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>242</v>
       </c>
@@ -20476,7 +24370,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>245</v>
       </c>
@@ -20487,7 +24381,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>247</v>
       </c>
@@ -20498,7 +24392,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>251</v>
       </c>
@@ -20509,7 +24403,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>148</v>
       </c>
@@ -20520,7 +24414,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>148</v>
       </c>
@@ -20531,7 +24425,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>79</v>
       </c>
@@ -20542,7 +24436,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>253</v>
       </c>
@@ -20553,49 +24447,49 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="17"/>
       <c r="C37" s="14"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="17"/>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="17"/>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="17"/>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="17"/>
       <c r="C41" s="14"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
     </row>
@@ -20610,27 +24504,27 @@
   <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>291</v>
       </c>
@@ -20638,7 +24532,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>292</v>
       </c>
@@ -20646,17 +24540,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>295</v>
       </c>
@@ -20667,7 +24561,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="31" t="s">
         <v>308</v>
       </c>
@@ -20685,52 +24579,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CADC5F-634D-400C-ABA1-AB65FF79E0C8}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="48.88671875" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="28"/>
+    <col min="1" max="1" width="30.28515625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="60"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
     </row>
-    <row r="5" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="62"/>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>345</v>
       </c>
@@ -20741,7 +24635,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>348</v>
       </c>
@@ -20752,7 +24646,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>349</v>
       </c>
@@ -20763,7 +24657,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>351</v>
       </c>
@@ -20774,7 +24668,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>372</v>
       </c>
@@ -20783,14 +24677,14 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>314</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>312</v>
       </c>
@@ -20801,7 +24695,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>353</v>
       </c>
@@ -20812,7 +24706,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>352</v>
       </c>
@@ -20823,7 +24717,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>355</v>
       </c>
@@ -20834,7 +24728,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>389</v>
       </c>
@@ -20845,7 +24739,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>369</v>
       </c>
@@ -20856,178 +24750,178 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>377</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
         <v>378</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
         <v>379</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>380</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>381</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>382</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>383</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>384</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>385</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>386</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>387</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>374</v>
       </c>
@@ -21063,60 +24957,60 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -21133,13 +25027,641 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CA5D01-23B3-4C7E-BD8A-4D98763B8D82}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA360FF1-729B-4CB9-8806-B5900E621FE8}">
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:4" s="28" customFormat="1" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
+      <c r="B9" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
+      <c r="B10" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="65"/>
+      <c r="B16" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="65"/>
+      <c r="B17" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="65"/>
+      <c r="B20" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
+      <c r="B21" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+      <c r="B22" s="56" t="s">
+        <v>534</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>535</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>541</v>
+      </c>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E27:M27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866F71F-38C4-486B-B894-DFD9311F2D3F}">
+  <dimension ref="A3:G27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="27" customWidth="1"/>
+    <col min="6" max="7" width="40.7109375" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>478</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -1,44 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\Desktop\Cmd Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blueorigins-my.sharepoint.us/personal/thoyle_blueorigin_com/Documents/cmd spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23E56B2-142B-4361-A249-E331FD5848AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{FB0CBD0E-D21F-4DB0-AEBF-968D4B2CDF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F053822-DE40-45CD-9979-B5EAF47A5F41}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
     <sheet name="grep" sheetId="2" r:id="rId2"/>
     <sheet name="find" sheetId="3" r:id="rId3"/>
     <sheet name="tree" sheetId="4" r:id="rId4"/>
-    <sheet name="touch" sheetId="6" r:id="rId5"/>
-    <sheet name="vi" sheetId="5" r:id="rId6"/>
-    <sheet name="shells" sheetId="8" r:id="rId7"/>
-    <sheet name="nmap" sheetId="9" r:id="rId8"/>
-    <sheet name="tcpdump" sheetId="15" r:id="rId9"/>
-    <sheet name="awk" sheetId="10" r:id="rId10"/>
-    <sheet name="sort" sheetId="11" r:id="rId11"/>
-    <sheet name="head" sheetId="13" r:id="rId12"/>
-    <sheet name="cut" sheetId="14" r:id="rId13"/>
-    <sheet name="uniq" sheetId="12" r:id="rId14"/>
+    <sheet name="ss" sheetId="16" r:id="rId5"/>
+    <sheet name="git" sheetId="18" r:id="rId6"/>
+    <sheet name="mv" sheetId="17" r:id="rId7"/>
+    <sheet name="touch" sheetId="6" r:id="rId8"/>
+    <sheet name="vi" sheetId="5" r:id="rId9"/>
+    <sheet name="shells" sheetId="8" r:id="rId10"/>
+    <sheet name="nmap" sheetId="9" r:id="rId11"/>
+    <sheet name="tcpdump" sheetId="15" r:id="rId12"/>
+    <sheet name="awk" sheetId="10" r:id="rId13"/>
+    <sheet name="sort" sheetId="11" r:id="rId14"/>
+    <sheet name="head" sheetId="13" r:id="rId15"/>
+    <sheet name="cut" sheetId="14" r:id="rId16"/>
+    <sheet name="uniq" sheetId="12" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="625">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -21330,104 +21344,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">runs tcpdump and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>listens</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for network traffic </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>on</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eth0</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">' interface only.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>note:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> if no interface is specified, tcpdump will use the lowest numbered, active (up) interface</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>runs tcpdump and creates a</t>
     </r>
     <r>
@@ -21958,35 +21874,6 @@
   </si>
   <si>
     <r>
-      <t>nmap</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> scans both the *.100-110 range AND the *.108-111 range, and avoid scanning the same IP twice, despite the ranges overlapping
-use case: if </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>there are a lot of overlapping IP addresses in the ranges you give nmap, but you don't want to scan the same IP multiple times, and you don't want to see the scan results for the same IP multiple times either</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -22064,129 +21951,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-sL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = list scan, lists hosts by querying DNS</t>
-    </r>
-  </si>
-  <si>
     <t>nmap -sL 192.168.56.100-110</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nmap </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>queries DNS for the hostnames in the '192.168.56.100-110' range</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (this is called a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reverse DNS lookup</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">use case: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">perform a quick scan to ensure that the IP ranges you're scanning have the expected domain name attached to them
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">note: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>this scan cannot be combined with other options as it querys DNS, it doesn't query the actual hosts</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">
@@ -22259,6 +22024,2917 @@
       </rPr>
       <t>all host discovery scans are sometimes referred to as 'ping scans'</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-sL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list scan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, lists hosts by querying DNS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-sn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= no port scan</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap -sn 192.168.56.100-110</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>queries DNS for the hostnames in the '192.168.56.100-110' range</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (this is called a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reverse DNS lookup</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">use case: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">perform a quick scan to ensure that the IP ranges you're scanning have the expected domain name attached to them
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">note: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">this scan cannot be combined with other options as it querys DNS, and not the actual hosts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> probably the least 'intrusive' nmap scan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Pn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = no ping, skips scanning for live hosts</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap -Pn &lt;options&gt; 192.168.56.108-109</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scans hostnames in the '192.168.56.108-109' range and does NOT attempt to see if the hosts are up before performing the requested scans</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use case:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you want to perform an in-depth scan on a host or hosts and you want to skip the host discovery portion of the scan because you know they are up and alive
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be careful not to waste time performing in-depth scans on hosts that are not alive</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nmap</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> scans hostnames in the '192.168.56.100-110' range and skips port scanning the live hosts, only printing the list of live hosts
+note: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this is known as a 'ping scan' or 'ping sweep'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+note: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">one step more intrusive than the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'list scan'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (above), and is more reliable than pinging the broadcast address since many hosts do not respond to broadcast queries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nmap</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> scans both the *.100-110 range AND the *.108-111 range, and avoid scanning the same IP twice, despite the ranges overlapping
+use case: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>there are a lot of overlapping IP addresses in the ranges you give nmap, but you don't want to scan the same IP multiple times, and you don't want to see the scan results for the same IP multiple times either</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-PS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= port list, sends empty TCP packet with SYN flag</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if no port is specified, defaults to destination port 80</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap -PS22-25,80,8080 192.168.56.108-110</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">runs tcpdump and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listens</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for network traffic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eth0</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' interface only.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if no interface is specified, tcpdump will use the lowest numbered, active (up) interface
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it can be helpful to run 'tcpdump -D' first to see what interfaces are available for you to use</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = do not translate IP addresses to hostnames</t>
+    </r>
+  </si>
+  <si>
+    <t>Linux cmd 'ss'</t>
+  </si>
+  <si>
+    <t>Socket Statistics; similar to old netstat command, it displays information about sockets on you machine
+socket = IP + port (e.g. 192.168.56.100:80)</t>
+  </si>
+  <si>
+    <t>ss [options] [filter]</t>
+  </si>
+  <si>
+    <t>Linux cmd 'mv'</t>
+  </si>
+  <si>
+    <t>rename -or- move file(s)</t>
+  </si>
+  <si>
+    <t>mv [option] SOURCE DESTINATION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--backup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = backup each existing destination file</t>
+    </r>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = help; show summary of options</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -h</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-h</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show help</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = version; show ss version info</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -V</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-V</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show ss version info</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; don't show the header line</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = display connected </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sockets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that weren't listening</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -H</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-H</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = no header, don't show the header line in the results</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = print output on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> line per socket</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -o</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= do not try to resolve service </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>names</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -n</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-n</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = do not try to resolve service names. (e.g. will display '22' instead of 'ssh')</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -r</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resolve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> numeric address/ports</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-r</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = resolve IPs/ports (e.g. will display 'hostname:ssh' instead of 'IPAddress:22'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = display </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sockets, i.e. listening/non-listening</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = displays </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sockets (Listening, Unconnected, Established etc)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-l </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= display only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sockets</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -l</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-l</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = display only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listening</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sockets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-O</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = print each socket's output on one line</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show timer information</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -ot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-o</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show timer information
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show only tcp sockets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>format:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> timer: (&lt;timerName&gt;,&lt;expireTime&gt;,&lt;retrans&gt;)
+'timer: (keepalive,20min,0)'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keepalive</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = how long the connection is idle before a TCP keepalive packet is sent to the node
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20min</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = how long before the keepalive packet is sent
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>retrans</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = number of times the sender has not received and ACK packet for their transmission and has had to retransmit the unacknowledged packets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extended</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; shows detailed socket information</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -etl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-e</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = extended; display detailed socket information
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tcp</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> packets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-l</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = only display </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listening</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sockets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>format</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: uid: &lt;number&gt; ino:&lt;number&gt; sk:&lt;cookie&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uid</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user ID</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the socket belongs to
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ino</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = the socket's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inode</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> number in VFS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = the uuid of the socket</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: view all unames/uids with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'cut -d: -f1,3 /etc/passwd'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inode</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: index node; inode stores the attributes of objects like files/folders. The attributes of an object an inode stores includes block locations on hard disk, times of last change, access and modification times, etc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VFS</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Virtual File System; and absract layer on top of actual file systems that allows client applications to access different types of filesystems in a uniform way.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+uuid: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Universally Unique Identifier; a hexadecimal ID that is absolutely unique throughout your whole system</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show socket </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> usage</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -mtl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-m</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> usage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tcp</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> packets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-l</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = only display </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listening</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sockets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>format:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> skmem: (r&lt;mem_alloc&gt;,rb&lt;rcv_buff&gt;,t&lt;wmem_alloc&gt;,tb&lt;snd_buff&gt;,f&lt;fwd_alloc&gt;,w&lt;wmem_queued&gt;,o&lt;opt_mem&gt;,bl&lt;back_log&gt;,d&lt;sock_drop&gt;)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r&lt;mem_alloc&gt;:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> memory allocated for receiving the packet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rb&lt;rcv_buff&gt;:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> total memory that can be allocated for receiving packets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t&lt;wmem_alloc&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transmit memory; memory used for sending packet (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>write</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> memory)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tb&lt;snd_buff&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">transmit buffer; total memory that can be allocated for sending packet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f&lt;fwd_alloc&gt;:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> allocated memory that will be, but is not yet, used for sending/receiving packets if needed 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">w&lt;mem_queued&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">memory allocated packets being staged (queued) for sending
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">o&lt;opt_mem&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">memory used for storing socket options e.g. TCP MD5 signature and probably other administrative socket needs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bl&lt;back_log&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">receiving backlog queue, if a process is currently receiving a packet, and a new packet arrives, the new packet will be placed in the backlog queue
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d&lt;sock_drop&gt;:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> number of packets dropped before they are demultiplexed into the socket. This happens when the kernel is not able to read packets from the network card fast enough for some reason: https://unix.stackexchange.com/questions/264951/does-proc-net-udp-count-all-drops-that-occur-between-ethernet-plug-and-my-app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> delivering transport layer segments to the correct socket is called 'demultiplexing' </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using socket</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -p</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-p</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show the process using the socket</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show internal TCP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>information</t>
+    </r>
+  </si>
+  <si>
+    <t>ss -i</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-i</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show internal TCP information</t>
+    </r>
+  </si>
+  <si>
+    <t>git commands</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>git version</t>
+  </si>
+  <si>
+    <t>displays the installed version of git</t>
+  </si>
+  <si>
+    <t>bash</t>
+  </si>
+  <si>
+    <t>git bash</t>
+  </si>
+  <si>
+    <t>starts up the git console</t>
+  </si>
+  <si>
+    <t>--global user.name</t>
+  </si>
+  <si>
+    <t>git config --global user.name &lt;user_name&gt;</t>
+  </si>
+  <si>
+    <t>sets your username for the '--global' context</t>
+  </si>
+  <si>
+    <t>--global user.name &lt;user_name&gt;</t>
+  </si>
+  <si>
+    <t>git config --global user.name</t>
+  </si>
+  <si>
+    <t>query the user name for the '--global' context</t>
+  </si>
+  <si>
+    <t>--global user.email</t>
+  </si>
+  <si>
+    <t>--global user.email &lt;user_emailAddress&gt;</t>
+  </si>
+  <si>
+    <t>git config --global user.email &lt;user_emailAddress&gt;</t>
+  </si>
+  <si>
+    <t>git config --global user.email</t>
+  </si>
+  <si>
+    <t>query the user email for the '--global' context</t>
+  </si>
+  <si>
+    <t>sets your user email for the '--global' context</t>
+  </si>
+  <si>
+    <t>log &lt;file_name&gt;</t>
+  </si>
+  <si>
+    <t>git log &lt;file_name&gt;</t>
+  </si>
+  <si>
+    <t>shows the change history for a file</t>
   </si>
 </sst>
 </file>
@@ -22413,7 +25089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -22583,6 +25259,42 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -22602,15 +25314,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -22933,24 +25636,24 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -22961,7 +25664,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -22972,7 +25675,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -22983,7 +25686,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
@@ -22994,7 +25697,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>82</v>
       </c>
@@ -23005,7 +25708,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -23016,7 +25719,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -23027,7 +25730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>81</v>
       </c>
@@ -23038,7 +25741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>170</v>
       </c>
@@ -23049,7 +25752,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>169</v>
       </c>
@@ -23060,7 +25763,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>167</v>
       </c>
@@ -23071,7 +25774,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>168</v>
       </c>
@@ -23082,7 +25785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -23093,7 +25796,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>80</v>
       </c>
@@ -23104,7 +25807,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>79</v>
       </c>
@@ -23115,7 +25818,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -23133,6 +25836,797 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D27781-00F8-4FFB-93E0-B673FC3983D4}">
+  <dimension ref="B3:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.90625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="27" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="27" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="75" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA360FF1-729B-4CB9-8806-B5900E621FE8}">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.54296875" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:4" s="28" customFormat="1" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3"/>
+      <c r="C3" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="76" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="76"/>
+      <c r="B9" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="76"/>
+      <c r="B10" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="76"/>
+      <c r="B11" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="76"/>
+      <c r="B12" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="77"/>
+      <c r="B16" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="77"/>
+      <c r="B17" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+      <c r="A18" s="77"/>
+      <c r="B18" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="77"/>
+      <c r="B20" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="77"/>
+      <c r="B21" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="77"/>
+      <c r="B22" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>533</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="51"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>537</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+    </row>
+    <row r="27" spans="1:16" s="28" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" ht="116" x14ac:dyDescent="0.35">
+      <c r="B28" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="E26:M26"/>
+    <mergeCell ref="E27:M27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866F71F-38C4-486B-B894-DFD9311F2D3F}">
+  <dimension ref="A3:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" style="66"/>
+    <col min="2" max="2" width="43.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6328125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="42.36328125" style="27" customWidth="1"/>
+    <col min="7" max="8" width="40.6328125" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="43" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="39" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="2:8" ht="115.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="46" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:8" ht="101" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="2:8" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="B22" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>550</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="66"/>
+      <c r="B23" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="66"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="66"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B26" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="66"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="66"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B29" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B30" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43823669-EFD8-43EB-A359-D7480668BEF6}">
   <dimension ref="A3:C6"/>
   <sheetViews>
@@ -23140,26 +26634,26 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="16.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.6328125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="27"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="43" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="39" t="s">
         <v>419</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
         <v>420</v>
       </c>
@@ -23176,7 +26670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052E72CA-1731-48AE-9B7E-B9E8A0144CA6}">
   <dimension ref="A3:C7"/>
   <sheetViews>
@@ -23184,25 +26678,25 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="23.6328125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.6328125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="27"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="43" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="39" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>430</v>
       </c>
@@ -23213,7 +26707,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>431</v>
       </c>
@@ -23229,33 +26723,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3784FF0-F038-40BE-B11F-87E1438AD14B}">
   <dimension ref="A3:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="23.6328125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.6328125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="27"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="43" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="43" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>438</v>
       </c>
@@ -23266,7 +26760,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>441</v>
       </c>
@@ -23282,7 +26776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70DB8B6-5F67-4869-98C0-42C5D9956483}">
   <dimension ref="A3:C7"/>
   <sheetViews>
@@ -23290,25 +26784,25 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="1" width="23.6328125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="54.6328125" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="38"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="39" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>446</v>
       </c>
@@ -23319,7 +26813,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>448</v>
       </c>
@@ -23335,7 +26829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49969255-3A5B-4747-B20A-C7D337DB7232}">
   <dimension ref="A3:C6"/>
   <sheetViews>
@@ -23343,25 +26837,25 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="23.6328125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="43.6328125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.6328125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="27"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="43" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="39" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>426</v>
       </c>
@@ -23381,25 +26875,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B4C89-AE87-4187-8C18-5F20544A3D88}">
   <dimension ref="A3:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.453125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="63.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -23409,7 +26903,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -23420,7 +26914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -23432,7 +26926,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>87</v>
       </c>
@@ -23444,7 +26938,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>269</v>
       </c>
@@ -23456,7 +26950,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -23468,7 +26962,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>264</v>
       </c>
@@ -23480,7 +26974,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -23492,7 +26986,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -23504,7 +26998,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>275</v>
       </c>
@@ -23516,7 +27010,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -23528,7 +27022,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>218</v>
       </c>
@@ -23540,7 +27034,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -23552,7 +27046,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -23564,7 +27058,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -23576,7 +27070,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -23588,7 +27082,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>224</v>
       </c>
@@ -23600,7 +27094,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -23612,7 +27106,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -23623,7 +27117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>322</v>
       </c>
@@ -23632,7 +27126,7 @@
       </c>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>227</v>
       </c>
@@ -23644,7 +27138,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>229</v>
       </c>
@@ -23656,7 +27150,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>231</v>
       </c>
@@ -23668,7 +27162,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -23679,7 +27173,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -23700,37 +27194,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7E7EB8-4E18-4D64-AC42-D83D365B21CF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6328125" customWidth="1"/>
+    <col min="3" max="3" width="46.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -23741,7 +27235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -23752,7 +27246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>104</v>
       </c>
@@ -23763,7 +27257,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>89</v>
       </c>
@@ -23777,7 +27271,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="174" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>119</v>
       </c>
@@ -23788,7 +27282,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>90</v>
       </c>
@@ -23799,7 +27293,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>92</v>
       </c>
@@ -23810,7 +27304,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>93</v>
       </c>
@@ -23821,7 +27315,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
@@ -23832,7 +27326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
@@ -23843,7 +27337,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>99</v>
       </c>
@@ -23854,7 +27348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>103</v>
       </c>
@@ -23865,7 +27359,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>101</v>
       </c>
@@ -23876,7 +27370,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>196</v>
       </c>
@@ -23887,7 +27381,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -23898,7 +27392,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>203</v>
       </c>
@@ -23909,7 +27403,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -23920,7 +27414,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>108</v>
       </c>
@@ -23931,7 +27425,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>109</v>
       </c>
@@ -23942,7 +27436,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
@@ -23953,7 +27447,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>112</v>
       </c>
@@ -23964,7 +27458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>111</v>
       </c>
@@ -23975,7 +27469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>113</v>
       </c>
@@ -23986,7 +27480,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>114</v>
       </c>
@@ -23997,7 +27491,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
@@ -24008,7 +27502,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="174" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -24019,7 +27513,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -24030,7 +27524,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="203" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -24041,7 +27535,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
         <v>253</v>
       </c>
@@ -24066,36 +27560,36 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.90625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -24106,7 +27600,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
@@ -24117,7 +27611,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>136</v>
       </c>
@@ -24128,7 +27622,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>139</v>
       </c>
@@ -24139,7 +27633,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>140</v>
       </c>
@@ -24150,7 +27644,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>142</v>
       </c>
@@ -24161,7 +27655,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>151</v>
       </c>
@@ -24172,7 +27666,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>152</v>
       </c>
@@ -24183,7 +27677,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>156</v>
       </c>
@@ -24194,7 +27688,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
@@ -24205,7 +27699,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>166</v>
       </c>
@@ -24216,7 +27710,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
@@ -24227,7 +27721,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>177</v>
       </c>
@@ -24238,7 +27732,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>178</v>
       </c>
@@ -24249,7 +27743,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>181</v>
       </c>
@@ -24260,7 +27754,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -24271,7 +27765,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>150</v>
       </c>
@@ -24282,7 +27776,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>183</v>
       </c>
@@ -24293,7 +27787,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>67</v>
       </c>
@@ -24304,7 +27798,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>186</v>
       </c>
@@ -24315,7 +27809,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>232</v>
       </c>
@@ -24326,7 +27820,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>234</v>
       </c>
@@ -24337,7 +27831,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>236</v>
       </c>
@@ -24348,7 +27842,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>240</v>
       </c>
@@ -24359,7 +27853,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>242</v>
       </c>
@@ -24370,7 +27864,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>245</v>
       </c>
@@ -24381,7 +27875,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>247</v>
       </c>
@@ -24392,7 +27886,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>251</v>
       </c>
@@ -24403,7 +27897,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>148</v>
       </c>
@@ -24414,7 +27908,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>148</v>
       </c>
@@ -24425,7 +27919,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>79</v>
       </c>
@@ -24436,7 +27930,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="29" t="s">
         <v>253</v>
       </c>
@@ -24447,49 +27941,49 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="17"/>
       <c r="C37" s="14"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="17"/>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="17"/>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="12"/>
       <c r="B40" s="17"/>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="12"/>
       <c r="B41" s="17"/>
       <c r="C41" s="14"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
     </row>
@@ -24500,6 +27994,407 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8480C-E8CD-45AC-8F81-8D4ABFF602C5}">
+  <dimension ref="B2:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" style="28"/>
+    <col min="2" max="2" width="30.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.08984375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="52.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="34" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="C3" s="37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="37"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="64"/>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="64"/>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="145" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>592</v>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" spans="2:13" ht="232" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>596</v>
+      </c>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+    </row>
+    <row r="20" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:M19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="66"/>
+    <col min="2" max="3" width="43.6328125" style="66" customWidth="1"/>
+    <col min="4" max="4" width="53.6328125" style="66" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="43" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>605</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="68" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="68" t="s">
+        <v>610</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>614</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="68" t="s">
+        <v>617</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>618</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="68" t="s">
+        <v>616</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>619</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="43" t="s">
+        <v>622</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>624</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AC9E2A-F2F8-4B6A-A51F-5B422B308701}">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" style="61"/>
+    <col min="2" max="2" width="30.54296875" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.08984375" style="61" customWidth="1"/>
+    <col min="4" max="4" width="52.6328125" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="43" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="39" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="39"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="45"/>
+      <c r="C6" s="43"/>
+    </row>
+    <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="45"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="45"/>
+    </row>
+    <row r="10" spans="2:4" ht="101.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="45"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="62"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="63"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783B63B9-C5EF-4E1E-9ABB-91855341E3A8}">
   <dimension ref="A2:C10"/>
   <sheetViews>
@@ -24507,24 +28402,24 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>291</v>
       </c>
@@ -24532,7 +28427,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>292</v>
       </c>
@@ -24540,17 +28435,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>295</v>
       </c>
@@ -24561,7 +28456,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="31" t="s">
         <v>308</v>
       </c>
@@ -24575,7 +28470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CADC5F-634D-400C-ABA1-AB65FF79E0C8}">
   <dimension ref="A1:D48"/>
   <sheetViews>
@@ -24583,48 +28478,48 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="30.36328125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="46.90625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="48.90625" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="60"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="C2" s="72"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-    </row>
-    <row r="5" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+    </row>
+    <row r="5" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="62"/>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="74"/>
+    </row>
+    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
         <v>345</v>
       </c>
@@ -24635,7 +28530,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>348</v>
       </c>
@@ -24646,7 +28541,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>349</v>
       </c>
@@ -24657,7 +28552,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>351</v>
       </c>
@@ -24668,7 +28563,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>372</v>
       </c>
@@ -24677,14 +28572,14 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>314</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>312</v>
       </c>
@@ -24695,7 +28590,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
         <v>353</v>
       </c>
@@ -24706,7 +28601,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
         <v>352</v>
       </c>
@@ -24717,7 +28612,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>355</v>
       </c>
@@ -24728,7 +28623,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
         <v>389</v>
       </c>
@@ -24739,7 +28634,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>369</v>
       </c>
@@ -24750,178 +28645,178 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="71" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="71" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="71" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">
         <v>377</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="27" t="s">
         <v>378</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="27" t="s">
         <v>379</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="27" t="s">
         <v>380</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="27" t="s">
         <v>381</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="27" t="s">
         <v>382</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="27" t="s">
         <v>383</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="27" t="s">
         <v>384</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="27" t="s">
         <v>385</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
         <v>386</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="27" t="s">
         <v>387</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="28" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="28" t="s">
         <v>374</v>
       </c>
@@ -24947,721 +28842,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D27781-00F8-4FFB-93E0-B673FC3983D4}">
-  <dimension ref="B3:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="8.85546875" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="59" t="s">
-        <v>360</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="s">
-        <v>366</v>
-      </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA360FF1-729B-4CB9-8806-B5900E621FE8}">
-  <dimension ref="A1:P29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" style="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>414</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>396</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
-        <v>415</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>417</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>532</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="56" t="s">
-        <v>534</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>535</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="1:16" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>541</v>
-      </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E27:M27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866F71F-38C4-486B-B894-DFD9311F2D3F}">
-  <dimension ref="A3:G27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="27" customWidth="1"/>
-    <col min="6" max="7" width="40.7109375" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>461</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
-        <v>467</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>478</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" ht="100.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>513</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
-        <v>456</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
-        <v>509</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>507</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blueorigins-my.sharepoint.us/personal/thoyle_blueorigin_com/Documents/cmd spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{FB0CBD0E-D21F-4DB0-AEBF-968D4B2CDF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F053822-DE40-45CD-9979-B5EAF47A5F41}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919B333F-E02A-4255-9DF3-8E17562C49B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="9600" yWindow="4560" windowWidth="28800" windowHeight="15460" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="638">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -24874,48 +24874,30 @@
     <t>git commands</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>git version</t>
   </si>
   <si>
     <t>displays the installed version of git</t>
   </si>
   <si>
-    <t>bash</t>
-  </si>
-  <si>
     <t>git bash</t>
   </si>
   <si>
     <t>starts up the git console</t>
   </si>
   <si>
-    <t>--global user.name</t>
-  </si>
-  <si>
     <t>git config --global user.name &lt;user_name&gt;</t>
   </si>
   <si>
     <t>sets your username for the '--global' context</t>
   </si>
   <si>
-    <t>--global user.name &lt;user_name&gt;</t>
-  </si>
-  <si>
     <t>git config --global user.name</t>
   </si>
   <si>
     <t>query the user name for the '--global' context</t>
   </si>
   <si>
-    <t>--global user.email</t>
-  </si>
-  <si>
-    <t>--global user.email &lt;user_emailAddress&gt;</t>
-  </si>
-  <si>
     <t>git config --global user.email &lt;user_emailAddress&gt;</t>
   </si>
   <si>
@@ -24928,13 +24910,70 @@
     <t>sets your user email for the '--global' context</t>
   </si>
   <si>
-    <t>log &lt;file_name&gt;</t>
-  </si>
-  <si>
     <t>git log &lt;file_name&gt;</t>
   </si>
   <si>
     <t>shows the change history for a file</t>
+  </si>
+  <si>
+    <t>set user name, global context</t>
+  </si>
+  <si>
+    <t>query user name, global context</t>
+  </si>
+  <si>
+    <t>set user email, global context</t>
+  </si>
+  <si>
+    <t>check version</t>
+  </si>
+  <si>
+    <t>start git bash terminal</t>
+  </si>
+  <si>
+    <t>view file change history</t>
+  </si>
+  <si>
+    <t>SET UP</t>
+  </si>
+  <si>
+    <t>COMMON COMMANDS</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>selects all files in the folder for updating</t>
+  </si>
+  <si>
+    <t>select all files in folder for updating</t>
+  </si>
+  <si>
+    <t>git push origin main</t>
+  </si>
+  <si>
+    <t>pushes the files from the 'main' branch to GitHub repository</t>
+  </si>
+  <si>
+    <t>pull down GitHub repository to local folder</t>
+  </si>
+  <si>
+    <t>git clone &lt;url_of_your_repository&gt;</t>
+  </si>
+  <si>
+    <t>'clones' or pulls down your repository from GitHub to a local folder</t>
+  </si>
+  <si>
+    <t>save file changes to your local repository</t>
+  </si>
+  <si>
+    <t>push file changes to GitHub repository</t>
+  </si>
+  <si>
+    <t>git commit -m "&lt;message_about_changes&gt;"</t>
+  </si>
+  <si>
+    <t>saves file changes locally with a message about those changes</t>
   </si>
 </sst>
 </file>
@@ -25089,7 +25128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25282,7 +25321,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25849,12 +25909,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="82" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="27" t="s">
@@ -25862,11 +25922,11 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
@@ -25884,19 +25944,19 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="82" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="82" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -25977,7 +26037,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="83" t="s">
         <v>414</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -25991,7 +26051,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="76"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
       </c>
@@ -26003,7 +26063,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="76"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
       </c>
@@ -26015,7 +26075,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="76"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
       </c>
@@ -26027,7 +26087,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="76"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
       </c>
@@ -26048,7 +26108,7 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="84" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="52" t="s">
@@ -26062,7 +26122,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="77"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
       </c>
@@ -26074,7 +26134,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="77"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
       </c>
@@ -26086,7 +26146,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="87" x14ac:dyDescent="0.35">
-      <c r="A18" s="77"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
       </c>
@@ -26098,7 +26158,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="84" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -26112,7 +26172,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="77"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
       </c>
@@ -26124,7 +26184,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="77"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
       </c>
@@ -26136,7 +26196,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="77"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="56" t="s">
         <v>532</v>
       </c>
@@ -26186,17 +26246,17 @@
       <c r="D26" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="79" t="s">
         <v>537</v>
       </c>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -26211,15 +26271,15 @@
       <c r="D27" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -28159,14 +28219,14 @@
       <c r="D18" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="76" t="s">
         <v>592</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
     </row>
     <row r="19" spans="2:13" ht="232" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
@@ -28178,17 +28238,17 @@
       <c r="D19" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
     </row>
     <row r="20" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
@@ -28224,17 +28284,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="66"/>
     <col min="2" max="3" width="43.6328125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="53.6328125" style="66" customWidth="1"/>
+    <col min="4" max="4" width="56.36328125" style="66" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="66"/>
   </cols>
   <sheetData>
@@ -28243,81 +28303,135 @@
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="2:4" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="74" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="72" t="s">
+        <v>622</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="D5" s="65" t="s">
         <v>607</v>
       </c>
-      <c r="C4" s="43" t="s">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="72" t="s">
+        <v>621</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="73" t="s">
+        <v>618</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>608</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D7" s="65" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="43" t="s">
-        <v>604</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>605</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="68" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="73" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="73" t="s">
+        <v>620</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="73" t="s">
+        <v>619</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>613</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="68" t="s">
-        <v>610</v>
-      </c>
-      <c r="C7" s="43" t="s">
+      <c r="D10" s="65" t="s">
         <v>614</v>
       </c>
-      <c r="D7" s="65" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="68" t="s">
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="74" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="72" t="s">
+        <v>631</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="72" t="s">
+        <v>623</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>616</v>
+      </c>
+      <c r="D16" s="67" t="s">
         <v>617</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>618</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="68" t="s">
-        <v>616</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>619</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="43" t="s">
-        <v>622</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>623</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>624</v>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="66" t="s">
+        <v>628</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="71" t="s">
+        <v>634</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="66" t="s">
+        <v>635</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -28496,17 +28610,17 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="79" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="72"/>
+      <c r="C2" s="79"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="80" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20"/>
@@ -28514,10 +28628,10 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="81" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="81"/>
     </row>
     <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
@@ -28646,88 +28760,88 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="78" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="78" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="79" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="79" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="78" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="27" t="s">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\Linux-cmds-cheat-sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919B333F-E02A-4255-9DF3-8E17562C49B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07740D13-2D0F-4573-92C7-179B60DBF04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4560" windowWidth="28800" windowHeight="15460" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -22,37 +22,27 @@
     <sheet name="mv" sheetId="17" r:id="rId7"/>
     <sheet name="touch" sheetId="6" r:id="rId8"/>
     <sheet name="vi" sheetId="5" r:id="rId9"/>
-    <sheet name="shells" sheetId="8" r:id="rId10"/>
-    <sheet name="nmap" sheetId="9" r:id="rId11"/>
+    <sheet name="nmap" sheetId="20" r:id="rId10"/>
+    <sheet name="shells" sheetId="8" r:id="rId11"/>
     <sheet name="tcpdump" sheetId="15" r:id="rId12"/>
     <sheet name="awk" sheetId="10" r:id="rId13"/>
-    <sheet name="sort" sheetId="11" r:id="rId14"/>
-    <sheet name="head" sheetId="13" r:id="rId15"/>
-    <sheet name="cut" sheetId="14" r:id="rId16"/>
-    <sheet name="uniq" sheetId="12" r:id="rId17"/>
+    <sheet name="ufw" sheetId="21" r:id="rId14"/>
+    <sheet name="sort" sheetId="11" r:id="rId15"/>
+    <sheet name="head" sheetId="13" r:id="rId16"/>
+    <sheet name="cut" sheetId="14" r:id="rId17"/>
+    <sheet name="uniq" sheetId="12" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="707">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -22070,29 +22060,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-sn </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= no port scan</t>
-    </r>
-  </si>
-  <si>
     <t>nmap -sn 192.168.56.100-110</t>
   </si>
   <si>
@@ -22220,192 +22187,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Pn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = no ping, skips scanning for live hosts</t>
-    </r>
-  </si>
-  <si>
-    <t>nmap -Pn &lt;options&gt; 192.168.56.108-109</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">nmap </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>scans hostnames in the '192.168.56.108-109' range and does NOT attempt to see if the hosts are up before performing the requested scans</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>use case:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> you want to perform an in-depth scan on a host or hosts and you want to skip the host discovery portion of the scan because you know they are up and alive
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>note:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> be careful not to waste time performing in-depth scans on hosts that are not alive</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nmap</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> scans hostnames in the '192.168.56.100-110' range and skips port scanning the live hosts, only printing the list of live hosts
-note: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>this is known as a 'ping scan' or 'ping sweep'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-note: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">one step more intrusive than the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'list scan'</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (above), and is more reliable than pinging the broadcast address since many hosts do not respond to broadcast queries</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>nmap</t>
     </r>
     <r>
@@ -22455,55 +22236,6 @@
       </rPr>
       <t>there are a lot of overlapping IP addresses in the ranges you give nmap, but you don't want to scan the same IP multiple times, and you don't want to see the scan results for the same IP multiple times either</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-PS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= port list, sends empty TCP packet with SYN flag</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>note:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> if no port is specified, defaults to destination port 80</t>
-    </r>
-  </si>
-  <si>
-    <t>nmap -PS22-25,80,8080 192.168.56.108-110</t>
   </si>
   <si>
     <r>
@@ -24974,13 +24706,1793 @@
   </si>
   <si>
     <t>saves file changes locally with a message about those changes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-sn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= no port scan, skip default port scan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nmap</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> scans hostnames in the '192.168.56.100-110' range and skips port scanning the live hosts, only printing the list of live hosts
+note 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this is known as a 'ping scan' or 'ping sweep'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+note 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">one step more intrusive than the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'list scan'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (above), and is more reliable than pinging the broadcast address since many hosts do not respond to broadcast queries</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+note 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>port scanning will scan the top 1000 ports for each protocol requested (TCP and/or UDP). If not suppressed with '-sn', ping sweep will scan 1,000 ports be default</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Very loud!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: the 1,000 ports that a 'ping sweep/scan' will scan were arbitrarily selected by Gordon Lyon (nmap creator) as the top most used ports by protocol. He selected these ports after running a long series of tests on the open internet to find what ports (by protocol) are statistically open the most often </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Pn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = no ping scan, skip default scanning for live hosts</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap -Pn 192.168.56.108-109</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scans hostnames in the '192.168.56.108-109' range and does NOT attempt to see if the hosts are up before performing the default &amp; requested scans</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use case:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you want to perform an in-depth scan on a host or hosts and you want to skip the host discovery portion of the scan because you know they are up and alive
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If you give nmap a large IP range with the '-Pn' option set, you risk wasting a lot of time performing your default &amp; requested scans on hosts that are down. Be careful not to waste time performing in-depth scans on hosts that are not alive!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-PS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= port list, sends empty TCP packet with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SYN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flag</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap --disable-arp-ping -sn -PS22-25 192.168.56.109</t>
+  </si>
+  <si>
+    <r>
+      <t>nmap</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> scans ports 22-25 on 192.168.56.108 by sending a single SYN packet each specified port
+--disable-arp-ping</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = do not use default ARP scan in an attempt to discover locally connected hosts</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-sn = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">no port scan; do not perform regular port scan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-PS22-25</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = send ports 22-25 an empty SYN packet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use case:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you need to scan for live hosts but pings are blocked by the firewall. So you attempt to find live hosts/listening ports by sending TCP SYN packets to specific ports
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">note 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">must use '--disable-arp-ping' option or this scan will not run. '-sn' is used to suppress additional port scanning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">note 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TCP w/ SYN flag attempts to establish TCP connection. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+note 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if no port is specified, defaults to destination port 80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>observe with:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+sudo tcpdump -n -I any 'host 192.168.56.109 &amp;&amp; portrange 22-25'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>possible responses:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SYN/ACK:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> port is listening (i.e. open), and host is up
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RST/ACK: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">port is not listening (i.e. closed), but host is up
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">no response: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>firewall could be  blocking, or host could be down</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-PA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= port list, sends empty TCP packet with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flag</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo nmap --disable-arp-ping -sn -PA22 192.158.56.109</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scans 192.168.56.109 port 22</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TCP ACK</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> flag
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--disable-arp-ping</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = do not use default ARP scan in an attempt to discover locally connected hosts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-sn</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = no port scan; do not perform default port scan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-PA22 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= send port 22 an empty ACK packet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use case:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this scan is used to bypass stateful firewalls that are set to block SYN packets incoming from an outside network
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must use sudo</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or run as root or this scan will not run.
+Must use '-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-disable-arp-ping</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' option or this scan will not run. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'-sn</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' is used to suppress additional port scanning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TCP with ACK flag attempts to ACKnowledge data coming from a non-existent TCP connection, so live hosts will respond with a RST packet, signaling that they are alive</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>observe with:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+sudo tcpdump -n -i any 'host 192.168.56.109 &amp;&amp; port 22'
+possible responses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RST: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">host is alive, port could be open or closed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no response:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> firewall could be blocking, or host is not alive</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-PU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = port list, sends empty </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UDP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> packet to given ports</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo nmap --disable-arp-ping -sn -PU 192.168.56.109</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scans port 40125 with a UDP packet on the 192.168.56.109</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IP address. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--disable-arp-ping</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = do not use default ARP scan in an attempt to discover locally connected hosts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-sn </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= no port scan, do not perform default port scan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">use case: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>looks for live hosts</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bypasses firewalls/filters that only screen for TCP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> must use '--disable-arp-ping' option or this scan will not run. '-sn' is used to suppress additional port scanning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if a 'ICMP port unreachable' responds to the UDP probe, the machine is up. Other errors, such as 'host unreachable' or 'TTL exceeded' are indicative of a host that is down. If no response is received, the port is probably listening on a live host</t>
+    </r>
+  </si>
+  <si>
+    <t>observe with:
+sudo tcpdump -n -i any 'host 192.168.56.109 &amp;&amp; port 40125</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-PY = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">port list, sends </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> packet containing INIT chunk</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap --disable-arp-ping --sn -PY45 192.168.56.109</t>
+  </si>
+  <si>
+    <r>
+      <t>nmap</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> scans port 45 on 192.168.56.109 with SCTP INIT packet
+use case: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">possibly to bypass firewalls filtering TCP/ICMP packets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--disable-arp-ping</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = do not use default ARP scan in an attempt to discover locally connected hosts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-sn</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = no port scan, do not perform default port scan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+note 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Documentation says</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if port is closed, response will be an ABORT chunk. If port is open, target will respond with INIT-ACK chunk. Either response signals that the host is alive. But, what I have observed is that if the port is closed but the host is up, you will receive a 'ICMP protocol 132 unreachable' message, and if host is not up at all, you won't receive any response, obviously.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+note 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INIT chunk the first chunk of an SCTP handshake</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SCTP</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Stream Control Transmission Protocol, layer 4, sometimes called 'next-gen TCP', uses 4-way handshake. Can track/re-order data more efficiently than TCP, and can handle multiple streams simutalneously</t>
+    </r>
+  </si>
+  <si>
+    <t>observe with:
+sudo tcpdump -n -i any 'host 192.168.56.109'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-PE = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>send ICMP echo request (ICMP type 8)</t>
+    </r>
+  </si>
+  <si>
+    <t>nmap --disable-arp-ping -PE 192.168.56.109</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nmap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sends ICMP echo request</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to 192.168.56.109, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if host is up, it will respond with echo reply</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+note 1:  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must use '--disable-arp-ping' option or else the cmd will not work</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+note 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> must be privileged user (sudo or admin)</t>
+    </r>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>sudo apt install ufw</t>
+  </si>
+  <si>
+    <t>installs uncomplicated firewall</t>
+  </si>
+  <si>
+    <t>check status</t>
+  </si>
+  <si>
+    <t>sudo systemctl status ufw</t>
+  </si>
+  <si>
+    <t>checks the current status of uncomplicated firewall</t>
+  </si>
+  <si>
+    <t>enable ufw on system</t>
+  </si>
+  <si>
+    <t>sudo ufw enable</t>
+  </si>
+  <si>
+    <t>enables the uncomplicated firewall on your system</t>
+  </si>
+  <si>
+    <t>disable ufw on system</t>
+  </si>
+  <si>
+    <t>sudo ufw disable</t>
+  </si>
+  <si>
+    <t>disables the uncomplicated fiewall on your sytem</t>
+  </si>
+  <si>
+    <t>show firewall rules</t>
+  </si>
+  <si>
+    <t>sudo ufw status numbered verbose</t>
+  </si>
+  <si>
+    <t>show all firewall rules with their associated line numbers</t>
+  </si>
+  <si>
+    <t>allow tcp port 22 incoming</t>
+  </si>
+  <si>
+    <t>sudo ufw allow 22/tcp</t>
+  </si>
+  <si>
+    <t>allows incoming tcp on port 22</t>
+  </si>
+  <si>
+    <t>deny tcp port 22 incoming</t>
+  </si>
+  <si>
+    <t>sudo ufw deny 22/tcp</t>
+  </si>
+  <si>
+    <t>deny incoming tcp on port 22</t>
+  </si>
+  <si>
+    <t>allow udp port 52 incoming</t>
+  </si>
+  <si>
+    <t>sudo ufw allow 53/udp</t>
+  </si>
+  <si>
+    <t>allows incoming udp packets to port 53</t>
+  </si>
+  <si>
+    <t>delete FW rule on line 7</t>
+  </si>
+  <si>
+    <t>sudo ufw delete 7</t>
+  </si>
+  <si>
+    <t>deletes firewall rule on line 7</t>
+  </si>
+  <si>
+    <t>insert a rule</t>
+  </si>
+  <si>
+    <t>sudo ufw insert 1 deny from 192.168.56.109</t>
+  </si>
+  <si>
+    <t>drop ICMP packets</t>
+  </si>
+  <si>
+    <t>backup /etc/ufw/before.rules</t>
+  </si>
+  <si>
+    <t>cp /etc/ufw/before.rules /etc/ufw/before.rules_backup</t>
+  </si>
+  <si>
+    <t>open /etc/ufw/before/rules</t>
+  </si>
+  <si>
+    <t>vi /etc/ufw/before.rules</t>
+  </si>
+  <si>
+    <t>change these:</t>
+  </si>
+  <si>
+    <t>-A ufw-before-input -p icmp --icmp-type destination-unreachable -j ACCEPT</t>
+  </si>
+  <si>
+    <t>-A ufw-before-input -p icmp --icmp-type source-quench -j ACCEPT</t>
+  </si>
+  <si>
+    <t>-A ufw-before-input -p icmp --icmp-type time-exceeded -j ACCEPT</t>
+  </si>
+  <si>
+    <t>-A ufw-before-input -p icmp --icmp-type parameter-problem -j ACCEPT</t>
+  </si>
+  <si>
+    <t>-A ufw-before-input -p icmp --icmp-type echo-request -j ACCEPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to these: </t>
+  </si>
+  <si>
+    <t>(change ACCEPT to DROP)</t>
+  </si>
+  <si>
+    <t>-A ufw-before-input -p icmp --icmp-type destination-unreachable -j DROP</t>
+  </si>
+  <si>
+    <t>-A ufw-before-input -p icmp --icmp-type source-quench -j DROP</t>
+  </si>
+  <si>
+    <t>-A ufw-before-input -p icmp --icmp-type time-exceeded -j DROP</t>
+  </si>
+  <si>
+    <t>-A ufw-before-input -p icmp --icmp-type parameter-problem -j DROP</t>
+  </si>
+  <si>
+    <t>-A ufw-before-input -p icmp --icmp-type echo-request -j DROP</t>
+  </si>
+  <si>
+    <t>vim command:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">:34,37s/ACCEPT/DROP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>(where lines 34-37 contain the 'ACCEPT' words you wish to change)</t>
+    </r>
+  </si>
+  <si>
+    <t>reload the ufw service</t>
+  </si>
+  <si>
+    <t>ufw reload</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">searches using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRE flavor of regex</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25044,6 +26556,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="4">
@@ -25128,7 +26652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -25270,9 +26794,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -25294,50 +26815,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -25373,7 +26855,19 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -25696,24 +27190,24 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -25724,7 +27218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -25735,7 +27229,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -25746,7 +27240,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="165">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
@@ -25757,7 +27251,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="59.45" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>82</v>
       </c>
@@ -25768,7 +27262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="60">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -25779,7 +27273,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="60">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -25790,7 +27284,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
         <v>81</v>
       </c>
@@ -25801,7 +27295,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" s="8" t="s">
         <v>170</v>
       </c>
@@ -25812,7 +27306,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="8" t="s">
         <v>169</v>
       </c>
@@ -25823,7 +27317,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
         <v>167</v>
       </c>
@@ -25834,7 +27328,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
         <v>168</v>
       </c>
@@ -25845,7 +27339,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -25856,7 +27350,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
         <v>80</v>
       </c>
@@ -25867,7 +27361,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
         <v>79</v>
       </c>
@@ -25878,7 +27372,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -25896,6 +27390,416 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4A975-49E6-4D67-87B6-C134DC574AA3}">
+  <dimension ref="A2:M32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="4" width="55.7109375" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="B2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" ht="409.5">
+      <c r="A3" s="28"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="75">
+      <c r="A9" s="69"/>
+      <c r="B9" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30">
+      <c r="A10" s="69"/>
+      <c r="B10" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45">
+      <c r="A11" s="69"/>
+      <c r="B11" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45">
+      <c r="A12" s="69"/>
+      <c r="B12" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" ht="60">
+      <c r="A15" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="75">
+      <c r="A16" s="70"/>
+      <c r="B16" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="105">
+      <c r="A17" s="70"/>
+      <c r="B17" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="105">
+      <c r="A18" s="70"/>
+      <c r="B18" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60">
+      <c r="A19" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="60">
+      <c r="A20" s="70"/>
+      <c r="B20" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="105">
+      <c r="A21" s="70"/>
+      <c r="B21" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="60">
+      <c r="A22" s="70"/>
+      <c r="B22" s="55" t="s">
+        <v>532</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" ht="150">
+      <c r="B25" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="150">
+      <c r="A26" s="28"/>
+      <c r="B26" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>631</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" ht="165">
+      <c r="B27" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" ht="200.1" customHeight="1">
+      <c r="B28" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="195" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="210.95" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>644</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="270">
+      <c r="B31" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="75">
+      <c r="B32" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D27781-00F8-4FFB-93E0-B673FC3983D4}">
   <dimension ref="B3:E12"/>
   <sheetViews>
@@ -25903,60 +27807,60 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.90625" style="27"/>
+    <col min="1" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="82" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="68" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="78" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" s="64" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5">
       <c r="B7" s="27" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5">
       <c r="B8" s="27" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="82" t="s">
+    <row r="11" spans="2:5">
+      <c r="B11" s="68" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="82" t="s">
+    <row r="12" spans="2:5">
+      <c r="B12" s="68" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -25972,408 +27876,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA360FF1-729B-4CB9-8806-B5900E621FE8}">
-  <dimension ref="A1:P29"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866F71F-38C4-486B-B894-DFD9311F2D3F}">
+  <dimension ref="B3:H32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.54296875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="27"/>
+    <col min="2" max="2" width="43.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="27" customWidth="1"/>
+    <col min="7" max="8" width="40.5703125" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" ht="90.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-      <c r="C3" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="83" t="s">
-        <v>414</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>396</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="83"/>
-      <c r="B9" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="83"/>
-      <c r="B10" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="83"/>
-      <c r="B11" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="83"/>
-      <c r="B12" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="84" t="s">
-        <v>415</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>417</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="84"/>
-      <c r="B16" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="84"/>
-      <c r="B17" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="87" x14ac:dyDescent="0.35">
-      <c r="A18" s="84"/>
-      <c r="B18" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="84" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="84"/>
-      <c r="B20" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="84"/>
-      <c r="B21" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="84"/>
-      <c r="B22" s="56" t="s">
-        <v>532</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>533</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="51"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="E26" s="79" t="s">
-        <v>537</v>
-      </c>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="1:16" s="28" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>540</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" ht="116" x14ac:dyDescent="0.35">
-      <c r="B28" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="B29" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>549</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="E26:M26"/>
-    <mergeCell ref="E27:M27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866F71F-38C4-486B-B894-DFD9311F2D3F}">
-  <dimension ref="A3:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.90625" style="66"/>
-    <col min="2" max="2" width="43.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6328125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="42.36328125" style="27" customWidth="1"/>
-    <col min="7" max="8" width="40.6328125" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8">
       <c r="B3" s="43" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8">
       <c r="C4" s="39" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="29.45" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>466</v>
       </c>
@@ -26385,7 +27918,7 @@
       </c>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8">
       <c r="B6" s="39" t="s">
         <v>461</v>
       </c>
@@ -26397,7 +27930,7 @@
       </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="2:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="29.1" customHeight="1">
       <c r="C7" s="27" t="s">
         <v>465</v>
       </c>
@@ -26406,7 +27939,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="45">
       <c r="C8" s="27" t="s">
         <v>467</v>
       </c>
@@ -26415,15 +27948,15 @@
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8">
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8">
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="30">
       <c r="B11" s="10" t="s">
         <v>477</v>
       </c>
@@ -26435,7 +27968,7 @@
       </c>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="2:8" ht="115.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="115.35" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>472</v>
       </c>
@@ -26447,7 +27980,7 @@
       </c>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="45">
       <c r="B13" s="46" t="s">
         <v>459</v>
       </c>
@@ -26459,7 +27992,7 @@
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="2:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="30">
       <c r="B14" s="46" t="s">
         <v>478</v>
       </c>
@@ -26471,7 +28004,7 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:8" ht="101" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="101.1" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>481</v>
       </c>
@@ -26483,7 +28016,7 @@
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:8" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="75">
       <c r="B16" s="8" t="s">
         <v>495</v>
       </c>
@@ -26506,7 +28039,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="90">
       <c r="B17" s="8" t="s">
         <v>494</v>
       </c>
@@ -26521,7 +28054,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="45">
       <c r="B18" s="8" t="s">
         <v>491</v>
       </c>
@@ -26536,7 +28069,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="75">
       <c r="B19" s="8" t="s">
         <v>496</v>
       </c>
@@ -26551,7 +28084,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="120">
       <c r="B20" s="8" t="s">
         <v>501</v>
       </c>
@@ -26568,7 +28101,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:8" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="43.35" customHeight="1">
       <c r="B21" s="8" t="s">
         <v>504</v>
       </c>
@@ -26583,7 +28116,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" ht="90">
       <c r="B22" s="8" t="s">
         <v>510</v>
       </c>
@@ -26591,17 +28124,16 @@
         <v>511</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="66"/>
+    <row r="23" spans="2:8" ht="30">
       <c r="B23" s="8" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="19"/>
@@ -26610,8 +28142,7 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="66"/>
+    <row r="24" spans="2:8">
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
       <c r="D24" s="19"/>
@@ -26620,8 +28151,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="66"/>
+    <row r="25" spans="2:8">
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
       <c r="D25" s="19"/>
@@ -26630,7 +28160,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" ht="30">
       <c r="B26" s="10" t="s">
         <v>505</v>
       </c>
@@ -26642,21 +28172,19 @@
       </c>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="66"/>
+    <row r="27" spans="2:8">
       <c r="B27" s="10"/>
       <c r="C27" s="2"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="66"/>
+    <row r="28" spans="2:8">
       <c r="B28" s="10"/>
       <c r="C28" s="2"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8">
       <c r="B29" s="45" t="s">
         <v>456</v>
       </c>
@@ -26668,8 +28196,8 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="45" t="s">
+    <row r="30" spans="2:8" ht="30">
+      <c r="B30" s="46" t="s">
         <v>509</v>
       </c>
       <c r="C30" s="43" t="s">
@@ -26679,7 +28207,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:8" ht="14.45" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
@@ -26694,26 +28222,26 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.6328125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="27"/>
+    <col min="1" max="1" width="16.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="43" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30">
       <c r="B4" s="39" t="s">
         <v>419</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="90">
       <c r="A6" s="44" t="s">
         <v>420</v>
       </c>
@@ -26731,6 +28259,284 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA1D3C-99B5-45E1-9627-8CE6B2A3AF89}">
+  <dimension ref="B3:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="4" width="53.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="27" t="s">
+        <v>655</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>656</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>662</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="27" t="s">
+        <v>667</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>668</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>671</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>674</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="27" t="s">
+        <v>679</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>680</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="72" t="s">
+        <v>685</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>686</v>
+      </c>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="72" t="s">
+        <v>687</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>688</v>
+      </c>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="72" t="s">
+        <v>689</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="27"/>
+      <c r="C19" s="73" t="s">
+        <v>690</v>
+      </c>
+      <c r="D19" s="73"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="27"/>
+      <c r="C20" s="73" t="s">
+        <v>691</v>
+      </c>
+      <c r="D20" s="73"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="27"/>
+      <c r="C21" s="73" t="s">
+        <v>692</v>
+      </c>
+      <c r="D21" s="73"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="27"/>
+      <c r="C22" s="73" t="s">
+        <v>693</v>
+      </c>
+      <c r="D22" s="73"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="27"/>
+      <c r="C23" s="73" t="s">
+        <v>694</v>
+      </c>
+      <c r="D23" s="73"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="72" t="s">
+        <v>695</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="72" t="s">
+        <v>696</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>697</v>
+      </c>
+      <c r="D25" s="73"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="27"/>
+      <c r="C26" s="73" t="s">
+        <v>698</v>
+      </c>
+      <c r="D26" s="73"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="27"/>
+      <c r="C27" s="73" t="s">
+        <v>699</v>
+      </c>
+      <c r="D27" s="73"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="27"/>
+      <c r="C28" s="73" t="s">
+        <v>700</v>
+      </c>
+      <c r="D28" s="73"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="27"/>
+      <c r="C29" s="73" t="s">
+        <v>701</v>
+      </c>
+      <c r="D29" s="73"/>
+    </row>
+    <row r="30" spans="2:4" ht="38.25">
+      <c r="B30" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>703</v>
+      </c>
+      <c r="D30" s="75"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>705</v>
+      </c>
+      <c r="D31" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052E72CA-1731-48AE-9B7E-B9E8A0144CA6}">
   <dimension ref="A3:C7"/>
   <sheetViews>
@@ -26738,25 +28544,25 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.6328125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="27"/>
+    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="43" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="B4" s="39" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="46" t="s">
         <v>430</v>
       </c>
@@ -26767,7 +28573,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="45" t="s">
         <v>431</v>
       </c>
@@ -26783,7 +28589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3784FF0-F038-40BE-B11F-87E1438AD14B}">
   <dimension ref="A3:C7"/>
   <sheetViews>
@@ -26791,25 +28597,25 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.6328125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="27"/>
+    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="43" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="B4" s="43" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="46" t="s">
         <v>438</v>
       </c>
@@ -26820,7 +28626,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="46" t="s">
         <v>441</v>
       </c>
@@ -26836,7 +28642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70DB8B6-5F67-4869-98C0-42C5D9956483}">
   <dimension ref="A3:C7"/>
   <sheetViews>
@@ -26844,25 +28650,25 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="54.6328125" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="38"/>
+    <col min="1" max="1" width="23.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="39" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30">
       <c r="B4" s="39" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="46" t="s">
         <v>446</v>
       </c>
@@ -26873,7 +28679,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="46" t="s">
         <v>448</v>
       </c>
@@ -26889,33 +28695,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49969255-3A5B-4747-B20A-C7D337DB7232}">
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="43.6328125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.6328125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="27"/>
+    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="43" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="45">
       <c r="B4" s="39" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="46" t="s">
         <v>426</v>
       </c>
@@ -26935,25 +28741,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B4C89-AE87-4187-8C18-5F20544A3D88}">
   <dimension ref="A3:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.453125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="63.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -26963,7 +28769,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -26974,7 +28780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -26986,7 +28792,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="45">
       <c r="A8" s="7" t="s">
         <v>87</v>
       </c>
@@ -26998,7 +28804,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="90">
       <c r="A9" s="8" t="s">
         <v>269</v>
       </c>
@@ -27010,7 +28816,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -27022,7 +28828,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="75">
       <c r="A11" s="8" t="s">
         <v>264</v>
       </c>
@@ -27034,7 +28840,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="45">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -27046,7 +28852,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="45">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -27058,7 +28864,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="45">
       <c r="A14" s="8" t="s">
         <v>275</v>
       </c>
@@ -27070,7 +28876,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="45">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -27082,7 +28888,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="45">
       <c r="A16" s="8" t="s">
         <v>218</v>
       </c>
@@ -27094,7 +28900,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="60">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -27106,7 +28912,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="60">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -27118,7 +28924,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="75">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -27130,7 +28936,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="90">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -27142,7 +28948,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="60">
       <c r="A21" s="30" t="s">
         <v>224</v>
       </c>
@@ -27154,7 +28960,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -27166,7 +28972,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -27177,16 +28983,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" s="3" customFormat="1">
       <c r="A24" s="10" t="s">
         <v>322</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C24" s="15" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="75">
       <c r="A25" s="8" t="s">
         <v>227</v>
       </c>
@@ -27198,7 +29006,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="120">
       <c r="A26" s="6" t="s">
         <v>229</v>
       </c>
@@ -27210,7 +29018,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="60">
       <c r="A27" s="6" t="s">
         <v>231</v>
       </c>
@@ -27222,7 +29030,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -27233,7 +29041,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -27258,33 +29066,33 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6328125" customWidth="1"/>
-    <col min="3" max="3" width="46.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="45">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -27295,7 +29103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -27306,7 +29114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="60">
       <c r="A7" s="6" t="s">
         <v>104</v>
       </c>
@@ -27317,7 +29125,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="6" t="s">
         <v>89</v>
       </c>
@@ -27331,7 +29139,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="195">
       <c r="A9" s="8" t="s">
         <v>119</v>
       </c>
@@ -27342,7 +29150,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="45">
       <c r="A10" s="8" t="s">
         <v>90</v>
       </c>
@@ -27353,7 +29161,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="75">
       <c r="A11" s="8" t="s">
         <v>92</v>
       </c>
@@ -27364,7 +29172,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="60">
       <c r="A12" s="8" t="s">
         <v>93</v>
       </c>
@@ -27375,7 +29183,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="75">
       <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
@@ -27386,7 +29194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="90">
       <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
@@ -27397,7 +29205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="60">
       <c r="A15" s="8" t="s">
         <v>99</v>
       </c>
@@ -27408,7 +29216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="90">
       <c r="A16" s="8" t="s">
         <v>103</v>
       </c>
@@ -27419,7 +29227,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="75">
       <c r="A17" s="8" t="s">
         <v>101</v>
       </c>
@@ -27430,7 +29238,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="105">
       <c r="A18" s="8" t="s">
         <v>196</v>
       </c>
@@ -27441,7 +29249,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="90">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -27452,7 +29260,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="60">
       <c r="A20" s="8" t="s">
         <v>203</v>
       </c>
@@ -27463,7 +29271,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="90">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -27474,7 +29282,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="75">
       <c r="A22" s="8" t="s">
         <v>108</v>
       </c>
@@ -27485,7 +29293,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="90">
       <c r="A23" s="8" t="s">
         <v>109</v>
       </c>
@@ -27496,7 +29304,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="105">
       <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
@@ -27507,7 +29315,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="87" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>112</v>
       </c>
@@ -27518,7 +29326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="90">
       <c r="A26" s="8" t="s">
         <v>111</v>
       </c>
@@ -27529,7 +29337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="90">
       <c r="A27" s="8" t="s">
         <v>113</v>
       </c>
@@ -27540,7 +29348,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="75">
       <c r="A28" s="8" t="s">
         <v>114</v>
       </c>
@@ -27551,7 +29359,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="120">
       <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
@@ -27562,7 +29370,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="195">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -27573,7 +29381,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="210">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -27584,7 +29392,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="240">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -27595,7 +29403,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3">
       <c r="A33" s="29" t="s">
         <v>253</v>
       </c>
@@ -27620,36 +29428,36 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.90625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="C1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -27660,7 +29468,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="60">
       <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
@@ -27671,7 +29479,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="10" t="s">
         <v>136</v>
       </c>
@@ -27682,7 +29490,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="10" t="s">
         <v>139</v>
       </c>
@@ -27693,7 +29501,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="45">
       <c r="A9" s="10" t="s">
         <v>140</v>
       </c>
@@ -27704,7 +29512,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="45">
       <c r="A10" s="10" t="s">
         <v>142</v>
       </c>
@@ -27715,7 +29523,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="57" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>151</v>
       </c>
@@ -27726,7 +29534,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="45">
       <c r="A12" s="10" t="s">
         <v>152</v>
       </c>
@@ -27737,7 +29545,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="45">
       <c r="A13" s="8" t="s">
         <v>156</v>
       </c>
@@ -27748,7 +29556,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
@@ -27759,7 +29567,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="75">
       <c r="A15" s="8" t="s">
         <v>166</v>
       </c>
@@ -27770,7 +29578,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="45">
       <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
@@ -27781,7 +29589,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" s="8" t="s">
         <v>177</v>
       </c>
@@ -27792,7 +29600,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="45">
       <c r="A18" s="8" t="s">
         <v>178</v>
       </c>
@@ -27803,7 +29611,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="45">
       <c r="A19" s="8" t="s">
         <v>181</v>
       </c>
@@ -27814,7 +29622,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="60">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -27825,7 +29633,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="90">
       <c r="A21" s="10" t="s">
         <v>150</v>
       </c>
@@ -27836,7 +29644,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="75">
       <c r="A22" s="8" t="s">
         <v>183</v>
       </c>
@@ -27847,7 +29655,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="60">
       <c r="A23" s="10" t="s">
         <v>67</v>
       </c>
@@ -27858,7 +29666,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="90">
       <c r="A24" s="8" t="s">
         <v>186</v>
       </c>
@@ -27869,7 +29677,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="120">
       <c r="A25" s="10" t="s">
         <v>232</v>
       </c>
@@ -27880,7 +29688,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="90">
       <c r="A26" s="8" t="s">
         <v>234</v>
       </c>
@@ -27891,7 +29699,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="75">
       <c r="A27" s="10" t="s">
         <v>236</v>
       </c>
@@ -27902,7 +29710,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="45">
       <c r="A28" s="7" t="s">
         <v>240</v>
       </c>
@@ -27913,7 +29721,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="75">
       <c r="A29" s="7" t="s">
         <v>242</v>
       </c>
@@ -27924,7 +29732,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="45.6" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>245</v>
       </c>
@@ -27935,7 +29743,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="45">
       <c r="A31" s="7" t="s">
         <v>247</v>
       </c>
@@ -27946,7 +29754,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="45">
       <c r="A32" s="7" t="s">
         <v>251</v>
       </c>
@@ -27957,7 +29765,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="45">
       <c r="A33" s="8" t="s">
         <v>148</v>
       </c>
@@ -27968,7 +29776,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="60">
       <c r="A34" s="8" t="s">
         <v>148</v>
       </c>
@@ -27979,7 +29787,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" s="7" t="s">
         <v>79</v>
       </c>
@@ -27990,7 +29798,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" s="29" t="s">
         <v>253</v>
       </c>
@@ -28001,49 +29809,49 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" s="12"/>
       <c r="B37" s="17"/>
       <c r="C37" s="14"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" s="12"/>
       <c r="B38" s="17"/>
       <c r="C38" s="14"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" s="12"/>
       <c r="B39" s="17"/>
       <c r="C39" s="14"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" s="12"/>
       <c r="B40" s="17"/>
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" s="12"/>
       <c r="B41" s="17"/>
       <c r="C41" s="14"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
     </row>
@@ -28057,219 +29865,219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8480C-E8CD-45AC-8F81-8D4ABFF602C5}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="28"/>
-    <col min="2" max="2" width="30.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.08984375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="52.6328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="28"/>
+    <col min="1" max="1" width="8.85546875" style="28"/>
+    <col min="2" max="2" width="30.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4">
       <c r="B2" s="34" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="60">
       <c r="C3" s="37" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="C4" s="37"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4">
       <c r="B5" s="34" t="s">
         <v>400</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="59"/>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="59"/>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="2:4" ht="30">
+      <c r="B8" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30">
+      <c r="B9" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="64"/>
-      <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="64"/>
-      <c r="C7" s="34"/>
-    </row>
-    <row r="8" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
+      <c r="D9" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30">
+      <c r="B10" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30">
+      <c r="B11" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30">
+      <c r="B12" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="45">
+      <c r="B13" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="45">
+      <c r="B14" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+    <row r="15" spans="2:4" ht="45">
+      <c r="B15" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>572</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D15" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="30">
+      <c r="B16" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="165">
+      <c r="B17" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="144.94999999999999" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>584</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+    </row>
+    <row r="19" spans="2:13" ht="231.95" customHeight="1">
+      <c r="B19" s="7" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>576</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="7" t="s">
+      <c r="C19" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D19" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="E19" s="62" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="11" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="2:13" ht="30">
+      <c r="B20" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="E18" s="76" t="s">
+    </row>
+    <row r="21" spans="2:13" ht="30">
+      <c r="B21" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-    </row>
-    <row r="19" spans="2:13" ht="232" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="7" t="s">
+      <c r="C21" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D21" s="14" t="s">
         <v>594</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="E19" s="76" t="s">
-        <v>596</v>
-      </c>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-    </row>
-    <row r="20" spans="2:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -28286,152 +30094,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
   <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="66"/>
-    <col min="2" max="3" width="43.6328125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="56.36328125" style="66" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="66"/>
+    <col min="1" max="1" width="8.7109375" style="27"/>
+    <col min="2" max="3" width="43.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4">
       <c r="B2" s="43" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="60" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="45" t="s">
+        <v>610</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>600</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="45" t="s">
+        <v>611</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="74" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" s="45" t="s">
+        <v>612</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="45" t="s">
+        <v>611</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>605</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="60" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="27" t="s">
+        <v>623</v>
+      </c>
+      <c r="C15" s="43" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="72" t="s">
+      <c r="D15" s="61" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>618</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>622</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>606</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="72" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>604</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="73" t="s">
-        <v>618</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>608</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="73" t="s">
-        <v>619</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>610</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="73" t="s">
-        <v>620</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>612</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="73" t="s">
-        <v>619</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>613</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="74" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="72" t="s">
-        <v>631</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="72" t="s">
-        <v>623</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>616</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="66" t="s">
-        <v>628</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>626</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="71" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="71" t="s">
-        <v>634</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>636</v>
-      </c>
-      <c r="D18" s="70" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="66" t="s">
-        <v>635</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -28448,59 +30256,59 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="61"/>
-    <col min="2" max="2" width="30.54296875" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.08984375" style="61" customWidth="1"/>
-    <col min="4" max="4" width="52.6328125" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="61"/>
+    <col min="1" max="1" width="8.85546875" style="27"/>
+    <col min="2" max="2" width="30.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4">
       <c r="B2" s="43" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="C3" s="39" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="C4" s="39"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4">
       <c r="B5" s="43" t="s">
         <v>400</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="45"/>
       <c r="C6" s="43"/>
     </row>
-    <row r="7" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="30">
       <c r="B7" s="46" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C7" s="43"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4">
       <c r="B8" s="45"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4">
       <c r="B9" s="45"/>
     </row>
-    <row r="10" spans="2:4" ht="101.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="101.45" customHeight="1">
       <c r="B10" s="45"/>
       <c r="C10" s="43"/>
-      <c r="D10" s="62"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D11" s="63"/>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="D11" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28516,24 +30324,23 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>291</v>
       </c>
@@ -28541,7 +30348,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>292</v>
       </c>
@@ -28549,17 +30356,17 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="101.45" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>295</v>
       </c>
@@ -28570,7 +30377,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="C10" s="31" t="s">
         <v>308</v>
       </c>
@@ -28588,52 +30395,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CADC5F-634D-400C-ABA1-AB65FF79E0C8}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="46.90625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="48.90625" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="28"/>
+    <col min="1" max="1" width="30.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="34" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="57" customHeight="1">
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="79"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="80" t="s">
+      <c r="C2" s="65"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-    </row>
-    <row r="5" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+    </row>
+    <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="81" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="81"/>
-    </row>
-    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="67"/>
+    </row>
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="35" t="s">
         <v>345</v>
       </c>
@@ -28644,7 +30451,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="34" t="s">
         <v>348</v>
       </c>
@@ -28655,7 +30462,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
         <v>349</v>
       </c>
@@ -28666,7 +30473,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="90">
       <c r="A10" s="9" t="s">
         <v>351</v>
       </c>
@@ -28677,7 +30484,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
         <v>372</v>
       </c>
@@ -28686,14 +30493,14 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
         <v>314</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" s="33" t="s">
         <v>312</v>
       </c>
@@ -28704,7 +30511,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" s="34" t="s">
         <v>353</v>
       </c>
@@ -28715,7 +30522,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" s="34" t="s">
         <v>352</v>
       </c>
@@ -28726,7 +30533,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="4" t="s">
         <v>355</v>
       </c>
@@ -28737,7 +30544,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" s="37" t="s">
         <v>389</v>
       </c>
@@ -28748,7 +30555,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="75">
       <c r="A20" s="4" t="s">
         <v>369</v>
       </c>
@@ -28759,178 +30566,178 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="78" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="78" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="78" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="78" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="64" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="78" t="s">
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="78" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="78" t="s">
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="78" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="64" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="79" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="79" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="78" t="s">
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="78" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">
         <v>377</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3">
       <c r="A35" s="27" t="s">
         <v>378</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3">
       <c r="A36" s="27" t="s">
         <v>379</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3">
       <c r="A37" s="27" t="s">
         <v>380</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3">
       <c r="A38" s="27" t="s">
         <v>381</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3">
       <c r="A39" s="27" t="s">
         <v>382</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3">
       <c r="A40" s="27" t="s">
         <v>383</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3">
       <c r="A41" s="27" t="s">
         <v>384</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3">
       <c r="A42" s="27" t="s">
         <v>385</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3">
       <c r="A43" s="27" t="s">
         <v>386</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3">
       <c r="A44" s="27" t="s">
         <v>387</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3">
       <c r="A45" s="28" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3">
       <c r="A46" s="28" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3">
       <c r="A48" s="28" t="s">
         <v>374</v>
       </c>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07740D13-2D0F-4573-92C7-179B60DBF04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC935DD-4EDB-48D1-B532-0DCACA519EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="touch" sheetId="6" r:id="rId8"/>
     <sheet name="vi" sheetId="5" r:id="rId9"/>
     <sheet name="nmap" sheetId="20" r:id="rId10"/>
-    <sheet name="shells" sheetId="8" r:id="rId11"/>
+    <sheet name="ufw" sheetId="21" r:id="rId11"/>
     <sheet name="tcpdump" sheetId="15" r:id="rId12"/>
-    <sheet name="awk" sheetId="10" r:id="rId13"/>
-    <sheet name="ufw" sheetId="21" r:id="rId14"/>
+    <sheet name="shells" sheetId="8" r:id="rId13"/>
+    <sheet name="awk" sheetId="10" r:id="rId14"/>
     <sheet name="sort" sheetId="11" r:id="rId15"/>
     <sheet name="head" sheetId="13" r:id="rId16"/>
     <sheet name="cut" sheetId="14" r:id="rId17"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="722">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -26486,6 +26486,122 @@
       </rPr>
       <t>CRE flavor of regex</t>
     </r>
+  </si>
+  <si>
+    <t>CREATE NEW REPOSITORY</t>
+  </si>
+  <si>
+    <t>git init -b main</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= specifys the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>branch</t>
+    </r>
+  </si>
+  <si>
+    <t>initialize local directory as a Git repository</t>
+  </si>
+  <si>
+    <t>add files and stage them for commit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = stages all files for commit</t>
+    </r>
+  </si>
+  <si>
+    <t>git commit -m "first commit"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= specifys that you wish to create a message with the commit</t>
+    </r>
+  </si>
+  <si>
+    <t>commit the files that you've staged in your local repository</t>
+  </si>
+  <si>
+    <t>gh auth login</t>
+  </si>
+  <si>
+    <t>follow prompts, use HTTPS for simple login</t>
+  </si>
+  <si>
+    <t>Set up connection to your GitHub account</t>
+  </si>
+  <si>
+    <t>gh repo create</t>
+  </si>
+  <si>
+    <t>push an existing git repository to GitHub</t>
+  </si>
+  <si>
+    <t>follow prompts, select "Push an existing local repo to GitHub"</t>
   </si>
 </sst>
 </file>
@@ -26827,6 +26943,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -26845,26 +26973,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -27393,7 +27509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4A975-49E6-4D67-87B6-C134DC574AA3}">
   <dimension ref="A2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -27411,7 +27527,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:13" ht="409.5">
+    <row r="3" spans="1:13" ht="120">
       <c r="A3" s="28"/>
       <c r="B3" s="3"/>
       <c r="C3" s="39" t="s">
@@ -27461,7 +27577,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>414</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -27475,7 +27591,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="75">
-      <c r="A9" s="69"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
       </c>
@@ -27487,7 +27603,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
-      <c r="A10" s="69"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
       </c>
@@ -27499,7 +27615,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="45">
-      <c r="A11" s="69"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
       </c>
@@ -27511,7 +27627,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="69"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
       </c>
@@ -27528,7 +27644,7 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="60">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="73" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -27542,7 +27658,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="75">
-      <c r="A16" s="70"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
       </c>
@@ -27554,7 +27670,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="105">
-      <c r="A17" s="70"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
       </c>
@@ -27566,7 +27682,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="105">
-      <c r="A18" s="70"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
       </c>
@@ -27578,7 +27694,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="60">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="73" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -27592,7 +27708,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="60">
-      <c r="A20" s="70"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
       </c>
@@ -27604,7 +27720,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="105">
-      <c r="A21" s="70"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
       </c>
@@ -27616,7 +27732,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="60">
-      <c r="A22" s="70"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="55" t="s">
         <v>532</v>
       </c>
@@ -27746,7 +27862,7 @@
       <c r="D29" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="62" t="s">
         <v>643</v>
       </c>
     </row>
@@ -27760,7 +27876,7 @@
       <c r="D30" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="62" t="s">
         <v>647</v>
       </c>
     </row>
@@ -27774,7 +27890,7 @@
       <c r="D31" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="62" t="s">
         <v>651</v>
       </c>
     </row>
@@ -27800,77 +27916,278 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D27781-00F8-4FFB-93E0-B673FC3983D4}">
-  <dimension ref="B3:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA1D3C-99B5-45E1-9627-8CE6B2A3AF89}">
+  <dimension ref="B3:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="27"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="4" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3" s="68" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-    </row>
-    <row r="4" spans="2:5">
+    <row r="3" spans="2:4">
+      <c r="B3" s="27" t="s">
+        <v>655</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>656</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="64" t="s">
-        <v>360</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-    </row>
-    <row r="6" spans="2:5">
+        <v>658</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>662</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="27" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+        <v>664</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="27" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>667</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>668</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="68" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" s="68"/>
+        <v>670</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>671</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>674</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="27" t="s">
+        <v>679</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>680</v>
+      </c>
       <c r="D11" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="27" t="s">
-        <v>368</v>
-      </c>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>683</v>
+      </c>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="27" t="s">
+        <v>684</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="63" t="s">
+        <v>685</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>686</v>
+      </c>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="63" t="s">
+        <v>687</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>688</v>
+      </c>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="63" t="s">
+        <v>689</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="27"/>
+      <c r="C19" s="75" t="s">
+        <v>690</v>
+      </c>
+      <c r="D19" s="75"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="27"/>
+      <c r="C20" s="75" t="s">
+        <v>691</v>
+      </c>
+      <c r="D20" s="75"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="27"/>
+      <c r="C21" s="75" t="s">
+        <v>692</v>
+      </c>
+      <c r="D21" s="75"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="27"/>
+      <c r="C22" s="75" t="s">
+        <v>693</v>
+      </c>
+      <c r="D22" s="75"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="27"/>
+      <c r="C23" s="75" t="s">
+        <v>694</v>
+      </c>
+      <c r="D23" s="75"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="63" t="s">
+        <v>695</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="63" t="s">
+        <v>696</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>697</v>
+      </c>
+      <c r="D25" s="75"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="27"/>
+      <c r="C26" s="75" t="s">
+        <v>698</v>
+      </c>
+      <c r="D26" s="75"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="27"/>
+      <c r="C27" s="75" t="s">
+        <v>699</v>
+      </c>
+      <c r="D27" s="75"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="27"/>
+      <c r="C28" s="75" t="s">
+        <v>700</v>
+      </c>
+      <c r="D28" s="75"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="27"/>
+      <c r="C29" s="75" t="s">
+        <v>701</v>
+      </c>
+      <c r="D29" s="75"/>
+    </row>
+    <row r="30" spans="2:4" ht="38.25">
+      <c r="B30" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>703</v>
+      </c>
+      <c r="D30" s="64"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>705</v>
+      </c>
+      <c r="D31" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="10">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28215,6 +28532,83 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D27781-00F8-4FFB-93E0-B673FC3983D4}">
+  <dimension ref="B3:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="74" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="27" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="27" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="74" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43823669-EFD8-43EB-A359-D7480668BEF6}">
   <dimension ref="A3:C6"/>
   <sheetViews>
@@ -28255,284 +28649,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA1D3C-99B5-45E1-9627-8CE6B2A3AF89}">
-  <dimension ref="B3:D31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="4" width="53.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="27" t="s">
-        <v>655</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>656</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="27" t="s">
-        <v>658</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>659</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>662</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="27" t="s">
-        <v>664</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>665</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="27" t="s">
-        <v>667</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>668</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="27" t="s">
-        <v>670</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>671</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="27" t="s">
-        <v>673</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>674</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="27" t="s">
-        <v>676</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>677</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="27" t="s">
-        <v>679</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>680</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>683</v>
-      </c>
-      <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="27" t="s">
-        <v>684</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="72" t="s">
-        <v>685</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>686</v>
-      </c>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="72" t="s">
-        <v>687</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>688</v>
-      </c>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="72" t="s">
-        <v>689</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="27"/>
-      <c r="C19" s="73" t="s">
-        <v>690</v>
-      </c>
-      <c r="D19" s="73"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="27"/>
-      <c r="C20" s="73" t="s">
-        <v>691</v>
-      </c>
-      <c r="D20" s="73"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="27"/>
-      <c r="C21" s="73" t="s">
-        <v>692</v>
-      </c>
-      <c r="D21" s="73"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="27"/>
-      <c r="C22" s="73" t="s">
-        <v>693</v>
-      </c>
-      <c r="D22" s="73"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="27"/>
-      <c r="C23" s="73" t="s">
-        <v>694</v>
-      </c>
-      <c r="D23" s="73"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="72" t="s">
-        <v>695</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="72" t="s">
-        <v>696</v>
-      </c>
-      <c r="C25" s="73" t="s">
-        <v>697</v>
-      </c>
-      <c r="D25" s="73"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="27"/>
-      <c r="C26" s="73" t="s">
-        <v>698</v>
-      </c>
-      <c r="D26" s="73"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="27"/>
-      <c r="C27" s="73" t="s">
-        <v>699</v>
-      </c>
-      <c r="D27" s="73"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="27"/>
-      <c r="C28" s="73" t="s">
-        <v>700</v>
-      </c>
-      <c r="D28" s="73"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="27"/>
-      <c r="C29" s="73" t="s">
-        <v>701</v>
-      </c>
-      <c r="D29" s="73"/>
-    </row>
-    <row r="30" spans="2:4" ht="38.25">
-      <c r="B30" s="27" t="s">
-        <v>702</v>
-      </c>
-      <c r="C30" s="74" t="s">
-        <v>703</v>
-      </c>
-      <c r="D30" s="75"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="27" t="s">
-        <v>704</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>705</v>
-      </c>
-      <c r="D31" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -28741,7 +28857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B4C89-AE87-4187-8C18-5F20544A3D88}">
   <dimension ref="A3:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -30027,14 +30143,14 @@
       <c r="D18" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="66" t="s">
         <v>584</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="2:13" ht="231.95" customHeight="1">
       <c r="B19" s="7" t="s">
@@ -30046,17 +30162,17 @@
       <c r="D19" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="66" t="s">
         <v>588</v>
       </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" spans="2:13" ht="30">
       <c r="B20" s="7" t="s">
@@ -30092,10 +30208,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -30240,6 +30356,66 @@
       </c>
       <c r="D19" s="21" t="s">
         <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="60" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>708</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>618</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="30">
+      <c r="B26" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>716</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>719</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -30417,17 +30593,17 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="69"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -30435,10 +30611,10 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="71"/>
     </row>
     <row r="7" spans="1:4" ht="45">
       <c r="A7" s="35" t="s">
@@ -30567,88 +30743,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="68" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="68" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="69" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC935DD-4EDB-48D1-B532-0DCACA519EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833F5B16-02B4-477C-B17C-B3B668C43DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="723">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -24554,55 +24554,6 @@
     <t>ss -i</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ss</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = socket statistics
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-i</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = show internal TCP information</t>
-    </r>
-  </si>
-  <si>
     <t>git commands</t>
   </si>
   <si>
@@ -26602,6 +26553,123 @@
   </si>
   <si>
     <t>follow prompts, select "Push an existing local repo to GitHub"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-i</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show internal TCP information
+format: &lt;congestion_algorithm&gt;, wscale:&lt;snd&gt;:&lt;rcv&gt;, rto: &lt;value&gt;, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cubic:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if you see this, this is the socket's congestion algorithm (algorithm that makes sure clients/servers don't send too much data at once)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">wscale:&lt;snd&gt;:&lt;rcv&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">window scale; client/server must agree on how many segments (chunks of data) to send/receive at one time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rto: &lt;icsk_rto&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value is in millseconds; TCP starts timer when outbound segment is handed to IP layer. If no 'ack' is received for the data in a given segment before the timer expires, the segment is retransmitted.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -26979,11 +27047,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -27306,11 +27374,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -27345,7 +27413,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="29">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -27356,7 +27424,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="165">
+    <row r="9" spans="1:3" ht="159.5">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
@@ -27367,7 +27435,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="59.45" customHeight="1">
+    <row r="10" spans="1:3" ht="59.5" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>82</v>
       </c>
@@ -27378,7 +27446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60">
+    <row r="11" spans="1:3" ht="58">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -27389,7 +27457,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60">
+    <row r="12" spans="1:3" ht="58">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -27411,7 +27479,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
         <v>170</v>
       </c>
@@ -27422,7 +27490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30">
+    <row r="15" spans="1:3" ht="29">
       <c r="A15" s="8" t="s">
         <v>169</v>
       </c>
@@ -27455,7 +27523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
+    <row r="18" spans="1:3" ht="29">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -27513,11 +27581,11 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="4" width="55.7109375" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="4" width="55.7265625" customWidth="1"/>
+    <col min="5" max="5" width="59.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -27527,7 +27595,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:13" ht="120">
+    <row r="3" spans="1:13" ht="101.5">
       <c r="A3" s="28"/>
       <c r="B3" s="3"/>
       <c r="C3" s="39" t="s">
@@ -27590,7 +27658,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="75">
+    <row r="9" spans="1:13" ht="72.5">
       <c r="A9" s="72"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
@@ -27602,7 +27670,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30">
+    <row r="10" spans="1:13" ht="29">
       <c r="A10" s="72"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
@@ -27614,7 +27682,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45">
+    <row r="11" spans="1:13" ht="43.5">
       <c r="A11" s="72"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
@@ -27626,7 +27694,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45">
+    <row r="12" spans="1:13" ht="43.5">
       <c r="A12" s="72"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
@@ -27643,7 +27711,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:13" ht="60">
+    <row r="15" spans="1:13" ht="43.5">
       <c r="A15" s="73" t="s">
         <v>415</v>
       </c>
@@ -27657,7 +27725,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="75">
+    <row r="16" spans="1:13" ht="72.5">
       <c r="A16" s="73"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
@@ -27669,7 +27737,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="105">
+    <row r="17" spans="1:13" ht="87">
       <c r="A17" s="73"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
@@ -27681,7 +27749,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="105">
+    <row r="18" spans="1:13" ht="87">
       <c r="A18" s="73"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
@@ -27693,7 +27761,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="60">
+    <row r="19" spans="1:13" ht="58">
       <c r="A19" s="73" t="s">
         <v>415</v>
       </c>
@@ -27707,7 +27775,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="60">
+    <row r="20" spans="1:13" ht="58">
       <c r="A20" s="73"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
@@ -27719,7 +27787,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="105">
+    <row r="21" spans="1:13" ht="101.5">
       <c r="A21" s="73"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
@@ -27731,7 +27799,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="60">
+    <row r="22" spans="1:13" ht="58">
       <c r="A22" s="73"/>
       <c r="B22" s="55" t="s">
         <v>532</v>
@@ -27765,7 +27833,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" ht="150">
+    <row r="25" spans="1:13" ht="130.5">
       <c r="B25" s="11" t="s">
         <v>538</v>
       </c>
@@ -27787,19 +27855,19 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" ht="150">
+    <row r="26" spans="1:13" ht="145">
       <c r="A26" s="28"/>
       <c r="B26" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>539</v>
       </c>
       <c r="D26" s="36" t="s">
+        <v>630</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>631</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>632</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -27810,15 +27878,15 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" ht="165">
+    <row r="27" spans="1:13" ht="145">
       <c r="B27" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="D27" s="14" t="s">
         <v>634</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>635</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -27830,18 +27898,18 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" ht="200.1" customHeight="1">
+    <row r="28" spans="1:13" ht="200.15" customHeight="1">
       <c r="B28" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="D28" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="E28" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>639</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -27854,55 +27922,55 @@
     </row>
     <row r="29" spans="1:13" ht="195" customHeight="1">
       <c r="B29" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="D29" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="E29" s="62" t="s">
         <v>642</v>
       </c>
-      <c r="E29" s="62" t="s">
+    </row>
+    <row r="30" spans="1:13" ht="211" customHeight="1">
+      <c r="B30" s="11" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="210.95" customHeight="1">
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="D30" s="14" t="s">
         <v>645</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="E30" s="62" t="s">
         <v>646</v>
       </c>
-      <c r="E30" s="62" t="s">
+    </row>
+    <row r="31" spans="1:13" ht="232">
+      <c r="B31" s="11" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="270">
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="D31" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="E31" s="62" t="s">
         <v>650</v>
       </c>
-      <c r="E31" s="62" t="s">
+    </row>
+    <row r="32" spans="1:13" ht="72.5">
+      <c r="B32" s="11" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="75">
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="D32" s="14" t="s">
         <v>653</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -27923,117 +27991,117 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="4" width="53.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="4" width="53.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>655</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="27" t="s">
         <v>656</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>658</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="27" t="s">
         <v>659</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="27" t="s">
+        <v>660</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>661</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="D5" s="27" t="s">
         <v>662</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="27" t="s">
+        <v>663</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>664</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="D6" s="27" t="s">
         <v>665</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>667</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="D7" s="27" t="s">
         <v>668</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>670</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="D8" s="27" t="s">
         <v>671</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>673</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="D9" s="27" t="s">
         <v>674</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>676</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="D10" s="27" t="s">
         <v>677</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>679</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="D11" s="27" t="s">
         <v>680</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>682</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>683</v>
       </c>
       <c r="D12" s="27"/>
     </row>
@@ -28049,130 +28117,130 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="63" t="s">
+        <v>684</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>685</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>686</v>
       </c>
       <c r="D16" s="27"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="63" t="s">
+        <v>686</v>
+      </c>
+      <c r="C17" s="43" t="s">
         <v>687</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>688</v>
       </c>
       <c r="D17" s="27"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="63" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="75" t="s">
-        <v>690</v>
-      </c>
-      <c r="D19" s="75"/>
+      <c r="C19" s="74" t="s">
+        <v>689</v>
+      </c>
+      <c r="D19" s="74"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="75" t="s">
-        <v>691</v>
-      </c>
-      <c r="D20" s="75"/>
+      <c r="C20" s="74" t="s">
+        <v>690</v>
+      </c>
+      <c r="D20" s="74"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="75" t="s">
-        <v>692</v>
-      </c>
-      <c r="D21" s="75"/>
+      <c r="C21" s="74" t="s">
+        <v>691</v>
+      </c>
+      <c r="D21" s="74"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="75" t="s">
-        <v>693</v>
-      </c>
-      <c r="D22" s="75"/>
+      <c r="C22" s="74" t="s">
+        <v>692</v>
+      </c>
+      <c r="D22" s="74"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="75" t="s">
-        <v>694</v>
-      </c>
-      <c r="D23" s="75"/>
+      <c r="C23" s="74" t="s">
+        <v>693</v>
+      </c>
+      <c r="D23" s="74"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="63" t="s">
+        <v>695</v>
+      </c>
+      <c r="C25" s="74" t="s">
         <v>696</v>
       </c>
-      <c r="C25" s="75" t="s">
-        <v>697</v>
-      </c>
-      <c r="D25" s="75"/>
+      <c r="D25" s="74"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="75" t="s">
-        <v>698</v>
-      </c>
-      <c r="D26" s="75"/>
+      <c r="C26" s="74" t="s">
+        <v>697</v>
+      </c>
+      <c r="D26" s="74"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="75" t="s">
-        <v>699</v>
-      </c>
-      <c r="D27" s="75"/>
+      <c r="C27" s="74" t="s">
+        <v>698</v>
+      </c>
+      <c r="D27" s="74"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="75" t="s">
-        <v>700</v>
-      </c>
-      <c r="D28" s="75"/>
+      <c r="C28" s="74" t="s">
+        <v>699</v>
+      </c>
+      <c r="D28" s="74"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="74" t="s">
+        <v>700</v>
+      </c>
+      <c r="D29" s="74"/>
+    </row>
+    <row r="30" spans="2:4" ht="39">
+      <c r="B30" s="27" t="s">
         <v>701</v>
       </c>
-      <c r="D29" s="75"/>
-    </row>
-    <row r="30" spans="2:4" ht="38.25">
-      <c r="B30" s="27" t="s">
+      <c r="C30" s="65" t="s">
         <v>702</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>703</v>
       </c>
       <c r="D30" s="64"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="C31" s="43" t="s">
         <v>704</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>705</v>
       </c>
       <c r="D31" s="27"/>
     </row>
@@ -28201,16 +28269,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="27"/>
-    <col min="2" max="2" width="43.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="27" customWidth="1"/>
-    <col min="7" max="8" width="40.5703125" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="8.81640625" style="27"/>
+    <col min="2" max="2" width="43.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.54296875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" style="27" customWidth="1"/>
+    <col min="7" max="8" width="40.54296875" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
@@ -28223,7 +28291,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="29.45" customHeight="1">
+    <row r="5" spans="2:8" ht="29.5" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>466</v>
       </c>
@@ -28247,7 +28315,7 @@
       </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="2:8" ht="29.1" customHeight="1">
+    <row r="7" spans="2:8" ht="29.15" customHeight="1">
       <c r="C7" s="27" t="s">
         <v>465</v>
       </c>
@@ -28256,7 +28324,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="2:8" ht="45">
+    <row r="8" spans="2:8" ht="43.5">
       <c r="C8" s="27" t="s">
         <v>467</v>
       </c>
@@ -28273,7 +28341,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:8" ht="30">
+    <row r="11" spans="2:8" ht="29">
       <c r="B11" s="10" t="s">
         <v>477</v>
       </c>
@@ -28285,7 +28353,7 @@
       </c>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="2:8" ht="115.35" customHeight="1">
+    <row r="12" spans="2:8" ht="115.4" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>472</v>
       </c>
@@ -28297,7 +28365,7 @@
       </c>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:8" ht="45">
+    <row r="13" spans="2:8" ht="43.5">
       <c r="B13" s="46" t="s">
         <v>459</v>
       </c>
@@ -28309,7 +28377,7 @@
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="2:8" ht="30">
+    <row r="14" spans="2:8" ht="29">
       <c r="B14" s="46" t="s">
         <v>478</v>
       </c>
@@ -28321,7 +28389,7 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:8" ht="101.1" customHeight="1">
+    <row r="15" spans="2:8" ht="101.15" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>481</v>
       </c>
@@ -28333,7 +28401,7 @@
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:8" ht="75">
+    <row r="16" spans="2:8" ht="72.5">
       <c r="B16" s="8" t="s">
         <v>495</v>
       </c>
@@ -28356,7 +28424,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="90">
+    <row r="17" spans="2:8" ht="58">
       <c r="B17" s="8" t="s">
         <v>494</v>
       </c>
@@ -28371,7 +28439,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="2:8" ht="45">
+    <row r="18" spans="2:8" ht="43.5">
       <c r="B18" s="8" t="s">
         <v>491</v>
       </c>
@@ -28386,7 +28454,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="2:8" ht="75">
+    <row r="19" spans="2:8" ht="72.5">
       <c r="B19" s="8" t="s">
         <v>496</v>
       </c>
@@ -28401,7 +28469,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="2:8" ht="120">
+    <row r="20" spans="2:8" ht="116">
       <c r="B20" s="8" t="s">
         <v>501</v>
       </c>
@@ -28418,7 +28486,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="2:8" ht="43.35" customHeight="1">
+    <row r="21" spans="2:8" ht="43.4" customHeight="1">
       <c r="B21" s="8" t="s">
         <v>504</v>
       </c>
@@ -28433,7 +28501,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="2:8" ht="90">
+    <row r="22" spans="2:8" ht="87">
       <c r="B22" s="8" t="s">
         <v>510</v>
       </c>
@@ -28448,7 +28516,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="2:8" ht="30">
+    <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
         <v>543</v>
       </c>
@@ -28477,7 +28545,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="2:8" ht="30">
+    <row r="26" spans="2:8" ht="29">
       <c r="B26" s="10" t="s">
         <v>505</v>
       </c>
@@ -28513,7 +28581,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="2:8" ht="30">
+    <row r="30" spans="2:8" ht="29">
       <c r="B30" s="46" t="s">
         <v>509</v>
       </c>
@@ -28524,7 +28592,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="14.45" customHeight="1"/>
+    <row r="32" spans="2:8" ht="14.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
@@ -28539,18 +28607,18 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -28580,19 +28648,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="75" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -28616,12 +28684,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="16.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -28629,13 +28697,13 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="29">
       <c r="B4" s="39" t="s">
         <v>419</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="6" spans="1:3" ht="90">
+    <row r="6" spans="1:3" ht="87">
       <c r="A6" s="44" t="s">
         <v>420</v>
       </c>
@@ -28660,12 +28728,12 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -28678,7 +28746,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
         <v>430</v>
       </c>
@@ -28713,12 +28781,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -28731,7 +28799,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
         <v>438</v>
       </c>
@@ -28742,7 +28810,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="29">
       <c r="A7" s="46" t="s">
         <v>441</v>
       </c>
@@ -28766,12 +28834,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="1" width="23.54296875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="38"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -28779,12 +28847,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="29">
       <c r="B4" s="39" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
         <v>446</v>
       </c>
@@ -28795,7 +28863,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="29">
       <c r="A7" s="46" t="s">
         <v>448</v>
       </c>
@@ -28819,12 +28887,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="43.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -28832,12 +28900,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45">
+    <row r="4" spans="1:3" ht="43.5">
       <c r="B4" s="39" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
         <v>426</v>
       </c>
@@ -28861,12 +28929,12 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.453125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="63.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
@@ -28875,7 +28943,7 @@
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="43.5">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -28896,7 +28964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45">
+    <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -28908,7 +28976,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="45">
+    <row r="8" spans="1:4" ht="43.5">
       <c r="A8" s="7" t="s">
         <v>87</v>
       </c>
@@ -28920,7 +28988,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="90">
+    <row r="9" spans="1:4" ht="72.5">
       <c r="A9" s="8" t="s">
         <v>269</v>
       </c>
@@ -28932,7 +29000,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="43.5">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -28944,7 +29012,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="75">
+    <row r="11" spans="1:4" ht="58">
       <c r="A11" s="8" t="s">
         <v>264</v>
       </c>
@@ -28956,7 +29024,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="45">
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="43.5">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -28968,7 +29036,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="45">
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="43.5">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -28980,7 +29048,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="45">
+    <row r="14" spans="1:4" ht="43.5">
       <c r="A14" s="8" t="s">
         <v>275</v>
       </c>
@@ -28992,7 +29060,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="45">
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="43.5">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -29004,7 +29072,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="45">
+    <row r="16" spans="1:4" ht="43.5">
       <c r="A16" s="8" t="s">
         <v>218</v>
       </c>
@@ -29016,7 +29084,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="60">
+    <row r="17" spans="1:4" ht="43.5">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -29028,7 +29096,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="60">
+    <row r="18" spans="1:4" ht="43.5">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -29040,7 +29108,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="75">
+    <row r="19" spans="1:4" ht="72.5">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -29052,7 +29120,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="90">
+    <row r="20" spans="1:4" ht="87">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -29064,7 +29132,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="60">
+    <row r="21" spans="1:4" ht="58">
       <c r="A21" s="30" t="s">
         <v>224</v>
       </c>
@@ -29076,7 +29144,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="29">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -29088,7 +29156,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="30">
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="29">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -29107,10 +29175,10 @@
         <v>321</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="75">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="72.5">
       <c r="A25" s="8" t="s">
         <v>227</v>
       </c>
@@ -29122,7 +29190,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="120">
+    <row r="26" spans="1:4" ht="87">
       <c r="A26" s="6" t="s">
         <v>229</v>
       </c>
@@ -29134,7 +29202,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="60">
+    <row r="27" spans="1:4" ht="58">
       <c r="A27" s="6" t="s">
         <v>231</v>
       </c>
@@ -29182,11 +29250,11 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -29208,7 +29276,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" ht="43.5">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -29219,7 +29287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="43.5">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -29230,7 +29298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60">
+    <row r="7" spans="1:6" ht="58">
       <c r="A7" s="6" t="s">
         <v>104</v>
       </c>
@@ -29241,7 +29309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="43.5">
       <c r="A8" s="6" t="s">
         <v>89</v>
       </c>
@@ -29255,7 +29323,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="195">
+    <row r="9" spans="1:6" ht="174">
       <c r="A9" s="8" t="s">
         <v>119</v>
       </c>
@@ -29266,7 +29334,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45">
+    <row r="10" spans="1:6" ht="43.5">
       <c r="A10" s="8" t="s">
         <v>90</v>
       </c>
@@ -29277,7 +29345,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="75">
+    <row r="11" spans="1:6" ht="72.5">
       <c r="A11" s="8" t="s">
         <v>92</v>
       </c>
@@ -29288,7 +29356,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" ht="58">
       <c r="A12" s="8" t="s">
         <v>93</v>
       </c>
@@ -29299,7 +29367,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75">
+    <row r="13" spans="1:6" ht="72.5">
       <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
@@ -29310,7 +29378,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="90">
+    <row r="14" spans="1:6" ht="72.5">
       <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
@@ -29321,7 +29389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60">
+    <row r="15" spans="1:6" ht="58">
       <c r="A15" s="8" t="s">
         <v>99</v>
       </c>
@@ -29332,7 +29400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="90">
+    <row r="16" spans="1:6" ht="87">
       <c r="A16" s="8" t="s">
         <v>103</v>
       </c>
@@ -29343,7 +29411,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="75">
+    <row r="17" spans="1:3" ht="72.5">
       <c r="A17" s="8" t="s">
         <v>101</v>
       </c>
@@ -29354,7 +29422,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="105">
+    <row r="18" spans="1:3" ht="87">
       <c r="A18" s="8" t="s">
         <v>196</v>
       </c>
@@ -29365,7 +29433,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="90">
+    <row r="19" spans="1:3" ht="87">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -29376,7 +29444,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60">
+    <row r="20" spans="1:3" ht="43.5">
       <c r="A20" s="8" t="s">
         <v>203</v>
       </c>
@@ -29387,7 +29455,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="90">
+    <row r="21" spans="1:3" ht="87">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -29398,7 +29466,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75">
+    <row r="22" spans="1:3" ht="72.5">
       <c r="A22" s="8" t="s">
         <v>108</v>
       </c>
@@ -29409,7 +29477,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="90">
+    <row r="23" spans="1:3" ht="87">
       <c r="A23" s="8" t="s">
         <v>109</v>
       </c>
@@ -29420,7 +29488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="105">
+    <row r="24" spans="1:3" ht="87">
       <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
@@ -29442,7 +29510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="90">
+    <row r="26" spans="1:3" ht="72.5">
       <c r="A26" s="8" t="s">
         <v>111</v>
       </c>
@@ -29453,7 +29521,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="90">
+    <row r="27" spans="1:3" ht="87">
       <c r="A27" s="8" t="s">
         <v>113</v>
       </c>
@@ -29464,7 +29532,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="75">
+    <row r="28" spans="1:3" ht="72.5">
       <c r="A28" s="8" t="s">
         <v>114</v>
       </c>
@@ -29475,7 +29543,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="120">
+    <row r="29" spans="1:3" ht="116">
       <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
@@ -29486,7 +29554,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="195">
+    <row r="30" spans="1:3" ht="174">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -29497,7 +29565,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="210">
+    <row r="31" spans="1:3" ht="159.5">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -29508,7 +29576,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="240">
+    <row r="32" spans="1:3" ht="203">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -29544,11 +29612,11 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -29573,7 +29641,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="29">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -29584,7 +29652,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60">
+    <row r="6" spans="1:3" ht="43.5">
       <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
@@ -29595,7 +29663,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="29">
       <c r="A7" s="10" t="s">
         <v>136</v>
       </c>
@@ -29606,7 +29674,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="29">
       <c r="A8" s="10" t="s">
         <v>139</v>
       </c>
@@ -29617,7 +29685,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45">
+    <row r="9" spans="1:3" ht="43.5">
       <c r="A9" s="10" t="s">
         <v>140</v>
       </c>
@@ -29628,7 +29696,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45">
+    <row r="10" spans="1:3" ht="43.5">
       <c r="A10" s="10" t="s">
         <v>142</v>
       </c>
@@ -29650,7 +29718,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45">
+    <row r="12" spans="1:3" ht="43.5">
       <c r="A12" s="10" t="s">
         <v>152</v>
       </c>
@@ -29661,7 +29729,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45">
+    <row r="13" spans="1:3" ht="43.5">
       <c r="A13" s="8" t="s">
         <v>156</v>
       </c>
@@ -29672,7 +29740,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45">
+    <row r="14" spans="1:3" ht="43.5">
       <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
@@ -29683,7 +29751,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="75">
+    <row r="15" spans="1:3" ht="72.5">
       <c r="A15" s="8" t="s">
         <v>166</v>
       </c>
@@ -29694,7 +29762,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45">
+    <row r="16" spans="1:3" ht="43.5">
       <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
@@ -29705,7 +29773,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="43.5">
       <c r="A17" s="8" t="s">
         <v>177</v>
       </c>
@@ -29716,7 +29784,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45">
+    <row r="18" spans="1:3" ht="43.5">
       <c r="A18" s="8" t="s">
         <v>178</v>
       </c>
@@ -29727,7 +29795,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45">
+    <row r="19" spans="1:3" ht="43.5">
       <c r="A19" s="8" t="s">
         <v>181</v>
       </c>
@@ -29738,7 +29806,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60">
+    <row r="20" spans="1:3" ht="58">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -29749,7 +29817,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="90">
+    <row r="21" spans="1:3" ht="72.5">
       <c r="A21" s="10" t="s">
         <v>150</v>
       </c>
@@ -29760,7 +29828,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75">
+    <row r="22" spans="1:3" ht="72.5">
       <c r="A22" s="8" t="s">
         <v>183</v>
       </c>
@@ -29771,7 +29839,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60">
+    <row r="23" spans="1:3" ht="58">
       <c r="A23" s="10" t="s">
         <v>67</v>
       </c>
@@ -29782,7 +29850,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="90">
+    <row r="24" spans="1:3" ht="87">
       <c r="A24" s="8" t="s">
         <v>186</v>
       </c>
@@ -29793,7 +29861,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="120">
+    <row r="25" spans="1:3" ht="101.5">
       <c r="A25" s="10" t="s">
         <v>232</v>
       </c>
@@ -29804,7 +29872,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="90">
+    <row r="26" spans="1:3" ht="72.5">
       <c r="A26" s="8" t="s">
         <v>234</v>
       </c>
@@ -29815,7 +29883,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="75">
+    <row r="27" spans="1:3" ht="72.5">
       <c r="A27" s="10" t="s">
         <v>236</v>
       </c>
@@ -29826,7 +29894,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45">
+    <row r="28" spans="1:3" ht="43.5">
       <c r="A28" s="7" t="s">
         <v>240</v>
       </c>
@@ -29837,7 +29905,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="75">
+    <row r="29" spans="1:3" ht="58">
       <c r="A29" s="7" t="s">
         <v>242</v>
       </c>
@@ -29848,7 +29916,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45.6" customHeight="1">
+    <row r="30" spans="1:3" ht="45.65" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>245</v>
       </c>
@@ -29859,7 +29927,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45">
+    <row r="31" spans="1:3" ht="43.5">
       <c r="A31" s="7" t="s">
         <v>247</v>
       </c>
@@ -29870,7 +29938,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45">
+    <row r="32" spans="1:3" ht="43.5">
       <c r="A32" s="7" t="s">
         <v>251</v>
       </c>
@@ -29881,7 +29949,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45">
+    <row r="33" spans="1:3" ht="43.5">
       <c r="A33" s="8" t="s">
         <v>148</v>
       </c>
@@ -29892,7 +29960,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="60">
+    <row r="34" spans="1:3" ht="58">
       <c r="A34" s="8" t="s">
         <v>148</v>
       </c>
@@ -29981,17 +30049,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8480C-E8CD-45AC-8F81-8D4ABFF602C5}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="28"/>
-    <col min="2" max="2" width="30.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.81640625" style="28"/>
+    <col min="2" max="2" width="30.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="52.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -29999,7 +30067,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="60">
+    <row r="3" spans="2:4" ht="58">
       <c r="C3" s="37" t="s">
         <v>545</v>
       </c>
@@ -30023,7 +30091,7 @@
       <c r="B7" s="59"/>
       <c r="C7" s="34"/>
     </row>
-    <row r="8" spans="2:4" ht="30">
+    <row r="8" spans="2:4" ht="29">
       <c r="B8" s="11" t="s">
         <v>560</v>
       </c>
@@ -30034,7 +30102,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="29">
       <c r="B9" s="7" t="s">
         <v>553</v>
       </c>
@@ -30045,7 +30113,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30">
+    <row r="10" spans="2:4" ht="29">
       <c r="B10" s="7" t="s">
         <v>556</v>
       </c>
@@ -30056,7 +30124,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30">
+    <row r="11" spans="2:4" ht="29">
       <c r="B11" s="11" t="s">
         <v>559</v>
       </c>
@@ -30067,7 +30135,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30">
+    <row r="12" spans="2:4" ht="29">
       <c r="B12" s="11" t="s">
         <v>563</v>
       </c>
@@ -30078,7 +30146,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="45">
+    <row r="13" spans="2:4" ht="43.5">
       <c r="B13" s="11" t="s">
         <v>565</v>
       </c>
@@ -30089,7 +30157,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="45">
+    <row r="14" spans="2:4" ht="43.5">
       <c r="B14" s="11" t="s">
         <v>569</v>
       </c>
@@ -30100,7 +30168,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="45">
+    <row r="15" spans="2:4" ht="43.5">
       <c r="B15" s="11" t="s">
         <v>571</v>
       </c>
@@ -30111,7 +30179,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30">
+    <row r="16" spans="2:4" ht="29">
       <c r="B16" s="7" t="s">
         <v>574</v>
       </c>
@@ -30122,7 +30190,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="165">
+    <row r="17" spans="2:13" ht="159.5">
       <c r="B17" s="7" t="s">
         <v>578</v>
       </c>
@@ -30133,7 +30201,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="144.94999999999999" customHeight="1">
+    <row r="18" spans="2:13" ht="145" customHeight="1">
       <c r="B18" s="11" t="s">
         <v>581</v>
       </c>
@@ -30152,7 +30220,7 @@
       <c r="I18" s="67"/>
       <c r="J18" s="67"/>
     </row>
-    <row r="19" spans="2:13" ht="231.95" customHeight="1">
+    <row r="19" spans="2:13" ht="232" customHeight="1">
       <c r="B19" s="7" t="s">
         <v>585</v>
       </c>
@@ -30174,7 +30242,7 @@
       <c r="L19" s="66"/>
       <c r="M19" s="66"/>
     </row>
-    <row r="20" spans="2:13" ht="30">
+    <row r="20" spans="2:13" ht="29">
       <c r="B20" s="7" t="s">
         <v>589</v>
       </c>
@@ -30185,7 +30253,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="30">
+    <row r="21" spans="2:13" ht="105" customHeight="1">
       <c r="B21" s="7" t="s">
         <v>592</v>
       </c>
@@ -30193,13 +30261,25 @@
         <v>593</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>594</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>722</v>
+      </c>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E21:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30210,212 +30290,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="27"/>
-    <col min="2" max="3" width="43.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="27"/>
+    <col min="1" max="1" width="8.7265625" style="27"/>
+    <col min="2" max="3" width="43.54296875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="60" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C5" s="43" t="s">
+        <v>597</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>598</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C6" s="43" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>596</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C7" s="43" t="s">
+        <v>599</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>600</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C8" s="43" t="s">
+        <v>601</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>602</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="45" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C10" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>605</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="60" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="C15" s="43" t="s">
         <v>623</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="D15" s="61" t="s">
         <v>624</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C16" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>608</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="27" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C17" s="43" t="s">
+        <v>617</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>618</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C18" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>628</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C19" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>621</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="60" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="27" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C24" s="43" t="s">
+        <v>707</v>
+      </c>
+      <c r="D24" s="45" t="s">
         <v>708</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>617</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>711</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>618</v>
-      </c>
-      <c r="D25" s="27" t="s">
+    </row>
+    <row r="26" spans="2:4" ht="29">
+      <c r="B26" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="30">
-      <c r="B26" s="38" t="s">
-        <v>715</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="46" t="s">
         <v>713</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C27" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>716</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>718</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>720</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>719</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -30432,13 +30512,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="27"/>
-    <col min="2" max="2" width="30.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="8.81640625" style="27"/>
+    <col min="2" max="2" width="30.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="52.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -30466,7 +30546,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="43"/>
     </row>
-    <row r="7" spans="2:4" ht="30">
+    <row r="7" spans="2:4" ht="29">
       <c r="B7" s="46" t="s">
         <v>550</v>
       </c>
@@ -30478,7 +30558,7 @@
     <row r="9" spans="2:4">
       <c r="B9" s="45"/>
     </row>
-    <row r="10" spans="2:4" ht="101.45" customHeight="1">
+    <row r="10" spans="2:4" ht="101.5" customHeight="1">
       <c r="B10" s="45"/>
       <c r="C10" s="43"/>
       <c r="D10" s="38"/>
@@ -30500,10 +30580,10 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -30542,7 +30622,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="101.45" customHeight="1">
+    <row r="9" spans="1:3" ht="101.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>295</v>
       </c>
@@ -30575,13 +30655,13 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="30.453125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="48.81640625" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -30616,7 +30696,7 @@
       </c>
       <c r="B6" s="71"/>
     </row>
-    <row r="7" spans="1:4" ht="45">
+    <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="35" t="s">
         <v>345</v>
       </c>
@@ -30649,7 +30729,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90">
+    <row r="10" spans="1:4" ht="72.5">
       <c r="A10" s="9" t="s">
         <v>351</v>
       </c>
@@ -30709,7 +30789,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
+    <row r="18" spans="1:3" ht="29">
       <c r="A18" s="4" t="s">
         <v>355</v>
       </c>
@@ -30731,7 +30811,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="75">
+    <row r="20" spans="1:3" ht="58">
       <c r="A20" s="4" t="s">
         <v>369</v>
       </c>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833F5B16-02B4-477C-B17C-B3B668C43DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F15CD9A-8784-4FEA-BFF1-2B41446C7055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -26601,13 +26601,14 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> = show internal TCP information
-format: &lt;congestion_algorithm&gt;, wscale:&lt;snd&gt;:&lt;rcv&gt;, rto: &lt;value&gt;, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+format: &lt;congestion_algorithm&gt;, wscale:&lt;snd&gt;:&lt;rcv&gt;, rto: &lt;value&gt;, rtt: &lt;value&gt;/&lt;avg deviation&gt;, mss: &lt;value&gt;, pmtu: &lt;value&gt;, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -26618,6 +26619,7 @@
     </r>
     <r>
       <rPr>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -26630,6 +26632,7 @@
     <r>
       <rPr>
         <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -26640,6 +26643,7 @@
     </r>
     <r>
       <rPr>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -26652,23 +26656,121 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">rto: &lt;icsk_rto&gt;: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> value is in millseconds; TCP starts timer when outbound segment is handed to IP layer. If no 'ack' is received for the data in a given segment before the timer expires, the segment is retransmitted.</t>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rto: &lt;value&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value is in millseconds; TCP starts timer when outbound segment is handed to IP layer. If no 'ack' is received for the data in a given segment before the timer expires, the segment is retransmitted
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rtt: &lt;value&gt;/&lt;avg deviation&gt;:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> average round trip time in milliseconds (from client to server and back again); The first value is the avg round trip time, the second value is the avg deviation from the from the average round trip time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mss: &lt;value&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: maximum segment size; the largest segment the local host will accept
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pmtu: &lt;value&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">path MTU value; path MTU is the largest packet size that can traverse this path without suffering fragmentation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'segment' is the Protocol Data Unit (PDU) at the Transport layer (layer 4)</t>
     </r>
   </si>
 </sst>
@@ -26836,7 +26938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -27030,10 +27132,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -27052,6 +27154,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -28626,11 +28731,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="69" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -28697,7 +28802,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29">
+    <row r="4" spans="1:3">
       <c r="B4" s="39" t="s">
         <v>419</v>
       </c>
@@ -30050,7 +30155,7 @@
   <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="E18" sqref="E18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -30197,7 +30302,7 @@
       <c r="C17" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="76" t="s">
         <v>580</v>
       </c>
     </row>
@@ -30208,7 +30313,7 @@
       <c r="C18" s="17" t="s">
         <v>582</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="76" t="s">
         <v>583</v>
       </c>
       <c r="E18" s="66" t="s">
@@ -30220,14 +30325,14 @@
       <c r="I18" s="67"/>
       <c r="J18" s="67"/>
     </row>
-    <row r="19" spans="2:13" ht="232" customHeight="1">
+    <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
         <v>585</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="76" t="s">
         <v>587</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -30253,27 +30358,27 @@
         <v>591</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="105" customHeight="1">
+    <row r="21" spans="2:13" ht="210" customHeight="1">
       <c r="B21" s="7" t="s">
         <v>592</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="76" t="s">
         <v>721</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="66" t="s">
         <v>722</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30673,10 +30778,10 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="69"/>
+      <c r="C2" s="68"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="70" t="s">
@@ -30823,88 +30928,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="69" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="69" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="69" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="69" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="69" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\git\Linux-cmds-cheat-sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F15CD9A-8784-4FEA-BFF1-2B41446C7055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134283AF-06E4-45CB-A3A5-0F1EB9808360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,20 @@
     <sheet name="find" sheetId="3" r:id="rId3"/>
     <sheet name="tree" sheetId="4" r:id="rId4"/>
     <sheet name="ss" sheetId="16" r:id="rId5"/>
-    <sheet name="git" sheetId="18" r:id="rId6"/>
-    <sheet name="mv" sheetId="17" r:id="rId7"/>
-    <sheet name="touch" sheetId="6" r:id="rId8"/>
-    <sheet name="vi" sheetId="5" r:id="rId9"/>
-    <sheet name="nmap" sheetId="20" r:id="rId10"/>
-    <sheet name="ufw" sheetId="21" r:id="rId11"/>
-    <sheet name="tcpdump" sheetId="15" r:id="rId12"/>
-    <sheet name="shells" sheetId="8" r:id="rId13"/>
-    <sheet name="awk" sheetId="10" r:id="rId14"/>
-    <sheet name="sort" sheetId="11" r:id="rId15"/>
-    <sheet name="head" sheetId="13" r:id="rId16"/>
-    <sheet name="cut" sheetId="14" r:id="rId17"/>
-    <sheet name="uniq" sheetId="12" r:id="rId18"/>
+    <sheet name="iptables" sheetId="22" r:id="rId6"/>
+    <sheet name="git" sheetId="18" r:id="rId7"/>
+    <sheet name="mv" sheetId="17" r:id="rId8"/>
+    <sheet name="touch" sheetId="6" r:id="rId9"/>
+    <sheet name="vi" sheetId="5" r:id="rId10"/>
+    <sheet name="nmap" sheetId="20" r:id="rId11"/>
+    <sheet name="ufw" sheetId="21" r:id="rId12"/>
+    <sheet name="tcpdump" sheetId="15" r:id="rId13"/>
+    <sheet name="shells" sheetId="8" r:id="rId14"/>
+    <sheet name="awk" sheetId="10" r:id="rId15"/>
+    <sheet name="sort" sheetId="11" r:id="rId16"/>
+    <sheet name="head" sheetId="13" r:id="rId17"/>
+    <sheet name="cut" sheetId="14" r:id="rId18"/>
+    <sheet name="uniq" sheetId="12" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="735">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -26772,6 +26773,452 @@
       </rPr>
       <t xml:space="preserve"> 'segment' is the Protocol Data Unit (PDU) at the Transport layer (layer 4)</t>
     </r>
+  </si>
+  <si>
+    <t>linux 'iptables'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">host firewall installed by default on Linux systems. 
+It uses 3 lists or 'chains':
+Input chain: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list that</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>controls behavior for incoming connections</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Forward chain: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">list for incoming connections not meant for the local system but rather being passed through 
+or 'forwarded' on to another destination
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Output chain: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">list that tells iptables how to handle data being sent </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">of the local host to another destination
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IMPORTANT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>almost all connections need to talk back and forth, so both 'input' and 'output' chains are used!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.howtogeek.com/177621/the-beginners-guide-to-iptables-the-linux-firewall/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACTIONS determine what to do with a specific connection. The main actions are:
+ACCEPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">allow data to flow
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REJECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: block data flow, and give the sender an error. Use if you want the sender to know they are being blocked by a firewall</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DROP: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block data flow without giving an explanation to the sender. Use if you don't want the sender to know that the system exists.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>append</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a rule to the end of a selected chain</t>
+    </r>
+  </si>
+  <si>
+    <t>iptables -A INPUT -s 10.10.10.10 -j DROP</t>
+  </si>
+  <si>
+    <r>
+      <t>Append (attach) this new rule to the INPUT chain; anything from source 10.10.10.10, DROP the data'
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-A: appends</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (attaches) the rule to the end of the INPUT chain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-s: source</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; where the data is coming from
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-j: jump</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; as in 'jump to the DROP action'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all rules in selected chain</t>
+    </r>
+  </si>
+  <si>
+    <t>iptables -L</t>
+  </si>
+  <si>
+    <t>lists all rules on all chains</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--policy &lt;CHAIN&gt; &lt;ACTION&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= sets the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for an iptables chain</t>
+    </r>
+  </si>
+  <si>
+    <t>iptables --policy INPUT ACCEPT</t>
+  </si>
+  <si>
+    <t>sets the default action to 'ACCEPT' for the 'INPUT' policy</t>
   </si>
 </sst>
 </file>
@@ -26938,7 +27385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -27126,16 +27573,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -27155,8 +27605,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -27479,11 +27929,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -27518,7 +27968,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -27529,7 +27979,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="159.5">
+    <row r="9" spans="1:3" ht="165">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
@@ -27540,7 +27990,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="59.5" customHeight="1">
+    <row r="10" spans="1:3" ht="59.45" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>82</v>
       </c>
@@ -27551,7 +28001,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="58">
+    <row r="11" spans="1:3" ht="60">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -27562,7 +28012,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="58">
+    <row r="12" spans="1:3" ht="60">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -27584,7 +28034,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" s="8" t="s">
         <v>170</v>
       </c>
@@ -27595,7 +28045,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="8" t="s">
         <v>169</v>
       </c>
@@ -27628,7 +28078,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -27679,3080 +28129,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4A975-49E6-4D67-87B6-C134DC574AA3}">
-  <dimension ref="A2:M32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="4" width="55.7265625" customWidth="1"/>
-    <col min="5" max="5" width="59.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13">
-      <c r="B2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:13" ht="101.5">
-      <c r="A3" s="28"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>396</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="72.5">
-      <c r="A9" s="72"/>
-      <c r="B9" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="29">
-      <c r="A10" s="72"/>
-      <c r="B10" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="43.5">
-      <c r="A11" s="72"/>
-      <c r="B11" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="43.5">
-      <c r="A12" s="72"/>
-      <c r="B12" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:13" ht="43.5">
-      <c r="A15" s="73" t="s">
-        <v>415</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>411</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="72.5">
-      <c r="A16" s="73"/>
-      <c r="B16" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="87">
-      <c r="A17" s="73"/>
-      <c r="B17" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="87">
-      <c r="A18" s="73"/>
-      <c r="B18" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="58">
-      <c r="A19" s="73" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="58">
-      <c r="A20" s="73"/>
-      <c r="B20" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="101.5">
-      <c r="A21" s="73"/>
-      <c r="B21" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="58">
-      <c r="A22" s="73"/>
-      <c r="B22" s="55" t="s">
-        <v>532</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>533</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" ht="130.5">
-      <c r="B25" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" ht="145">
-      <c r="A26" s="28"/>
-      <c r="B26" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>630</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" ht="145">
-      <c r="B27" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" ht="200.15" customHeight="1">
-      <c r="B28" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" ht="195" customHeight="1">
-      <c r="B29" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>640</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="211" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="232">
-      <c r="B31" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="72.5">
-      <c r="B32" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>652</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>653</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA1D3C-99B5-45E1-9627-8CE6B2A3AF89}">
-  <dimension ref="B3:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="4" width="53.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="27" t="s">
-        <v>654</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="27" t="s">
-        <v>657</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>658</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>661</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="27" t="s">
-        <v>663</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>664</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="27" t="s">
-        <v>666</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>667</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="27" t="s">
-        <v>669</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>670</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>673</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="27" t="s">
-        <v>675</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>676</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="27" t="s">
-        <v>678</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="27" t="s">
-        <v>681</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>682</v>
-      </c>
-      <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="27" t="s">
-        <v>683</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="63" t="s">
-        <v>684</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>685</v>
-      </c>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="63" t="s">
-        <v>686</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>687</v>
-      </c>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="63" t="s">
-        <v>688</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="27"/>
-      <c r="C19" s="74" t="s">
-        <v>689</v>
-      </c>
-      <c r="D19" s="74"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="27"/>
-      <c r="C20" s="74" t="s">
-        <v>690</v>
-      </c>
-      <c r="D20" s="74"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="27"/>
-      <c r="C21" s="74" t="s">
-        <v>691</v>
-      </c>
-      <c r="D21" s="74"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="27"/>
-      <c r="C22" s="74" t="s">
-        <v>692</v>
-      </c>
-      <c r="D22" s="74"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="27"/>
-      <c r="C23" s="74" t="s">
-        <v>693</v>
-      </c>
-      <c r="D23" s="74"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="63" t="s">
-        <v>694</v>
-      </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="63" t="s">
-        <v>695</v>
-      </c>
-      <c r="C25" s="74" t="s">
-        <v>696</v>
-      </c>
-      <c r="D25" s="74"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="27"/>
-      <c r="C26" s="74" t="s">
-        <v>697</v>
-      </c>
-      <c r="D26" s="74"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="27"/>
-      <c r="C27" s="74" t="s">
-        <v>698</v>
-      </c>
-      <c r="D27" s="74"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="27"/>
-      <c r="C28" s="74" t="s">
-        <v>699</v>
-      </c>
-      <c r="D28" s="74"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="27"/>
-      <c r="C29" s="74" t="s">
-        <v>700</v>
-      </c>
-      <c r="D29" s="74"/>
-    </row>
-    <row r="30" spans="2:4" ht="39">
-      <c r="B30" s="27" t="s">
-        <v>701</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>702</v>
-      </c>
-      <c r="D30" s="64"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="27" t="s">
-        <v>703</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>704</v>
-      </c>
-      <c r="D31" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866F71F-38C4-486B-B894-DFD9311F2D3F}">
-  <dimension ref="B3:H32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="8.81640625" style="27"/>
-    <col min="2" max="2" width="43.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.54296875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" style="27" customWidth="1"/>
-    <col min="7" max="8" width="40.54296875" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:8">
-      <c r="B3" s="43" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="C4" s="39" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="29.5" customHeight="1">
-      <c r="B5" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="39" t="s">
-        <v>461</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="2:8" ht="29.15" customHeight="1">
-      <c r="C7" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="2:8" ht="43.5">
-      <c r="C8" s="27" t="s">
-        <v>467</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="2:8" ht="29">
-      <c r="B11" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="2:8" ht="115.4" customHeight="1">
-      <c r="B12" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="2:8" ht="43.5">
-      <c r="B13" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="2:8" ht="29">
-      <c r="B14" s="46" t="s">
-        <v>478</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="2:8" ht="101.15" customHeight="1">
-      <c r="B15" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="2:8" ht="72.5">
-      <c r="B16" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="58">
-      <c r="B17" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="2:8" ht="43.5">
-      <c r="B18" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="2:8" ht="72.5">
-      <c r="B19" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="2:8" ht="116">
-      <c r="B20" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="2:8" ht="43.4" customHeight="1">
-      <c r="B21" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="2:8" ht="87">
-      <c r="B22" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="8"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="8"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="2:8" ht="29">
-      <c r="B26" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="10"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="10"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="45" t="s">
-        <v>456</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>457</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="2:8" ht="29">
-      <c r="B30" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>507</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="14.5" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D27781-00F8-4FFB-93E0-B673FC3983D4}">
-  <dimension ref="B3:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="16384" width="8.81640625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3" s="75" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="27" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="27" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="27" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="75" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="75" t="s">
-        <v>366</v>
-      </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43823669-EFD8-43EB-A359-D7480668BEF6}">
-  <dimension ref="A3:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="16.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="43" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="39" t="s">
-        <v>419</v>
-      </c>
-      <c r="C4" s="38"/>
-    </row>
-    <row r="6" spans="1:3" ht="87">
-      <c r="A6" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>422</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052E72CA-1731-48AE-9B7E-B9E8A0144CA6}">
-  <dimension ref="A3:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="43" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="39" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29">
-      <c r="A6" s="46" t="s">
-        <v>430</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="45" t="s">
-        <v>431</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>435</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3784FF0-F038-40BE-B11F-87E1438AD14B}">
-  <dimension ref="A3:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="43" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="43" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29">
-      <c r="A6" s="46" t="s">
-        <v>438</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29">
-      <c r="A7" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70DB8B6-5F67-4869-98C0-42C5D9956483}">
-  <dimension ref="A3:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="23.54296875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="38"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="39" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29">
-      <c r="B4" s="39" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29">
-      <c r="A6" s="46" t="s">
-        <v>446</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29">
-      <c r="A7" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49969255-3A5B-4747-B20A-C7D337DB7232}">
-  <dimension ref="A3:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="43.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="43" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.5">
-      <c r="B4" s="39" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29">
-      <c r="A6" s="46" t="s">
-        <v>426</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>429</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B4C89-AE87-4187-8C18-5F20544A3D88}">
-  <dimension ref="A3:D29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.453125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="63.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="43.5">
-      <c r="A4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.5">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="43.5">
-      <c r="A8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="72.5">
-      <c r="A9" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="43.5">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="58">
-      <c r="A11" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="43.5">
-      <c r="A12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="43.5">
-      <c r="A13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="43.5">
-      <c r="A14" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="43.5">
-      <c r="A15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="43.5">
-      <c r="A16" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="43.5">
-      <c r="A17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="43.5">
-      <c r="A18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="72.5">
-      <c r="A19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="87">
-      <c r="A20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" ht="58">
-      <c r="A21" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="29">
-      <c r="A22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="29">
-      <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="3" customFormat="1">
-      <c r="A24" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="72.5">
-      <c r="A25" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" ht="87">
-      <c r="A26" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" ht="58">
-      <c r="A27" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7E7EB8-4E18-4D64-AC42-D83D365B21CF}">
-  <dimension ref="A2:F33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="45.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.54296875" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="43.5">
-      <c r="A5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.5">
-      <c r="A6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="58">
-      <c r="A7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="43.5">
-      <c r="A8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="174">
-      <c r="A9" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.5">
-      <c r="A10" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="72.5">
-      <c r="A11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="58">
-      <c r="A12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="72.5">
-      <c r="A13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="72.5">
-      <c r="A14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="58">
-      <c r="A15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="87">
-      <c r="A16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="72.5">
-      <c r="A17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="87">
-      <c r="A18" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="87">
-      <c r="A19" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.5">
-      <c r="A20" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="87">
-      <c r="A21" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="72.5">
-      <c r="A22" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="87">
-      <c r="A23" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="87">
-      <c r="A24" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="87" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="72.5">
-      <c r="A26" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="87">
-      <c r="A27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="72.5">
-      <c r="A28" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="116">
-      <c r="A29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="174">
-      <c r="A30" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="159.5">
-      <c r="A31" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="203">
-      <c r="A32" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA3776D-D7ED-43EF-93A0-E7F7C2F14453}">
-  <dimension ref="A1:C46"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" style="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="C1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="27"/>
-    </row>
-    <row r="5" spans="1:3" ht="29">
-      <c r="A5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.5">
-      <c r="A6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="29">
-      <c r="A7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="29">
-      <c r="A8" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.5">
-      <c r="A9" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.5">
-      <c r="A10" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="57" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.5">
-      <c r="A12" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.5">
-      <c r="A13" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.5">
-      <c r="A14" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="72.5">
-      <c r="A15" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.5">
-      <c r="A16" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.5">
-      <c r="A17" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.5">
-      <c r="A18" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="43.5">
-      <c r="A19" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="58">
-      <c r="A20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="72.5">
-      <c r="A21" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="72.5">
-      <c r="A22" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="58">
-      <c r="A23" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="87">
-      <c r="A24" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="101.5">
-      <c r="A25" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="72.5">
-      <c r="A26" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="72.5">
-      <c r="A27" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="43.5">
-      <c r="A28" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="58">
-      <c r="A29" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="45.65" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.5">
-      <c r="A31" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.5">
-      <c r="A32" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.5">
-      <c r="A33" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="58">
-      <c r="A34" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="12"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="14"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="14"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="14"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="14"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8480C-E8CD-45AC-8F81-8D4ABFF602C5}">
-  <dimension ref="B2:M21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="8.81640625" style="28"/>
-    <col min="2" max="2" width="30.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="52.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="34" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="58">
-      <c r="C3" s="37" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="C4" s="37"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="59"/>
-      <c r="C6" s="34"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="59"/>
-      <c r="C7" s="34"/>
-    </row>
-    <row r="8" spans="2:4" ht="29">
-      <c r="B8" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="29">
-      <c r="B9" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>554</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="29">
-      <c r="B10" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="29">
-      <c r="B11" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="29">
-      <c r="B12" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="43.5">
-      <c r="B13" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="43.5">
-      <c r="B14" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="43.5">
-      <c r="B15" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="29">
-      <c r="B16" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="159.5">
-      <c r="B17" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="145" customHeight="1">
-      <c r="B18" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>583</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>584</v>
-      </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-    </row>
-    <row r="19" spans="2:13" ht="234" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="D19" s="76" t="s">
-        <v>587</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>588</v>
-      </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-    </row>
-    <row r="20" spans="2:13" ht="29">
-      <c r="B20" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>590</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="210" customHeight="1">
-      <c r="B21" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>593</v>
-      </c>
-      <c r="D21" s="76" t="s">
-        <v>721</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>722</v>
-      </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E21:M21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
-  <dimension ref="B2:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" style="27"/>
-    <col min="2" max="3" width="43.54296875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="43" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="60" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>597</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>595</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="45" t="s">
-        <v>609</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>599</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="45" t="s">
-        <v>610</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>601</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="45" t="s">
-        <v>611</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>603</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="45" t="s">
-        <v>610</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>604</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="60" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="27" t="s">
-        <v>622</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>623</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>607</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="27" t="s">
-        <v>619</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>617</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="27" t="s">
-        <v>625</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="27" t="s">
-        <v>626</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>620</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="60" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>707</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>617</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="29">
-      <c r="B26" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="27" t="s">
-        <v>717</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>715</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="27" t="s">
-        <v>719</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>718</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>720</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AC9E2A-F2F8-4B6A-A51F-5B422B308701}">
-  <dimension ref="B2:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="8.81640625" style="27"/>
-    <col min="2" max="2" width="30.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="52.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="43" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="C3" s="39" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="C4" s="39"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="45"/>
-      <c r="C6" s="43"/>
-    </row>
-    <row r="7" spans="2:4" ht="29">
-      <c r="B7" s="46" t="s">
-        <v>550</v>
-      </c>
-      <c r="C7" s="43"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="45"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="45"/>
-    </row>
-    <row r="10" spans="2:4" ht="101.5" customHeight="1">
-      <c r="B10" s="45"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="38"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="D11" s="58"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783B63B9-C5EF-4E1E-9ABB-91855341E3A8}">
-  <dimension ref="A2:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="101.5" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="31" t="s">
-        <v>308</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{2EDA7A32-3CF6-421F-A7BD-175E503CAC7F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CADC5F-634D-400C-ABA1-AB65FF79E0C8}">
   <dimension ref="A1:D48"/>
   <sheetViews>
@@ -30760,13 +28136,13 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.453125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="48.81640625" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="28"/>
+    <col min="1" max="1" width="30.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -30778,17 +28154,17 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="70" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="68"/>
+      <c r="C2" s="70"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -30796,12 +28172,12 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="71"/>
-    </row>
-    <row r="7" spans="1:4" ht="43.5">
+      <c r="B6" s="72"/>
+    </row>
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="35" t="s">
         <v>345</v>
       </c>
@@ -30834,7 +28210,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72.5">
+    <row r="10" spans="1:4" ht="90">
       <c r="A10" s="9" t="s">
         <v>351</v>
       </c>
@@ -30894,7 +28270,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="4" t="s">
         <v>355</v>
       </c>
@@ -30916,7 +28292,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="58">
+    <row r="20" spans="1:3" ht="75">
       <c r="A20" s="4" t="s">
         <v>369</v>
       </c>
@@ -30984,18 +28360,18 @@
       <c r="C29" s="69"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="70" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="69" t="s">
@@ -31124,4 +28500,3161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4A975-49E6-4D67-87B6-C134DC574AA3}">
+  <dimension ref="A2:M32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="4" width="55.7109375" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="B2" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" ht="120">
+      <c r="A3" s="28"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="73" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="75">
+      <c r="A9" s="73"/>
+      <c r="B9" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30">
+      <c r="A10" s="73"/>
+      <c r="B10" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45">
+      <c r="A11" s="73"/>
+      <c r="B11" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45">
+      <c r="A12" s="73"/>
+      <c r="B12" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="6"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" ht="60">
+      <c r="A15" s="74" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="75">
+      <c r="A16" s="74"/>
+      <c r="B16" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="105">
+      <c r="A17" s="74"/>
+      <c r="B17" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="105">
+      <c r="A18" s="74"/>
+      <c r="B18" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60">
+      <c r="A19" s="74" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="60">
+      <c r="A20" s="74"/>
+      <c r="B20" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="105">
+      <c r="A21" s="74"/>
+      <c r="B21" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="60">
+      <c r="A22" s="74"/>
+      <c r="B22" s="55" t="s">
+        <v>532</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" ht="150">
+      <c r="B25" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="150">
+      <c r="A26" s="28"/>
+      <c r="B26" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>630</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" ht="165">
+      <c r="B27" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" ht="200.1" customHeight="1">
+      <c r="B28" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="195" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="210.95" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="270">
+      <c r="B31" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="75">
+      <c r="B32" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA1D3C-99B5-45E1-9627-8CE6B2A3AF89}">
+  <dimension ref="B3:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="4" width="53.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>658</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="27" t="s">
+        <v>660</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>661</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="27" t="s">
+        <v>663</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="27" t="s">
+        <v>666</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>667</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>670</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>673</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>676</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>679</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>682</v>
+      </c>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="63" t="s">
+        <v>684</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>685</v>
+      </c>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="63" t="s">
+        <v>686</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>687</v>
+      </c>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="27"/>
+      <c r="C19" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="D19" s="75"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="27"/>
+      <c r="C20" s="75" t="s">
+        <v>690</v>
+      </c>
+      <c r="D20" s="75"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="27"/>
+      <c r="C21" s="75" t="s">
+        <v>691</v>
+      </c>
+      <c r="D21" s="75"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="27"/>
+      <c r="C22" s="75" t="s">
+        <v>692</v>
+      </c>
+      <c r="D22" s="75"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="27"/>
+      <c r="C23" s="75" t="s">
+        <v>693</v>
+      </c>
+      <c r="D23" s="75"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="63" t="s">
+        <v>694</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="63" t="s">
+        <v>695</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="D25" s="75"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="27"/>
+      <c r="C26" s="75" t="s">
+        <v>697</v>
+      </c>
+      <c r="D26" s="75"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="27"/>
+      <c r="C27" s="75" t="s">
+        <v>698</v>
+      </c>
+      <c r="D27" s="75"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="27"/>
+      <c r="C28" s="75" t="s">
+        <v>699</v>
+      </c>
+      <c r="D28" s="75"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="27"/>
+      <c r="C29" s="75" t="s">
+        <v>700</v>
+      </c>
+      <c r="D29" s="75"/>
+    </row>
+    <row r="30" spans="2:4" ht="38.25">
+      <c r="B30" s="27" t="s">
+        <v>701</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>702</v>
+      </c>
+      <c r="D30" s="64"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>704</v>
+      </c>
+      <c r="D31" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866F71F-38C4-486B-B894-DFD9311F2D3F}">
+  <dimension ref="B3:H32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="27"/>
+    <col min="2" max="2" width="43.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="27" customWidth="1"/>
+    <col min="7" max="8" width="40.5703125" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" s="43" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="C4" s="39" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="29.45" customHeight="1">
+      <c r="B5" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:8" ht="29.1" customHeight="1">
+      <c r="C7" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="2:8" ht="45">
+      <c r="C8" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="2:8" ht="30">
+      <c r="B11" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="2:8" ht="115.35" customHeight="1">
+      <c r="B12" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="2:8" ht="45">
+      <c r="B13" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="2:8" ht="30">
+      <c r="B14" s="46" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:8" ht="101.1" customHeight="1">
+      <c r="B15" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="2:8" ht="75">
+      <c r="B16" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="90">
+      <c r="B17" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="2:8" ht="45">
+      <c r="B18" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="2:8" ht="75">
+      <c r="B19" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="2:8" ht="120">
+      <c r="B20" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="2:8" ht="43.35" customHeight="1">
+      <c r="B21" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="2:8" ht="90">
+      <c r="B22" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="2:8" ht="30">
+      <c r="B23" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="8"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="8"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="2:8" ht="30">
+      <c r="B26" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="10"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="10"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="2:8" ht="30">
+      <c r="B30" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="14.45" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D27781-00F8-4FFB-93E0-B673FC3983D4}">
+  <dimension ref="B3:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="76" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="27" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="27" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="76" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="D11" s="27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="76" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43823669-EFD8-43EB-A359-D7480668BEF6}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="43" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="B4" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="38"/>
+    </row>
+    <row r="6" spans="1:3" ht="90">
+      <c r="A6" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052E72CA-1731-48AE-9B7E-B9E8A0144CA6}">
+  <dimension ref="A3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="43" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>435</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3784FF0-F038-40BE-B11F-87E1438AD14B}">
+  <dimension ref="A3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="43" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70DB8B6-5F67-4869-98C0-42C5D9956483}">
+  <dimension ref="A3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="39" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="B4" s="39" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49969255-3A5B-4747-B20A-C7D337DB7232}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="43" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45">
+      <c r="B4" s="39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B4C89-AE87-4187-8C18-5F20544A3D88}">
+  <dimension ref="A3:D29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="45">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="45">
+      <c r="A8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="90">
+      <c r="A9" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="45">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="75">
+      <c r="A11" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="45">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="45">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="45">
+      <c r="A14" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="45">
+      <c r="A15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="45">
+      <c r="A16" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="60">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="60">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="75">
+      <c r="A19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="90">
+      <c r="A20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" ht="60">
+      <c r="A21" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="30">
+      <c r="A22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="30">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="3" customFormat="1">
+      <c r="A24" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="75">
+      <c r="A25" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="120">
+      <c r="A26" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" ht="60">
+      <c r="A27" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7E7EB8-4E18-4D64-AC42-D83D365B21CF}">
+  <dimension ref="A2:F33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60">
+      <c r="A7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="195">
+      <c r="A9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45">
+      <c r="A10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75">
+      <c r="A11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60">
+      <c r="A12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75">
+      <c r="A13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="90">
+      <c r="A14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60">
+      <c r="A15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="90">
+      <c r="A16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="75">
+      <c r="A17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="105">
+      <c r="A18" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="90">
+      <c r="A19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60">
+      <c r="A20" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="90">
+      <c r="A21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="75">
+      <c r="A22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="90">
+      <c r="A23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="105">
+      <c r="A24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="87" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="90">
+      <c r="A26" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="90">
+      <c r="A27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="75">
+      <c r="A28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="120">
+      <c r="A29" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="195">
+      <c r="A30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="210">
+      <c r="A31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="240">
+      <c r="A32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA3776D-D7ED-43EF-93A0-E7F7C2F14453}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60">
+      <c r="A6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45">
+      <c r="A9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45">
+      <c r="A10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45">
+      <c r="A12" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45">
+      <c r="A13" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45">
+      <c r="A14" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="75">
+      <c r="A15" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45">
+      <c r="A16" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45">
+      <c r="A17" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45">
+      <c r="A18" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45">
+      <c r="A19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60">
+      <c r="A20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="90">
+      <c r="A21" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="75">
+      <c r="A22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60">
+      <c r="A23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="90">
+      <c r="A24" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="120">
+      <c r="A25" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="90">
+      <c r="A26" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="75">
+      <c r="A27" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45">
+      <c r="A28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="75">
+      <c r="A29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45.6" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45">
+      <c r="A31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45">
+      <c r="A32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45">
+      <c r="A33" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60">
+      <c r="A34" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8480C-E8CD-45AC-8F81-8D4ABFF602C5}">
+  <dimension ref="B2:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="28"/>
+    <col min="2" max="2" width="30.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="34" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="60">
+      <c r="C3" s="37" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" s="37"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="59"/>
+      <c r="C6" s="34"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="59"/>
+      <c r="C7" s="34"/>
+    </row>
+    <row r="8" spans="2:4" ht="30">
+      <c r="B8" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30">
+      <c r="B9" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30">
+      <c r="B10" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="30">
+      <c r="B11" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30">
+      <c r="B12" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="45">
+      <c r="B13" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="45">
+      <c r="B14" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="45">
+      <c r="B15" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="30">
+      <c r="B16" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="165">
+      <c r="B17" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="144.94999999999999" customHeight="1">
+      <c r="B18" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>583</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>584</v>
+      </c>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="2:13" ht="234" customHeight="1">
+      <c r="B19" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>587</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>588</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+    </row>
+    <row r="20" spans="2:13" ht="30">
+      <c r="B20" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="210" customHeight="1">
+      <c r="B21" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>721</v>
+      </c>
+      <c r="E21" s="67" t="s">
+        <v>722</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="E21:M21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
+  <dimension ref="B3:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="43" t="s">
+        <v>723</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="2:4" ht="120" customHeight="1">
+      <c r="B4" s="27"/>
+      <c r="C4" s="77" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4" s="77"/>
+    </row>
+    <row r="5" spans="2:4" ht="90" customHeight="1">
+      <c r="B5" s="27"/>
+      <c r="C5" s="77" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5" s="77"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="2:4" ht="90">
+      <c r="B7" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="45" t="s">
+        <v>729</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>730</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30">
+      <c r="B9" s="46" t="s">
+        <v>732</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>734</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
+  <dimension ref="B2:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="27"/>
+    <col min="2" max="3" width="43.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="43" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="60" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>597</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="27" t="s">
+        <v>612</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="45" t="s">
+        <v>609</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>599</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="45" t="s">
+        <v>610</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>601</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="45" t="s">
+        <v>611</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="45" t="s">
+        <v>610</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="60" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>617</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="60" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>707</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>617</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="30">
+      <c r="B26" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>718</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AC9E2A-F2F8-4B6A-A51F-5B422B308701}">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="27"/>
+    <col min="2" max="2" width="30.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="43" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" s="39" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" s="39"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="45"/>
+      <c r="C6" s="43"/>
+    </row>
+    <row r="7" spans="2:4" ht="30">
+      <c r="B7" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="45"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="45"/>
+    </row>
+    <row r="10" spans="2:4" ht="101.45" customHeight="1">
+      <c r="B10" s="45"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="D11" s="58"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783B63B9-C5EF-4E1E-9ABB-91855341E3A8}">
+  <dimension ref="A2:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="101.45" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{2EDA7A32-3CF6-421F-A7BD-175E503CAC7F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134283AF-06E4-45CB-A3A5-0F1EB9808360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F903833E-F261-476F-AE87-77154A82E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="740">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -27219,6 +27219,21 @@
   </si>
   <si>
     <t>sets the default action to 'ACCEPT' for the 'INPUT' policy</t>
+  </si>
+  <si>
+    <t>OVERWRITE LOCAL REPOSITORY WITH REMOTE</t>
+  </si>
+  <si>
+    <t>git fetch --all</t>
+  </si>
+  <si>
+    <t>git reset --hard origin</t>
+  </si>
+  <si>
+    <t>fetch all remote repo differences</t>
+  </si>
+  <si>
+    <t>reset local repository with remote repo</t>
   </si>
 </sst>
 </file>
@@ -27581,6 +27596,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -27604,9 +27622,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -28154,17 +28169,17 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -28172,10 +28187,10 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="73"/>
     </row>
     <row r="7" spans="1:4" ht="45">
       <c r="A7" s="35" t="s">
@@ -28304,88 +28319,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="70" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="71" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="70" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">
@@ -28574,7 +28589,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="74" t="s">
         <v>414</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -28588,7 +28603,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="75">
-      <c r="A9" s="73"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
       </c>
@@ -28600,7 +28615,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
-      <c r="A10" s="73"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
       </c>
@@ -28612,7 +28627,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="45">
-      <c r="A11" s="73"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
       </c>
@@ -28624,7 +28639,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="73"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
       </c>
@@ -28641,7 +28656,7 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="60">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="75" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -28655,7 +28670,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="75">
-      <c r="A16" s="74"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
       </c>
@@ -28667,7 +28682,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="105">
-      <c r="A17" s="74"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
       </c>
@@ -28679,7 +28694,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="105">
-      <c r="A18" s="74"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
       </c>
@@ -28691,7 +28706,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="60">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="75" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -28705,7 +28720,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="60">
-      <c r="A20" s="74"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
       </c>
@@ -28717,7 +28732,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="105">
-      <c r="A21" s="74"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
       </c>
@@ -28729,7 +28744,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="60">
-      <c r="A22" s="74"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="55" t="s">
         <v>532</v>
       </c>
@@ -29078,38 +29093,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="76" t="s">
         <v>689</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="76"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="76" t="s">
         <v>690</v>
       </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="76"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="76" t="s">
         <v>691</v>
       </c>
-      <c r="D21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="76" t="s">
         <v>692</v>
       </c>
-      <c r="D22" s="75"/>
+      <c r="D22" s="76"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="76" t="s">
         <v>693</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -29122,38 +29137,38 @@
       <c r="B25" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="76" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="75"/>
+      <c r="D25" s="76"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="76" t="s">
         <v>697</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="76"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="76" t="s">
         <v>698</v>
       </c>
-      <c r="D27" s="75"/>
+      <c r="D27" s="76"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="76" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="75"/>
+      <c r="D28" s="76"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="76" t="s">
         <v>700</v>
       </c>
-      <c r="D29" s="75"/>
+      <c r="D29" s="76"/>
     </row>
     <row r="30" spans="2:4" ht="38.25">
       <c r="B30" s="27" t="s">
@@ -29542,12 +29557,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -29555,11 +29570,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -29577,19 +29592,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="77" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="77" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -30978,7 +30993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8480C-E8CD-45AC-8F81-8D4ABFF602C5}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E18" sqref="E18:J18"/>
     </sheetView>
   </sheetViews>
@@ -31239,17 +31254,17 @@
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
       <c r="B4" s="27"/>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="69" t="s">
         <v>724</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="69"/>
     </row>
     <row r="5" spans="2:4" ht="90" customHeight="1">
       <c r="B5" s="27"/>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="69" t="s">
         <v>725</v>
       </c>
-      <c r="D5" s="77"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="27"/>
@@ -31300,10 +31315,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
-  <dimension ref="B2:D28"/>
+  <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -31508,6 +31523,27 @@
       </c>
       <c r="D28" s="27" t="s">
         <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="60" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F903833E-F261-476F-AE87-77154A82E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D7A1B2-7DE7-4F27-A9F9-864E68933C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D7A1B2-7DE7-4F27-A9F9-864E68933C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC373F3-4175-4284-AD28-AAED8ABB7638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="745">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -26779,6 +26779,257 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>append</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a rule to the end of a selected chain</t>
+    </r>
+  </si>
+  <si>
+    <t>iptables -A INPUT -s 10.10.10.10 -j DROP</t>
+  </si>
+  <si>
+    <r>
+      <t>Append (attach) this new rule to the INPUT chain; anything from source 10.10.10.10, DROP the data'
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-A: appends</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (attaches) the rule to the end of the INPUT chain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-s: source</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; where the data is coming from
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-j: jump</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; as in 'jump to the DROP action'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all rules in selected chain</t>
+    </r>
+  </si>
+  <si>
+    <t>iptables -L</t>
+  </si>
+  <si>
+    <t>lists all rules on all chains</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--policy &lt;CHAIN&gt; &lt;ACTION&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= sets the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for an iptables chain</t>
+    </r>
+  </si>
+  <si>
+    <t>OVERWRITE LOCAL REPOSITORY WITH REMOTE</t>
+  </si>
+  <si>
+    <t>git fetch --all</t>
+  </si>
+  <si>
+    <t>fetch all remote repo differences</t>
+  </si>
+  <si>
+    <t>reset local repository with remote repo</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">host firewall installed by default on Linux systems. 
 It uses 3 lists or 'chains':
 Input chain: </t>
@@ -26834,8 +27085,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">list for incoming connections not meant for the local system but rather being passed through 
-or 'forwarded' on to another destination
+      <t xml:space="preserve">list that controls incoming connections not meant for the local system but rather just being passed through or 'forwarded' on to another destination
 </t>
     </r>
     <r>
@@ -26857,7 +27107,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">list that tells iptables how to handle data being sent </t>
+      <t xml:space="preserve">list that controls how data being sent </t>
     </r>
     <r>
       <rPr>
@@ -26878,7 +27128,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">of the local host to another destination
+      <t xml:space="preserve">of the local host to another destination is handled
 </t>
     </r>
     <r>
@@ -26972,20 +27222,177 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>block data flow without giving an explanation to the sender. Use if you don't want the sender to know that the system exists.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-A </t>
+      <t>block data flow without giving an explanation to the sender. Use if you don't want the sender to know that they are being blocked by a firewall, or that a system exists.</t>
+    </r>
+  </si>
+  <si>
+    <t>iptables -L -v</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verbose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> output</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lists all rules on all chains in verbose mode; which displays the interface name, rule options (if any) and TOS masks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-L</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all rules
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-v</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verbose</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> output</t>
+    </r>
+  </si>
+  <si>
+    <t>iptables --policy INPUT ACCEPT
+iptables --policy OUTPUT ACCEPT
+iptables --policy FORWARD ACCEPT</t>
+  </si>
+  <si>
+    <t>sets the default action to 'ACCEPT' for the 'INPUT' policy
+sets the default action to 'ACCEPT' for the 'OUTPUT' policy
+sets the default action to 'ACCEPT' for the 'FORWARD' policy
+setting the default policy for these 3 lists or 'chains' sets the default policy to 'ACCEPT' for the entire firewall</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-I &lt;CHAIN&gt; &lt;NUMBER&gt; </t>
     </r>
     <r>
       <rPr>
@@ -27006,234 +27413,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>append</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a rule to the end of a selected chain</t>
-    </r>
-  </si>
-  <si>
-    <t>iptables -A INPUT -s 10.10.10.10 -j DROP</t>
-  </si>
-  <si>
-    <r>
-      <t>Append (attach) this new rule to the INPUT chain; anything from source 10.10.10.10, DROP the data'
-'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-A: appends</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (attaches) the rule to the end of the INPUT chain
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-s: source</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; where the data is coming from
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-j: jump</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; as in 'jump to the DROP action'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all rules in selected chain</t>
-    </r>
-  </si>
-  <si>
-    <t>iptables -L</t>
-  </si>
-  <si>
-    <t>lists all rules on all chains</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">--policy &lt;CHAIN&gt; &lt;ACTION&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= sets the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>default</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>policy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for an iptables chain</t>
-    </r>
-  </si>
-  <si>
-    <t>iptables --policy INPUT ACCEPT</t>
-  </si>
-  <si>
-    <t>sets the default action to 'ACCEPT' for the 'INPUT' policy</t>
-  </si>
-  <si>
-    <t>OVERWRITE LOCAL REPOSITORY WITH REMOTE</t>
-  </si>
-  <si>
-    <t>git fetch --all</t>
-  </si>
-  <si>
-    <t>git reset --hard origin</t>
-  </si>
-  <si>
-    <t>fetch all remote repo differences</t>
-  </si>
-  <si>
-    <t>reset local repository with remote repo</t>
+      <t>inserts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a new rule on a specific chain at a specific location in the chain</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">iptables -I </t>
+  </si>
+  <si>
+    <t>CHAIN CONCEPT (important!)
+firewall 'chains' are made up of 'rules'
+'Rules' are evaluated sequentially in a waterfall operation; e.g. rule 1 is evaluated, then rule 2, then rule 3, then rule 4 etc.</t>
   </si>
 </sst>
 </file>
@@ -31232,84 +31431,104 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
-  <dimension ref="B3:D9"/>
+  <dimension ref="B3:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="43.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="27"/>
+    <col min="2" max="2" width="43.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" s="43" t="s">
         <v>723</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
-      <c r="B4" s="27"/>
       <c r="C4" s="69" t="s">
+        <v>735</v>
+      </c>
+      <c r="D4" s="69"/>
+    </row>
+    <row r="5" spans="2:4" ht="90" customHeight="1">
+      <c r="C5" s="69" t="s">
+        <v>736</v>
+      </c>
+      <c r="D5" s="69"/>
+    </row>
+    <row r="6" spans="2:4" ht="90" customHeight="1">
+      <c r="C6" s="69" t="s">
+        <v>744</v>
+      </c>
+      <c r="D6" s="69"/>
+    </row>
+    <row r="8" spans="2:4" ht="75" customHeight="1">
+      <c r="B8" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="D4" s="69"/>
-    </row>
-    <row r="5" spans="2:4" ht="90" customHeight="1">
-      <c r="B5" s="27"/>
-      <c r="C5" s="69" t="s">
+      <c r="C8" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="D5" s="69"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="2:4" ht="90">
-      <c r="B7" s="10" t="s">
+      <c r="D8" s="26" t="s">
         <v>726</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="45" t="s">
         <v>727</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="C9" s="43" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="45" t="s">
+      <c r="D9" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="C8" s="43" t="s">
+    </row>
+    <row r="10" spans="2:4" ht="75">
+      <c r="B10" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="30">
-      <c r="B9" s="46" t="s">
-        <v>732</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>734</v>
+      <c r="C10" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="60">
+      <c r="B11" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30">
+      <c r="B12" s="46" t="s">
+        <v>742</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31317,7 +31536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -31527,23 +31746,23 @@
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="60" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="27" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="27" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>737</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC373F3-4175-4284-AD28-AAED8ABB7638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30D3501-B5FD-49C8-BE28-7E0BCED43151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="754">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -27433,6 +27433,35 @@
     <t>CHAIN CONCEPT (important!)
 firewall 'chains' are made up of 'rules'
 'Rules' are evaluated sequentially in a waterfall operation; e.g. rule 1 is evaluated, then rule 2, then rule 3, then rule 4 etc.</t>
+  </si>
+  <si>
+    <t>CREATE NEW BRANCH FOR MERGE INTO MAIN</t>
+  </si>
+  <si>
+    <t>create a new branch</t>
+  </si>
+  <si>
+    <t>git checkout -b my-new-branch</t>
+  </si>
+  <si>
+    <t>create, edit, and/or delete files, then stage and commit them</t>
+  </si>
+  <si>
+    <t>git add .
+git commit -m "my commit message"</t>
+  </si>
+  <si>
+    <t>push your new branch to GitLab</t>
+  </si>
+  <si>
+    <t>git push origin my-new-branch</t>
+  </si>
+  <si>
+    <t>GitLab will then prompt you with a direct link for creating a merge request</t>
+  </si>
+  <si>
+    <t>remote: To create a merge request for &lt;branch&gt;, visit:
+&lt;gitLab URL&gt;</t>
   </si>
 </sst>
 </file>
@@ -27599,7 +27628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -27789,6 +27818,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -27821,6 +27856,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -28143,11 +28181,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -28182,7 +28220,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="29">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -28193,7 +28231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="165">
+    <row r="9" spans="1:3" ht="159.5">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
@@ -28204,7 +28242,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="59.45" customHeight="1">
+    <row r="10" spans="1:3" ht="59.5" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>82</v>
       </c>
@@ -28215,7 +28253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60">
+    <row r="11" spans="1:3" ht="58">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -28226,7 +28264,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60">
+    <row r="12" spans="1:3" ht="58">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -28248,7 +28286,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
         <v>170</v>
       </c>
@@ -28259,7 +28297,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30">
+    <row r="15" spans="1:3" ht="29">
       <c r="A15" s="8" t="s">
         <v>169</v>
       </c>
@@ -28292,7 +28330,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
+    <row r="18" spans="1:3" ht="29">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -28350,13 +28388,13 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="30.453125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="48.81640625" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -28368,17 +28406,17 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -28386,12 +28424,12 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="73"/>
-    </row>
-    <row r="7" spans="1:4" ht="45">
+      <c r="B6" s="75"/>
+    </row>
+    <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="35" t="s">
         <v>345</v>
       </c>
@@ -28424,7 +28462,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90">
+    <row r="10" spans="1:4" ht="72.5">
       <c r="A10" s="9" t="s">
         <v>351</v>
       </c>
@@ -28484,7 +28522,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
+    <row r="18" spans="1:3" ht="29">
       <c r="A18" s="4" t="s">
         <v>355</v>
       </c>
@@ -28506,7 +28544,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="75">
+    <row r="20" spans="1:3" ht="58">
       <c r="A20" s="4" t="s">
         <v>369</v>
       </c>
@@ -28518,88 +28556,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="73" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">
@@ -28724,11 +28762,11 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="4" width="55.7109375" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="4" width="55.7265625" customWidth="1"/>
+    <col min="5" max="5" width="59.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -28738,7 +28776,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:13" ht="120">
+    <row r="3" spans="1:13" ht="101.5">
       <c r="A3" s="28"/>
       <c r="B3" s="3"/>
       <c r="C3" s="39" t="s">
@@ -28788,7 +28826,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>414</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -28801,8 +28839,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="75">
-      <c r="A9" s="74"/>
+    <row r="9" spans="1:13" ht="72.5">
+      <c r="A9" s="76"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
       </c>
@@ -28813,8 +28851,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30">
-      <c r="A10" s="74"/>
+    <row r="10" spans="1:13" ht="29">
+      <c r="A10" s="76"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
       </c>
@@ -28825,8 +28863,8 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45">
-      <c r="A11" s="74"/>
+    <row r="11" spans="1:13" ht="43.5">
+      <c r="A11" s="76"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
       </c>
@@ -28837,8 +28875,8 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="74"/>
+    <row r="12" spans="1:13" ht="43.5">
+      <c r="A12" s="76"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
       </c>
@@ -28854,8 +28892,8 @@
       <c r="C14" s="9"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:13" ht="60">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:13" ht="43.5">
+      <c r="A15" s="77" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -28868,8 +28906,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="75">
-      <c r="A16" s="75"/>
+    <row r="16" spans="1:13" ht="72.5">
+      <c r="A16" s="77"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
       </c>
@@ -28880,8 +28918,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="105">
-      <c r="A17" s="75"/>
+    <row r="17" spans="1:13" ht="87">
+      <c r="A17" s="77"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
       </c>
@@ -28892,8 +28930,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="105">
-      <c r="A18" s="75"/>
+    <row r="18" spans="1:13" ht="87">
+      <c r="A18" s="77"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
       </c>
@@ -28904,8 +28942,8 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="60">
-      <c r="A19" s="75" t="s">
+    <row r="19" spans="1:13" ht="58">
+      <c r="A19" s="77" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -28918,8 +28956,8 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="60">
-      <c r="A20" s="75"/>
+    <row r="20" spans="1:13" ht="58">
+      <c r="A20" s="77"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
       </c>
@@ -28930,8 +28968,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="105">
-      <c r="A21" s="75"/>
+    <row r="21" spans="1:13" ht="101.5">
+      <c r="A21" s="77"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
       </c>
@@ -28942,8 +28980,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="60">
-      <c r="A22" s="75"/>
+    <row r="22" spans="1:13" ht="58">
+      <c r="A22" s="77"/>
       <c r="B22" s="55" t="s">
         <v>532</v>
       </c>
@@ -28976,7 +29014,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" ht="150">
+    <row r="25" spans="1:13" ht="130.5">
       <c r="B25" s="11" t="s">
         <v>538</v>
       </c>
@@ -28998,7 +29036,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" ht="150">
+    <row r="26" spans="1:13" ht="145">
       <c r="A26" s="28"/>
       <c r="B26" s="11" t="s">
         <v>629</v>
@@ -29021,7 +29059,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" ht="165">
+    <row r="27" spans="1:13" ht="145">
       <c r="B27" s="11" t="s">
         <v>632</v>
       </c>
@@ -29041,7 +29079,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" ht="200.1" customHeight="1">
+    <row r="28" spans="1:13" ht="200.15" customHeight="1">
       <c r="B28" s="11" t="s">
         <v>635</v>
       </c>
@@ -29077,7 +29115,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="210.95" customHeight="1">
+    <row r="30" spans="1:13" ht="211" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>643</v>
       </c>
@@ -29091,7 +29129,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="270">
+    <row r="31" spans="1:13" ht="232">
       <c r="B31" s="11" t="s">
         <v>647</v>
       </c>
@@ -29105,7 +29143,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="75">
+    <row r="32" spans="1:13" ht="72.5">
       <c r="B32" s="11" t="s">
         <v>651</v>
       </c>
@@ -29134,10 +29172,10 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="4" width="53.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="4" width="53.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
@@ -29292,38 +29330,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="78" t="s">
         <v>689</v>
       </c>
-      <c r="D19" s="76"/>
+      <c r="D19" s="78"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="78" t="s">
         <v>690</v>
       </c>
-      <c r="D20" s="76"/>
+      <c r="D20" s="78"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="78" t="s">
         <v>691</v>
       </c>
-      <c r="D21" s="76"/>
+      <c r="D21" s="78"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="78" t="s">
         <v>692</v>
       </c>
-      <c r="D22" s="76"/>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="78" t="s">
         <v>693</v>
       </c>
-      <c r="D23" s="76"/>
+      <c r="D23" s="78"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -29336,40 +29374,40 @@
       <c r="B25" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="78" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="76"/>
+      <c r="D25" s="78"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="78" t="s">
         <v>697</v>
       </c>
-      <c r="D26" s="76"/>
+      <c r="D26" s="78"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="78" t="s">
         <v>698</v>
       </c>
-      <c r="D27" s="76"/>
+      <c r="D27" s="78"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="78" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="76"/>
+      <c r="D28" s="78"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="78" t="s">
         <v>700</v>
       </c>
-      <c r="D29" s="76"/>
-    </row>
-    <row r="30" spans="2:4" ht="38.25">
+      <c r="D29" s="78"/>
+    </row>
+    <row r="30" spans="2:4" ht="39">
       <c r="B30" s="27" t="s">
         <v>701</v>
       </c>
@@ -29412,16 +29450,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="27"/>
-    <col min="2" max="2" width="43.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="27" customWidth="1"/>
-    <col min="7" max="8" width="40.5703125" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="8.81640625" style="27"/>
+    <col min="2" max="2" width="43.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.54296875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" style="27" customWidth="1"/>
+    <col min="7" max="8" width="40.54296875" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
@@ -29434,7 +29472,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="29.45" customHeight="1">
+    <row r="5" spans="2:8" ht="29.5" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>466</v>
       </c>
@@ -29458,7 +29496,7 @@
       </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="2:8" ht="29.1" customHeight="1">
+    <row r="7" spans="2:8" ht="29.15" customHeight="1">
       <c r="C7" s="27" t="s">
         <v>465</v>
       </c>
@@ -29467,7 +29505,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="2:8" ht="45">
+    <row r="8" spans="2:8" ht="43.5">
       <c r="C8" s="27" t="s">
         <v>467</v>
       </c>
@@ -29484,7 +29522,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:8" ht="30">
+    <row r="11" spans="2:8" ht="29">
       <c r="B11" s="10" t="s">
         <v>477</v>
       </c>
@@ -29496,7 +29534,7 @@
       </c>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="2:8" ht="115.35" customHeight="1">
+    <row r="12" spans="2:8" ht="115.4" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>472</v>
       </c>
@@ -29508,7 +29546,7 @@
       </c>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:8" ht="45">
+    <row r="13" spans="2:8" ht="43.5">
       <c r="B13" s="46" t="s">
         <v>459</v>
       </c>
@@ -29520,7 +29558,7 @@
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="2:8" ht="30">
+    <row r="14" spans="2:8" ht="29">
       <c r="B14" s="46" t="s">
         <v>478</v>
       </c>
@@ -29532,7 +29570,7 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:8" ht="101.1" customHeight="1">
+    <row r="15" spans="2:8" ht="101.15" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>481</v>
       </c>
@@ -29544,7 +29582,7 @@
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:8" ht="75">
+    <row r="16" spans="2:8" ht="72.5">
       <c r="B16" s="8" t="s">
         <v>495</v>
       </c>
@@ -29567,7 +29605,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="90">
+    <row r="17" spans="2:8" ht="58">
       <c r="B17" s="8" t="s">
         <v>494</v>
       </c>
@@ -29582,7 +29620,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="2:8" ht="45">
+    <row r="18" spans="2:8" ht="43.5">
       <c r="B18" s="8" t="s">
         <v>491</v>
       </c>
@@ -29597,7 +29635,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="2:8" ht="75">
+    <row r="19" spans="2:8" ht="72.5">
       <c r="B19" s="8" t="s">
         <v>496</v>
       </c>
@@ -29612,7 +29650,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="2:8" ht="120">
+    <row r="20" spans="2:8" ht="116">
       <c r="B20" s="8" t="s">
         <v>501</v>
       </c>
@@ -29629,7 +29667,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="2:8" ht="43.35" customHeight="1">
+    <row r="21" spans="2:8" ht="43.4" customHeight="1">
       <c r="B21" s="8" t="s">
         <v>504</v>
       </c>
@@ -29644,7 +29682,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="2:8" ht="90">
+    <row r="22" spans="2:8" ht="87">
       <c r="B22" s="8" t="s">
         <v>510</v>
       </c>
@@ -29659,7 +29697,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="2:8" ht="30">
+    <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
         <v>543</v>
       </c>
@@ -29688,7 +29726,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="2:8" ht="30">
+    <row r="26" spans="2:8" ht="29">
       <c r="B26" s="10" t="s">
         <v>505</v>
       </c>
@@ -29724,7 +29762,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="2:8" ht="30">
+    <row r="30" spans="2:8" ht="29">
       <c r="B30" s="46" t="s">
         <v>509</v>
       </c>
@@ -29735,7 +29773,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="14.45" customHeight="1"/>
+    <row r="32" spans="2:8" ht="14.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
@@ -29750,18 +29788,18 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="79" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -29769,11 +29807,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -29791,19 +29829,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -29827,12 +29865,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="16.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -29840,13 +29878,13 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3">
       <c r="B4" s="39" t="s">
         <v>419</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="6" spans="1:3" ht="90">
+    <row r="6" spans="1:3" ht="87">
       <c r="A6" s="44" t="s">
         <v>420</v>
       </c>
@@ -29871,12 +29909,12 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -29889,7 +29927,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
         <v>430</v>
       </c>
@@ -29924,12 +29962,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -29942,7 +29980,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
         <v>438</v>
       </c>
@@ -29953,7 +29991,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="29">
       <c r="A7" s="46" t="s">
         <v>441</v>
       </c>
@@ -29977,12 +30015,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="1" width="23.54296875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="38"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -29990,12 +30028,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="29">
       <c r="B4" s="39" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
         <v>446</v>
       </c>
@@ -30006,7 +30044,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="29">
       <c r="A7" s="46" t="s">
         <v>448</v>
       </c>
@@ -30030,12 +30068,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="43.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -30043,12 +30081,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45">
+    <row r="4" spans="1:3" ht="43.5">
       <c r="B4" s="39" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
         <v>426</v>
       </c>
@@ -30072,12 +30110,12 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.453125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="63.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
@@ -30086,7 +30124,7 @@
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="43.5">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -30107,7 +30145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45">
+    <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -30119,7 +30157,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="45">
+    <row r="8" spans="1:4" ht="43.5">
       <c r="A8" s="7" t="s">
         <v>87</v>
       </c>
@@ -30131,7 +30169,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="90">
+    <row r="9" spans="1:4" ht="72.5">
       <c r="A9" s="8" t="s">
         <v>269</v>
       </c>
@@ -30143,7 +30181,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="43.5">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -30155,7 +30193,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="75">
+    <row r="11" spans="1:4" ht="58">
       <c r="A11" s="8" t="s">
         <v>264</v>
       </c>
@@ -30167,7 +30205,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="45">
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="43.5">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -30179,7 +30217,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="45">
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="43.5">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -30191,7 +30229,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="45">
+    <row r="14" spans="1:4" ht="43.5">
       <c r="A14" s="8" t="s">
         <v>275</v>
       </c>
@@ -30203,7 +30241,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="45">
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="43.5">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -30215,7 +30253,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="45">
+    <row r="16" spans="1:4" ht="43.5">
       <c r="A16" s="8" t="s">
         <v>218</v>
       </c>
@@ -30227,7 +30265,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="60">
+    <row r="17" spans="1:4" ht="43.5">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -30239,7 +30277,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="60">
+    <row r="18" spans="1:4" ht="43.5">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -30251,7 +30289,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="75">
+    <row r="19" spans="1:4" ht="72.5">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -30263,7 +30301,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="90">
+    <row r="20" spans="1:4" ht="87">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -30275,7 +30313,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="60">
+    <row r="21" spans="1:4" ht="58">
       <c r="A21" s="30" t="s">
         <v>224</v>
       </c>
@@ -30287,7 +30325,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="29">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -30299,7 +30337,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="30">
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="29">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -30321,7 +30359,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75">
+    <row r="25" spans="1:4" ht="72.5">
       <c r="A25" s="8" t="s">
         <v>227</v>
       </c>
@@ -30333,7 +30371,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="120">
+    <row r="26" spans="1:4" ht="87">
       <c r="A26" s="6" t="s">
         <v>229</v>
       </c>
@@ -30345,7 +30383,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="60">
+    <row r="27" spans="1:4" ht="58">
       <c r="A27" s="6" t="s">
         <v>231</v>
       </c>
@@ -30393,11 +30431,11 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -30419,7 +30457,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" ht="43.5">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -30430,7 +30468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="43.5">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -30441,7 +30479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60">
+    <row r="7" spans="1:6" ht="58">
       <c r="A7" s="6" t="s">
         <v>104</v>
       </c>
@@ -30452,7 +30490,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="43.5">
       <c r="A8" s="6" t="s">
         <v>89</v>
       </c>
@@ -30466,7 +30504,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="195">
+    <row r="9" spans="1:6" ht="174">
       <c r="A9" s="8" t="s">
         <v>119</v>
       </c>
@@ -30477,7 +30515,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45">
+    <row r="10" spans="1:6" ht="43.5">
       <c r="A10" s="8" t="s">
         <v>90</v>
       </c>
@@ -30488,7 +30526,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="75">
+    <row r="11" spans="1:6" ht="72.5">
       <c r="A11" s="8" t="s">
         <v>92</v>
       </c>
@@ -30499,7 +30537,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" ht="58">
       <c r="A12" s="8" t="s">
         <v>93</v>
       </c>
@@ -30510,7 +30548,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75">
+    <row r="13" spans="1:6" ht="72.5">
       <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
@@ -30521,7 +30559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="90">
+    <row r="14" spans="1:6" ht="72.5">
       <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
@@ -30532,7 +30570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60">
+    <row r="15" spans="1:6" ht="58">
       <c r="A15" s="8" t="s">
         <v>99</v>
       </c>
@@ -30543,7 +30581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="90">
+    <row r="16" spans="1:6" ht="87">
       <c r="A16" s="8" t="s">
         <v>103</v>
       </c>
@@ -30554,7 +30592,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="75">
+    <row r="17" spans="1:3" ht="72.5">
       <c r="A17" s="8" t="s">
         <v>101</v>
       </c>
@@ -30565,7 +30603,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="105">
+    <row r="18" spans="1:3" ht="87">
       <c r="A18" s="8" t="s">
         <v>196</v>
       </c>
@@ -30576,7 +30614,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="90">
+    <row r="19" spans="1:3" ht="87">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -30587,7 +30625,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60">
+    <row r="20" spans="1:3" ht="43.5">
       <c r="A20" s="8" t="s">
         <v>203</v>
       </c>
@@ -30598,7 +30636,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="90">
+    <row r="21" spans="1:3" ht="87">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -30609,7 +30647,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75">
+    <row r="22" spans="1:3" ht="72.5">
       <c r="A22" s="8" t="s">
         <v>108</v>
       </c>
@@ -30620,7 +30658,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="90">
+    <row r="23" spans="1:3" ht="87">
       <c r="A23" s="8" t="s">
         <v>109</v>
       </c>
@@ -30631,7 +30669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="105">
+    <row r="24" spans="1:3" ht="87">
       <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
@@ -30653,7 +30691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="90">
+    <row r="26" spans="1:3" ht="72.5">
       <c r="A26" s="8" t="s">
         <v>111</v>
       </c>
@@ -30664,7 +30702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="90">
+    <row r="27" spans="1:3" ht="87">
       <c r="A27" s="8" t="s">
         <v>113</v>
       </c>
@@ -30675,7 +30713,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="75">
+    <row r="28" spans="1:3" ht="72.5">
       <c r="A28" s="8" t="s">
         <v>114</v>
       </c>
@@ -30686,7 +30724,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="120">
+    <row r="29" spans="1:3" ht="116">
       <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
@@ -30697,7 +30735,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="195">
+    <row r="30" spans="1:3" ht="174">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -30708,7 +30746,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="210">
+    <row r="31" spans="1:3" ht="159.5">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -30719,7 +30757,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="240">
+    <row r="32" spans="1:3" ht="203">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -30755,11 +30793,11 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -30784,7 +30822,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="29">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -30795,7 +30833,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60">
+    <row r="6" spans="1:3" ht="43.5">
       <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
@@ -30806,7 +30844,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="29">
       <c r="A7" s="10" t="s">
         <v>136</v>
       </c>
@@ -30817,7 +30855,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="29">
       <c r="A8" s="10" t="s">
         <v>139</v>
       </c>
@@ -30828,7 +30866,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45">
+    <row r="9" spans="1:3" ht="43.5">
       <c r="A9" s="10" t="s">
         <v>140</v>
       </c>
@@ -30839,7 +30877,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45">
+    <row r="10" spans="1:3" ht="43.5">
       <c r="A10" s="10" t="s">
         <v>142</v>
       </c>
@@ -30861,7 +30899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45">
+    <row r="12" spans="1:3" ht="43.5">
       <c r="A12" s="10" t="s">
         <v>152</v>
       </c>
@@ -30872,7 +30910,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45">
+    <row r="13" spans="1:3" ht="43.5">
       <c r="A13" s="8" t="s">
         <v>156</v>
       </c>
@@ -30883,7 +30921,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45">
+    <row r="14" spans="1:3" ht="43.5">
       <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
@@ -30894,7 +30932,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="75">
+    <row r="15" spans="1:3" ht="72.5">
       <c r="A15" s="8" t="s">
         <v>166</v>
       </c>
@@ -30905,7 +30943,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45">
+    <row r="16" spans="1:3" ht="43.5">
       <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
@@ -30916,7 +30954,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="43.5">
       <c r="A17" s="8" t="s">
         <v>177</v>
       </c>
@@ -30927,7 +30965,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45">
+    <row r="18" spans="1:3" ht="43.5">
       <c r="A18" s="8" t="s">
         <v>178</v>
       </c>
@@ -30938,7 +30976,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45">
+    <row r="19" spans="1:3" ht="43.5">
       <c r="A19" s="8" t="s">
         <v>181</v>
       </c>
@@ -30949,7 +30987,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60">
+    <row r="20" spans="1:3" ht="58">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -30960,7 +30998,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="90">
+    <row r="21" spans="1:3" ht="72.5">
       <c r="A21" s="10" t="s">
         <v>150</v>
       </c>
@@ -30971,7 +31009,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75">
+    <row r="22" spans="1:3" ht="72.5">
       <c r="A22" s="8" t="s">
         <v>183</v>
       </c>
@@ -30982,7 +31020,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60">
+    <row r="23" spans="1:3" ht="58">
       <c r="A23" s="10" t="s">
         <v>67</v>
       </c>
@@ -30993,7 +31031,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="90">
+    <row r="24" spans="1:3" ht="87">
       <c r="A24" s="8" t="s">
         <v>186</v>
       </c>
@@ -31004,7 +31042,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="120">
+    <row r="25" spans="1:3" ht="101.5">
       <c r="A25" s="10" t="s">
         <v>232</v>
       </c>
@@ -31015,7 +31053,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="90">
+    <row r="26" spans="1:3" ht="72.5">
       <c r="A26" s="8" t="s">
         <v>234</v>
       </c>
@@ -31026,7 +31064,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="75">
+    <row r="27" spans="1:3" ht="72.5">
       <c r="A27" s="10" t="s">
         <v>236</v>
       </c>
@@ -31037,7 +31075,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45">
+    <row r="28" spans="1:3" ht="43.5">
       <c r="A28" s="7" t="s">
         <v>240</v>
       </c>
@@ -31048,7 +31086,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="75">
+    <row r="29" spans="1:3" ht="58">
       <c r="A29" s="7" t="s">
         <v>242</v>
       </c>
@@ -31059,7 +31097,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45.6" customHeight="1">
+    <row r="30" spans="1:3" ht="45.65" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>245</v>
       </c>
@@ -31070,7 +31108,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45">
+    <row r="31" spans="1:3" ht="43.5">
       <c r="A31" s="7" t="s">
         <v>247</v>
       </c>
@@ -31081,7 +31119,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45">
+    <row r="32" spans="1:3" ht="43.5">
       <c r="A32" s="7" t="s">
         <v>251</v>
       </c>
@@ -31092,7 +31130,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45">
+    <row r="33" spans="1:3" ht="43.5">
       <c r="A33" s="8" t="s">
         <v>148</v>
       </c>
@@ -31103,7 +31141,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="60">
+    <row r="34" spans="1:3" ht="58">
       <c r="A34" s="8" t="s">
         <v>148</v>
       </c>
@@ -31196,13 +31234,13 @@
       <selection activeCell="E18" sqref="E18:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="28"/>
-    <col min="2" max="2" width="30.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.81640625" style="28"/>
+    <col min="2" max="2" width="30.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="52.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -31210,7 +31248,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="60">
+    <row r="3" spans="2:4" ht="58">
       <c r="C3" s="37" t="s">
         <v>545</v>
       </c>
@@ -31234,7 +31272,7 @@
       <c r="B7" s="59"/>
       <c r="C7" s="34"/>
     </row>
-    <row r="8" spans="2:4" ht="30">
+    <row r="8" spans="2:4" ht="29">
       <c r="B8" s="11" t="s">
         <v>560</v>
       </c>
@@ -31245,7 +31283,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="29">
       <c r="B9" s="7" t="s">
         <v>553</v>
       </c>
@@ -31256,7 +31294,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30">
+    <row r="10" spans="2:4" ht="29">
       <c r="B10" s="7" t="s">
         <v>556</v>
       </c>
@@ -31267,7 +31305,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30">
+    <row r="11" spans="2:4" ht="29">
       <c r="B11" s="11" t="s">
         <v>559</v>
       </c>
@@ -31278,7 +31316,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30">
+    <row r="12" spans="2:4" ht="29">
       <c r="B12" s="11" t="s">
         <v>563</v>
       </c>
@@ -31289,7 +31327,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="45">
+    <row r="13" spans="2:4" ht="43.5">
       <c r="B13" s="11" t="s">
         <v>565</v>
       </c>
@@ -31300,7 +31338,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="45">
+    <row r="14" spans="2:4" ht="43.5">
       <c r="B14" s="11" t="s">
         <v>569</v>
       </c>
@@ -31311,7 +31349,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="45">
+    <row r="15" spans="2:4" ht="43.5">
       <c r="B15" s="11" t="s">
         <v>571</v>
       </c>
@@ -31322,7 +31360,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30">
+    <row r="16" spans="2:4" ht="29">
       <c r="B16" s="7" t="s">
         <v>574</v>
       </c>
@@ -31333,7 +31371,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="165">
+    <row r="17" spans="2:13" ht="159.5">
       <c r="B17" s="7" t="s">
         <v>578</v>
       </c>
@@ -31344,7 +31382,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="144.94999999999999" customHeight="1">
+    <row r="18" spans="2:13" ht="145" customHeight="1">
       <c r="B18" s="11" t="s">
         <v>581</v>
       </c>
@@ -31354,14 +31392,14 @@
       <c r="D18" s="66" t="s">
         <v>583</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="69" t="s">
         <v>584</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
     </row>
     <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
@@ -31373,19 +31411,19 @@
       <c r="D19" s="66" t="s">
         <v>587</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="69" t="s">
         <v>588</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-    </row>
-    <row r="20" spans="2:13" ht="30">
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+    </row>
+    <row r="20" spans="2:13" ht="29">
       <c r="B20" s="7" t="s">
         <v>589</v>
       </c>
@@ -31406,17 +31444,17 @@
       <c r="D21" s="66" t="s">
         <v>721</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="69" t="s">
         <v>722</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31433,17 +31471,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
   <dimension ref="B3:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27"/>
-    <col min="2" max="2" width="43.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="9.1796875" style="27"/>
+    <col min="2" max="2" width="43.7265625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="46.7265625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.7265625" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
@@ -31452,22 +31490,22 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="71" t="s">
         <v>735</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="71"/>
     </row>
     <row r="5" spans="2:4" ht="90" customHeight="1">
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="71" t="s">
         <v>736</v>
       </c>
-      <c r="D5" s="69"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="2:4" ht="90" customHeight="1">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="71" t="s">
         <v>744</v>
       </c>
-      <c r="D6" s="69"/>
+      <c r="D6" s="71"/>
     </row>
     <row r="8" spans="2:4" ht="75" customHeight="1">
       <c r="B8" s="10" t="s">
@@ -31491,7 +31529,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="75">
+    <row r="10" spans="2:4" ht="72.5">
       <c r="B10" s="8" t="s">
         <v>730</v>
       </c>
@@ -31502,7 +31540,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="60">
+    <row r="11" spans="2:4" ht="58">
       <c r="B11" s="10" t="s">
         <v>738</v>
       </c>
@@ -31513,7 +31551,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30">
+    <row r="12" spans="2:4" ht="29">
       <c r="B12" s="46" t="s">
         <v>742</v>
       </c>
@@ -31534,18 +31572,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
-  <dimension ref="B2:D34"/>
+  <dimension ref="B2:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="27"/>
-    <col min="2" max="3" width="43.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="27"/>
+    <col min="1" max="1" width="8.7265625" style="27"/>
+    <col min="2" max="3" width="43.54296875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -31711,7 +31749,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30">
+    <row r="26" spans="2:4" ht="29">
       <c r="B26" s="38" t="s">
         <v>714</v>
       </c>
@@ -31749,7 +31787,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:4">
       <c r="B33" s="27" t="s">
         <v>733</v>
       </c>
@@ -31757,7 +31795,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:4">
       <c r="B34" s="27" t="s">
         <v>734</v>
       </c>
@@ -31765,7 +31803,48 @@
         <v>105</v>
       </c>
     </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="60" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="29">
+      <c r="B40" s="68" t="s">
+        <v>748</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="29">
+      <c r="B42" s="68" t="s">
+        <v>752</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>753</v>
+      </c>
+      <c r="D42" s="80"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C42:D42"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -31779,13 +31858,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="27"/>
-    <col min="2" max="2" width="30.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="8.81640625" style="27"/>
+    <col min="2" max="2" width="30.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="52.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -31813,7 +31892,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="43"/>
     </row>
-    <row r="7" spans="2:4" ht="30">
+    <row r="7" spans="2:4" ht="29">
       <c r="B7" s="46" t="s">
         <v>550</v>
       </c>
@@ -31825,7 +31904,7 @@
     <row r="9" spans="2:4">
       <c r="B9" s="45"/>
     </row>
-    <row r="10" spans="2:4" ht="101.45" customHeight="1">
+    <row r="10" spans="2:4" ht="101.5" customHeight="1">
       <c r="B10" s="45"/>
       <c r="C10" s="43"/>
       <c r="D10" s="38"/>
@@ -31847,10 +31926,10 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -31889,7 +31968,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="101.45" customHeight="1">
+    <row r="9" spans="1:3" ht="101.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>295</v>
       </c>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30D3501-B5FD-49C8-BE28-7E0BCED43151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90394E2C-224C-41D5-8851-539F7C4B9662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="758">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -27017,16 +27017,7 @@
     </r>
   </si>
   <si>
-    <t>OVERWRITE LOCAL REPOSITORY WITH REMOTE</t>
-  </si>
-  <si>
-    <t>git fetch --all</t>
-  </si>
-  <si>
     <t>fetch all remote repo differences</t>
-  </si>
-  <si>
-    <t>reset local repository with remote repo</t>
   </si>
   <si>
     <r>
@@ -27462,6 +27453,27 @@
   <si>
     <t>remote: To create a merge request for &lt;branch&gt;, visit:
 &lt;gitLab URL&gt;</t>
+  </si>
+  <si>
+    <t>git config -h</t>
+  </si>
+  <si>
+    <t>show help for git config</t>
+  </si>
+  <si>
+    <t>displays some helpful tips for the 'git config' command</t>
+  </si>
+  <si>
+    <t>UPDATE REMOTE REPOSITORY WITH LOCAL CHANGES</t>
+  </si>
+  <si>
+    <t>git pull origin main</t>
+  </si>
+  <si>
+    <t>OVERWRITE LOCAL REPO WITH REMOTE REPO</t>
+  </si>
+  <si>
+    <t>CREATE NEW LOCAL REPO FROM REMOTE REPO</t>
   </si>
 </sst>
 </file>
@@ -27628,7 +27640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -27825,6 +27837,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -27832,6 +27853,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -27857,7 +27881,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -28181,11 +28205,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -28220,7 +28244,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -28231,7 +28255,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="159.5">
+    <row r="9" spans="1:3" ht="165">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
@@ -28242,7 +28266,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="59.5" customHeight="1">
+    <row r="10" spans="1:3" ht="59.45" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>82</v>
       </c>
@@ -28253,7 +28277,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="58">
+    <row r="11" spans="1:3" ht="60">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -28264,7 +28288,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="58">
+    <row r="12" spans="1:3" ht="60">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -28286,7 +28310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" s="8" t="s">
         <v>170</v>
       </c>
@@ -28297,7 +28321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="8" t="s">
         <v>169</v>
       </c>
@@ -28330,7 +28354,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -28388,13 +28412,13 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.453125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="48.81640625" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="28"/>
+    <col min="1" max="1" width="30.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -28406,17 +28430,17 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="77" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="77"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -28424,12 +28448,12 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="79" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="75"/>
-    </row>
-    <row r="7" spans="1:4" ht="43.5">
+      <c r="B6" s="79"/>
+    </row>
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="35" t="s">
         <v>345</v>
       </c>
@@ -28462,7 +28486,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72.5">
+    <row r="10" spans="1:4" ht="90">
       <c r="A10" s="9" t="s">
         <v>351</v>
       </c>
@@ -28522,7 +28546,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="4" t="s">
         <v>355</v>
       </c>
@@ -28544,7 +28568,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="58">
+    <row r="20" spans="1:3" ht="75">
       <c r="A20" s="4" t="s">
         <v>369</v>
       </c>
@@ -28556,88 +28580,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="76" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="76" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="76" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="77" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="77" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="76" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="76" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">
@@ -28762,11 +28786,11 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="4" width="55.7265625" customWidth="1"/>
-    <col min="5" max="5" width="59.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="4" width="55.7109375" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -28776,7 +28800,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:13" ht="101.5">
+    <row r="3" spans="1:13" ht="120">
       <c r="A3" s="28"/>
       <c r="B3" s="3"/>
       <c r="C3" s="39" t="s">
@@ -28826,7 +28850,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="80" t="s">
         <v>414</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -28839,8 +28863,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="72.5">
-      <c r="A9" s="76"/>
+    <row r="9" spans="1:13" ht="75">
+      <c r="A9" s="80"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
       </c>
@@ -28851,8 +28875,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="29">
-      <c r="A10" s="76"/>
+    <row r="10" spans="1:13" ht="30">
+      <c r="A10" s="80"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
       </c>
@@ -28863,8 +28887,8 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.5">
-      <c r="A11" s="76"/>
+    <row r="11" spans="1:13" ht="45">
+      <c r="A11" s="80"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
       </c>
@@ -28875,8 +28899,8 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.5">
-      <c r="A12" s="76"/>
+    <row r="12" spans="1:13" ht="45">
+      <c r="A12" s="80"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
       </c>
@@ -28892,8 +28916,8 @@
       <c r="C14" s="9"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:13" ht="43.5">
-      <c r="A15" s="77" t="s">
+    <row r="15" spans="1:13" ht="60">
+      <c r="A15" s="81" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -28906,8 +28930,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="72.5">
-      <c r="A16" s="77"/>
+    <row r="16" spans="1:13" ht="75">
+      <c r="A16" s="81"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
       </c>
@@ -28918,8 +28942,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="87">
-      <c r="A17" s="77"/>
+    <row r="17" spans="1:13" ht="105">
+      <c r="A17" s="81"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
       </c>
@@ -28930,8 +28954,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="87">
-      <c r="A18" s="77"/>
+    <row r="18" spans="1:13" ht="105">
+      <c r="A18" s="81"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
       </c>
@@ -28942,8 +28966,8 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="58">
-      <c r="A19" s="77" t="s">
+    <row r="19" spans="1:13" ht="60">
+      <c r="A19" s="81" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -28956,8 +28980,8 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="58">
-      <c r="A20" s="77"/>
+    <row r="20" spans="1:13" ht="60">
+      <c r="A20" s="81"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
       </c>
@@ -28968,8 +28992,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="101.5">
-      <c r="A21" s="77"/>
+    <row r="21" spans="1:13" ht="105">
+      <c r="A21" s="81"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
       </c>
@@ -28980,8 +29004,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="58">
-      <c r="A22" s="77"/>
+    <row r="22" spans="1:13" ht="60">
+      <c r="A22" s="81"/>
       <c r="B22" s="55" t="s">
         <v>532</v>
       </c>
@@ -29014,7 +29038,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" ht="130.5">
+    <row r="25" spans="1:13" ht="150">
       <c r="B25" s="11" t="s">
         <v>538</v>
       </c>
@@ -29036,7 +29060,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" ht="145">
+    <row r="26" spans="1:13" ht="150">
       <c r="A26" s="28"/>
       <c r="B26" s="11" t="s">
         <v>629</v>
@@ -29059,7 +29083,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" ht="145">
+    <row r="27" spans="1:13" ht="165">
       <c r="B27" s="11" t="s">
         <v>632</v>
       </c>
@@ -29079,7 +29103,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" ht="200.15" customHeight="1">
+    <row r="28" spans="1:13" ht="200.1" customHeight="1">
       <c r="B28" s="11" t="s">
         <v>635</v>
       </c>
@@ -29115,7 +29139,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="211" customHeight="1">
+    <row r="30" spans="1:13" ht="210.95" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>643</v>
       </c>
@@ -29129,7 +29153,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="232">
+    <row r="31" spans="1:13" ht="270">
       <c r="B31" s="11" t="s">
         <v>647</v>
       </c>
@@ -29143,7 +29167,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="72.5">
+    <row r="32" spans="1:13" ht="75">
       <c r="B32" s="11" t="s">
         <v>651</v>
       </c>
@@ -29172,10 +29196,10 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="4" width="53.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="4" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
@@ -29330,38 +29354,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="82" t="s">
         <v>689</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="82"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="82" t="s">
         <v>690</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="82"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="82" t="s">
         <v>691</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="82"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="82" t="s">
         <v>692</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="82"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="82" t="s">
         <v>693</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="82"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -29374,40 +29398,40 @@
       <c r="B25" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="82" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="D25" s="82"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="82" t="s">
         <v>697</v>
       </c>
-      <c r="D26" s="78"/>
+      <c r="D26" s="82"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="82" t="s">
         <v>698</v>
       </c>
-      <c r="D27" s="78"/>
+      <c r="D27" s="82"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="82" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="78"/>
+      <c r="D28" s="82"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="82" t="s">
         <v>700</v>
       </c>
-      <c r="D29" s="78"/>
-    </row>
-    <row r="30" spans="2:4" ht="39">
+      <c r="D29" s="82"/>
+    </row>
+    <row r="30" spans="2:4" ht="38.25">
       <c r="B30" s="27" t="s">
         <v>701</v>
       </c>
@@ -29450,16 +29474,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="27"/>
-    <col min="2" max="2" width="43.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.54296875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" style="27" customWidth="1"/>
-    <col min="7" max="8" width="40.54296875" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="8.85546875" style="27"/>
+    <col min="2" max="2" width="43.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="27" customWidth="1"/>
+    <col min="7" max="8" width="40.5703125" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
@@ -29472,7 +29496,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="29.5" customHeight="1">
+    <row r="5" spans="2:8" ht="29.45" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>466</v>
       </c>
@@ -29496,7 +29520,7 @@
       </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="2:8" ht="29.15" customHeight="1">
+    <row r="7" spans="2:8" ht="29.1" customHeight="1">
       <c r="C7" s="27" t="s">
         <v>465</v>
       </c>
@@ -29505,7 +29529,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="2:8" ht="43.5">
+    <row r="8" spans="2:8" ht="45">
       <c r="C8" s="27" t="s">
         <v>467</v>
       </c>
@@ -29522,7 +29546,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:8" ht="29">
+    <row r="11" spans="2:8" ht="30">
       <c r="B11" s="10" t="s">
         <v>477</v>
       </c>
@@ -29534,7 +29558,7 @@
       </c>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="2:8" ht="115.4" customHeight="1">
+    <row r="12" spans="2:8" ht="115.35" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>472</v>
       </c>
@@ -29546,7 +29570,7 @@
       </c>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:8" ht="43.5">
+    <row r="13" spans="2:8" ht="45">
       <c r="B13" s="46" t="s">
         <v>459</v>
       </c>
@@ -29558,7 +29582,7 @@
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="2:8" ht="29">
+    <row r="14" spans="2:8" ht="30">
       <c r="B14" s="46" t="s">
         <v>478</v>
       </c>
@@ -29570,7 +29594,7 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:8" ht="101.15" customHeight="1">
+    <row r="15" spans="2:8" ht="101.1" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>481</v>
       </c>
@@ -29582,7 +29606,7 @@
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:8" ht="72.5">
+    <row r="16" spans="2:8" ht="75">
       <c r="B16" s="8" t="s">
         <v>495</v>
       </c>
@@ -29605,7 +29629,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="58">
+    <row r="17" spans="2:8" ht="90">
       <c r="B17" s="8" t="s">
         <v>494</v>
       </c>
@@ -29620,7 +29644,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="2:8" ht="43.5">
+    <row r="18" spans="2:8" ht="45">
       <c r="B18" s="8" t="s">
         <v>491</v>
       </c>
@@ -29635,7 +29659,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="2:8" ht="72.5">
+    <row r="19" spans="2:8" ht="75">
       <c r="B19" s="8" t="s">
         <v>496</v>
       </c>
@@ -29650,7 +29674,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="2:8" ht="116">
+    <row r="20" spans="2:8" ht="120">
       <c r="B20" s="8" t="s">
         <v>501</v>
       </c>
@@ -29667,7 +29691,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="2:8" ht="43.4" customHeight="1">
+    <row r="21" spans="2:8" ht="43.35" customHeight="1">
       <c r="B21" s="8" t="s">
         <v>504</v>
       </c>
@@ -29682,7 +29706,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="2:8" ht="87">
+    <row r="22" spans="2:8" ht="90">
       <c r="B22" s="8" t="s">
         <v>510</v>
       </c>
@@ -29697,7 +29721,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" ht="30">
       <c r="B23" s="8" t="s">
         <v>543</v>
       </c>
@@ -29726,7 +29750,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="2:8" ht="29">
+    <row r="26" spans="2:8" ht="30">
       <c r="B26" s="10" t="s">
         <v>505</v>
       </c>
@@ -29762,7 +29786,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="2:8" ht="29">
+    <row r="30" spans="2:8" ht="30">
       <c r="B30" s="46" t="s">
         <v>509</v>
       </c>
@@ -29773,7 +29797,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="14.5" customHeight="1"/>
+    <row r="32" spans="2:8" ht="14.45" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
@@ -29788,18 +29812,18 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="83" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -29807,11 +29831,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="76" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -29829,19 +29853,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="83" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -29865,12 +29889,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="16.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -29878,13 +29902,13 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="30">
       <c r="B4" s="39" t="s">
         <v>419</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="6" spans="1:3" ht="87">
+    <row r="6" spans="1:3" ht="90">
       <c r="A6" s="44" t="s">
         <v>420</v>
       </c>
@@ -29909,12 +29933,12 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -29927,7 +29951,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="46" t="s">
         <v>430</v>
       </c>
@@ -29962,12 +29986,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -29980,7 +30004,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="46" t="s">
         <v>438</v>
       </c>
@@ -29991,7 +30015,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="46" t="s">
         <v>441</v>
       </c>
@@ -30015,12 +30039,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="38"/>
+    <col min="1" max="1" width="23.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -30028,12 +30052,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29">
+    <row r="4" spans="1:3" ht="30">
       <c r="B4" s="39" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="46" t="s">
         <v>446</v>
       </c>
@@ -30044,7 +30068,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="46" t="s">
         <v>448</v>
       </c>
@@ -30068,12 +30092,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="43.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -30081,12 +30105,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.5">
+    <row r="4" spans="1:3" ht="45">
       <c r="B4" s="39" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="46" t="s">
         <v>426</v>
       </c>
@@ -30110,12 +30134,12 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.453125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="63.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
@@ -30124,7 +30148,7 @@
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="43.5">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -30145,7 +30169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.5">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -30157,7 +30181,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="43.5">
+    <row r="8" spans="1:4" ht="45">
       <c r="A8" s="7" t="s">
         <v>87</v>
       </c>
@@ -30169,7 +30193,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="72.5">
+    <row r="9" spans="1:4" ht="90">
       <c r="A9" s="8" t="s">
         <v>269</v>
       </c>
@@ -30181,7 +30205,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="43.5">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -30193,7 +30217,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="58">
+    <row r="11" spans="1:4" ht="75">
       <c r="A11" s="8" t="s">
         <v>264</v>
       </c>
@@ -30205,7 +30229,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="43.5">
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="45">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -30217,7 +30241,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="43.5">
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="45">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -30229,7 +30253,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="43.5">
+    <row r="14" spans="1:4" ht="45">
       <c r="A14" s="8" t="s">
         <v>275</v>
       </c>
@@ -30241,7 +30265,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="43.5">
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="45">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -30253,7 +30277,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="43.5">
+    <row r="16" spans="1:4" ht="45">
       <c r="A16" s="8" t="s">
         <v>218</v>
       </c>
@@ -30265,7 +30289,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="43.5">
+    <row r="17" spans="1:4" ht="60">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -30277,7 +30301,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="43.5">
+    <row r="18" spans="1:4" ht="60">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -30289,7 +30313,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="72.5">
+    <row r="19" spans="1:4" ht="75">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -30301,7 +30325,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="87">
+    <row r="20" spans="1:4" ht="90">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -30313,7 +30337,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="58">
+    <row r="21" spans="1:4" ht="60">
       <c r="A21" s="30" t="s">
         <v>224</v>
       </c>
@@ -30325,7 +30349,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="29">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -30337,7 +30361,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="29">
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -30359,7 +30383,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="72.5">
+    <row r="25" spans="1:4" ht="75">
       <c r="A25" s="8" t="s">
         <v>227</v>
       </c>
@@ -30371,7 +30395,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="87">
+    <row r="26" spans="1:4" ht="120">
       <c r="A26" s="6" t="s">
         <v>229</v>
       </c>
@@ -30383,7 +30407,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="58">
+    <row r="27" spans="1:4" ht="60">
       <c r="A27" s="6" t="s">
         <v>231</v>
       </c>
@@ -30431,11 +30455,11 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.54296875" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -30457,7 +30481,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="43.5">
+    <row r="5" spans="1:6" ht="45">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -30468,7 +30492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -30479,7 +30503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="58">
+    <row r="7" spans="1:6" ht="60">
       <c r="A7" s="6" t="s">
         <v>104</v>
       </c>
@@ -30490,7 +30514,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="6" t="s">
         <v>89</v>
       </c>
@@ -30504,7 +30528,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="174">
+    <row r="9" spans="1:6" ht="195">
       <c r="A9" s="8" t="s">
         <v>119</v>
       </c>
@@ -30515,7 +30539,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.5">
+    <row r="10" spans="1:6" ht="45">
       <c r="A10" s="8" t="s">
         <v>90</v>
       </c>
@@ -30526,7 +30550,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="72.5">
+    <row r="11" spans="1:6" ht="75">
       <c r="A11" s="8" t="s">
         <v>92</v>
       </c>
@@ -30537,7 +30561,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="58">
+    <row r="12" spans="1:6" ht="60">
       <c r="A12" s="8" t="s">
         <v>93</v>
       </c>
@@ -30548,7 +30572,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="72.5">
+    <row r="13" spans="1:6" ht="75">
       <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
@@ -30559,7 +30583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="72.5">
+    <row r="14" spans="1:6" ht="90">
       <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
@@ -30570,7 +30594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="58">
+    <row r="15" spans="1:6" ht="60">
       <c r="A15" s="8" t="s">
         <v>99</v>
       </c>
@@ -30581,7 +30605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="87">
+    <row r="16" spans="1:6" ht="90">
       <c r="A16" s="8" t="s">
         <v>103</v>
       </c>
@@ -30592,7 +30616,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="72.5">
+    <row r="17" spans="1:3" ht="75">
       <c r="A17" s="8" t="s">
         <v>101</v>
       </c>
@@ -30603,7 +30627,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="87">
+    <row r="18" spans="1:3" ht="105">
       <c r="A18" s="8" t="s">
         <v>196</v>
       </c>
@@ -30614,7 +30638,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="87">
+    <row r="19" spans="1:3" ht="90">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -30625,7 +30649,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.5">
+    <row r="20" spans="1:3" ht="60">
       <c r="A20" s="8" t="s">
         <v>203</v>
       </c>
@@ -30636,7 +30660,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="87">
+    <row r="21" spans="1:3" ht="90">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -30647,7 +30671,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72.5">
+    <row r="22" spans="1:3" ht="75">
       <c r="A22" s="8" t="s">
         <v>108</v>
       </c>
@@ -30658,7 +30682,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="87">
+    <row r="23" spans="1:3" ht="90">
       <c r="A23" s="8" t="s">
         <v>109</v>
       </c>
@@ -30669,7 +30693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="87">
+    <row r="24" spans="1:3" ht="105">
       <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
@@ -30691,7 +30715,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72.5">
+    <row r="26" spans="1:3" ht="90">
       <c r="A26" s="8" t="s">
         <v>111</v>
       </c>
@@ -30702,7 +30726,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="87">
+    <row r="27" spans="1:3" ht="90">
       <c r="A27" s="8" t="s">
         <v>113</v>
       </c>
@@ -30713,7 +30737,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="72.5">
+    <row r="28" spans="1:3" ht="75">
       <c r="A28" s="8" t="s">
         <v>114</v>
       </c>
@@ -30724,7 +30748,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="116">
+    <row r="29" spans="1:3" ht="120">
       <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
@@ -30735,7 +30759,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="174">
+    <row r="30" spans="1:3" ht="195">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -30746,7 +30770,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="159.5">
+    <row r="31" spans="1:3" ht="210">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -30757,7 +30781,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="203">
+    <row r="32" spans="1:3" ht="240">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -30793,11 +30817,11 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -30822,7 +30846,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:3" ht="29">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -30833,7 +30857,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.5">
+    <row r="6" spans="1:3" ht="60">
       <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
@@ -30844,7 +30868,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="10" t="s">
         <v>136</v>
       </c>
@@ -30855,7 +30879,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="10" t="s">
         <v>139</v>
       </c>
@@ -30866,7 +30890,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.5">
+    <row r="9" spans="1:3" ht="45">
       <c r="A9" s="10" t="s">
         <v>140</v>
       </c>
@@ -30877,7 +30901,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.5">
+    <row r="10" spans="1:3" ht="45">
       <c r="A10" s="10" t="s">
         <v>142</v>
       </c>
@@ -30899,7 +30923,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.5">
+    <row r="12" spans="1:3" ht="45">
       <c r="A12" s="10" t="s">
         <v>152</v>
       </c>
@@ -30910,7 +30934,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.5">
+    <row r="13" spans="1:3" ht="45">
       <c r="A13" s="8" t="s">
         <v>156</v>
       </c>
@@ -30921,7 +30945,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.5">
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
@@ -30932,7 +30956,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="72.5">
+    <row r="15" spans="1:3" ht="75">
       <c r="A15" s="8" t="s">
         <v>166</v>
       </c>
@@ -30943,7 +30967,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="43.5">
+    <row r="16" spans="1:3" ht="45">
       <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
@@ -30954,7 +30978,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.5">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" s="8" t="s">
         <v>177</v>
       </c>
@@ -30965,7 +30989,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.5">
+    <row r="18" spans="1:3" ht="45">
       <c r="A18" s="8" t="s">
         <v>178</v>
       </c>
@@ -30976,7 +31000,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.5">
+    <row r="19" spans="1:3" ht="45">
       <c r="A19" s="8" t="s">
         <v>181</v>
       </c>
@@ -30987,7 +31011,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="58">
+    <row r="20" spans="1:3" ht="60">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -30998,7 +31022,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="72.5">
+    <row r="21" spans="1:3" ht="90">
       <c r="A21" s="10" t="s">
         <v>150</v>
       </c>
@@ -31009,7 +31033,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72.5">
+    <row r="22" spans="1:3" ht="75">
       <c r="A22" s="8" t="s">
         <v>183</v>
       </c>
@@ -31020,7 +31044,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="58">
+    <row r="23" spans="1:3" ht="60">
       <c r="A23" s="10" t="s">
         <v>67</v>
       </c>
@@ -31031,7 +31055,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="87">
+    <row r="24" spans="1:3" ht="90">
       <c r="A24" s="8" t="s">
         <v>186</v>
       </c>
@@ -31042,7 +31066,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="101.5">
+    <row r="25" spans="1:3" ht="120">
       <c r="A25" s="10" t="s">
         <v>232</v>
       </c>
@@ -31053,7 +31077,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72.5">
+    <row r="26" spans="1:3" ht="90">
       <c r="A26" s="8" t="s">
         <v>234</v>
       </c>
@@ -31064,7 +31088,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="72.5">
+    <row r="27" spans="1:3" ht="75">
       <c r="A27" s="10" t="s">
         <v>236</v>
       </c>
@@ -31075,7 +31099,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="43.5">
+    <row r="28" spans="1:3" ht="45">
       <c r="A28" s="7" t="s">
         <v>240</v>
       </c>
@@ -31086,7 +31110,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="58">
+    <row r="29" spans="1:3" ht="75">
       <c r="A29" s="7" t="s">
         <v>242</v>
       </c>
@@ -31097,7 +31121,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45.65" customHeight="1">
+    <row r="30" spans="1:3" ht="45.6" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>245</v>
       </c>
@@ -31108,7 +31132,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="43.5">
+    <row r="31" spans="1:3" ht="45">
       <c r="A31" s="7" t="s">
         <v>247</v>
       </c>
@@ -31119,7 +31143,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.5">
+    <row r="32" spans="1:3" ht="45">
       <c r="A32" s="7" t="s">
         <v>251</v>
       </c>
@@ -31130,7 +31154,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="43.5">
+    <row r="33" spans="1:3" ht="45">
       <c r="A33" s="8" t="s">
         <v>148</v>
       </c>
@@ -31141,7 +31165,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="58">
+    <row r="34" spans="1:3" ht="60">
       <c r="A34" s="8" t="s">
         <v>148</v>
       </c>
@@ -31234,13 +31258,13 @@
       <selection activeCell="E18" sqref="E18:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="28"/>
-    <col min="2" max="2" width="30.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="52.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="28"/>
+    <col min="1" max="1" width="8.85546875" style="28"/>
+    <col min="2" max="2" width="30.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -31248,7 +31272,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="58">
+    <row r="3" spans="2:4" ht="60">
       <c r="C3" s="37" t="s">
         <v>545</v>
       </c>
@@ -31272,7 +31296,7 @@
       <c r="B7" s="59"/>
       <c r="C7" s="34"/>
     </row>
-    <row r="8" spans="2:4" ht="29">
+    <row r="8" spans="2:4" ht="30">
       <c r="B8" s="11" t="s">
         <v>560</v>
       </c>
@@ -31283,7 +31307,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29">
+    <row r="9" spans="2:4" ht="30">
       <c r="B9" s="7" t="s">
         <v>553</v>
       </c>
@@ -31294,7 +31318,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29">
+    <row r="10" spans="2:4" ht="30">
       <c r="B10" s="7" t="s">
         <v>556</v>
       </c>
@@ -31305,7 +31329,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="29">
+    <row r="11" spans="2:4" ht="30">
       <c r="B11" s="11" t="s">
         <v>559</v>
       </c>
@@ -31316,7 +31340,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="29">
+    <row r="12" spans="2:4" ht="30">
       <c r="B12" s="11" t="s">
         <v>563</v>
       </c>
@@ -31327,7 +31351,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="43.5">
+    <row r="13" spans="2:4" ht="45">
       <c r="B13" s="11" t="s">
         <v>565</v>
       </c>
@@ -31338,7 +31362,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="43.5">
+    <row r="14" spans="2:4" ht="45">
       <c r="B14" s="11" t="s">
         <v>569</v>
       </c>
@@ -31349,7 +31373,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="43.5">
+    <row r="15" spans="2:4" ht="45">
       <c r="B15" s="11" t="s">
         <v>571</v>
       </c>
@@ -31360,7 +31384,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="29">
+    <row r="16" spans="2:4" ht="30">
       <c r="B16" s="7" t="s">
         <v>574</v>
       </c>
@@ -31371,7 +31395,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="159.5">
+    <row r="17" spans="2:13" ht="165">
       <c r="B17" s="7" t="s">
         <v>578</v>
       </c>
@@ -31382,7 +31406,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="145" customHeight="1">
+    <row r="18" spans="2:13" ht="144.94999999999999" customHeight="1">
       <c r="B18" s="11" t="s">
         <v>581</v>
       </c>
@@ -31392,14 +31416,14 @@
       <c r="D18" s="66" t="s">
         <v>583</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="72" t="s">
         <v>584</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
@@ -31411,19 +31435,19 @@
       <c r="D19" s="66" t="s">
         <v>587</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="72" t="s">
         <v>588</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-    </row>
-    <row r="20" spans="2:13" ht="29">
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+    </row>
+    <row r="20" spans="2:13" ht="30">
       <c r="B20" s="7" t="s">
         <v>589</v>
       </c>
@@ -31444,17 +31468,17 @@
       <c r="D21" s="66" t="s">
         <v>721</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="72" t="s">
         <v>722</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31475,13 +31499,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="27"/>
-    <col min="2" max="2" width="43.7265625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="46.7265625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="56.7265625" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="27"/>
+    <col min="1" max="1" width="9.140625" style="27"/>
+    <col min="2" max="2" width="43.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
@@ -31490,22 +31514,22 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
-      <c r="C4" s="71" t="s">
-        <v>735</v>
-      </c>
-      <c r="D4" s="71"/>
+      <c r="C4" s="74" t="s">
+        <v>732</v>
+      </c>
+      <c r="D4" s="74"/>
     </row>
     <row r="5" spans="2:4" ht="90" customHeight="1">
-      <c r="C5" s="71" t="s">
-        <v>736</v>
-      </c>
-      <c r="D5" s="71"/>
+      <c r="C5" s="74" t="s">
+        <v>733</v>
+      </c>
+      <c r="D5" s="74"/>
     </row>
     <row r="6" spans="2:4" ht="90" customHeight="1">
-      <c r="C6" s="71" t="s">
-        <v>744</v>
-      </c>
-      <c r="D6" s="71"/>
+      <c r="C6" s="74" t="s">
+        <v>741</v>
+      </c>
+      <c r="D6" s="74"/>
     </row>
     <row r="8" spans="2:4" ht="75" customHeight="1">
       <c r="B8" s="10" t="s">
@@ -31529,34 +31553,34 @@
         <v>729</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="72.5">
+    <row r="10" spans="2:4" ht="75">
       <c r="B10" s="8" t="s">
         <v>730</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="60">
+      <c r="B11" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="30">
+      <c r="B12" s="46" t="s">
+        <v>739</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>740</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="58">
-      <c r="B11" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="29">
-      <c r="B12" s="46" t="s">
-        <v>742</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -31572,18 +31596,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
-  <dimension ref="B2:D42"/>
+  <dimension ref="B2:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="27"/>
-    <col min="2" max="3" width="43.54296875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="27"/>
+    <col min="1" max="1" width="8.7109375" style="27"/>
+    <col min="2" max="2" width="49" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -31662,188 +31687,214 @@
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="60" t="s">
+    <row r="13" spans="2:4">
+      <c r="B13" s="60" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" s="71" customFormat="1">
+      <c r="B14" s="84" t="s">
+        <v>752</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>751</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="71" customFormat="1"/>
+    <row r="18" spans="2:4" s="71" customFormat="1">
+      <c r="B18" s="60" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="71" customFormat="1">
+      <c r="B19" s="27" t="s">
         <v>622</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C19" s="43" t="s">
         <v>623</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D19" s="61" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>607</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="27" t="s">
+    <row r="20" spans="2:4" s="71" customFormat="1">
+      <c r="B20" s="60"/>
+    </row>
+    <row r="21" spans="2:4" s="71" customFormat="1"/>
+    <row r="22" spans="2:4" s="71" customFormat="1">
+      <c r="B22" s="60" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="71" customFormat="1">
+      <c r="B23" s="71" t="s">
         <v>619</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C23" s="70" t="s">
         <v>617</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D23" s="69" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="27" t="s">
+    <row r="24" spans="2:4" s="71" customFormat="1">
+      <c r="B24" s="71" t="s">
         <v>625</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C24" s="70" t="s">
         <v>627</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D24" s="69" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="27" t="s">
+    <row r="25" spans="2:4">
+      <c r="B25" s="71" t="s">
         <v>626</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C25" s="70" t="s">
         <v>620</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D25" s="69" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="60" t="s">
+    <row r="26" spans="2:4" s="71" customFormat="1">
+      <c r="C26" s="70"/>
+      <c r="D26" s="69"/>
+    </row>
+    <row r="27" spans="2:4" s="71" customFormat="1">
+      <c r="C27" s="70"/>
+      <c r="D27" s="69"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="60" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="27" t="s">
+    <row r="29" spans="2:4">
+      <c r="B29" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C29" s="43" t="s">
         <v>707</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D29" s="45" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="27" t="s">
+    <row r="30" spans="2:4">
+      <c r="B30" s="27" t="s">
         <v>710</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C30" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D30" s="27" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="29">
-      <c r="B26" s="38" t="s">
+    <row r="31" spans="2:4" ht="30">
+      <c r="B31" s="38" t="s">
         <v>714</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D31" s="46" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="27" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" s="27" t="s">
         <v>717</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C32" s="43" t="s">
         <v>715</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D32" s="27" t="s">
         <v>716</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="27" t="s">
-        <v>719</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>718</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="60" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="27" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="60" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="27" t="s">
-        <v>746</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="29">
-      <c r="B40" s="68" t="s">
-        <v>748</v>
-      </c>
-      <c r="C40" s="67" t="s">
-        <v>749</v>
+        <v>718</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="60" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="60" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="30">
+      <c r="B42" s="68" t="s">
+        <v>745</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="27" t="s">
+        <v>747</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="30">
+      <c r="B44" s="68" t="s">
+        <v>749</v>
+      </c>
+      <c r="C44" s="74" t="s">
         <v>750</v>
       </c>
-      <c r="C41" s="43" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="29">
-      <c r="B42" s="68" t="s">
-        <v>752</v>
-      </c>
-      <c r="C42" s="71" t="s">
-        <v>753</v>
-      </c>
-      <c r="D42" s="80"/>
+      <c r="D44" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -31858,13 +31909,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="27"/>
-    <col min="2" max="2" width="30.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="52.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="8.85546875" style="27"/>
+    <col min="2" max="2" width="30.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -31892,7 +31943,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="43"/>
     </row>
-    <row r="7" spans="2:4" ht="29">
+    <row r="7" spans="2:4" ht="30">
       <c r="B7" s="46" t="s">
         <v>550</v>
       </c>
@@ -31904,7 +31955,7 @@
     <row r="9" spans="2:4">
       <c r="B9" s="45"/>
     </row>
-    <row r="10" spans="2:4" ht="101.5" customHeight="1">
+    <row r="10" spans="2:4" ht="101.45" customHeight="1">
       <c r="B10" s="45"/>
       <c r="C10" s="43"/>
       <c r="D10" s="38"/>
@@ -31926,10 +31977,10 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -31968,7 +32019,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="101.5" customHeight="1">
+    <row r="9" spans="1:3" ht="101.45" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>295</v>
       </c>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\Linux-cmds-cheat-sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90394E2C-224C-41D5-8851-539F7C4B9662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E0BDDB-E84C-415A-9FB0-686D59061526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="762">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -26822,9 +26822,6 @@
     </r>
   </si>
   <si>
-    <t>iptables -A INPUT -s 10.10.10.10 -j DROP</t>
-  </si>
-  <si>
     <r>
       <t>Append (attach) this new rule to the INPUT chain; anything from source 10.10.10.10, DROP the data'
 '</t>
@@ -26946,75 +26943,7 @@
     </r>
   </si>
   <si>
-    <t>iptables -L</t>
-  </si>
-  <si>
     <t>lists all rules on all chains</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">--policy &lt;CHAIN&gt; &lt;ACTION&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= sets the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>default</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>policy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for an iptables chain</t>
-    </r>
   </si>
   <si>
     <t>fetch all remote repo differences</t>
@@ -27217,9 +27146,6 @@
     </r>
   </si>
   <si>
-    <t>iptables -L -v</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -27361,11 +27287,6 @@
       </rPr>
       <t xml:space="preserve"> output</t>
     </r>
-  </si>
-  <si>
-    <t>iptables --policy INPUT ACCEPT
-iptables --policy OUTPUT ACCEPT
-iptables --policy FORWARD ACCEPT</t>
   </si>
   <si>
     <t>sets the default action to 'ACCEPT' for the 'INPUT' policy
@@ -27374,58 +27295,6 @@
 setting the default policy for these 3 lists or 'chains' sets the default policy to 'ACCEPT' for the entire firewall</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-I &lt;CHAIN&gt; &lt;NUMBER&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inserts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a new rule on a specific chain at a specific location in the chain</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">iptables -I </t>
-  </si>
-  <si>
-    <t>CHAIN CONCEPT (important!)
-firewall 'chains' are made up of 'rules'
-'Rules' are evaluated sequentially in a waterfall operation; e.g. rule 1 is evaluated, then rule 2, then rule 3, then rule 4 etc.</t>
-  </si>
-  <si>
     <t>CREATE NEW BRANCH FOR MERGE INTO MAIN</t>
   </si>
   <si>
@@ -27474,6 +27343,304 @@
   </si>
   <si>
     <t>CREATE NEW LOCAL REPO FROM REMOTE REPO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CHAIN CONCEPT (important!)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>firewall 'chains' are made up of 'rules'
+'Rules' are evaluated sequentially in a waterfall operation; e.g. rule 1 is evaluated, then rule 2, then rule 3, then rule 4 etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--policy {&lt;CHAIN&gt; &lt;ACTION&gt;} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= sets the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for an iptables chain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>READING COMMAND SYNTAX:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= encloses mandatory parameters
+[ ] = encloses optional parameters
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; &gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = encloses variables where you can input your own value
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = separates two or more items, only one can be chosen
+</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo iptables -L</t>
+  </si>
+  <si>
+    <t>sudo iptables -A INPUT -s 10.10.10.10 -j DROP</t>
+  </si>
+  <si>
+    <t>sudo iptables -L -v</t>
+  </si>
+  <si>
+    <t>sudo iptables -I INPUT 1 -s 10.10.10.20 -j DROP</t>
+  </si>
+  <si>
+    <t>sudo iptables --policy INPUT ACCEPT
+sudo iptables --policy OUTPUT ACCEPT
+sudo iptables --policy FORWARD ACCEPT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-I {&lt;CHAIN&gt;} {&lt;NUMBER&gt;} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inserts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a new rule on a specific chain at a specific location in the chain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-F [&lt;CHAIN&gt;] [&lt;NUMBER&gt;] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (delete) all rules in a chain</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo iptables -F INPUT </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">flushes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(deletes) all rules in the INPUT chain</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -27640,7 +27807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -27830,21 +27997,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -27880,9 +28032,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -28430,17 +28579,17 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="77"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -28448,10 +28597,10 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="74"/>
     </row>
     <row r="7" spans="1:4" ht="45">
       <c r="A7" s="35" t="s">
@@ -28580,88 +28729,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="71" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="71" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="71" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">
@@ -28850,7 +28999,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="75" t="s">
         <v>414</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -28864,7 +29013,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="75">
-      <c r="A9" s="80"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
       </c>
@@ -28876,7 +29025,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
-      <c r="A10" s="80"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
       </c>
@@ -28888,7 +29037,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="45">
-      <c r="A11" s="80"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
       </c>
@@ -28900,7 +29049,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="80"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
       </c>
@@ -28917,7 +29066,7 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="60">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="76" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -28931,7 +29080,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="75">
-      <c r="A16" s="81"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
       </c>
@@ -28943,7 +29092,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="105">
-      <c r="A17" s="81"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
       </c>
@@ -28955,7 +29104,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="105">
-      <c r="A18" s="81"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
       </c>
@@ -28967,7 +29116,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="60">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="76" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -28981,7 +29130,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="60">
-      <c r="A20" s="81"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
       </c>
@@ -28993,7 +29142,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="105">
-      <c r="A21" s="81"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
       </c>
@@ -29005,7 +29154,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="60">
-      <c r="A22" s="81"/>
+      <c r="A22" s="76"/>
       <c r="B22" s="55" t="s">
         <v>532</v>
       </c>
@@ -29354,38 +29503,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="77" t="s">
         <v>689</v>
       </c>
-      <c r="D19" s="82"/>
+      <c r="D19" s="77"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="77" t="s">
         <v>690</v>
       </c>
-      <c r="D20" s="82"/>
+      <c r="D20" s="77"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="77" t="s">
         <v>691</v>
       </c>
-      <c r="D21" s="82"/>
+      <c r="D21" s="77"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="77" t="s">
         <v>692</v>
       </c>
-      <c r="D22" s="82"/>
+      <c r="D22" s="77"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="77" t="s">
         <v>693</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="77"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -29398,38 +29547,38 @@
       <c r="B25" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="77" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="77"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="77" t="s">
         <v>697</v>
       </c>
-      <c r="D26" s="82"/>
+      <c r="D26" s="77"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="77" t="s">
         <v>698</v>
       </c>
-      <c r="D27" s="82"/>
+      <c r="D27" s="77"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="77" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="82"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="77" t="s">
         <v>700</v>
       </c>
-      <c r="D29" s="82"/>
+      <c r="D29" s="77"/>
     </row>
     <row r="30" spans="2:4" ht="38.25">
       <c r="B30" s="27" t="s">
@@ -29818,12 +29967,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="78" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -29831,11 +29980,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -29853,19 +30002,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="78" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -31416,14 +31565,14 @@
       <c r="D18" s="66" t="s">
         <v>583</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="67" t="s">
         <v>584</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
@@ -31435,17 +31584,17 @@
       <c r="D19" s="66" t="s">
         <v>587</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="67" t="s">
         <v>588</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
     </row>
     <row r="20" spans="2:13" ht="30">
       <c r="B20" s="7" t="s">
@@ -31468,17 +31617,17 @@
       <c r="D21" s="66" t="s">
         <v>721</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="67" t="s">
         <v>722</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -31493,10 +31642,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
-  <dimension ref="B3:D12"/>
+  <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -31514,80 +31663,98 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="69" t="s">
+        <v>729</v>
+      </c>
+      <c r="D4" s="69"/>
+    </row>
+    <row r="5" spans="2:4" ht="90" customHeight="1">
+      <c r="C5" s="69" t="s">
+        <v>730</v>
+      </c>
+      <c r="D5" s="69"/>
+    </row>
+    <row r="6" spans="2:4" ht="60" customHeight="1">
+      <c r="C6" s="69" t="s">
+        <v>750</v>
+      </c>
+      <c r="D6" s="69"/>
+    </row>
+    <row r="7" spans="2:4" ht="75" customHeight="1">
+      <c r="C7" s="69" t="s">
+        <v>752</v>
+      </c>
+      <c r="D7" s="69"/>
+    </row>
+    <row r="9" spans="2:4" ht="75" customHeight="1">
+      <c r="B9" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>753</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="75">
+      <c r="B11" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="60">
+      <c r="B12" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="D4" s="74"/>
-    </row>
-    <row r="5" spans="2:4" ht="90" customHeight="1">
-      <c r="C5" s="74" t="s">
-        <v>733</v>
-      </c>
-      <c r="D5" s="74"/>
-    </row>
-    <row r="6" spans="2:4" ht="90" customHeight="1">
-      <c r="C6" s="74" t="s">
-        <v>741</v>
-      </c>
-      <c r="D6" s="74"/>
-    </row>
-    <row r="8" spans="2:4" ht="75" customHeight="1">
-      <c r="B8" s="10" t="s">
-        <v>724</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="45" t="s">
-        <v>727</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>728</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="75">
-      <c r="B10" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="60">
-      <c r="B11" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="30">
-      <c r="B12" s="46" t="s">
-        <v>739</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>740</v>
+    </row>
+    <row r="13" spans="2:4" ht="45">
+      <c r="B13" s="46" t="s">
+        <v>758</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30">
+      <c r="B14" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31598,7 +31765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
   <dimension ref="B2:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C44" sqref="C44:D44"/>
     </sheetView>
   </sheetViews>
@@ -31692,15 +31859,15 @@
         <v>616</v>
       </c>
     </row>
-    <row r="14" spans="2:4" s="71" customFormat="1">
-      <c r="B14" s="84" t="s">
-        <v>752</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>751</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>753</v>
+    <row r="14" spans="2:4">
+      <c r="B14" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>743</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -31714,13 +31881,12 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="71" customFormat="1"/>
-    <row r="18" spans="2:4" s="71" customFormat="1">
+    <row r="18" spans="2:4">
       <c r="B18" s="60" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" s="71" customFormat="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" s="27" t="s">
         <v>622</v>
       </c>
@@ -31731,55 +31897,54 @@
         <v>624</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="71" customFormat="1">
+    <row r="20" spans="2:4">
       <c r="B20" s="60"/>
     </row>
-    <row r="21" spans="2:4" s="71" customFormat="1"/>
-    <row r="22" spans="2:4" s="71" customFormat="1">
+    <row r="22" spans="2:4">
       <c r="B22" s="60" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="71" customFormat="1">
-      <c r="B23" s="71" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="27" t="s">
         <v>619</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="21" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="71" customFormat="1">
-      <c r="B24" s="71" t="s">
+    <row r="24" spans="2:4">
+      <c r="B24" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="43" t="s">
         <v>627</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="21" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="27" t="s">
         <v>626</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="43" t="s">
         <v>620</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="21" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="71" customFormat="1">
-      <c r="C26" s="70"/>
-      <c r="D26" s="69"/>
-    </row>
-    <row r="27" spans="2:4" s="71" customFormat="1">
-      <c r="C27" s="70"/>
-      <c r="D27" s="69"/>
+    <row r="26" spans="2:4">
+      <c r="C26" s="43"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="C27" s="43"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="60" t="s">
@@ -31843,54 +32008,54 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="60" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="60" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="27" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="30">
-      <c r="B42" s="68" t="s">
-        <v>745</v>
-      </c>
-      <c r="C42" s="67" t="s">
-        <v>746</v>
+      <c r="B42" s="38" t="s">
+        <v>737</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="27" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30">
-      <c r="B44" s="68" t="s">
-        <v>749</v>
-      </c>
-      <c r="C44" s="74" t="s">
-        <v>750</v>
-      </c>
-      <c r="D44" s="75"/>
+      <c r="B44" s="38" t="s">
+        <v>741</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>742</v>
+      </c>
+      <c r="D44" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E0BDDB-E84C-415A-9FB0-686D59061526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D858BCD3-1DF0-4DA8-8E4C-7CBE67734ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D858BCD3-1DF0-4DA8-8E4C-7CBE67734ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509A0225-2841-4FDF-A65D-7047E834DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="763">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -26823,83 +26823,6 @@
   </si>
   <si>
     <r>
-      <t>Append (attach) this new rule to the INPUT chain; anything from source 10.10.10.10, DROP the data'
-'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-A: appends</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (attaches) the rule to the end of the INPUT chain
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-s: source</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; where the data is coming from
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-j: jump</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; as in 'jump to the DROP action'</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -26941,9 +26864,6 @@
       </rPr>
       <t xml:space="preserve"> all rules in selected chain</t>
     </r>
-  </si>
-  <si>
-    <t>lists all rules on all chains</t>
   </si>
   <si>
     <t>fetch all remote repo differences</t>
@@ -27087,66 +27007,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ACTIONS determine what to do with a specific connection. The main actions are:
-ACCEPT: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">allow data to flow
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>REJECT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: block data flow, and give the sender an error. Use if you want the sender to know they are being blocked by a firewall</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DROP: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block data flow without giving an explanation to the sender. Use if you don't want the sender to know that they are being blocked by a firewall, or that a system exists.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -27180,105 +27040,6 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> output</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">lists all rules on all chains in verbose mode; which displays the interface name, rule options (if any) and TOS masks
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-L</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>List</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all rules
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-v</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>verbose</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -27639,7 +27400,439 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(deletes) all rules in the INPUT chain</t>
+      <t xml:space="preserve">(deletes) all rules in the INPUT chain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = flush (delete)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lists all rules on all chains
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-L =</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all rules</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lists all rules on all chains in verbose mode; which displays the interface name, rule options (if any) and TOS masks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-L =</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all rules
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-v = verbose</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> output</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Append (attach) this new rule to the INPUT chain; anything from source 10.10.10.10, DROP the data'
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-A = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">appends (attaches) the rule to the end of the INPUT chain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-s = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">source; where the data is coming from
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-j</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = jump to (go perform this action)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>insert</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rule into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INPUT</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chain </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at line 1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, anything from source 10.10.10.20 jump to DROP action (drop packet without responding to sender)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-I</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = insert rule
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-s </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= source; where the data is coming from
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-j </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= jump to (go perform this action)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACTIONS determine what to do with the data that matches a rule. The main actions are:
+ACCEPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">allow data to flow
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REJECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: block data flow, and give the sender an error. Use if you want the sender to know they are being blocked by a firewall</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DROP: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block data flow without giving an explanation to the sender. Use if you don't want the sender to know that they are being blocked by a firewall, or that a system exists.</t>
     </r>
   </si>
 </sst>
@@ -31403,7 +31596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8480C-E8CD-45AC-8F81-8D4ABFF602C5}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E18" sqref="E18:J18"/>
     </sheetView>
   </sheetViews>
@@ -31645,7 +31838,7 @@
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -31664,25 +31857,25 @@
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
       <c r="C4" s="69" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="2:4" ht="90" customHeight="1">
+    <row r="5" spans="2:4" ht="60" customHeight="1">
       <c r="C5" s="69" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="D5" s="69"/>
     </row>
-    <row r="6" spans="2:4" ht="60" customHeight="1">
+    <row r="6" spans="2:4" ht="90" customHeight="1">
       <c r="C6" s="69" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="D6" s="69"/>
     </row>
     <row r="7" spans="2:4" ht="75" customHeight="1">
       <c r="C7" s="69" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D7" s="69"/>
     </row>
@@ -31691,69 +31884,72 @@
         <v>724</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D9" s="26" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30">
+      <c r="B10" s="45" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="45" t="s">
-        <v>726</v>
-      </c>
       <c r="C10" s="43" t="s">
-        <v>753</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>727</v>
+        <v>749</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="75">
       <c r="B11" s="8" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="60">
       <c r="B12" s="10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="45">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="90">
       <c r="B13" s="46" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30">
       <c r="B14" s="46" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>761</v>
+        <v>756</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>757</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31861,13 +32057,13 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="27" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -31883,7 +32079,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="60" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -31902,7 +32098,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="60" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -32008,52 +32204,52 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="60" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="27" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="60" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="27" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="30">
       <c r="B42" s="38" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="27" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30">
       <c r="B44" s="38" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C44" s="69" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D44" s="70"/>
     </row>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509A0225-2841-4FDF-A65D-7047E834DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C866CC-9AB6-4894-82F8-6CF6EB11738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
@@ -27380,55 +27380,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">flushes </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(deletes) all rules in the INPUT chain
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-F</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = flush (delete)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">lists all rules on all chains
 </t>
     </r>
@@ -27833,6 +27784,78 @@
         <scheme val="minor"/>
       </rPr>
       <t>block data flow without giving an explanation to the sender. Use if you don't want the sender to know that they are being blocked by a firewall, or that a system exists.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">flushes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(deletes) all rules in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INPUT</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = flush (delete)</t>
     </r>
   </si>
 </sst>
@@ -31838,7 +31861,7 @@
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -31869,7 +31892,7 @@
     </row>
     <row r="6" spans="2:4" ht="90" customHeight="1">
       <c r="C6" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D6" s="69"/>
     </row>
@@ -31887,7 +31910,7 @@
         <v>750</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30">
@@ -31898,7 +31921,7 @@
         <v>749</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="75">
@@ -31920,7 +31943,7 @@
         <v>751</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="90">
@@ -31931,7 +31954,7 @@
         <v>752</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30">
@@ -31942,7 +31965,7 @@
         <v>756</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C866CC-9AB6-4894-82F8-6CF6EB11738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C964CC90-9C09-4CD6-BC5A-6106EECCFAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="766">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -26787,50 +26787,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">-A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>append</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a rule to the end of a selected chain</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>-L</t>
     </r>
     <r>
@@ -27107,23 +27063,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">CHAIN CONCEPT (important!)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>firewall 'chains' are made up of 'rules'
-'Rules' are evaluated sequentially in a waterfall operation; e.g. rule 1 is evaluated, then rule 2, then rule 3, then rule 4 etc.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -27274,9 +27213,6 @@
     <t>sudo iptables -L</t>
   </si>
   <si>
-    <t>sudo iptables -A INPUT -s 10.10.10.10 -j DROP</t>
-  </si>
-  <si>
     <t>sudo iptables -L -v</t>
   </si>
   <si>
@@ -27508,7 +27444,453 @@
   </si>
   <si>
     <r>
-      <t>Append (attach) this new rule to the INPUT chain; anything from source 10.10.10.10, DROP the data'
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>insert</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rule into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INPUT</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chain </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at line 1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, anything from source 10.10.10.20 jump to DROP action (drop packet without responding to sender)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-I</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = insert rule
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-s </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= source; where the data is coming from
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-j </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= jump to (go perform this action)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACTIONS determine what to do with the data that matches a rule. The main actions are:
+ACCEPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">allow data to flow
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REJECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: block data flow, and give the sender an error. Use if you want the sender to know they are being blocked by a firewall</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DROP: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block data flow without giving an explanation to the sender. Use if you don't want the sender to know that they are being blocked by a firewall, or that a system exists.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">flushes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(deletes) all rules in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INPUT</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-F</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = flush (delete)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CHAIN CONCEPT (important!)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>firewall 'chains' are made up of 'rules'
+'Rules' are evaluated sequentially in a waterfall operation; i.e. rule 1 is evaluated, then rule 2, then rule 3, then rule 4 etc.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the first rule that matches will grab the data and perform it's operation on it, and no further evaluations will take place </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(i.e. if the data matches rule 4, rule 5 will not be evaluated. All rule evaluations will stop)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-A {&lt;CHAIN&gt;} [options] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>append</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a rule to the end of a selected chain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Append</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (attach) this new rule to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INPUT</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chain; anything from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subnet 10.10.10.0/24, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DROP</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the data'
 '</t>
     </r>
     <r>
@@ -27584,28 +27966,80 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>insert</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> rule into </t>
+    <t>sudo iptables -A INPUT -s 10.10.10.0/24 -j DROP
+-or-
+sudo iptables -A INPUT -s 10.10.10.0/255.255.255.0 -j DROP</t>
+  </si>
+  <si>
+    <t>sudo -A INPUT -p tcp -s 10.10.10.10 -j DROP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-p {tcp|udp}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>protocol;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tells iptables what protocol you wish to match on</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>append</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> new rule to </t>
     </r>
     <r>
       <rPr>
@@ -27628,30 +28062,76 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> chain </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at line 1</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, anything from source 10.10.10.20 jump to DROP action (drop packet without responding to sender)
+      <t xml:space="preserve"> chain, any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCP</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> traffic from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10.10.10.10, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DROP</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the data
 </t>
     </r>
     <r>
@@ -27664,18 +28144,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-I</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = insert rule
+      <t xml:space="preserve">-p </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= protocol; match on the following protocol value
 </t>
     </r>
     <r>
@@ -27688,18 +28168,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">-s </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= source; where the data is coming from
+      <t>-s</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = source; where the data is coming from
 </t>
     </r>
     <r>
@@ -27712,150 +28192,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">-j </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= jump to (go perform this action)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ACTIONS determine what to do with the data that matches a rule. The main actions are:
-ACCEPT: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">allow data to flow
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>REJECT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: block data flow, and give the sender an error. Use if you want the sender to know they are being blocked by a firewall</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DROP: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block data flow without giving an explanation to the sender. Use if you don't want the sender to know that they are being blocked by a firewall, or that a system exists.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">flushes </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(deletes) all rules in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INPUT</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chain
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-F</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = flush (delete)</t>
+      <t>-j</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = jump to (go perform this action)</t>
     </r>
   </si>
 </sst>
@@ -31858,17 +32206,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
-  <dimension ref="B3:D14"/>
+  <dimension ref="B3:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="27"/>
     <col min="2" max="2" width="43.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="27" customWidth="1"/>
     <col min="4" max="4" width="56.7109375" style="27" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="27"/>
   </cols>
@@ -31880,92 +32228,103 @@
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
       <c r="C4" s="69" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="2:4" ht="60" customHeight="1">
+    <row r="5" spans="2:4" ht="75" customHeight="1">
       <c r="C5" s="69" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="D5" s="69"/>
     </row>
     <row r="6" spans="2:4" ht="90" customHeight="1">
       <c r="C6" s="69" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D6" s="69"/>
     </row>
     <row r="7" spans="2:4" ht="75" customHeight="1">
       <c r="C7" s="69" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D7" s="69"/>
     </row>
     <row r="9" spans="2:4" ht="75" customHeight="1">
-      <c r="B9" s="10" t="s">
-        <v>724</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>750</v>
+      <c r="B9" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>762</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30">
       <c r="B10" s="45" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="75">
       <c r="B11" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="60">
       <c r="B12" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="90">
+      <c r="B13" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="90">
-      <c r="B13" s="46" t="s">
-        <v>754</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30">
       <c r="B14" s="46" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>762</v>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="75">
+      <c r="B15" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -32080,13 +32439,13 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>738</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>740</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>739</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -32102,7 +32461,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="60" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -32121,7 +32480,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="60" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -32227,52 +32586,52 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="60" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="60" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="C41" s="43" t="s">
         <v>731</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="30">
       <c r="B42" s="38" t="s">
+        <v>732</v>
+      </c>
+      <c r="C42" s="39" t="s">
         <v>733</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="C43" s="43" t="s">
         <v>735</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30">
       <c r="B44" s="38" t="s">
+        <v>736</v>
+      </c>
+      <c r="C44" s="69" t="s">
         <v>737</v>
-      </c>
-      <c r="C44" s="69" t="s">
-        <v>738</v>
       </c>
       <c r="D44" s="70"/>
     </row>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C964CC90-9C09-4CD6-BC5A-6106EECCFAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC0C6EA-8C61-4964-884E-4E09F52ABA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="775">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -27444,149 +27444,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>insert</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> rule into </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INPUT</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chain </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>at line 1</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, anything from source 10.10.10.20 jump to DROP action (drop packet without responding to sender)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-I</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = insert rule
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-s </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= source; where the data is coming from
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-j </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= jump to (go perform this action)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">ACTIONS determine what to do with the data that matches a rule. The main actions are:
 ACCEPT: </t>
     </r>
@@ -27797,172 +27654,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> a rule to the end of a selected chain</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Append</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (attach) this new rule to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INPUT</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chain; anything from </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>source</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> subnet 10.10.10.0/24, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DROP</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the data'
-'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-A = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">appends (attaches) the rule to the end of the INPUT chain
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-s = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">source; where the data is coming from
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-j</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = jump to (go perform this action)</t>
     </r>
   </si>
   <si>
@@ -28018,6 +27709,207 @@
     </r>
   </si>
   <si>
+    <t>RESET WORKING FOLDER FILE TO LAST COMMIT</t>
+  </si>
+  <si>
+    <t>git checkout &lt;fileName&gt;</t>
+  </si>
+  <si>
+    <t>overwrite file in working folder with last local commit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>insert</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rule into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INPUT</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chain </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at line 1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, anything from source 10.10.10.20 jump to DROP action (drop packet without responding to sender)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-I</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = insert rule
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-s </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= source; where the data is coming from
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-j </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= jump to (perform this action)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--dport {port|port protocol}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>destination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> port; use when you want a rule to apply to a specific port</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo iptables -A INPUT -p tcp --dport 22 -j DROP
+-or-
+sudo iptables -A INPUT -p tcp --dport ssh -j DROP</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -28144,7 +28036,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">-p </t>
+      <t>-A =</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> append; add to the end of the specified chain</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-p </t>
     </r>
     <r>
       <rPr>
@@ -28203,8 +28119,485 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = jump to (go perform this action)</t>
-    </r>
+      <t xml:space="preserve"> = jump to (perform this action)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>append</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> new rule to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INPUT</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chain, any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCP</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> traffic destined for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>port 22 (SSH)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DROP</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= append; add to the end of the specified chain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-p </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= protocol; match on the following protocol value
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--dport</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = destination port; match on data destined to this port
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-s </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= source; where the data is coming from
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-j </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= jump to (perform this action)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Append</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (attach) this new rule to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INPUT</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chain; anything from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> subnet 10.10.10.0/24, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DROP</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the data'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-A = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">appends (attaches) the rule to the end of the INPUT chain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-s = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">source; where the data is coming from
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-j</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = jump to (perform this action)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-m {&lt;moduleName&gt;}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; compare the data to an iptables module and determine if it matches</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'man iptables-extensions' will give you a list of available modules you can match on</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo iptables -A INPUT -p tcp --dport 22 -s 10.10.10.10 -m state --state NEW,ESTABLISHED -j ACCEPT</t>
   </si>
 </sst>
 </file>
@@ -32206,10 +32599,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
-  <dimension ref="B3:D15"/>
+  <dimension ref="B3:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -32234,13 +32627,13 @@
     </row>
     <row r="5" spans="2:4" ht="75" customHeight="1">
       <c r="C5" s="69" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D5" s="69"/>
     </row>
     <row r="6" spans="2:4" ht="90" customHeight="1">
       <c r="C6" s="69" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D6" s="69"/>
     </row>
@@ -32252,13 +32645,13 @@
     </row>
     <row r="9" spans="2:4" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>762</v>
-      </c>
       <c r="D9" s="26" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="30">
@@ -32302,7 +32695,7 @@
         <v>749</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="30">
@@ -32313,18 +32706,40 @@
         <v>753</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="75">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="90">
       <c r="B15" s="8" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>765</v>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="105" customHeight="1">
+      <c r="B16" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="60">
+      <c r="B17" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -32341,10 +32756,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
-  <dimension ref="B2:D44"/>
+  <dimension ref="B2:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:D44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -32634,6 +33049,19 @@
         <v>737</v>
       </c>
       <c r="D44" s="70"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="60" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>764</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC0C6EA-8C61-4964-884E-4E09F52ABA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC4966C-D418-48D1-A54D-0F3870526CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
@@ -32601,7 +32601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
   <dimension ref="B3:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC4966C-D418-48D1-A54D-0F3870526CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D32524-7F98-4F7C-940B-BA9D60BF025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="776">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -28571,12 +28571,485 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--state' options:
+INVALID </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= packet associated with no known connection
 </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESTABLISHED</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = packet is associated with a connection which has been seen packets in both directions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NEW </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= packet has started a new connection or is otherwise associated with a connection which has NOT seen packets in both directions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RELATED</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =  packet is starting a new connection, but is associated with an existing connection, such as an FTP data transfer or an ICMP error
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNTRACKED</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = packet is not tracked at all, which can happen if you explicitely untrack it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>append</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> new rule to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INPUT</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> chain, any </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCP</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> traffic destined for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>port 22</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, coming from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10.10.10.10, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> packets with the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>state</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' extension module, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>established</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> connections, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACCEPT</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> those packets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-s </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= source; where the data is coming from
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-m </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= match packets with an iptables extension module
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>state</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = extension module allowing iptables to access connection tracking for packets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--state </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= match packets with the following state(s)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-j</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = jump to (perform this action)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -28587,6 +29060,7 @@
     </r>
     <r>
       <rPr>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -28597,7 +29071,9 @@
     </r>
   </si>
   <si>
-    <t>sudo iptables -A INPUT -p tcp --dport 22 -s 10.10.10.10 -m state --state NEW,ESTABLISHED -j ACCEPT</t>
+    <t>sudo iptables -A INPUT  -s 10.10.10.10 -m state --state NEW,ESTABLISHED -j ACCEPT
+-and-
+sudo iptables -A OUTPUT -d 10.10.10.10 -m state --state ESTABLISHED -j ACCEPT</t>
   </si>
 </sst>
 </file>
@@ -28764,7 +29240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -28989,6 +29465,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -32599,10 +33078,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
-  <dimension ref="B3:D17"/>
+  <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -32731,23 +33210,32 @@
         <v>770</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="60">
+    <row r="17" spans="2:10" ht="180" customHeight="1">
       <c r="B17" s="8" t="s">
         <v>772</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>774</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="E17" s="79" t="s">
         <v>773</v>
       </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32758,7 +33246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
   <dimension ref="B2:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D32524-7F98-4F7C-940B-BA9D60BF025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094E4EA-C76B-49CF-AC88-CA16D27A27DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
     <sheet name="find" sheetId="3" r:id="rId3"/>
     <sheet name="tree" sheetId="4" r:id="rId4"/>
     <sheet name="ss" sheetId="16" r:id="rId5"/>
-    <sheet name="iptables" sheetId="22" r:id="rId6"/>
-    <sheet name="git" sheetId="18" r:id="rId7"/>
-    <sheet name="mv" sheetId="17" r:id="rId8"/>
-    <sheet name="touch" sheetId="6" r:id="rId9"/>
-    <sheet name="vi" sheetId="5" r:id="rId10"/>
-    <sheet name="nmap" sheetId="20" r:id="rId11"/>
-    <sheet name="ufw" sheetId="21" r:id="rId12"/>
+    <sheet name="git" sheetId="18" r:id="rId6"/>
+    <sheet name="mv" sheetId="17" r:id="rId7"/>
+    <sheet name="touch" sheetId="6" r:id="rId8"/>
+    <sheet name="vi" sheetId="5" r:id="rId9"/>
+    <sheet name="nmap" sheetId="20" r:id="rId10"/>
+    <sheet name="ufw" sheetId="21" r:id="rId11"/>
+    <sheet name="iptables" sheetId="22" r:id="rId12"/>
     <sheet name="tcpdump" sheetId="15" r:id="rId13"/>
     <sheet name="shells" sheetId="8" r:id="rId14"/>
     <sheet name="awk" sheetId="10" r:id="rId15"/>
@@ -29439,6 +29439,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -29465,9 +29468,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29990,380 +29990,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CADC5F-634D-400C-ABA1-AB65FF79E0C8}">
-  <dimension ref="A1:D48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="34" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="57" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" s="72"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="73" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-    </row>
-    <row r="5" spans="1:4" s="34" customFormat="1">
-      <c r="B5" s="20"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="74" t="s">
-        <v>323</v>
-      </c>
-      <c r="B6" s="74"/>
-    </row>
-    <row r="7" spans="1:4" ht="45">
-      <c r="A7" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="90">
-      <c r="A10" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30">
-      <c r="A18" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="37" t="s">
-        <v>389</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="75">
-      <c r="A20" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="71" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="71" t="s">
-        <v>320</v>
-      </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="71" t="s">
-        <v>324</v>
-      </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="71" t="s">
-        <v>326</v>
-      </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="71" t="s">
-        <v>328</v>
-      </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="71" t="s">
-        <v>331</v>
-      </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="72" t="s">
-        <v>332</v>
-      </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="72" t="s">
-        <v>340</v>
-      </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="71" t="s">
-        <v>341</v>
-      </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="71" t="s">
-        <v>342</v>
-      </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="28" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4A975-49E6-4D67-87B6-C134DC574AA3}">
   <dimension ref="A2:M32"/>
   <sheetViews>
@@ -30435,7 +30061,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="76" t="s">
         <v>414</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -30449,7 +30075,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="75">
-      <c r="A9" s="75"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
       </c>
@@ -30461,7 +30087,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
-      <c r="A10" s="75"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
       </c>
@@ -30473,7 +30099,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="45">
-      <c r="A11" s="75"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
       </c>
@@ -30485,7 +30111,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="75"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
       </c>
@@ -30502,7 +30128,7 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="60">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="77" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -30516,7 +30142,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="75">
-      <c r="A16" s="76"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
       </c>
@@ -30528,7 +30154,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="105">
-      <c r="A17" s="76"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
       </c>
@@ -30540,7 +30166,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="105">
-      <c r="A18" s="76"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
       </c>
@@ -30552,7 +30178,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="60">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="77" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -30566,7 +30192,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="60">
-      <c r="A20" s="76"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
       </c>
@@ -30578,7 +30204,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="105">
-      <c r="A21" s="76"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
       </c>
@@ -30590,7 +30216,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="60">
-      <c r="A22" s="76"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="55" t="s">
         <v>532</v>
       </c>
@@ -30773,7 +30399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA1D3C-99B5-45E1-9627-8CE6B2A3AF89}">
   <dimension ref="B3:D31"/>
   <sheetViews>
@@ -30939,38 +30565,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="78" t="s">
         <v>689</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="78"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="78" t="s">
         <v>690</v>
       </c>
-      <c r="D20" s="77"/>
+      <c r="D20" s="78"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="78" t="s">
         <v>691</v>
       </c>
-      <c r="D21" s="77"/>
+      <c r="D21" s="78"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="78" t="s">
         <v>692</v>
       </c>
-      <c r="D22" s="77"/>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="78" t="s">
         <v>693</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="78"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -30983,38 +30609,38 @@
       <c r="B25" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="78" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="77"/>
+      <c r="D25" s="78"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="78" t="s">
         <v>697</v>
       </c>
-      <c r="D26" s="77"/>
+      <c r="D26" s="78"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="78" t="s">
         <v>698</v>
       </c>
-      <c r="D27" s="77"/>
+      <c r="D27" s="78"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="78" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="77"/>
+      <c r="D28" s="78"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="78" t="s">
         <v>700</v>
       </c>
-      <c r="D29" s="77"/>
+      <c r="D29" s="78"/>
     </row>
     <row r="30" spans="2:4" ht="38.25">
       <c r="B30" s="27" t="s">
@@ -31048,6 +30674,172 @@
     <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
+  <dimension ref="B3:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="27"/>
+    <col min="2" max="2" width="43.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="43" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="120" customHeight="1">
+      <c r="C4" s="69" t="s">
+        <v>726</v>
+      </c>
+      <c r="D4" s="69"/>
+    </row>
+    <row r="5" spans="2:4" ht="75" customHeight="1">
+      <c r="C5" s="69" t="s">
+        <v>758</v>
+      </c>
+      <c r="D5" s="69"/>
+    </row>
+    <row r="6" spans="2:4" ht="90" customHeight="1">
+      <c r="C6" s="69" t="s">
+        <v>756</v>
+      </c>
+      <c r="D6" s="69"/>
+    </row>
+    <row r="7" spans="2:4" ht="75" customHeight="1">
+      <c r="C7" s="69" t="s">
+        <v>746</v>
+      </c>
+      <c r="D7" s="69"/>
+    </row>
+    <row r="9" spans="2:4" ht="75" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30">
+      <c r="B10" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>747</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="75">
+      <c r="B11" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="60">
+      <c r="B12" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="90">
+      <c r="B13" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30">
+      <c r="B14" s="46" t="s">
+        <v>752</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="90">
+      <c r="B15" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="105" customHeight="1">
+      <c r="B16" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="180" customHeight="1">
+      <c r="B17" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>773</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E17:J17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31403,12 +31195,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="79" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -31416,11 +31208,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -31438,19 +31230,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="79" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -33077,177 +32869,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
-  <dimension ref="B3:J17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="27"/>
-    <col min="2" max="2" width="43.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="43" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="120" customHeight="1">
-      <c r="C4" s="69" t="s">
-        <v>726</v>
-      </c>
-      <c r="D4" s="69"/>
-    </row>
-    <row r="5" spans="2:4" ht="75" customHeight="1">
-      <c r="C5" s="69" t="s">
-        <v>758</v>
-      </c>
-      <c r="D5" s="69"/>
-    </row>
-    <row r="6" spans="2:4" ht="90" customHeight="1">
-      <c r="C6" s="69" t="s">
-        <v>756</v>
-      </c>
-      <c r="D6" s="69"/>
-    </row>
-    <row r="7" spans="2:4" ht="75" customHeight="1">
-      <c r="C7" s="69" t="s">
-        <v>746</v>
-      </c>
-      <c r="D7" s="69"/>
-    </row>
-    <row r="9" spans="2:4" ht="75" customHeight="1">
-      <c r="B9" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="30">
-      <c r="B10" s="45" t="s">
-        <v>724</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>747</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="75">
-      <c r="B11" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="60">
-      <c r="B12" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="90">
-      <c r="B13" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="30">
-      <c r="B14" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="90">
-      <c r="B15" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="105" customHeight="1">
-      <c r="B16" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="180" customHeight="1">
-      <c r="B17" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="E17" s="79" t="s">
-        <v>773</v>
-      </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E17:J17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
   <dimension ref="B2:D48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -33536,7 +33162,7 @@
       <c r="C44" s="69" t="s">
         <v>737</v>
       </c>
-      <c r="D44" s="70"/>
+      <c r="D44" s="71"/>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="60" t="s">
@@ -33560,7 +33186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AC9E2A-F2F8-4B6A-A51F-5B422B308701}">
   <dimension ref="B2:D11"/>
   <sheetViews>
@@ -33628,7 +33254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783B63B9-C5EF-4E1E-9ABB-91855341E3A8}">
   <dimension ref="A2:C10"/>
   <sheetViews>
@@ -33701,4 +33327,378 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CADC5F-634D-400C-ABA1-AB65FF79E0C8}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57" customHeight="1">
+      <c r="A2" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="73"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+    </row>
+    <row r="5" spans="1:4" s="34" customFormat="1">
+      <c r="B5" s="20"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="75"/>
+    </row>
+    <row r="7" spans="1:4" ht="45">
+      <c r="A7" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="90">
+      <c r="A10" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="75">
+      <c r="A20" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="72" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="73" t="s">
+        <v>340</v>
+      </c>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094E4EA-C76B-49CF-AC88-CA16D27A27DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB21A34-7917-4880-8815-AD71459554E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -26556,225 +26556,6 @@
     <t>follow prompts, select "Push an existing local repo to GitHub"</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ss</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = socket statistics
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-i</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = show internal TCP information
-format: &lt;congestion_algorithm&gt;, wscale:&lt;snd&gt;:&lt;rcv&gt;, rto: &lt;value&gt;, rtt: &lt;value&gt;/&lt;avg deviation&gt;, mss: &lt;value&gt;, pmtu: &lt;value&gt;, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cubic:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> if you see this, this is the socket's congestion algorithm (algorithm that makes sure clients/servers don't send too much data at once)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">wscale:&lt;snd&gt;:&lt;rcv&gt;: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">window scale; client/server must agree on how many segments (chunks of data) to send/receive at one time
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">rto: &lt;value&gt;: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> value is in millseconds; TCP starts timer when outbound segment is handed to IP layer. If no 'ack' is received for the data in a given segment before the timer expires, the segment is retransmitted
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rtt: &lt;value&gt;/&lt;avg deviation&gt;:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> average round trip time in milliseconds (from client to server and back again); The first value is the avg round trip time, the second value is the avg deviation from the from the average round trip time
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mss: &lt;value&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: maximum segment size; the largest segment the local host will accept
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pmtu: &lt;value&gt;: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">path MTU value; path MTU is the largest packet size that can traverse this path without suffering fragmentation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>note 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'segment' is the Protocol Data Unit (PDU) at the Transport layer (layer 4)</t>
-    </r>
-  </si>
-  <si>
     <t>linux 'iptables'</t>
   </si>
   <si>
@@ -29074,6 +28855,572 @@
     <t>sudo iptables -A INPUT  -s 10.10.10.10 -m state --state NEW,ESTABLISHED -j ACCEPT
 -and-
 sudo iptables -A OUTPUT -d 10.10.10.10 -m state --state ESTABLISHED -j ACCEPT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = socket statistics
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-i</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show internal TCP information
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>format:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+&lt;congestion_algorithm&gt;, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wscale:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;snd&gt;:&lt;rcv&gt;, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rto:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;value&gt;, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rtt:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;value&gt;/&lt;avg deviation&gt;, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mss:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;value&gt;, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pmtu:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;value&gt;, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rcvmss:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;value&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cubic:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if you see this, this is the socket's congestion algorithm (algorithm that makes sure clients/servers don't send too much data at once)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wscale:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;snd&gt;:&lt;rcv&gt;:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> window scale;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> client/server must agree on how many segments (chunks of data) to send/receive at one time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rto: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;value&gt;:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>retransmission timeout</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value is in millseconds; TCP starts timer when outbound segment is handed to IP layer. If no 'ack' is received for the data in a given segment before the timer expires, the segment is retransmitted
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rtt: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;value&gt;/&lt;avg deviation&gt;: average </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>round trip time</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in milliseconds (from client to server and back again); The first value is the avg round trip time, the second value is the avg deviation from the from the average round trip time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mss: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;value&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maximum segment size;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the largest segment the local host will accept
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pmtu: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;value&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>path maximum transmission unit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value; path MTU is the largest packet size that can traverse this path without suffering fragmentation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rcvmss: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;value&gt;: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>receive maximum segment size</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, in bytes, announced to peer nodes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>note 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'segment' is the Protocol Data Unit (PDU) at the Transport layer (layer 4)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -29439,9 +29786,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -29465,6 +29809,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -29790,11 +30137,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -29829,7 +30176,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="29">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -29840,7 +30187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="165">
+    <row r="9" spans="1:3" ht="159.5">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
@@ -29851,7 +30198,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="59.45" customHeight="1">
+    <row r="10" spans="1:3" ht="59.5" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>82</v>
       </c>
@@ -29862,7 +30209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60">
+    <row r="11" spans="1:3" ht="58">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -29873,7 +30220,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60">
+    <row r="12" spans="1:3" ht="58">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -29895,7 +30242,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
         <v>170</v>
       </c>
@@ -29906,7 +30253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30">
+    <row r="15" spans="1:3" ht="29">
       <c r="A15" s="8" t="s">
         <v>169</v>
       </c>
@@ -29939,7 +30286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
+    <row r="18" spans="1:3" ht="29">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -29993,15 +30340,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4A975-49E6-4D67-87B6-C134DC574AA3}">
   <dimension ref="A2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="4" width="55.7109375" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="4" width="55.7265625" customWidth="1"/>
+    <col min="5" max="5" width="59.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -30011,7 +30358,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:13" ht="120">
+    <row r="3" spans="1:13" ht="101.5">
       <c r="A3" s="28"/>
       <c r="B3" s="3"/>
       <c r="C3" s="39" t="s">
@@ -30061,7 +30408,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="75" t="s">
         <v>414</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -30074,8 +30421,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="75">
-      <c r="A9" s="76"/>
+    <row r="9" spans="1:13" ht="72.5">
+      <c r="A9" s="75"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
       </c>
@@ -30086,8 +30433,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30">
-      <c r="A10" s="76"/>
+    <row r="10" spans="1:13" ht="29">
+      <c r="A10" s="75"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
       </c>
@@ -30098,8 +30445,8 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45">
-      <c r="A11" s="76"/>
+    <row r="11" spans="1:13" ht="43.5">
+      <c r="A11" s="75"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
       </c>
@@ -30110,8 +30457,8 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="76"/>
+    <row r="12" spans="1:13" ht="43.5">
+      <c r="A12" s="75"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
       </c>
@@ -30127,8 +30474,8 @@
       <c r="C14" s="9"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:13" ht="60">
-      <c r="A15" s="77" t="s">
+    <row r="15" spans="1:13" ht="43.5">
+      <c r="A15" s="76" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -30141,8 +30488,8 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="75">
-      <c r="A16" s="77"/>
+    <row r="16" spans="1:13" ht="72.5">
+      <c r="A16" s="76"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
       </c>
@@ -30153,8 +30500,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="105">
-      <c r="A17" s="77"/>
+    <row r="17" spans="1:13" ht="87">
+      <c r="A17" s="76"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
       </c>
@@ -30165,8 +30512,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="105">
-      <c r="A18" s="77"/>
+    <row r="18" spans="1:13" ht="87">
+      <c r="A18" s="76"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
       </c>
@@ -30177,8 +30524,8 @@
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="60">
-      <c r="A19" s="77" t="s">
+    <row r="19" spans="1:13" ht="58">
+      <c r="A19" s="76" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -30191,8 +30538,8 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="60">
-      <c r="A20" s="77"/>
+    <row r="20" spans="1:13" ht="58">
+      <c r="A20" s="76"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
       </c>
@@ -30203,8 +30550,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="105">
-      <c r="A21" s="77"/>
+    <row r="21" spans="1:13" ht="101.5">
+      <c r="A21" s="76"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
       </c>
@@ -30215,8 +30562,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="60">
-      <c r="A22" s="77"/>
+    <row r="22" spans="1:13" ht="58">
+      <c r="A22" s="76"/>
       <c r="B22" s="55" t="s">
         <v>532</v>
       </c>
@@ -30249,7 +30596,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" ht="150">
+    <row r="25" spans="1:13" ht="130.5">
       <c r="B25" s="11" t="s">
         <v>538</v>
       </c>
@@ -30271,7 +30618,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" ht="150">
+    <row r="26" spans="1:13" ht="145">
       <c r="A26" s="28"/>
       <c r="B26" s="11" t="s">
         <v>629</v>
@@ -30294,7 +30641,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" ht="165">
+    <row r="27" spans="1:13" ht="145">
       <c r="B27" s="11" t="s">
         <v>632</v>
       </c>
@@ -30314,7 +30661,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" ht="200.1" customHeight="1">
+    <row r="28" spans="1:13" ht="200.15" customHeight="1">
       <c r="B28" s="11" t="s">
         <v>635</v>
       </c>
@@ -30350,7 +30697,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="210.95" customHeight="1">
+    <row r="30" spans="1:13" ht="211" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>643</v>
       </c>
@@ -30364,7 +30711,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="270">
+    <row r="31" spans="1:13" ht="232">
       <c r="B31" s="11" t="s">
         <v>647</v>
       </c>
@@ -30378,7 +30725,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="75">
+    <row r="32" spans="1:13" ht="72.5">
       <c r="B32" s="11" t="s">
         <v>651</v>
       </c>
@@ -30407,10 +30754,10 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="4" width="53.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="4" width="53.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
@@ -30565,38 +30912,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>689</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="77"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="77" t="s">
         <v>690</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="77"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="77" t="s">
         <v>691</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="77"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>692</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="77"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="77" t="s">
         <v>693</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="77"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -30609,40 +30956,40 @@
       <c r="B25" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="77" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="D25" s="77"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="77" t="s">
         <v>697</v>
       </c>
-      <c r="D26" s="78"/>
+      <c r="D26" s="77"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="77" t="s">
         <v>698</v>
       </c>
-      <c r="D27" s="78"/>
+      <c r="D27" s="77"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="77" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="78"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="77" t="s">
         <v>700</v>
       </c>
-      <c r="D29" s="78"/>
-    </row>
-    <row r="30" spans="2:4" ht="38.25">
+      <c r="D29" s="77"/>
+    </row>
+    <row r="30" spans="2:4" ht="39">
       <c r="B30" s="27" t="s">
         <v>701</v>
       </c>
@@ -30681,148 +31028,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27"/>
-    <col min="2" max="2" width="43.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="9.1796875" style="27"/>
+    <col min="2" max="2" width="43.7265625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="51.81640625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.7265625" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" s="43" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
       <c r="C4" s="69" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D4" s="69"/>
     </row>
     <row r="5" spans="2:4" ht="75" customHeight="1">
       <c r="C5" s="69" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D5" s="69"/>
     </row>
     <row r="6" spans="2:4" ht="90" customHeight="1">
       <c r="C6" s="69" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D6" s="69"/>
     </row>
     <row r="7" spans="2:4" ht="75" customHeight="1">
       <c r="C7" s="69" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D7" s="69"/>
     </row>
     <row r="9" spans="2:4" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="29">
+      <c r="B10" s="45" t="s">
+        <v>722</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>745</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="72.5">
+      <c r="B11" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="58">
+      <c r="B12" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="87">
+      <c r="B13" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="29">
+      <c r="B14" s="46" t="s">
+        <v>750</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="87">
+      <c r="B15" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="30">
-      <c r="B10" s="45" t="s">
-        <v>724</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>747</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="75">
-      <c r="B11" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="60">
-      <c r="B12" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="90">
-      <c r="B13" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="30">
-      <c r="B14" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="90">
-      <c r="B15" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>761</v>
-      </c>
       <c r="D15" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="105" customHeight="1">
       <c r="B16" s="8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>768</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="180" customHeight="1">
       <c r="B17" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>772</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="E17" s="70" t="s">
-        <v>773</v>
+      <c r="E17" s="78" t="s">
+        <v>771</v>
       </c>
       <c r="F17" s="67"/>
       <c r="G17" s="67"/>
@@ -30851,16 +31198,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="27"/>
-    <col min="2" max="2" width="43.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="27" customWidth="1"/>
-    <col min="7" max="8" width="40.5703125" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="8.81640625" style="27"/>
+    <col min="2" max="2" width="43.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.54296875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" style="27" customWidth="1"/>
+    <col min="7" max="8" width="40.54296875" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
@@ -30873,7 +31220,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="29.45" customHeight="1">
+    <row r="5" spans="2:8" ht="29.5" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>466</v>
       </c>
@@ -30897,7 +31244,7 @@
       </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="2:8" ht="29.1" customHeight="1">
+    <row r="7" spans="2:8" ht="29.15" customHeight="1">
       <c r="C7" s="27" t="s">
         <v>465</v>
       </c>
@@ -30906,7 +31253,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="2:8" ht="45">
+    <row r="8" spans="2:8" ht="43.5">
       <c r="C8" s="27" t="s">
         <v>467</v>
       </c>
@@ -30923,7 +31270,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:8" ht="30">
+    <row r="11" spans="2:8" ht="29">
       <c r="B11" s="10" t="s">
         <v>477</v>
       </c>
@@ -30935,7 +31282,7 @@
       </c>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="2:8" ht="115.35" customHeight="1">
+    <row r="12" spans="2:8" ht="115.4" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>472</v>
       </c>
@@ -30947,7 +31294,7 @@
       </c>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:8" ht="45">
+    <row r="13" spans="2:8" ht="43.5">
       <c r="B13" s="46" t="s">
         <v>459</v>
       </c>
@@ -30959,7 +31306,7 @@
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="2:8" ht="30">
+    <row r="14" spans="2:8" ht="29">
       <c r="B14" s="46" t="s">
         <v>478</v>
       </c>
@@ -30971,7 +31318,7 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:8" ht="101.1" customHeight="1">
+    <row r="15" spans="2:8" ht="101.15" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>481</v>
       </c>
@@ -30983,7 +31330,7 @@
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:8" ht="75">
+    <row r="16" spans="2:8" ht="72.5">
       <c r="B16" s="8" t="s">
         <v>495</v>
       </c>
@@ -31006,7 +31353,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="90">
+    <row r="17" spans="2:8" ht="58">
       <c r="B17" s="8" t="s">
         <v>494</v>
       </c>
@@ -31021,7 +31368,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="2:8" ht="45">
+    <row r="18" spans="2:8" ht="43.5">
       <c r="B18" s="8" t="s">
         <v>491</v>
       </c>
@@ -31036,7 +31383,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="2:8" ht="75">
+    <row r="19" spans="2:8" ht="72.5">
       <c r="B19" s="8" t="s">
         <v>496</v>
       </c>
@@ -31051,7 +31398,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="2:8" ht="120">
+    <row r="20" spans="2:8" ht="116">
       <c r="B20" s="8" t="s">
         <v>501</v>
       </c>
@@ -31068,7 +31415,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="2:8" ht="43.35" customHeight="1">
+    <row r="21" spans="2:8" ht="43.4" customHeight="1">
       <c r="B21" s="8" t="s">
         <v>504</v>
       </c>
@@ -31083,7 +31430,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="2:8" ht="90">
+    <row r="22" spans="2:8" ht="87">
       <c r="B22" s="8" t="s">
         <v>510</v>
       </c>
@@ -31098,7 +31445,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="2:8" ht="30">
+    <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
         <v>543</v>
       </c>
@@ -31127,7 +31474,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="2:8" ht="30">
+    <row r="26" spans="2:8" ht="29">
       <c r="B26" s="10" t="s">
         <v>505</v>
       </c>
@@ -31163,7 +31510,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="2:8" ht="30">
+    <row r="30" spans="2:8" ht="29">
       <c r="B30" s="46" t="s">
         <v>509</v>
       </c>
@@ -31174,7 +31521,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="14.45" customHeight="1"/>
+    <row r="32" spans="2:8" ht="14.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
@@ -31189,9 +31536,9 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
@@ -31208,11 +31555,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -31266,12 +31613,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="16.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -31279,13 +31626,13 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="29">
       <c r="B4" s="39" t="s">
         <v>419</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="6" spans="1:3" ht="90">
+    <row r="6" spans="1:3" ht="87">
       <c r="A6" s="44" t="s">
         <v>420</v>
       </c>
@@ -31310,12 +31657,12 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -31328,7 +31675,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
         <v>430</v>
       </c>
@@ -31363,12 +31710,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -31381,7 +31728,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
         <v>438</v>
       </c>
@@ -31392,7 +31739,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="29">
       <c r="A7" s="46" t="s">
         <v>441</v>
       </c>
@@ -31416,12 +31763,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="38"/>
+    <col min="1" max="1" width="23.54296875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="38"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -31429,12 +31776,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="29">
       <c r="B4" s="39" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
         <v>446</v>
       </c>
@@ -31445,7 +31792,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="29">
       <c r="A7" s="46" t="s">
         <v>448</v>
       </c>
@@ -31469,12 +31816,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="43.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -31482,12 +31829,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45">
+    <row r="4" spans="1:3" ht="43.5">
       <c r="B4" s="39" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
         <v>426</v>
       </c>
@@ -31511,12 +31858,12 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.453125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="63.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
@@ -31525,7 +31872,7 @@
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="43.5">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -31546,7 +31893,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45">
+    <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -31558,7 +31905,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="45">
+    <row r="8" spans="1:4" ht="43.5">
       <c r="A8" s="7" t="s">
         <v>87</v>
       </c>
@@ -31570,7 +31917,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="90">
+    <row r="9" spans="1:4" ht="72.5">
       <c r="A9" s="8" t="s">
         <v>269</v>
       </c>
@@ -31582,7 +31929,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="43.5">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -31594,7 +31941,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="75">
+    <row r="11" spans="1:4" ht="58">
       <c r="A11" s="8" t="s">
         <v>264</v>
       </c>
@@ -31606,7 +31953,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="45">
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="43.5">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -31618,7 +31965,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="45">
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="43.5">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -31630,7 +31977,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="45">
+    <row r="14" spans="1:4" ht="43.5">
       <c r="A14" s="8" t="s">
         <v>275</v>
       </c>
@@ -31642,7 +31989,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="45">
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="43.5">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -31654,7 +32001,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="45">
+    <row r="16" spans="1:4" ht="43.5">
       <c r="A16" s="8" t="s">
         <v>218</v>
       </c>
@@ -31666,7 +32013,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="60">
+    <row r="17" spans="1:4" ht="43.5">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -31678,7 +32025,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="60">
+    <row r="18" spans="1:4" ht="43.5">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -31690,7 +32037,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="75">
+    <row r="19" spans="1:4" ht="72.5">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -31702,7 +32049,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="90">
+    <row r="20" spans="1:4" ht="87">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -31714,7 +32061,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="60">
+    <row r="21" spans="1:4" ht="58">
       <c r="A21" s="30" t="s">
         <v>224</v>
       </c>
@@ -31726,7 +32073,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="29">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -31738,7 +32085,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="30">
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="29">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -31760,7 +32107,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75">
+    <row r="25" spans="1:4" ht="72.5">
       <c r="A25" s="8" t="s">
         <v>227</v>
       </c>
@@ -31772,7 +32119,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="120">
+    <row r="26" spans="1:4" ht="87">
       <c r="A26" s="6" t="s">
         <v>229</v>
       </c>
@@ -31784,7 +32131,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="60">
+    <row r="27" spans="1:4" ht="58">
       <c r="A27" s="6" t="s">
         <v>231</v>
       </c>
@@ -31832,11 +32179,11 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -31858,7 +32205,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" ht="43.5">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -31869,7 +32216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="43.5">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -31880,7 +32227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60">
+    <row r="7" spans="1:6" ht="58">
       <c r="A7" s="6" t="s">
         <v>104</v>
       </c>
@@ -31891,7 +32238,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="43.5">
       <c r="A8" s="6" t="s">
         <v>89</v>
       </c>
@@ -31905,7 +32252,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="195">
+    <row r="9" spans="1:6" ht="174">
       <c r="A9" s="8" t="s">
         <v>119</v>
       </c>
@@ -31916,7 +32263,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45">
+    <row r="10" spans="1:6" ht="43.5">
       <c r="A10" s="8" t="s">
         <v>90</v>
       </c>
@@ -31927,7 +32274,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="75">
+    <row r="11" spans="1:6" ht="72.5">
       <c r="A11" s="8" t="s">
         <v>92</v>
       </c>
@@ -31938,7 +32285,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" ht="58">
       <c r="A12" s="8" t="s">
         <v>93</v>
       </c>
@@ -31949,7 +32296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="75">
+    <row r="13" spans="1:6" ht="72.5">
       <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
@@ -31960,7 +32307,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="90">
+    <row r="14" spans="1:6" ht="72.5">
       <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
@@ -31971,7 +32318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60">
+    <row r="15" spans="1:6" ht="58">
       <c r="A15" s="8" t="s">
         <v>99</v>
       </c>
@@ -31982,7 +32329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="90">
+    <row r="16" spans="1:6" ht="87">
       <c r="A16" s="8" t="s">
         <v>103</v>
       </c>
@@ -31993,7 +32340,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="75">
+    <row r="17" spans="1:3" ht="72.5">
       <c r="A17" s="8" t="s">
         <v>101</v>
       </c>
@@ -32004,7 +32351,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="105">
+    <row r="18" spans="1:3" ht="87">
       <c r="A18" s="8" t="s">
         <v>196</v>
       </c>
@@ -32015,7 +32362,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="90">
+    <row r="19" spans="1:3" ht="87">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -32026,7 +32373,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60">
+    <row r="20" spans="1:3" ht="43.5">
       <c r="A20" s="8" t="s">
         <v>203</v>
       </c>
@@ -32037,7 +32384,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="90">
+    <row r="21" spans="1:3" ht="87">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -32048,7 +32395,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75">
+    <row r="22" spans="1:3" ht="72.5">
       <c r="A22" s="8" t="s">
         <v>108</v>
       </c>
@@ -32059,7 +32406,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="90">
+    <row r="23" spans="1:3" ht="87">
       <c r="A23" s="8" t="s">
         <v>109</v>
       </c>
@@ -32070,7 +32417,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="105">
+    <row r="24" spans="1:3" ht="87">
       <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
@@ -32092,7 +32439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="90">
+    <row r="26" spans="1:3" ht="72.5">
       <c r="A26" s="8" t="s">
         <v>111</v>
       </c>
@@ -32103,7 +32450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="90">
+    <row r="27" spans="1:3" ht="87">
       <c r="A27" s="8" t="s">
         <v>113</v>
       </c>
@@ -32114,7 +32461,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="75">
+    <row r="28" spans="1:3" ht="72.5">
       <c r="A28" s="8" t="s">
         <v>114</v>
       </c>
@@ -32125,7 +32472,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="120">
+    <row r="29" spans="1:3" ht="116">
       <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
@@ -32136,7 +32483,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="195">
+    <row r="30" spans="1:3" ht="174">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -32147,7 +32494,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="210">
+    <row r="31" spans="1:3" ht="159.5">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -32158,7 +32505,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="240">
+    <row r="32" spans="1:3" ht="203">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -32194,11 +32541,11 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -32223,7 +32570,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="29">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -32234,7 +32581,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60">
+    <row r="6" spans="1:3" ht="43.5">
       <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
@@ -32245,7 +32592,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3" ht="29">
       <c r="A7" s="10" t="s">
         <v>136</v>
       </c>
@@ -32256,7 +32603,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="29">
       <c r="A8" s="10" t="s">
         <v>139</v>
       </c>
@@ -32267,7 +32614,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45">
+    <row r="9" spans="1:3" ht="43.5">
       <c r="A9" s="10" t="s">
         <v>140</v>
       </c>
@@ -32278,7 +32625,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45">
+    <row r="10" spans="1:3" ht="43.5">
       <c r="A10" s="10" t="s">
         <v>142</v>
       </c>
@@ -32300,7 +32647,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45">
+    <row r="12" spans="1:3" ht="43.5">
       <c r="A12" s="10" t="s">
         <v>152</v>
       </c>
@@ -32311,7 +32658,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45">
+    <row r="13" spans="1:3" ht="43.5">
       <c r="A13" s="8" t="s">
         <v>156</v>
       </c>
@@ -32322,7 +32669,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45">
+    <row r="14" spans="1:3" ht="43.5">
       <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
@@ -32333,7 +32680,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="75">
+    <row r="15" spans="1:3" ht="72.5">
       <c r="A15" s="8" t="s">
         <v>166</v>
       </c>
@@ -32344,7 +32691,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="45">
+    <row r="16" spans="1:3" ht="43.5">
       <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
@@ -32355,7 +32702,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="43.5">
       <c r="A17" s="8" t="s">
         <v>177</v>
       </c>
@@ -32366,7 +32713,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="45">
+    <row r="18" spans="1:3" ht="43.5">
       <c r="A18" s="8" t="s">
         <v>178</v>
       </c>
@@ -32377,7 +32724,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="45">
+    <row r="19" spans="1:3" ht="43.5">
       <c r="A19" s="8" t="s">
         <v>181</v>
       </c>
@@ -32388,7 +32735,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60">
+    <row r="20" spans="1:3" ht="58">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -32399,7 +32746,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="90">
+    <row r="21" spans="1:3" ht="72.5">
       <c r="A21" s="10" t="s">
         <v>150</v>
       </c>
@@ -32410,7 +32757,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75">
+    <row r="22" spans="1:3" ht="72.5">
       <c r="A22" s="8" t="s">
         <v>183</v>
       </c>
@@ -32421,7 +32768,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60">
+    <row r="23" spans="1:3" ht="58">
       <c r="A23" s="10" t="s">
         <v>67</v>
       </c>
@@ -32432,7 +32779,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="90">
+    <row r="24" spans="1:3" ht="87">
       <c r="A24" s="8" t="s">
         <v>186</v>
       </c>
@@ -32443,7 +32790,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="120">
+    <row r="25" spans="1:3" ht="101.5">
       <c r="A25" s="10" t="s">
         <v>232</v>
       </c>
@@ -32454,7 +32801,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="90">
+    <row r="26" spans="1:3" ht="72.5">
       <c r="A26" s="8" t="s">
         <v>234</v>
       </c>
@@ -32465,7 +32812,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="75">
+    <row r="27" spans="1:3" ht="72.5">
       <c r="A27" s="10" t="s">
         <v>236</v>
       </c>
@@ -32476,7 +32823,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45">
+    <row r="28" spans="1:3" ht="43.5">
       <c r="A28" s="7" t="s">
         <v>240</v>
       </c>
@@ -32487,7 +32834,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="75">
+    <row r="29" spans="1:3" ht="58">
       <c r="A29" s="7" t="s">
         <v>242</v>
       </c>
@@ -32498,7 +32845,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45.6" customHeight="1">
+    <row r="30" spans="1:3" ht="45.65" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>245</v>
       </c>
@@ -32509,7 +32856,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45">
+    <row r="31" spans="1:3" ht="43.5">
       <c r="A31" s="7" t="s">
         <v>247</v>
       </c>
@@ -32520,7 +32867,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45">
+    <row r="32" spans="1:3" ht="43.5">
       <c r="A32" s="7" t="s">
         <v>251</v>
       </c>
@@ -32531,7 +32878,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45">
+    <row r="33" spans="1:3" ht="43.5">
       <c r="A33" s="8" t="s">
         <v>148</v>
       </c>
@@ -32542,7 +32889,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="60">
+    <row r="34" spans="1:3" ht="58">
       <c r="A34" s="8" t="s">
         <v>148</v>
       </c>
@@ -32631,17 +32978,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8480C-E8CD-45AC-8F81-8D4ABFF602C5}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:J18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="28"/>
-    <col min="2" max="2" width="30.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.81640625" style="28"/>
+    <col min="2" max="2" width="30.54296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="52.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -32649,7 +32996,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="60">
+    <row r="3" spans="2:4" ht="58">
       <c r="C3" s="37" t="s">
         <v>545</v>
       </c>
@@ -32673,7 +33020,7 @@
       <c r="B7" s="59"/>
       <c r="C7" s="34"/>
     </row>
-    <row r="8" spans="2:4" ht="30">
+    <row r="8" spans="2:4" ht="29">
       <c r="B8" s="11" t="s">
         <v>560</v>
       </c>
@@ -32684,7 +33031,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:4" ht="29">
       <c r="B9" s="7" t="s">
         <v>553</v>
       </c>
@@ -32695,7 +33042,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30">
+    <row r="10" spans="2:4" ht="29">
       <c r="B10" s="7" t="s">
         <v>556</v>
       </c>
@@ -32706,7 +33053,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30">
+    <row r="11" spans="2:4" ht="29">
       <c r="B11" s="11" t="s">
         <v>559</v>
       </c>
@@ -32717,7 +33064,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="30">
+    <row r="12" spans="2:4" ht="29">
       <c r="B12" s="11" t="s">
         <v>563</v>
       </c>
@@ -32728,7 +33075,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="45">
+    <row r="13" spans="2:4" ht="43.5">
       <c r="B13" s="11" t="s">
         <v>565</v>
       </c>
@@ -32739,7 +33086,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="45">
+    <row r="14" spans="2:4" ht="43.5">
       <c r="B14" s="11" t="s">
         <v>569</v>
       </c>
@@ -32750,7 +33097,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="45">
+    <row r="15" spans="2:4" ht="43.5">
       <c r="B15" s="11" t="s">
         <v>571</v>
       </c>
@@ -32761,7 +33108,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30">
+    <row r="16" spans="2:4" ht="29">
       <c r="B16" s="7" t="s">
         <v>574</v>
       </c>
@@ -32772,7 +33119,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="165">
+    <row r="17" spans="2:13" ht="159.5">
       <c r="B17" s="7" t="s">
         <v>578</v>
       </c>
@@ -32783,7 +33130,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="144.94999999999999" customHeight="1">
+    <row r="18" spans="2:13" ht="145" customHeight="1">
       <c r="B18" s="11" t="s">
         <v>581</v>
       </c>
@@ -32824,7 +33171,7 @@
       <c r="L19" s="67"/>
       <c r="M19" s="67"/>
     </row>
-    <row r="20" spans="2:13" ht="30">
+    <row r="20" spans="2:13" ht="29">
       <c r="B20" s="7" t="s">
         <v>589</v>
       </c>
@@ -32835,7 +33182,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="210" customHeight="1">
+    <row r="21" spans="2:13" ht="238" customHeight="1">
       <c r="B21" s="7" t="s">
         <v>592</v>
       </c>
@@ -32843,10 +33190,10 @@
         <v>593</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>721</v>
+        <v>774</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>722</v>
+        <v>775</v>
       </c>
       <c r="F21" s="67"/>
       <c r="G21" s="67"/>
@@ -32876,13 +33223,13 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="27"/>
+    <col min="1" max="1" width="8.7265625" style="27"/>
     <col min="2" max="2" width="49" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="27"/>
+    <col min="3" max="3" width="43.54296875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -32968,13 +33315,13 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="27" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C14" s="43" t="s">
+        <v>736</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>738</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -32990,7 +33337,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="60" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -33009,7 +33356,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="60" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -33080,7 +33427,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30">
+    <row r="31" spans="2:4" ht="29">
       <c r="B31" s="38" t="s">
         <v>714</v>
       </c>
@@ -33115,66 +33462,66 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="60" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="27" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="60" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="29">
+      <c r="B42" s="38" t="s">
         <v>730</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C42" s="39" t="s">
         <v>731</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="30">
-      <c r="B42" s="38" t="s">
-        <v>732</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="29">
+      <c r="B44" s="38" t="s">
         <v>734</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C44" s="69" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" ht="30">
-      <c r="B44" s="38" t="s">
-        <v>736</v>
-      </c>
-      <c r="C44" s="69" t="s">
-        <v>737</v>
-      </c>
-      <c r="D44" s="71"/>
+      <c r="D44" s="70"/>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="60" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="27" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -33194,13 +33541,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="27"/>
-    <col min="2" max="2" width="30.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="8.81640625" style="27"/>
+    <col min="2" max="2" width="30.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="52.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -33228,7 +33575,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="43"/>
     </row>
-    <row r="7" spans="2:4" ht="30">
+    <row r="7" spans="2:4" ht="29">
       <c r="B7" s="46" t="s">
         <v>550</v>
       </c>
@@ -33240,7 +33587,7 @@
     <row r="9" spans="2:4">
       <c r="B9" s="45"/>
     </row>
-    <row r="10" spans="2:4" ht="101.45" customHeight="1">
+    <row r="10" spans="2:4" ht="101.5" customHeight="1">
       <c r="B10" s="45"/>
       <c r="C10" s="43"/>
       <c r="D10" s="38"/>
@@ -33262,10 +33609,10 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -33304,7 +33651,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="101.45" customHeight="1">
+    <row r="9" spans="1:3" ht="101.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>295</v>
       </c>
@@ -33337,13 +33684,13 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="30.453125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="48.81640625" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -33355,17 +33702,17 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="72"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -33373,12 +33720,12 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="75"/>
-    </row>
-    <row r="7" spans="1:4" ht="45">
+      <c r="B6" s="74"/>
+    </row>
+    <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="35" t="s">
         <v>345</v>
       </c>
@@ -33411,7 +33758,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90">
+    <row r="10" spans="1:4" ht="72.5">
       <c r="A10" s="9" t="s">
         <v>351</v>
       </c>
@@ -33471,7 +33818,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
+    <row r="18" spans="1:3" ht="29">
       <c r="A18" s="4" t="s">
         <v>355</v>
       </c>
@@ -33493,7 +33840,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="75">
+    <row r="20" spans="1:3" ht="58">
       <c r="A20" s="4" t="s">
         <v>369</v>
       </c>
@@ -33505,88 +33852,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="71" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="71" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="71" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB21A34-7917-4880-8815-AD71459554E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD119DF-C522-486F-B2F0-0576D69B35E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="782">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -29420,6 +29420,139 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 'segment' is the Protocol Data Unit (PDU) at the Transport layer (layer 4)</t>
+    </r>
+  </si>
+  <si>
+    <t>LOOKING AT GIT DIFFERENCES</t>
+  </si>
+  <si>
+    <t>git diff</t>
+  </si>
+  <si>
+    <t>show differences between file in working folder and file in local repo</t>
+  </si>
+  <si>
+    <t>Basic output guide</t>
+  </si>
+  <si>
+    <t>diff --git a/file.txt b/file.txt
+index f2aa86d..1831a89  100644
+--- a/file.txt
++++ b/file.txt
+@@ -1 +1,2 @@ 
+hello
++added text to line 2
+\ No newline at end of file</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">diff --git a/file b/file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= comparing 2 versions of same file, 'a' and 'b'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index f2aa86d..1831a89  100644</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = different hashes for old and new files, plus '100644' is the 'mode' of the file (what functions are allowed on the file)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--- a/file.txt = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>file version 'a' is symbolized by a '-'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++++ b/file.txt = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">file version 'b' is symbolized by a '+'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@@ -1 +1,2 @@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =  </t>
     </r>
   </si>
 </sst>
@@ -29587,7 +29720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -29777,6 +29910,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -29815,6 +29957,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -30408,7 +30553,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="78" t="s">
         <v>414</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -30422,7 +30567,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="72.5">
-      <c r="A9" s="75"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
       </c>
@@ -30434,7 +30579,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="29">
-      <c r="A10" s="75"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
       </c>
@@ -30446,7 +30591,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.5">
-      <c r="A11" s="75"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
       </c>
@@ -30458,7 +30603,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="43.5">
-      <c r="A12" s="75"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
       </c>
@@ -30475,7 +30620,7 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="43.5">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="79" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -30489,7 +30634,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.5">
-      <c r="A16" s="76"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
       </c>
@@ -30501,7 +30646,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="87">
-      <c r="A17" s="76"/>
+      <c r="A17" s="79"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
       </c>
@@ -30513,7 +30658,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="87">
-      <c r="A18" s="76"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
       </c>
@@ -30525,7 +30670,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="58">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="79" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -30539,7 +30684,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="58">
-      <c r="A20" s="76"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
       </c>
@@ -30551,7 +30696,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="101.5">
-      <c r="A21" s="76"/>
+      <c r="A21" s="79"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
       </c>
@@ -30563,7 +30708,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="58">
-      <c r="A22" s="76"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="55" t="s">
         <v>532</v>
       </c>
@@ -30912,38 +31057,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="80" t="s">
         <v>689</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="80"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="80" t="s">
         <v>690</v>
       </c>
-      <c r="D20" s="77"/>
+      <c r="D20" s="80"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="80" t="s">
         <v>691</v>
       </c>
-      <c r="D21" s="77"/>
+      <c r="D21" s="80"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="80" t="s">
         <v>692</v>
       </c>
-      <c r="D22" s="77"/>
+      <c r="D22" s="80"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="80" t="s">
         <v>693</v>
       </c>
-      <c r="D23" s="77"/>
+      <c r="D23" s="80"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -30956,38 +31101,38 @@
       <c r="B25" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="80" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="77"/>
+      <c r="D25" s="80"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="80" t="s">
         <v>697</v>
       </c>
-      <c r="D26" s="77"/>
+      <c r="D26" s="80"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="80" t="s">
         <v>698</v>
       </c>
-      <c r="D27" s="77"/>
+      <c r="D27" s="80"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="80" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="77"/>
+      <c r="D28" s="80"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="80" t="s">
         <v>700</v>
       </c>
-      <c r="D29" s="77"/>
+      <c r="D29" s="80"/>
     </row>
     <row r="30" spans="2:4" ht="39">
       <c r="B30" s="27" t="s">
@@ -31047,28 +31192,28 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="72" t="s">
         <v>724</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="72"/>
     </row>
     <row r="5" spans="2:4" ht="75" customHeight="1">
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="72" t="s">
         <v>756</v>
       </c>
-      <c r="D5" s="69"/>
+      <c r="D5" s="72"/>
     </row>
     <row r="6" spans="2:4" ht="90" customHeight="1">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="72" t="s">
         <v>754</v>
       </c>
-      <c r="D6" s="69"/>
+      <c r="D6" s="72"/>
     </row>
     <row r="7" spans="2:4" ht="75" customHeight="1">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="72" t="s">
         <v>744</v>
       </c>
-      <c r="D7" s="69"/>
+      <c r="D7" s="72"/>
     </row>
     <row r="9" spans="2:4" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
@@ -31168,14 +31313,14 @@
       <c r="D17" s="18" t="s">
         <v>772</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="81" t="s">
         <v>771</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -31542,12 +31687,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -31555,11 +31700,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="74" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -31577,19 +31722,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="82" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="82" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -32978,7 +33123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8480C-E8CD-45AC-8F81-8D4ABFF602C5}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -33140,14 +33285,14 @@
       <c r="D18" s="66" t="s">
         <v>583</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="70" t="s">
         <v>584</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
     </row>
     <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
@@ -33159,17 +33304,17 @@
       <c r="D19" s="66" t="s">
         <v>587</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="70" t="s">
         <v>588</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="20" spans="2:13" ht="29">
       <c r="B20" s="7" t="s">
@@ -33192,17 +33337,17 @@
       <c r="D21" s="66" t="s">
         <v>774</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="70" t="s">
         <v>775</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33217,10 +33362,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
-  <dimension ref="B2:D48"/>
+  <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -33506,10 +33651,10 @@
       <c r="B44" s="38" t="s">
         <v>734</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="72" t="s">
         <v>735</v>
       </c>
-      <c r="D44" s="70"/>
+      <c r="D44" s="73"/>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="60" t="s">
@@ -33522,6 +33667,30 @@
       </c>
       <c r="C48" s="43" t="s">
         <v>762</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="60" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" s="68" customFormat="1" ht="116">
+      <c r="B52" s="83" t="s">
+        <v>779</v>
+      </c>
+      <c r="C52" s="67" t="s">
+        <v>780</v>
+      </c>
+      <c r="D52" s="69" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="29">
+      <c r="C53" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D53" s="69" t="s">
+        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -33702,17 +33871,17 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="72"/>
+      <c r="C2" s="75"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="76" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -33720,10 +33889,10 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="77" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="35" t="s">
@@ -33852,88 +34021,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="74" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="74" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="74" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="75" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="74" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="74" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD119DF-C522-486F-B2F0-0576D69B35E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1DFA90-7A51-4BD7-9748-D2AA2FDC18B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="795">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -26440,122 +26440,6 @@
     </r>
   </si>
   <si>
-    <t>CREATE NEW REPOSITORY</t>
-  </si>
-  <si>
-    <t>git init -b main</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-b </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= specifys the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>branch</t>
-    </r>
-  </si>
-  <si>
-    <t>initialize local directory as a Git repository</t>
-  </si>
-  <si>
-    <t>add files and stage them for commit</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = stages all files for commit</t>
-    </r>
-  </si>
-  <si>
-    <t>git commit -m "first commit"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-m </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= specifys that you wish to create a message with the commit</t>
-    </r>
-  </si>
-  <si>
-    <t>commit the files that you've staged in your local repository</t>
-  </si>
-  <si>
-    <t>gh auth login</t>
-  </si>
-  <si>
-    <t>follow prompts, use HTTPS for simple login</t>
-  </si>
-  <si>
-    <t>Set up connection to your GitHub account</t>
-  </si>
-  <si>
-    <t>gh repo create</t>
-  </si>
-  <si>
-    <t>push an existing git repository to GitHub</t>
-  </si>
-  <si>
-    <t>follow prompts, select "Push an existing local repo to GitHub"</t>
-  </si>
-  <si>
     <t>linux 'iptables'</t>
   </si>
   <si>
@@ -26823,9 +26707,6 @@
   </si>
   <si>
     <t>git config -h</t>
-  </si>
-  <si>
-    <t>show help for git config</t>
   </si>
   <si>
     <t>displays some helpful tips for the 'git config' command</t>
@@ -29555,12 +29436,917 @@
       <t xml:space="preserve"> =  </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>enter the name of your new repo in the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project slug'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>under</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Visibility Level' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">title, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Public'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Internal' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>radio buttons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>navigate to GitLab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click 'create a blank project'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the radio button for a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'readme'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file if you want one</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Create project'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Clone' button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and copy the URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (SSH or HTTPS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Git Bash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>navigate to folder containing files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you wish to commit</t>
+    </r>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>takes the current folder and initializes it as a local 'working folder' or 'workbench' with the staging and commit trees</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add files to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>staging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>initialize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> local git repo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commit new file(s) to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> commit tree</t>
+    </r>
+  </si>
+  <si>
+    <t>git commit -m "initial commit"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-m </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= specifys that you wish to create a message with the commit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= means 'all files in folder'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connect local repo to remote repo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on gitlab</t>
+    </r>
+  </si>
+  <si>
+    <t>git remote add gitlab &lt;copied URL&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push -u -f gitlab master </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">this simply connects the local and remote repo, it doesn't push anything
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add gitlab &lt;copied URL&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = remote repo name/url</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gitlab</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = remote repo name (contains URL?)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = pushes master HEAD
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-u</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = set upstream for git pull/downstream for git push
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-f </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= force updates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>local repo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> commits </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to remote repo</t>
+    </r>
+  </si>
+  <si>
+    <t>git pull gitlab master</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gitlab</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = remote repo name (contains URL?)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = pushes master HEAD</t>
+    </r>
+  </si>
+  <si>
+    <t>git remote show gitlab</t>
+  </si>
+  <si>
+    <t>displays info for the remote repo named 'gitlab'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remote repo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git config</t>
+    </r>
+  </si>
+  <si>
+    <t>CREATE NEW REPOSITORY - GITLAB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OPTIONAL - FYSA)
+pull remote repo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> down </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to local repo</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29637,8 +30423,17 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -29657,8 +30452,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -29715,12 +30522,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -29926,6 +30764,21 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -29958,8 +30811,68 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -30553,7 +31466,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="83" t="s">
         <v>414</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -30567,7 +31480,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="72.5">
-      <c r="A9" s="78"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
       </c>
@@ -30579,7 +31492,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="29">
-      <c r="A10" s="78"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
       </c>
@@ -30591,7 +31504,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.5">
-      <c r="A11" s="78"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
       </c>
@@ -30603,7 +31516,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="43.5">
-      <c r="A12" s="78"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
       </c>
@@ -30620,7 +31533,7 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="43.5">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="84" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -30634,7 +31547,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.5">
-      <c r="A16" s="79"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
       </c>
@@ -30646,7 +31559,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="87">
-      <c r="A17" s="79"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
       </c>
@@ -30658,7 +31571,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="87">
-      <c r="A18" s="79"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
       </c>
@@ -30670,7 +31583,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="58">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="84" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -30684,7 +31597,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="58">
-      <c r="A20" s="79"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
       </c>
@@ -30696,7 +31609,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="101.5">
-      <c r="A21" s="79"/>
+      <c r="A21" s="84"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
       </c>
@@ -30708,7 +31621,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="58">
-      <c r="A22" s="79"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="55" t="s">
         <v>532</v>
       </c>
@@ -31057,38 +31970,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="85" t="s">
         <v>689</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="85"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="85" t="s">
         <v>690</v>
       </c>
-      <c r="D20" s="80"/>
+      <c r="D20" s="85"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="85" t="s">
         <v>691</v>
       </c>
-      <c r="D21" s="80"/>
+      <c r="D21" s="85"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="85" t="s">
         <v>692</v>
       </c>
-      <c r="D22" s="80"/>
+      <c r="D22" s="85"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="85" t="s">
         <v>693</v>
       </c>
-      <c r="D23" s="80"/>
+      <c r="D23" s="85"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -31101,38 +32014,38 @@
       <c r="B25" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="85" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="80"/>
+      <c r="D25" s="85"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="85" t="s">
         <v>697</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="85"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="85" t="s">
         <v>698</v>
       </c>
-      <c r="D27" s="80"/>
+      <c r="D27" s="85"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="85" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="80"/>
+      <c r="D28" s="85"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="85" t="s">
         <v>700</v>
       </c>
-      <c r="D29" s="80"/>
+      <c r="D29" s="85"/>
     </row>
     <row r="30" spans="2:4" ht="39">
       <c r="B30" s="27" t="s">
@@ -31188,139 +32101,139 @@
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" s="43" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
-      <c r="C4" s="72" t="s">
-        <v>724</v>
-      </c>
-      <c r="D4" s="72"/>
+      <c r="C4" s="77" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" s="77"/>
     </row>
     <row r="5" spans="2:4" ht="75" customHeight="1">
-      <c r="C5" s="72" t="s">
-        <v>756</v>
-      </c>
-      <c r="D5" s="72"/>
+      <c r="C5" s="77" t="s">
+        <v>740</v>
+      </c>
+      <c r="D5" s="77"/>
     </row>
     <row r="6" spans="2:4" ht="90" customHeight="1">
-      <c r="C6" s="72" t="s">
-        <v>754</v>
-      </c>
-      <c r="D6" s="72"/>
+      <c r="C6" s="77" t="s">
+        <v>738</v>
+      </c>
+      <c r="D6" s="77"/>
     </row>
     <row r="7" spans="2:4" ht="75" customHeight="1">
-      <c r="C7" s="72" t="s">
-        <v>744</v>
-      </c>
-      <c r="D7" s="72"/>
+      <c r="C7" s="77" t="s">
+        <v>728</v>
+      </c>
+      <c r="D7" s="77"/>
     </row>
     <row r="9" spans="2:4" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="29">
       <c r="B10" s="45" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="72.5">
       <c r="B11" s="8" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="58">
       <c r="B12" s="10" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="87">
       <c r="B13" s="8" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="29">
       <c r="B14" s="46" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="87">
       <c r="B15" s="8" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="105" customHeight="1">
       <c r="B16" s="8" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="180" customHeight="1">
       <c r="B17" s="8" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="E17" s="81" t="s">
-        <v>771</v>
-      </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
+        <v>756</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>755</v>
+      </c>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -31687,12 +32600,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -31700,11 +32613,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="79" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -31722,19 +32635,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="87" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="87" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -31771,7 +32684,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29">
+    <row r="4" spans="1:3">
       <c r="B4" s="39" t="s">
         <v>419</v>
       </c>
@@ -33285,14 +34198,14 @@
       <c r="D18" s="66" t="s">
         <v>583</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="75" t="s">
         <v>584</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
     </row>
     <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
@@ -33304,17 +34217,17 @@
       <c r="D19" s="66" t="s">
         <v>587</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="75" t="s">
         <v>588</v>
       </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
     </row>
     <row r="20" spans="2:13" ht="29">
       <c r="B20" s="7" t="s">
@@ -33335,19 +34248,19 @@
         <v>593</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>774</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>775</v>
-      </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
+        <v>758</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>759</v>
+      </c>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -33362,16 +34275,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
-  <dimension ref="B2:D53"/>
+  <dimension ref="B2:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="27"/>
-    <col min="2" max="2" width="49" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.90625" style="27" customWidth="1"/>
     <col min="3" max="3" width="43.54296875" style="27" customWidth="1"/>
     <col min="4" max="4" width="56.453125" style="27" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="27"/>
@@ -33460,13 +34373,13 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="27" t="s">
-        <v>737</v>
+        <v>792</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -33480,9 +34393,20 @@
         <v>608</v>
       </c>
     </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>789</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>790</v>
+      </c>
+    </row>
     <row r="18" spans="2:4">
       <c r="B18" s="60" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -33501,7 +34425,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="60" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -33546,156 +34470,224 @@
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="60" t="s">
-        <v>706</v>
-      </c>
+      <c r="B28" s="98" t="s">
+        <v>793</v>
+      </c>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>707</v>
-      </c>
-      <c r="D29" s="45" t="s">
+      <c r="B29" s="88" t="s">
+        <v>768</v>
+      </c>
+      <c r="C29" s="89"/>
+      <c r="D29" s="90"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="101" t="s">
+        <v>766</v>
+      </c>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+    </row>
+    <row r="31" spans="2:4" s="73" customFormat="1" ht="29">
+      <c r="B31" s="92" t="s">
+        <v>767</v>
+      </c>
+      <c r="C31" s="89"/>
+      <c r="D31" s="91"/>
+    </row>
+    <row r="32" spans="2:4" s="73" customFormat="1">
+      <c r="B32" s="104" t="s">
+        <v>769</v>
+      </c>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+    </row>
+    <row r="33" spans="2:4" s="73" customFormat="1">
+      <c r="B33" s="92" t="s">
+        <v>770</v>
+      </c>
+      <c r="C33" s="89"/>
+      <c r="D33" s="91"/>
+    </row>
+    <row r="34" spans="2:4" s="73" customFormat="1">
+      <c r="B34" s="104" t="s">
+        <v>771</v>
+      </c>
+      <c r="C34" s="102"/>
+      <c r="D34" s="103"/>
+    </row>
+    <row r="35" spans="2:4" s="73" customFormat="1" ht="29">
+      <c r="B35" s="92" t="s">
+        <v>772</v>
+      </c>
+      <c r="C35" s="89"/>
+      <c r="D35" s="91"/>
+    </row>
+    <row r="36" spans="2:4" s="73" customFormat="1" ht="29">
+      <c r="B36" s="105" t="s">
+        <v>776</v>
+      </c>
+      <c r="C36" s="106" t="s">
+        <v>773</v>
+      </c>
+      <c r="D36" s="107" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" s="73" customFormat="1">
+      <c r="B37" s="93" t="s">
+        <v>775</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>617</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="73" customFormat="1">
+      <c r="B38" s="105" t="s">
+        <v>777</v>
+      </c>
+      <c r="C38" s="106" t="s">
+        <v>778</v>
+      </c>
+      <c r="D38" s="108" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" s="73" customFormat="1" ht="43.5">
+      <c r="B39" s="93" t="s">
+        <v>781</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>782</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="73" customFormat="1" ht="58">
+      <c r="B40" s="105" t="s">
+        <v>786</v>
+      </c>
+      <c r="C40" s="106" t="s">
+        <v>783</v>
+      </c>
+      <c r="D40" s="108" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="73" customFormat="1" ht="29">
+      <c r="B41" s="95" t="s">
+        <v>794</v>
+      </c>
+      <c r="C41" s="96" t="s">
+        <v>787</v>
+      </c>
+      <c r="D41" s="97" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="73" customFormat="1">
+      <c r="B42" s="6"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="70"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="60" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="27" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>617</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="29">
-      <c r="B31" s="38" t="s">
+      <c r="C45" s="43" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="60" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="C49" s="43" t="s">
         <v>714</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="27" t="s">
+    </row>
+    <row r="50" spans="2:4" ht="29">
+      <c r="B50" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="27" t="s">
         <v>717</v>
       </c>
-      <c r="C32" s="43" t="s">
-        <v>715</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="27" t="s">
+      <c r="C51" s="43" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="29">
+      <c r="B52" s="38" t="s">
         <v>719</v>
       </c>
-      <c r="C33" s="43" t="s">
-        <v>718</v>
-      </c>
-      <c r="D33" s="27" t="s">
+      <c r="C52" s="77" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="60" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="27" t="s">
-        <v>723</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="60" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="27" t="s">
-        <v>728</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="29">
-      <c r="B42" s="38" t="s">
-        <v>730</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="27" t="s">
-        <v>732</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="29">
-      <c r="B44" s="38" t="s">
-        <v>734</v>
-      </c>
-      <c r="C44" s="72" t="s">
-        <v>735</v>
-      </c>
-      <c r="D44" s="73"/>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="60" t="s">
+      <c r="D52" s="78"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="60" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="27" t="s">
+        <v>747</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="60" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" s="68" customFormat="1" ht="116">
+      <c r="B60" s="74" t="s">
+        <v>763</v>
+      </c>
+      <c r="C60" s="67" t="s">
+        <v>764</v>
+      </c>
+      <c r="D60" s="69" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="29">
+      <c r="C61" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="C48" s="43" t="s">
+      <c r="D61" s="69" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="60" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" s="68" customFormat="1" ht="116">
-      <c r="B52" s="83" t="s">
-        <v>779</v>
-      </c>
-      <c r="C52" s="67" t="s">
-        <v>780</v>
-      </c>
-      <c r="D52" s="69" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="29">
-      <c r="C53" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="D53" s="69" t="s">
-        <v>778</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C44:D44"/>
+  <mergeCells count="2">
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -33871,17 +34863,17 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="75"/>
+      <c r="C2" s="80"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="81" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -33889,10 +34881,10 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="82"/>
     </row>
     <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="35" t="s">
@@ -34021,88 +35013,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="79" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="79" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="79" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="79" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="79" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="79" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="79" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="80" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="79" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="79" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1DFA90-7A51-4BD7-9748-D2AA2FDC18B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC476CE6-7D77-4A3A-969A-523643B92E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -29310,1036 +29310,1046 @@
     <t>git diff</t>
   </si>
   <si>
-    <t>show differences between file in working folder and file in local repo</t>
-  </si>
-  <si>
     <t>Basic output guide</t>
   </si>
   <si>
-    <t>diff --git a/file.txt b/file.txt
+    <r>
+      <t>enter the name of your new repo in the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project slug'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>under</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Visibility Level' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">title, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Public'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Internal' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>radio buttons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>navigate to GitLab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click 'create a blank project'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the radio button for a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'readme'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file if you want one</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Create project'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Clone' button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and copy the URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (SSH or HTTPS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Git Bash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>navigate to folder containing files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you wish to commit</t>
+    </r>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>takes the current folder and initializes it as a local 'working folder' or 'workbench' with the staging and commit trees</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add files to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>staging</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>initialize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> local git repo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commit new file(s) to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> commit tree</t>
+    </r>
+  </si>
+  <si>
+    <t>git commit -m "initial commit"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-m </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= specifys that you wish to create a message with the commit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= means 'all files in folder'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>connect local repo to remote repo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on gitlab</t>
+    </r>
+  </si>
+  <si>
+    <t>git remote add gitlab &lt;copied URL&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push -u -f gitlab master </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">this simply connects the local and remote repo, it doesn't push anything
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add gitlab &lt;copied URL&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = remote repo name/url</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gitlab</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = remote repo name (contains URL?)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = pushes master HEAD
+'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-u</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = set upstream for git pull/downstream for git push
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-f </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= force updates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>local repo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> commits </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to remote repo</t>
+    </r>
+  </si>
+  <si>
+    <t>git pull gitlab master</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gitlab</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = remote repo name (contains URL?)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>master</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = pushes master HEAD</t>
+    </r>
+  </si>
+  <si>
+    <t>git remote show gitlab</t>
+  </si>
+  <si>
+    <t>displays info for the remote repo named 'gitlab'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remote repo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git config</t>
+    </r>
+  </si>
+  <si>
+    <t>CREATE NEW REPOSITORY - GITLAB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(OPTIONAL - FYSA)
+pull remote repo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> down </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to local repo</t>
+    </r>
+  </si>
+  <si>
+    <t>show differences between working folder and local repo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">diff --git a/test.txt b/test.txt </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= comparing 2 versions of same file, 'a' and 'b'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index b473041..69040e2  100644</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = different hashes for old and new files, plus '100644' is the 'mode' of the file (what functions are allowed on the file - e.g. '100644' is a non-executable)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--- a/test.txt = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>file version 'a' is symbolized by a '-'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++++ b/test.txt = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">file version 'b' is symbolized by a '+'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@@ -1,2  +1,3 @@</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =   </t>
+    </r>
+  </si>
+  <si>
+    <t>diff --git a/test.txt b/test.txt
 index f2aa86d..1831a89  100644
 --- a/file.txt
 +++ b/file.txt
-@@ -1 +1,2 @@ 
-hello
-+added text to line 2
-\ No newline at end of file</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">diff --git a/file b/file </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= comparing 2 versions of same file, 'a' and 'b'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>index f2aa86d..1831a89  100644</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = different hashes for old and new files, plus '100644' is the 'mode' of the file (what functions are allowed on the file)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">--- a/file.txt = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>file version 'a' is symbolized by a '-'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-+++ b/file.txt = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">file version 'b' is symbolized by a '+'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@@ -1 +1,2 @@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>enter the name of your new repo in the '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Project slug'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> field</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>under</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Visibility Level' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">title, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Public'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Internal' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>radio buttons</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>navigate to GitLab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>click 'create a blank project'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the radio button for a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'readme'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> file if you want one</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Create project'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>click</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Clone' button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and copy the URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (SSH or HTTPS)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Git Bash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>navigate to folder containing files</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>you wish to commit</t>
-    </r>
-  </si>
-  <si>
-    <t>git init</t>
-  </si>
-  <si>
-    <t>takes the current folder and initializes it as a local 'working folder' or 'workbench' with the staging and commit trees</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>add files to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>staging</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tree</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>initialize</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> local git repo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commit new file(s) to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> commit tree</t>
-    </r>
-  </si>
-  <si>
-    <t>git commit -m "initial commit"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-m </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= specifys that you wish to create a message with the commit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= means 'all files in folder'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>connect local repo to remote repo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on gitlab</t>
-    </r>
-  </si>
-  <si>
-    <t>git remote add gitlab &lt;copied URL&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git push -u -f gitlab master </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">this simply connects the local and remote repo, it doesn't push anything
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>add gitlab &lt;copied URL&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = remote repo name/url</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gitlab</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = remote repo name (contains URL?)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>master</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = pushes master HEAD
-'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-u</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = set upstream for git pull/downstream for git push
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-f </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= force updates</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>push</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>local repo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> commits </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to remote repo</t>
-    </r>
-  </si>
-  <si>
-    <t>git pull gitlab master</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gitlab</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = remote repo name (contains URL?)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>master</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = pushes master HEAD</t>
-    </r>
-  </si>
-  <si>
-    <t>git remote show gitlab</t>
-  </si>
-  <si>
-    <t>displays info for the remote repo named 'gitlab'</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>show info</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> remote repo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>show help</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>git config</t>
-    </r>
-  </si>
-  <si>
-    <t>CREATE NEW REPOSITORY - GITLAB</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(OPTIONAL - FYSA)
-pull remote repo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> down </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to local repo</t>
-    </r>
+@@ -1,2 +1,3 @@ 
++This is a test of the emergency alert system
+This is a test
+This is only a test</t>
   </si>
 </sst>
 </file>
@@ -30754,9 +30764,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -30774,42 +30781,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -30841,15 +30812,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -30873,6 +30835,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -31466,7 +31476,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="104" t="s">
         <v>414</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -31480,7 +31490,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="72.5">
-      <c r="A9" s="83"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
       </c>
@@ -31492,7 +31502,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="29">
-      <c r="A10" s="83"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
       </c>
@@ -31504,7 +31514,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.5">
-      <c r="A11" s="83"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
       </c>
@@ -31516,7 +31526,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="43.5">
-      <c r="A12" s="83"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
       </c>
@@ -31533,7 +31543,7 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="43.5">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="105" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -31547,7 +31557,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.5">
-      <c r="A16" s="84"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
       </c>
@@ -31559,7 +31569,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="87">
-      <c r="A17" s="84"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
       </c>
@@ -31571,7 +31581,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="87">
-      <c r="A18" s="84"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
       </c>
@@ -31583,7 +31593,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="58">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="105" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -31597,7 +31607,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="58">
-      <c r="A20" s="84"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
       </c>
@@ -31609,7 +31619,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="101.5">
-      <c r="A21" s="84"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
       </c>
@@ -31621,7 +31631,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="58">
-      <c r="A22" s="84"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="55" t="s">
         <v>532</v>
       </c>
@@ -31970,38 +31980,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="106" t="s">
         <v>689</v>
       </c>
-      <c r="D19" s="85"/>
+      <c r="D19" s="106"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="106" t="s">
         <v>690</v>
       </c>
-      <c r="D20" s="85"/>
+      <c r="D20" s="106"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="106" t="s">
         <v>691</v>
       </c>
-      <c r="D21" s="85"/>
+      <c r="D21" s="106"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="106" t="s">
         <v>692</v>
       </c>
-      <c r="D22" s="85"/>
+      <c r="D22" s="106"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="106" t="s">
         <v>693</v>
       </c>
-      <c r="D23" s="85"/>
+      <c r="D23" s="106"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -32014,38 +32024,38 @@
       <c r="B25" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="106" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="85"/>
+      <c r="D25" s="106"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="106" t="s">
         <v>697</v>
       </c>
-      <c r="D26" s="85"/>
+      <c r="D26" s="106"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="106" t="s">
         <v>698</v>
       </c>
-      <c r="D27" s="85"/>
+      <c r="D27" s="106"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="106" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="85"/>
+      <c r="D28" s="106"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="106" t="s">
         <v>700</v>
       </c>
-      <c r="D29" s="85"/>
+      <c r="D29" s="106"/>
     </row>
     <row r="30" spans="2:4" ht="39">
       <c r="B30" s="27" t="s">
@@ -32105,28 +32115,28 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="95" t="s">
         <v>709</v>
       </c>
-      <c r="D4" s="77"/>
+      <c r="D4" s="95"/>
     </row>
     <row r="5" spans="2:4" ht="75" customHeight="1">
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="95" t="s">
         <v>740</v>
       </c>
-      <c r="D5" s="77"/>
+      <c r="D5" s="95"/>
     </row>
     <row r="6" spans="2:4" ht="90" customHeight="1">
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="95" t="s">
         <v>738</v>
       </c>
-      <c r="D6" s="77"/>
+      <c r="D6" s="95"/>
     </row>
     <row r="7" spans="2:4" ht="75" customHeight="1">
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="95" t="s">
         <v>728</v>
       </c>
-      <c r="D7" s="77"/>
+      <c r="D7" s="95"/>
     </row>
     <row r="9" spans="2:4" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
@@ -32226,14 +32236,14 @@
       <c r="D17" s="18" t="s">
         <v>756</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="107" t="s">
         <v>755</v>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -32600,12 +32610,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="108" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -32613,11 +32623,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="100" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -32635,19 +32645,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="108" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="87"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="108" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="87"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -32684,7 +32694,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="29">
       <c r="B4" s="39" t="s">
         <v>419</v>
       </c>
@@ -34198,14 +34208,14 @@
       <c r="D18" s="66" t="s">
         <v>583</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="93" t="s">
         <v>584</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
     </row>
     <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
@@ -34217,17 +34227,17 @@
       <c r="D19" s="66" t="s">
         <v>587</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="93" t="s">
         <v>588</v>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
     </row>
     <row r="20" spans="2:13" ht="29">
       <c r="B20" s="7" t="s">
@@ -34250,17 +34260,17 @@
       <c r="D21" s="66" t="s">
         <v>758</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="93" t="s">
         <v>759</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -34277,8 +34287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
   <dimension ref="B2:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -34373,7 +34383,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>721</v>
@@ -34395,13 +34405,13 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>789</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>790</v>
+        <v>788</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>786</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -34470,131 +34480,131 @@
       <c r="D27" s="21"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="98" t="s">
-        <v>793</v>
-      </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
+      <c r="B28" s="97" t="s">
+        <v>790</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="75" t="s">
+        <v>765</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="85" t="s">
+        <v>763</v>
+      </c>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+    </row>
+    <row r="31" spans="2:4" s="72" customFormat="1" ht="29">
+      <c r="B31" s="79" t="s">
+        <v>764</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="78"/>
+    </row>
+    <row r="32" spans="2:4" s="72" customFormat="1">
+      <c r="B32" s="88" t="s">
+        <v>766</v>
+      </c>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+    </row>
+    <row r="33" spans="2:4" s="72" customFormat="1">
+      <c r="B33" s="79" t="s">
+        <v>767</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="78"/>
+    </row>
+    <row r="34" spans="2:4" s="72" customFormat="1">
+      <c r="B34" s="88" t="s">
         <v>768</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-    </row>
-    <row r="31" spans="2:4" s="73" customFormat="1" ht="29">
-      <c r="B31" s="92" t="s">
-        <v>767</v>
-      </c>
-      <c r="C31" s="89"/>
-      <c r="D31" s="91"/>
-    </row>
-    <row r="32" spans="2:4" s="73" customFormat="1">
-      <c r="B32" s="104" t="s">
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
+    </row>
+    <row r="35" spans="2:4" s="72" customFormat="1" ht="29">
+      <c r="B35" s="79" t="s">
         <v>769</v>
       </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-    </row>
-    <row r="33" spans="2:4" s="73" customFormat="1">
-      <c r="B33" s="92" t="s">
+      <c r="C35" s="76"/>
+      <c r="D35" s="78"/>
+    </row>
+    <row r="36" spans="2:4" s="72" customFormat="1" ht="29">
+      <c r="B36" s="89" t="s">
+        <v>773</v>
+      </c>
+      <c r="C36" s="90" t="s">
         <v>770</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="91"/>
-    </row>
-    <row r="34" spans="2:4" s="73" customFormat="1">
-      <c r="B34" s="104" t="s">
+      <c r="D36" s="91" t="s">
         <v>771</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="103"/>
-    </row>
-    <row r="35" spans="2:4" s="73" customFormat="1" ht="29">
-      <c r="B35" s="92" t="s">
+    </row>
+    <row r="37" spans="2:4" s="72" customFormat="1">
+      <c r="B37" s="80" t="s">
         <v>772</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="91"/>
-    </row>
-    <row r="36" spans="2:4" s="73" customFormat="1" ht="29">
-      <c r="B36" s="105" t="s">
+      <c r="C37" s="81" t="s">
+        <v>617</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="72" customFormat="1">
+      <c r="B38" s="89" t="s">
+        <v>774</v>
+      </c>
+      <c r="C38" s="90" t="s">
+        <v>775</v>
+      </c>
+      <c r="D38" s="92" t="s">
         <v>776</v>
       </c>
-      <c r="C36" s="106" t="s">
-        <v>773</v>
-      </c>
-      <c r="D36" s="107" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="73" customFormat="1">
-      <c r="B37" s="93" t="s">
-        <v>775</v>
-      </c>
-      <c r="C37" s="94" t="s">
-        <v>617</v>
-      </c>
-      <c r="D37" s="40" t="s">
+    </row>
+    <row r="39" spans="2:4" s="72" customFormat="1" ht="43.5">
+      <c r="B39" s="80" t="s">
+        <v>778</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>779</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="72" customFormat="1" ht="58">
+      <c r="B40" s="89" t="s">
+        <v>783</v>
+      </c>
+      <c r="C40" s="90" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" s="73" customFormat="1">
-      <c r="B38" s="105" t="s">
-        <v>777</v>
-      </c>
-      <c r="C38" s="106" t="s">
-        <v>778</v>
-      </c>
-      <c r="D38" s="108" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" s="73" customFormat="1" ht="43.5">
-      <c r="B39" s="93" t="s">
-        <v>781</v>
-      </c>
-      <c r="C39" s="94" t="s">
+      <c r="D40" s="92" t="s">
         <v>782</v>
       </c>
-      <c r="D39" s="40" t="s">
+    </row>
+    <row r="41" spans="2:4" s="72" customFormat="1" ht="29">
+      <c r="B41" s="82" t="s">
+        <v>791</v>
+      </c>
+      <c r="C41" s="83" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" s="73" customFormat="1" ht="58">
-      <c r="B40" s="105" t="s">
-        <v>786</v>
-      </c>
-      <c r="C40" s="106" t="s">
-        <v>783</v>
-      </c>
-      <c r="D40" s="108" t="s">
+      <c r="D41" s="84" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="73" customFormat="1" ht="29">
-      <c r="B41" s="95" t="s">
-        <v>794</v>
-      </c>
-      <c r="C41" s="96" t="s">
-        <v>787</v>
-      </c>
-      <c r="D41" s="97" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" s="73" customFormat="1">
+    <row r="42" spans="2:4" s="72" customFormat="1">
       <c r="B42" s="6"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="70"/>
+      <c r="D42" s="69"/>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="60" t="s">
@@ -34642,10 +34652,10 @@
       <c r="B52" s="38" t="s">
         <v>719</v>
       </c>
-      <c r="C52" s="77" t="s">
+      <c r="C52" s="95" t="s">
         <v>720</v>
       </c>
-      <c r="D52" s="78"/>
+      <c r="D52" s="96"/>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="60" t="s">
@@ -34666,22 +34676,22 @@
       </c>
     </row>
     <row r="60" spans="2:4" s="68" customFormat="1" ht="116">
-      <c r="B60" s="74" t="s">
-        <v>763</v>
+      <c r="B60" s="73" t="s">
+        <v>762</v>
       </c>
       <c r="C60" s="67" t="s">
-        <v>764</v>
-      </c>
-      <c r="D60" s="69" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="29">
+        <v>794</v>
+      </c>
+      <c r="D60" s="74" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
       <c r="C61" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="D61" s="69" t="s">
-        <v>762</v>
+      <c r="D61" s="74" t="s">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -34863,17 +34873,17 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="101" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="80"/>
+      <c r="C2" s="101"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="102" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -34881,10 +34891,10 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="103" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="103"/>
     </row>
     <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="35" t="s">
@@ -35013,88 +35023,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="100" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="100" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="100" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="100" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="100" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="100" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="100" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="100" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="80" t="s">
+      <c r="A31" s="101" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="100" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="100" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC476CE6-7D77-4A3A-969A-523643B92E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8F7216-A0F7-4846-869F-A04A4F97357E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="804">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -30218,138 +30218,438 @@
     </r>
   </si>
   <si>
-    <t>show differences between working folder and local repo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">diff --git a/test.txt b/test.txt </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= comparing 2 versions of same file, 'a' and 'b'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>index b473041..69040e2  100644</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = different hashes for old and new files, plus '100644' is the 'mode' of the file (what functions are allowed on the file - e.g. '100644' is a non-executable)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">--- a/test.txt = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>file version 'a' is symbolized by a '-'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-+++ b/test.txt = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">file version 'b' is symbolized by a '+'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@@ -1,2  +1,3 @@</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =   </t>
-    </r>
-  </si>
-  <si>
     <t>diff --git a/test.txt b/test.txt
 index f2aa86d..1831a89  100644
 --- a/file.txt
 +++ b/file.txt
 @@ -1,2 +1,3 @@ 
-+This is a test of the emergency alert system
++This is a test of the alert system
 This is a test
 This is only a test</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">diff --git a/test.txt b/test.txt </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= comparing 2 versions of same file, 'a' and 'b'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index b473041..69040e2  100644</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = different hashes for old and new files, plus '100644' is the 'mode' of the file (what functions are allowed on the file - e.g. '100644' is a non-executable)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--- a/test.txt = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>file version 'a' is symbolized by a '-'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
++++ b/test.txt = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">file version 'b' is symbolized by a '+'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@@ -1,2  +1,3 @@</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = file version 'a' (-1) has 2 lines starting from line 1. File version 'b' (+1) has 3 lines, starting from line 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+This is a test of the alert system</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = file located in workbench tree aka 'new file' (designated by the '+' sign) contains this line
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This is a test </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= line exists in both workbench tree and staged tree (index) version of file
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This is only a test</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = line exists in both workbench tree and staged tree (index) version of file</t>
+    </r>
+  </si>
+  <si>
+    <t>show differences between working folder tree (workbench) and staged tree (index)</t>
+  </si>
+  <si>
+    <t>git log --oneline test.txt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log --oneline &lt;filename&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = show hashes for historical changes</t>
+    </r>
+  </si>
+  <si>
+    <t>show the log of changes for the 'test.txt' file in one line per change</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git diff &lt;hash 1&gt; &lt;hash 2&gt; = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show the difference between historical file changes by hash</t>
+    </r>
+  </si>
+  <si>
+    <t>git diff cfe6410 f74470c</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>displays the changes between</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> historical hash </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cfe6410</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and historical hash </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f74470c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git diff --staged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = displays the differences between the staged tree (index) and the commit tree (local repo)</t>
+    </r>
+  </si>
+  <si>
+    <t>git diff --staged</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show differences</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>staged tree</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (index) and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commit tree</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (local repo)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you can also use the option '--cached' to display the same thing</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -30568,7 +30868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -30834,6 +31134,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -31476,7 +31794,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="110" t="s">
         <v>414</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -31490,7 +31808,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="72.5">
-      <c r="A9" s="104"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="6" t="s">
         <v>403</v>
       </c>
@@ -31502,7 +31820,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="29">
-      <c r="A10" s="104"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="6" t="s">
         <v>404</v>
       </c>
@@ -31514,7 +31832,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.5">
-      <c r="A11" s="104"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="6" t="s">
         <v>406</v>
       </c>
@@ -31526,7 +31844,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="43.5">
-      <c r="A12" s="104"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="47" t="s">
         <v>408</v>
       </c>
@@ -31543,7 +31861,7 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="43.5">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="111" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -31557,7 +31875,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.5">
-      <c r="A16" s="105"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="8" t="s">
         <v>413</v>
       </c>
@@ -31569,7 +31887,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="87">
-      <c r="A17" s="105"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="8" t="s">
         <v>518</v>
       </c>
@@ -31581,7 +31899,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="87">
-      <c r="A18" s="105"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="8" t="s">
         <v>519</v>
       </c>
@@ -31593,7 +31911,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="58">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="111" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -31607,7 +31925,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="58">
-      <c r="A20" s="105"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="11" t="s">
         <v>527</v>
       </c>
@@ -31619,7 +31937,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="101.5">
-      <c r="A21" s="105"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="11" t="s">
         <v>530</v>
       </c>
@@ -31631,7 +31949,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="58">
-      <c r="A22" s="105"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="55" t="s">
         <v>532</v>
       </c>
@@ -31980,38 +32298,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="112" t="s">
         <v>689</v>
       </c>
-      <c r="D19" s="106"/>
+      <c r="D19" s="112"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="112" t="s">
         <v>690</v>
       </c>
-      <c r="D20" s="106"/>
+      <c r="D20" s="112"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="112" t="s">
         <v>691</v>
       </c>
-      <c r="D21" s="106"/>
+      <c r="D21" s="112"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="112" t="s">
         <v>692</v>
       </c>
-      <c r="D22" s="106"/>
+      <c r="D22" s="112"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="106" t="s">
+      <c r="C23" s="112" t="s">
         <v>693</v>
       </c>
-      <c r="D23" s="106"/>
+      <c r="D23" s="112"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -32024,38 +32342,38 @@
       <c r="B25" s="63" t="s">
         <v>695</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="112" t="s">
         <v>696</v>
       </c>
-      <c r="D25" s="106"/>
+      <c r="D25" s="112"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="106" t="s">
+      <c r="C26" s="112" t="s">
         <v>697</v>
       </c>
-      <c r="D26" s="106"/>
+      <c r="D26" s="112"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="106" t="s">
+      <c r="C27" s="112" t="s">
         <v>698</v>
       </c>
-      <c r="D27" s="106"/>
+      <c r="D27" s="112"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="106" t="s">
+      <c r="C28" s="112" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="106"/>
+      <c r="D28" s="112"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="106" t="s">
+      <c r="C29" s="112" t="s">
         <v>700</v>
       </c>
-      <c r="D29" s="106"/>
+      <c r="D29" s="112"/>
     </row>
     <row r="30" spans="2:4" ht="39">
       <c r="B30" s="27" t="s">
@@ -32115,28 +32433,28 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="101" t="s">
         <v>709</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="101"/>
     </row>
     <row r="5" spans="2:4" ht="75" customHeight="1">
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="101" t="s">
         <v>740</v>
       </c>
-      <c r="D5" s="95"/>
+      <c r="D5" s="101"/>
     </row>
     <row r="6" spans="2:4" ht="90" customHeight="1">
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="101" t="s">
         <v>738</v>
       </c>
-      <c r="D6" s="95"/>
+      <c r="D6" s="101"/>
     </row>
     <row r="7" spans="2:4" ht="75" customHeight="1">
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="101" t="s">
         <v>728</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="101"/>
     </row>
     <row r="9" spans="2:4" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
@@ -32236,14 +32554,14 @@
       <c r="D17" s="18" t="s">
         <v>756</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="113" t="s">
         <v>755</v>
       </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -32610,12 +32928,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="114" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -32623,11 +32941,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="106" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -32645,19 +32963,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="114" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="108"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="114" t="s">
         <v>366</v>
       </c>
-      <c r="C12" s="108"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="27" t="s">
         <v>368</v>
       </c>
@@ -32694,7 +33012,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29">
+    <row r="4" spans="1:3">
       <c r="B4" s="39" t="s">
         <v>419</v>
       </c>
@@ -34208,14 +34526,14 @@
       <c r="D18" s="66" t="s">
         <v>583</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="99" t="s">
         <v>584</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
     </row>
     <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
@@ -34227,17 +34545,17 @@
       <c r="D19" s="66" t="s">
         <v>587</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="99" t="s">
         <v>588</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
     </row>
     <row r="20" spans="2:13" ht="29">
       <c r="B20" s="7" t="s">
@@ -34260,17 +34578,17 @@
       <c r="D21" s="66" t="s">
         <v>758</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="99" t="s">
         <v>759</v>
       </c>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -34285,10 +34603,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
-  <dimension ref="B2:D61"/>
+  <dimension ref="B2:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -34414,290 +34732,327 @@
         <v>787</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="60" t="s">
+    <row r="17" spans="2:4" s="97" customFormat="1">
+      <c r="B17" s="97" t="s">
+        <v>796</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>795</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="97" customFormat="1">
+      <c r="C18" s="96"/>
+      <c r="D18" s="94"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="60" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="27" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="27" t="s">
         <v>622</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C21" s="43" t="s">
         <v>623</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D21" s="61" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="60"/>
-    </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="60"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="60" t="s">
         <v>723</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="27" t="s">
-        <v>619</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>617</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="27" t="s">
-        <v>625</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>627</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>617</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="27" t="s">
         <v>626</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C27" s="43" t="s">
         <v>620</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D27" s="21" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="C26" s="43"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="C27" s="43"/>
-      <c r="D27" s="21"/>
-    </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="97" t="s">
+      <c r="C28" s="43"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="C29" s="43"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="103" t="s">
         <v>790</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="75" t="s">
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="75" t="s">
         <v>765</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="85" t="s">
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="85" t="s">
         <v>763</v>
-      </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-    </row>
-    <row r="31" spans="2:4" s="72" customFormat="1" ht="29">
-      <c r="B31" s="79" t="s">
-        <v>764</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="78"/>
-    </row>
-    <row r="32" spans="2:4" s="72" customFormat="1">
-      <c r="B32" s="88" t="s">
-        <v>766</v>
       </c>
       <c r="C32" s="86"/>
       <c r="D32" s="87"/>
     </row>
-    <row r="33" spans="2:4" s="72" customFormat="1">
+    <row r="33" spans="2:4" s="72" customFormat="1" ht="29">
       <c r="B33" s="79" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C33" s="76"/>
       <c r="D33" s="78"/>
     </row>
     <row r="34" spans="2:4" s="72" customFormat="1">
       <c r="B34" s="88" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C34" s="86"/>
       <c r="D34" s="87"/>
     </row>
-    <row r="35" spans="2:4" s="72" customFormat="1" ht="29">
+    <row r="35" spans="2:4" s="72" customFormat="1">
       <c r="B35" s="79" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="78"/>
     </row>
-    <row r="36" spans="2:4" s="72" customFormat="1" ht="29">
-      <c r="B36" s="89" t="s">
+    <row r="36" spans="2:4" s="72" customFormat="1">
+      <c r="B36" s="88" t="s">
+        <v>768</v>
+      </c>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
+    </row>
+    <row r="37" spans="2:4" s="72" customFormat="1" ht="29">
+      <c r="B37" s="79" t="s">
+        <v>769</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="78"/>
+    </row>
+    <row r="38" spans="2:4" s="72" customFormat="1" ht="29">
+      <c r="B38" s="89" t="s">
         <v>773</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C38" s="90" t="s">
         <v>770</v>
       </c>
-      <c r="D36" s="91" t="s">
+      <c r="D38" s="91" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="72" customFormat="1">
-      <c r="B37" s="80" t="s">
+    <row r="39" spans="2:4" s="72" customFormat="1">
+      <c r="B39" s="80" t="s">
         <v>772</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C39" s="81" t="s">
         <v>617</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D39" s="40" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="72" customFormat="1">
-      <c r="B38" s="89" t="s">
+    <row r="40" spans="2:4" s="72" customFormat="1">
+      <c r="B40" s="89" t="s">
         <v>774</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C40" s="90" t="s">
         <v>775</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D40" s="92" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="72" customFormat="1" ht="43.5">
-      <c r="B39" s="80" t="s">
+    <row r="41" spans="2:4" s="72" customFormat="1" ht="43.5">
+      <c r="B41" s="80" t="s">
         <v>778</v>
       </c>
-      <c r="C39" s="81" t="s">
+      <c r="C41" s="81" t="s">
         <v>779</v>
       </c>
-      <c r="D39" s="40" t="s">
+      <c r="D41" s="40" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="72" customFormat="1" ht="58">
-      <c r="B40" s="89" t="s">
+    <row r="42" spans="2:4" s="72" customFormat="1" ht="58">
+      <c r="B42" s="89" t="s">
         <v>783</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C42" s="90" t="s">
         <v>780</v>
       </c>
-      <c r="D40" s="92" t="s">
+      <c r="D42" s="92" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="72" customFormat="1" ht="29">
-      <c r="B41" s="82" t="s">
+    <row r="43" spans="2:4" s="72" customFormat="1" ht="29">
+      <c r="B43" s="82" t="s">
         <v>791</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C43" s="83" t="s">
         <v>784</v>
       </c>
-      <c r="D41" s="84" t="s">
+      <c r="D43" s="84" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="72" customFormat="1">
-      <c r="B42" s="6"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="69"/>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="60" t="s">
+    <row r="44" spans="2:4" s="72" customFormat="1">
+      <c r="B44" s="6"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="69"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="60" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="27" t="s">
+    <row r="47" spans="2:4">
+      <c r="B47" s="27" t="s">
         <v>708</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C47" s="43" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="60" t="s">
+    <row r="50" spans="2:4">
+      <c r="B50" s="60" t="s">
         <v>712</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="27" t="s">
-        <v>713</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="29">
-      <c r="B50" s="38" t="s">
-        <v>715</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="27" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="29">
       <c r="B52" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="29">
+      <c r="B54" s="38" t="s">
         <v>719</v>
       </c>
-      <c r="C52" s="95" t="s">
+      <c r="C54" s="101" t="s">
         <v>720</v>
       </c>
-      <c r="D52" s="96"/>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="60" t="s">
+      <c r="D54" s="102"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="60" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="27" t="s">
+    <row r="58" spans="2:4">
+      <c r="B58" s="27" t="s">
         <v>747</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C58" s="43" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="60" t="s">
+    <row r="61" spans="2:4">
+      <c r="B61" s="60" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="60" spans="2:4" s="68" customFormat="1" ht="116">
-      <c r="B60" s="73" t="s">
+    <row r="62" spans="2:4" s="68" customFormat="1" ht="217.5">
+      <c r="B62" s="73" t="s">
         <v>762</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C62" s="67" t="s">
+        <v>792</v>
+      </c>
+      <c r="D62" s="74" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="29">
+      <c r="C63" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D63" s="74" t="s">
         <v>794</v>
       </c>
-      <c r="D60" s="74" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="C61" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D61" s="74" t="s">
-        <v>792</v>
+    </row>
+    <row r="64" spans="2:4" ht="58">
+      <c r="B64" s="98" t="s">
+        <v>801</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D64" s="93" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="29">
+      <c r="B65" s="95" t="s">
+        <v>798</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D65" s="93" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -34873,17 +35228,17 @@
       <c r="A2" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="107" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="101"/>
+      <c r="C2" s="107"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="108" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -34891,10 +35246,10 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="103" t="s">
+      <c r="A6" s="109" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="109"/>
     </row>
     <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="35" t="s">
@@ -35023,88 +35378,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="106" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="106" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="106" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="106" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="106" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="106"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="106" t="s">
         <v>328</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="106" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="100"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="106" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="107" t="s">
         <v>332</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="107" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="106" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="100" t="s">
+      <c r="A33" s="106" t="s">
         <v>342</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8F7216-A0F7-4846-869F-A04A4F97357E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDC5976-AA22-4FF2-8CC2-EC2E5A21577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-28965" yWindow="-165" windowWidth="29130" windowHeight="15930" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -30421,9 +30421,6 @@
     </r>
   </si>
   <si>
-    <t>show differences between working folder tree (workbench) and staged tree (index)</t>
-  </si>
-  <si>
     <t>git log --oneline test.txt</t>
   </si>
   <si>
@@ -30649,6 +30646,77 @@
         <scheme val="minor"/>
       </rPr>
       <t>you can also use the option '--cached' to display the same thing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show differences</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>working folder tree</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (workbench) and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>staged tree</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (index)</t>
     </r>
   </si>
 </sst>
@@ -34605,8 +34673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
   <dimension ref="B2:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -34734,13 +34802,13 @@
     </row>
     <row r="17" spans="2:4" s="97" customFormat="1">
       <c r="B17" s="97" t="s">
+        <v>795</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>794</v>
+      </c>
+      <c r="D17" s="94" t="s">
         <v>796</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>795</v>
-      </c>
-      <c r="D17" s="94" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="97" customFormat="1">
@@ -35024,29 +35092,29 @@
         <v>761</v>
       </c>
       <c r="D63" s="74" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="58">
       <c r="B64" s="98" t="s">
+        <v>800</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="93" t="s">
         <v>802</v>
-      </c>
-      <c r="D64" s="93" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="29">
       <c r="B65" s="95" t="s">
+        <v>797</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="93" t="s">
         <v>799</v>
-      </c>
-      <c r="D65" s="93" t="s">
-        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDC5976-AA22-4FF2-8CC2-EC2E5A21577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E85B1F9-B664-4B0B-9E8B-7C1D3A5C0A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28965" yWindow="-165" windowWidth="29130" windowHeight="15930" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="813">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -15451,9 +15451,6 @@
   </si>
   <si>
     <t>grep -o kansas states</t>
-  </si>
-  <si>
-    <t>grep -r Washing</t>
   </si>
   <si>
     <r>
@@ -30587,6 +30584,77 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>working folder tree</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (workbench) and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>staged tree</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (index)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show differences</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>staged tree</t>
     </r>
     <r>
@@ -30634,6 +30702,53 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>--staged</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = refers to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>staged tree</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (index)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">NOTE: </t>
     </r>
     <r>
@@ -30645,86 +30760,100 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>you can also use the option '--cached' to display the same thing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>show differences</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> between </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>working folder tree</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (workbench) and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>staged tree</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (index)</t>
-    </r>
+      <t>you can also use the option '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--cached</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' to display the same thing</t>
+    </r>
+  </si>
+  <si>
+    <t>GIT BRANCHES</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>show current branches</t>
+  </si>
+  <si>
+    <t>git branch version2</t>
+  </si>
+  <si>
+    <t>creates a git branch called 'version2'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git branch &lt;branch name&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= create a new branch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git checkout &lt;branch name&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= switch focus (head?) to a new branch</t>
+    </r>
+  </si>
+  <si>
+    <t>git checkout version2</t>
+  </si>
+  <si>
+    <t>switches focus (head?) to branch 'version2'</t>
+  </si>
+  <si>
+    <t>grep -r Washing *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30801,15 +30930,6 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -30843,7 +30963,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -30904,28 +31024,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -30936,7 +31040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -31126,9 +31230,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -31144,79 +31245,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -31233,15 +31274,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -31268,6 +31300,66 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -31649,7 +31741,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="59.5" customHeight="1">
@@ -31807,7 +31899,7 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="B2" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="27"/>
@@ -31816,10 +31908,10 @@
       <c r="A3" s="28"/>
       <c r="B3" s="3"/>
       <c r="C3" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>393</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>394</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -31838,21 +31930,21 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>401</v>
-      </c>
       <c r="D5" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D6" s="27"/>
     </row>
@@ -31862,65 +31954,65 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="110" t="s">
-        <v>414</v>
+      <c r="A8" s="86" t="s">
+        <v>413</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="72.5">
-      <c r="A9" s="110"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="29">
+      <c r="A10" s="86"/>
+      <c r="B10" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D9" s="40" t="s">
+      <c r="C10" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="43.5">
+      <c r="A11" s="86"/>
+      <c r="B11" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="43.5">
+      <c r="A12" s="86"/>
+      <c r="B12" s="47" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="29">
-      <c r="A10" s="110"/>
-      <c r="B10" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="43.5">
-      <c r="A11" s="110"/>
-      <c r="B11" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="43.5">
-      <c r="A12" s="110"/>
-      <c r="B12" s="47" t="s">
+      <c r="C12" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>408</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -31929,103 +32021,103 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="43.5">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="87" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="72.5">
+      <c r="A16" s="87"/>
+      <c r="B16" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>411</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="72.5">
-      <c r="A16" s="111"/>
-      <c r="B16" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>416</v>
-      </c>
       <c r="D16" s="40" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="87">
+      <c r="A17" s="87"/>
+      <c r="B17" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="87">
-      <c r="A17" s="111"/>
-      <c r="B17" s="8" t="s">
+    <row r="18" spans="1:13" ht="87">
+      <c r="A18" s="87"/>
+      <c r="B18" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="D17" s="40" t="s">
+      <c r="C18" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="87">
-      <c r="A18" s="111"/>
-      <c r="B18" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="C18" s="17" t="s">
+    <row r="19" spans="1:13" ht="58">
+      <c r="A19" s="87" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="C19" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="58">
-      <c r="A19" s="111" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="D19" s="40" t="s">
+    <row r="20" spans="1:13" ht="58">
+      <c r="A20" s="87"/>
+      <c r="B20" s="11" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="58">
-      <c r="A20" s="111"/>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="D20" s="54" t="s">
+    </row>
+    <row r="21" spans="1:13" ht="101.5">
+      <c r="A21" s="87"/>
+      <c r="B21" s="11" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="101.5">
-      <c r="A21" s="111"/>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="D21" s="54" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="58">
+      <c r="A22" s="87"/>
+      <c r="B22" s="55" t="s">
         <v>531</v>
       </c>
-      <c r="D21" s="54" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="58">
-      <c r="A22" s="111"/>
-      <c r="B22" s="55" t="s">
+      <c r="C22" s="56" t="s">
         <v>532</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="D22" s="57" t="s">
         <v>533</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -32039,7 +32131,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -32052,16 +32144,16 @@
     </row>
     <row r="25" spans="1:13" ht="130.5">
       <c r="B25" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -32075,16 +32167,16 @@
     <row r="26" spans="1:13" ht="145">
       <c r="A26" s="28"/>
       <c r="B26" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="D26" s="36" t="s">
         <v>629</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="D26" s="36" t="s">
+      <c r="E26" s="14" t="s">
         <v>630</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>631</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -32097,13 +32189,13 @@
     </row>
     <row r="27" spans="1:13" ht="145">
       <c r="B27" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="D27" s="14" t="s">
         <v>633</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>634</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -32117,16 +32209,16 @@
     </row>
     <row r="28" spans="1:13" ht="200.15" customHeight="1">
       <c r="B28" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="D28" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="E28" s="4" t="s">
         <v>637</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>638</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -32139,55 +32231,55 @@
     </row>
     <row r="29" spans="1:13" ht="195" customHeight="1">
       <c r="B29" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="D29" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="E29" s="62" t="s">
         <v>641</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="211" customHeight="1">
       <c r="B30" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="D30" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="E30" s="62" t="s">
         <v>645</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="232">
       <c r="B31" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>647</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="D31" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="E31" s="62" t="s">
         <v>649</v>
-      </c>
-      <c r="E31" s="62" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="72.5">
       <c r="B32" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="D32" s="14" t="s">
         <v>652</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -32216,109 +32308,109 @@
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="27" t="s">
         <v>655</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>657</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="D4" s="27" t="s">
         <v>658</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="27" t="s">
+        <v>659</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>660</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="D5" s="27" t="s">
         <v>661</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>663</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="D6" s="27" t="s">
         <v>664</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="27" t="s">
+        <v>665</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>666</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="D7" s="27" t="s">
         <v>667</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>669</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="D8" s="27" t="s">
         <v>670</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>672</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="D9" s="27" t="s">
         <v>673</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="27" t="s">
+        <v>674</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>675</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="D10" s="27" t="s">
         <v>676</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>678</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="D11" s="27" t="s">
         <v>679</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>681</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>682</v>
       </c>
       <c r="D12" s="27"/>
     </row>
@@ -32334,130 +32426,130 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="63" t="s">
+        <v>683</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>684</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>685</v>
       </c>
       <c r="D16" s="27"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="63" t="s">
+        <v>685</v>
+      </c>
+      <c r="C17" s="43" t="s">
         <v>686</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>687</v>
       </c>
       <c r="D17" s="27"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="63" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="112" t="s">
-        <v>689</v>
-      </c>
-      <c r="D19" s="112"/>
+      <c r="C19" s="88" t="s">
+        <v>688</v>
+      </c>
+      <c r="D19" s="88"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="112" t="s">
-        <v>690</v>
-      </c>
-      <c r="D20" s="112"/>
+      <c r="C20" s="88" t="s">
+        <v>689</v>
+      </c>
+      <c r="D20" s="88"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="112" t="s">
-        <v>691</v>
-      </c>
-      <c r="D21" s="112"/>
+      <c r="C21" s="88" t="s">
+        <v>690</v>
+      </c>
+      <c r="D21" s="88"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="112" t="s">
-        <v>692</v>
-      </c>
-      <c r="D22" s="112"/>
+      <c r="C22" s="88" t="s">
+        <v>691</v>
+      </c>
+      <c r="D22" s="88"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="112" t="s">
-        <v>693</v>
-      </c>
-      <c r="D23" s="112"/>
+      <c r="C23" s="88" t="s">
+        <v>692</v>
+      </c>
+      <c r="D23" s="88"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="63" t="s">
+        <v>694</v>
+      </c>
+      <c r="C25" s="88" t="s">
         <v>695</v>
       </c>
-      <c r="C25" s="112" t="s">
-        <v>696</v>
-      </c>
-      <c r="D25" s="112"/>
+      <c r="D25" s="88"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="112" t="s">
-        <v>697</v>
-      </c>
-      <c r="D26" s="112"/>
+      <c r="C26" s="88" t="s">
+        <v>696</v>
+      </c>
+      <c r="D26" s="88"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="112" t="s">
-        <v>698</v>
-      </c>
-      <c r="D27" s="112"/>
+      <c r="C27" s="88" t="s">
+        <v>697</v>
+      </c>
+      <c r="D27" s="88"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="112" t="s">
-        <v>699</v>
-      </c>
-      <c r="D28" s="112"/>
+      <c r="C28" s="88" t="s">
+        <v>698</v>
+      </c>
+      <c r="D28" s="88"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="112" t="s">
-        <v>700</v>
-      </c>
-      <c r="D29" s="112"/>
+      <c r="C29" s="88" t="s">
+        <v>699</v>
+      </c>
+      <c r="D29" s="88"/>
     </row>
     <row r="30" spans="2:4" ht="39">
       <c r="B30" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="C30" s="65" t="s">
         <v>701</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>702</v>
       </c>
       <c r="D30" s="64"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="C31" s="43" t="s">
         <v>703</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>704</v>
       </c>
       <c r="D31" s="27"/>
     </row>
@@ -32497,139 +32589,139 @@
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" s="43" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
-      <c r="C4" s="101" t="s">
-        <v>709</v>
-      </c>
-      <c r="D4" s="101"/>
+      <c r="C4" s="80" t="s">
+        <v>708</v>
+      </c>
+      <c r="D4" s="80"/>
     </row>
     <row r="5" spans="2:4" ht="75" customHeight="1">
-      <c r="C5" s="101" t="s">
-        <v>740</v>
-      </c>
-      <c r="D5" s="101"/>
+      <c r="C5" s="80" t="s">
+        <v>739</v>
+      </c>
+      <c r="D5" s="80"/>
     </row>
     <row r="6" spans="2:4" ht="90" customHeight="1">
-      <c r="C6" s="101" t="s">
-        <v>738</v>
-      </c>
-      <c r="D6" s="101"/>
+      <c r="C6" s="80" t="s">
+        <v>737</v>
+      </c>
+      <c r="D6" s="80"/>
     </row>
     <row r="7" spans="2:4" ht="75" customHeight="1">
-      <c r="C7" s="101" t="s">
-        <v>728</v>
-      </c>
-      <c r="D7" s="101"/>
+      <c r="C7" s="80" t="s">
+        <v>727</v>
+      </c>
+      <c r="D7" s="80"/>
     </row>
     <row r="9" spans="2:4" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>742</v>
-      </c>
       <c r="D9" s="26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="29">
       <c r="B10" s="45" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="72.5">
       <c r="B11" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="58">
       <c r="B12" s="10" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="87">
       <c r="B13" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="29">
       <c r="B14" s="46" t="s">
+        <v>733</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>735</v>
-      </c>
       <c r="D14" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="87">
       <c r="B15" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="105" customHeight="1">
       <c r="B16" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>750</v>
-      </c>
       <c r="D16" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="180" customHeight="1">
       <c r="B17" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="E17" s="89" t="s">
         <v>754</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>756</v>
-      </c>
-      <c r="E17" s="113" t="s">
-        <v>755</v>
-      </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -32666,53 +32758,53 @@
   <sheetData>
     <row r="3" spans="2:8">
       <c r="B3" s="43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="C4" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="29.5" customHeight="1">
       <c r="B5" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>469</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>470</v>
       </c>
       <c r="E5" s="21"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="21" t="s">
         <v>462</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>463</v>
       </c>
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="2:8" ht="29.15" customHeight="1">
       <c r="C7" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="2:8" ht="43.5">
       <c r="C8" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>467</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>468</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -32726,96 +32818,96 @@
     </row>
     <row r="11" spans="2:8" ht="29">
       <c r="B11" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="2:8" ht="115.4" customHeight="1">
       <c r="B12" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="19" t="s">
         <v>473</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>474</v>
       </c>
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="2:8" ht="43.5">
       <c r="B13" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="2:8" ht="29">
       <c r="B14" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="19" t="s">
         <v>479</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>480</v>
       </c>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:8" ht="101.15" customHeight="1">
       <c r="B15" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="19" t="s">
         <v>482</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>483</v>
       </c>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="2:8" ht="72.5">
       <c r="B16" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>489</v>
-      </c>
       <c r="E16" s="26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="H16" s="19" t="s">
         <v>485</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="58">
       <c r="B17" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="19"/>
@@ -32824,13 +32916,13 @@
     </row>
     <row r="18" spans="2:8" ht="43.5">
       <c r="B18" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="D18" s="19" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="19"/>
@@ -32839,13 +32931,13 @@
     </row>
     <row r="19" spans="2:8" ht="72.5">
       <c r="B19" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="D19" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="19"/>
@@ -32854,16 +32946,16 @@
     </row>
     <row r="20" spans="2:8" ht="116">
       <c r="B20" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -32871,13 +32963,13 @@
     </row>
     <row r="21" spans="2:8" ht="43.4" customHeight="1">
       <c r="B21" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>502</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>503</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="19"/>
@@ -32886,13 +32978,13 @@
     </row>
     <row r="22" spans="2:8" ht="87">
       <c r="B22" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="D22" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="19"/>
@@ -32901,7 +32993,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="19"/>
@@ -32930,13 +33022,13 @@
     </row>
     <row r="26" spans="2:8" ht="29">
       <c r="B26" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>454</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>455</v>
       </c>
       <c r="E26" s="19"/>
     </row>
@@ -32954,25 +33046,25 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>456</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="D29" s="21" t="s">
         <v>457</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>458</v>
       </c>
       <c r="E29" s="21"/>
     </row>
     <row r="30" spans="2:8" ht="29">
       <c r="B30" s="46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C30" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>507</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="14.5" customHeight="1"/>
@@ -32996,56 +33088,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="114" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="90" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="106" t="s">
-        <v>360</v>
-      </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
+      <c r="B5" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="90" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="90" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="27" t="s">
+      <c r="C12" s="90"/>
+      <c r="D12" s="27" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="114" t="s">
-        <v>366</v>
-      </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="27" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -33077,24 +33169,24 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" s="43" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C4" s="38"/>
     </row>
     <row r="6" spans="1:3" ht="87">
       <c r="A6" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="19" t="s">
         <v>421</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -33121,34 +33213,34 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="39" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -33174,34 +33266,34 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" s="43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="21" t="s">
         <v>439</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29">
       <c r="A7" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="21" t="s">
         <v>442</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -33227,34 +33319,34 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" s="39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29">
       <c r="B4" s="39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>447</v>
-      </c>
       <c r="C6" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29">
       <c r="A7" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>449</v>
-      </c>
       <c r="C7" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -33280,23 +33372,23 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" s="43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.5">
       <c r="B4" s="39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29">
       <c r="A6" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>427</v>
-      </c>
       <c r="C6" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -33308,8 +33400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B4C89-AE87-4187-8C18-5F20544A3D88}">
   <dimension ref="A3:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -33433,10 +33525,10 @@
     </row>
     <row r="14" spans="1:4" ht="43.5">
       <c r="A14" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>274</v>
+        <v>812</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>215</v>
@@ -33448,7 +33540,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>216</v>
@@ -33460,7 +33552,7 @@
         <v>218</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>217</v>
@@ -33472,7 +33564,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>219</v>
@@ -33484,7 +33576,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>220</v>
@@ -33496,7 +33588,7 @@
         <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>221</v>
@@ -33508,7 +33600,7 @@
         <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>226</v>
@@ -33532,7 +33624,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>225</v>
@@ -33544,7 +33636,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>45</v>
@@ -33552,13 +33644,13 @@
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1">
       <c r="A24" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="72.5">
@@ -33566,7 +33658,7 @@
         <v>227</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>228</v>
@@ -33578,10 +33670,10 @@
         <v>229</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D26" s="12"/>
     </row>
@@ -33593,7 +33685,7 @@
         <v>230</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D27" s="12"/>
     </row>
@@ -33629,7 +33721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7E7EB8-4E18-4D64-AC42-D83D365B21CF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -33879,7 +33971,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="87" customHeight="1">
@@ -33942,10 +34034,10 @@
         <v>116</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="159.5">
@@ -34054,7 +34146,7 @@
         <v>137</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29">
@@ -34095,7 +34187,7 @@
         <v>151</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>158</v>
@@ -34106,10 +34198,10 @@
         <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.5">
@@ -34219,7 +34311,7 @@
         <v>184</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="58">
@@ -34241,7 +34333,7 @@
         <v>187</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="101.5">
@@ -34252,7 +34344,7 @@
         <v>233</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="72.5">
@@ -34263,7 +34355,7 @@
         <v>235</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="72.5">
@@ -34318,7 +34410,7 @@
         <v>248</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.5">
@@ -34337,10 +34429,10 @@
         <v>148</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>305</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="58">
@@ -34351,7 +34443,7 @@
         <v>155</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -34447,12 +34539,12 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="58">
       <c r="C3" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -34460,10 +34552,10 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -34476,187 +34568,187 @@
     </row>
     <row r="8" spans="2:4" ht="29">
       <c r="B8" s="11" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>551</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="29">
       <c r="B9" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>554</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="29">
       <c r="B10" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>557</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="29">
       <c r="B11" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>561</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="29">
       <c r="B12" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>564</v>
-      </c>
       <c r="D12" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="43.5">
       <c r="B13" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>566</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="43.5">
       <c r="B14" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>569</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="43.5">
       <c r="B15" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>572</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="29">
       <c r="B16" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>575</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="159.5">
       <c r="B17" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="66" t="s">
         <v>579</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="145" customHeight="1">
       <c r="B18" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="66" t="s">
         <v>582</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="E18" s="78" t="s">
         <v>583</v>
       </c>
-      <c r="E18" s="99" t="s">
-        <v>584</v>
-      </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="E19" s="78" t="s">
         <v>587</v>
       </c>
-      <c r="E19" s="99" t="s">
-        <v>588</v>
-      </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
     </row>
     <row r="20" spans="2:13" ht="29">
       <c r="B20" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>589</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="14" t="s">
         <v>590</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="238" customHeight="1">
       <c r="B21" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>593</v>
-      </c>
       <c r="D21" s="66" t="s">
+        <v>757</v>
+      </c>
+      <c r="E21" s="78" t="s">
         <v>758</v>
       </c>
-      <c r="E21" s="99" t="s">
-        <v>759</v>
-      </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -34671,16 +34763,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
-  <dimension ref="B2:D65"/>
+  <dimension ref="B2:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="27"/>
-    <col min="2" max="2" width="50.90625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="54.08984375" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.54296875" style="27" customWidth="1"/>
     <col min="4" max="4" width="56.453125" style="27" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="27"/>
@@ -34688,147 +34780,147 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="60" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="27" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C5" s="43" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>597</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C6" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>595</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C7" s="43" t="s">
+        <v>598</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>599</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C8" s="43" t="s">
+        <v>600</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>601</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="45" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C10" s="43" t="s">
+        <v>603</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>604</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="60" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="27" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C14" s="43" t="s">
+        <v>720</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>721</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="27" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C15" s="43" t="s">
+        <v>606</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>607</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="C16" s="71" t="s">
+        <v>787</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>785</v>
+      </c>
+      <c r="D16" s="69" t="s">
         <v>786</v>
       </c>
-      <c r="D16" s="70" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" s="97" customFormat="1">
-      <c r="B17" s="97" t="s">
+    </row>
+    <row r="17" spans="2:4" s="74" customFormat="1">
+      <c r="B17" s="74" t="s">
+        <v>794</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>793</v>
+      </c>
+      <c r="D17" s="72" t="s">
         <v>795</v>
       </c>
-      <c r="C17" s="96" t="s">
-        <v>794</v>
-      </c>
-      <c r="D17" s="94" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="97" customFormat="1">
-      <c r="C18" s="96"/>
-      <c r="D18" s="94"/>
+    </row>
+    <row r="18" spans="2:4" s="74" customFormat="1">
+      <c r="C18" s="73"/>
+      <c r="D18" s="72"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="60" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="C21" s="43" t="s">
         <v>622</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="D21" s="61" t="s">
         <v>623</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -34836,40 +34928,40 @@
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="60" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C25" s="43" t="s">
+        <v>616</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>617</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C26" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>627</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C27" s="43" t="s">
+        <v>619</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>620</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -34881,246 +34973,291 @@
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="110" t="s">
+        <v>789</v>
+      </c>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="100" t="s">
+        <v>764</v>
+      </c>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="94" t="s">
+        <v>762</v>
+      </c>
+      <c r="C32" s="103"/>
+      <c r="D32" s="94"/>
+    </row>
+    <row r="33" spans="2:4" s="71" customFormat="1" ht="29">
+      <c r="B33" s="97" t="s">
+        <v>763</v>
+      </c>
+      <c r="C33" s="101"/>
+      <c r="D33" s="100"/>
+    </row>
+    <row r="34" spans="2:4" s="71" customFormat="1">
+      <c r="B34" s="104" t="s">
+        <v>765</v>
+      </c>
+      <c r="C34" s="103"/>
+      <c r="D34" s="94"/>
+    </row>
+    <row r="35" spans="2:4" s="71" customFormat="1">
+      <c r="B35" s="97" t="s">
+        <v>766</v>
+      </c>
+      <c r="C35" s="101"/>
+      <c r="D35" s="100"/>
+    </row>
+    <row r="36" spans="2:4" s="71" customFormat="1">
+      <c r="B36" s="104" t="s">
+        <v>767</v>
+      </c>
+      <c r="C36" s="103"/>
+      <c r="D36" s="94"/>
+    </row>
+    <row r="37" spans="2:4" s="71" customFormat="1" ht="29">
+      <c r="B37" s="97" t="s">
+        <v>768</v>
+      </c>
+      <c r="C37" s="101"/>
+      <c r="D37" s="100"/>
+    </row>
+    <row r="38" spans="2:4" s="71" customFormat="1" ht="29">
+      <c r="B38" s="105" t="s">
+        <v>772</v>
+      </c>
+      <c r="C38" s="95" t="s">
+        <v>769</v>
+      </c>
+      <c r="D38" s="96" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" s="71" customFormat="1">
+      <c r="B39" s="106" t="s">
+        <v>771</v>
+      </c>
+      <c r="C39" s="98" t="s">
+        <v>616</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="71" customFormat="1">
+      <c r="B40" s="105" t="s">
+        <v>773</v>
+      </c>
+      <c r="C40" s="95" t="s">
+        <v>774</v>
+      </c>
+      <c r="D40" s="107" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="71" customFormat="1" ht="43.5">
+      <c r="B41" s="106" t="s">
+        <v>777</v>
+      </c>
+      <c r="C41" s="98" t="s">
+        <v>778</v>
+      </c>
+      <c r="D41" s="93" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="71" customFormat="1" ht="58">
+      <c r="B42" s="105" t="s">
+        <v>782</v>
+      </c>
+      <c r="C42" s="95" t="s">
+        <v>779</v>
+      </c>
+      <c r="D42" s="107" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" s="71" customFormat="1" ht="29">
+      <c r="B43" s="106" t="s">
         <v>790</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="105"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="75" t="s">
-        <v>765</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="85" t="s">
-        <v>763</v>
-      </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-    </row>
-    <row r="33" spans="2:4" s="72" customFormat="1" ht="29">
-      <c r="B33" s="79" t="s">
-        <v>764</v>
-      </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="78"/>
-    </row>
-    <row r="34" spans="2:4" s="72" customFormat="1">
-      <c r="B34" s="88" t="s">
-        <v>766</v>
-      </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-    </row>
-    <row r="35" spans="2:4" s="72" customFormat="1">
-      <c r="B35" s="79" t="s">
-        <v>767</v>
-      </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="78"/>
-    </row>
-    <row r="36" spans="2:4" s="72" customFormat="1">
-      <c r="B36" s="88" t="s">
-        <v>768</v>
-      </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="87"/>
-    </row>
-    <row r="37" spans="2:4" s="72" customFormat="1" ht="29">
-      <c r="B37" s="79" t="s">
-        <v>769</v>
-      </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="78"/>
-    </row>
-    <row r="38" spans="2:4" s="72" customFormat="1" ht="29">
-      <c r="B38" s="89" t="s">
-        <v>773</v>
-      </c>
-      <c r="C38" s="90" t="s">
-        <v>770</v>
-      </c>
-      <c r="D38" s="91" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" s="72" customFormat="1">
-      <c r="B39" s="80" t="s">
-        <v>772</v>
-      </c>
-      <c r="C39" s="81" t="s">
-        <v>617</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="72" customFormat="1">
-      <c r="B40" s="89" t="s">
-        <v>774</v>
-      </c>
-      <c r="C40" s="90" t="s">
-        <v>775</v>
-      </c>
-      <c r="D40" s="92" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" s="72" customFormat="1" ht="43.5">
-      <c r="B41" s="80" t="s">
-        <v>778</v>
-      </c>
-      <c r="C41" s="81" t="s">
-        <v>779</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" s="72" customFormat="1" ht="58">
-      <c r="B42" s="89" t="s">
+      <c r="C43" s="98" t="s">
         <v>783</v>
       </c>
-      <c r="C42" s="90" t="s">
-        <v>780</v>
-      </c>
-      <c r="D42" s="92" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" s="72" customFormat="1" ht="29">
-      <c r="B43" s="82" t="s">
-        <v>791</v>
-      </c>
-      <c r="C43" s="83" t="s">
+      <c r="D43" s="108" t="s">
         <v>784</v>
       </c>
-      <c r="D43" s="84" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" s="72" customFormat="1">
+    </row>
+    <row r="44" spans="2:4" s="71" customFormat="1">
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="69"/>
+      <c r="D44" s="68"/>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="60" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="60" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="C51" s="43" t="s">
         <v>713</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="29">
       <c r="B52" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="C52" s="39" t="s">
         <v>715</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="C53" s="43" t="s">
         <v>717</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="29">
       <c r="B54" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="C54" s="80" t="s">
         <v>719</v>
       </c>
-      <c r="C54" s="101" t="s">
-        <v>720</v>
-      </c>
-      <c r="D54" s="102"/>
+      <c r="D54" s="81"/>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="60" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="27" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="110" t="s">
+        <v>759</v>
+      </c>
+      <c r="C61" s="110"/>
+      <c r="D61" s="110"/>
+    </row>
+    <row r="62" spans="2:4" s="67" customFormat="1" ht="217.5">
+      <c r="B62" s="91" t="s">
+        <v>761</v>
+      </c>
+      <c r="C62" s="92" t="s">
+        <v>791</v>
+      </c>
+      <c r="D62" s="93" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="29">
+      <c r="B63" s="94"/>
+      <c r="C63" s="95" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" s="68" customFormat="1" ht="217.5">
-      <c r="B62" s="73" t="s">
-        <v>762</v>
-      </c>
-      <c r="C62" s="67" t="s">
-        <v>792</v>
-      </c>
-      <c r="D62" s="74" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" ht="29">
-      <c r="C63" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D63" s="74" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="58">
-      <c r="B64" s="98" t="s">
+      <c r="D63" s="96" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="72.5">
+      <c r="B64" s="97" t="s">
+        <v>799</v>
+      </c>
+      <c r="C64" s="98" t="s">
         <v>800</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>801</v>
       </c>
       <c r="D64" s="93" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="29">
-      <c r="B65" s="95" t="s">
+      <c r="B65" s="99" t="s">
+        <v>796</v>
+      </c>
+      <c r="C65" s="95" t="s">
         <v>797</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="96" t="s">
         <v>798</v>
       </c>
-      <c r="D65" s="93" t="s">
-        <v>799</v>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="109" t="s">
+        <v>803</v>
+      </c>
+      <c r="C68" s="109"/>
+      <c r="D68" s="109"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="76" t="s">
+        <v>804</v>
+      </c>
+      <c r="C69" s="76" t="s">
+        <v>804</v>
+      </c>
+      <c r="D69" s="75" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="76" t="s">
+        <v>808</v>
+      </c>
+      <c r="C70" s="76" t="s">
+        <v>806</v>
+      </c>
+      <c r="D70" s="75" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="29">
+      <c r="B71" s="77" t="s">
+        <v>809</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D71" s="75" t="s">
+        <v>811</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B68:D68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -35146,12 +35283,12 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="C3" s="39" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -35159,10 +35296,10 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -35171,7 +35308,7 @@
     </row>
     <row r="7" spans="2:4" ht="29">
       <c r="B7" s="46" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C7" s="43"/>
     </row>
@@ -35211,54 +35348,54 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="101.5" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -35289,24 +35426,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B2" s="107" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" s="107"/>
+        <v>317</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="83"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="108" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="84" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -35314,311 +35451,311 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="109" t="s">
-        <v>323</v>
-      </c>
-      <c r="B6" s="109"/>
+      <c r="A6" s="85" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="72.5">
       <c r="A10" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>310</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>315</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29">
       <c r="A18" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="C18" s="20" t="s">
         <v>356</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="C19" s="20" t="s">
         <v>390</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="58">
       <c r="A20" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="C20" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>371</v>
-      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="106" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
+      <c r="A22" s="82" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="106" t="s">
-        <v>320</v>
-      </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
+      <c r="A23" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="106" t="s">
-        <v>324</v>
-      </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
+      <c r="A24" s="82" t="s">
+        <v>323</v>
+      </c>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="82" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="106" t="s">
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="82" t="s">
         <v>327</v>
       </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="106" t="s">
-        <v>328</v>
-      </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="106" t="s">
+      <c r="A28" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="82" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="106" t="s">
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="107" t="s">
-        <v>332</v>
-      </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="107" t="s">
+      <c r="A31" s="83" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="82" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="106" t="s">
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="82" t="s">
         <v>341</v>
       </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="106" t="s">
-        <v>342</v>
-      </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E85B1F9-B664-4B0B-9E8B-7C1D3A5C0A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B52207-E42C-44D4-9315-EAE4D6D0BCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="814">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -26713,9 +26713,6 @@
   </si>
   <si>
     <t>git pull origin main</t>
-  </si>
-  <si>
-    <t>OVERWRITE LOCAL REPO WITH REMOTE REPO</t>
   </si>
   <si>
     <t>CREATE NEW LOCAL REPO FROM REMOTE REPO</t>
@@ -30847,6 +30844,12 @@
   </si>
   <si>
     <t>grep -r Washing *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERWRITE LOCAL REPO WITH REMOTE REPO </t>
+  </si>
+  <si>
+    <t>CD to local main github folder</t>
   </si>
 </sst>
 </file>
@@ -31040,7 +31043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -31263,44 +31266,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -31356,11 +31323,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -31954,7 +31963,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="107" t="s">
         <v>413</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -31968,7 +31977,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="72.5">
-      <c r="A9" s="86"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="6" t="s">
         <v>402</v>
       </c>
@@ -31980,7 +31989,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="29">
-      <c r="A10" s="86"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="6" t="s">
         <v>403</v>
       </c>
@@ -31992,7 +32001,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.5">
-      <c r="A11" s="86"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="6" t="s">
         <v>405</v>
       </c>
@@ -32004,7 +32013,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="43.5">
-      <c r="A12" s="86"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="47" t="s">
         <v>407</v>
       </c>
@@ -32021,7 +32030,7 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="43.5">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="108" t="s">
         <v>414</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -32035,7 +32044,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="72.5">
-      <c r="A16" s="87"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="8" t="s">
         <v>412</v>
       </c>
@@ -32047,7 +32056,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="87">
-      <c r="A17" s="87"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="8" t="s">
         <v>517</v>
       </c>
@@ -32059,7 +32068,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="87">
-      <c r="A18" s="87"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="8" t="s">
         <v>518</v>
       </c>
@@ -32071,7 +32080,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="58">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="108" t="s">
         <v>414</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -32085,7 +32094,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="58">
-      <c r="A20" s="87"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="11" t="s">
         <v>526</v>
       </c>
@@ -32097,7 +32106,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="101.5">
-      <c r="A21" s="87"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="11" t="s">
         <v>529</v>
       </c>
@@ -32109,7 +32118,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="58">
-      <c r="A22" s="87"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="55" t="s">
         <v>531</v>
       </c>
@@ -32458,38 +32467,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="109" t="s">
         <v>688</v>
       </c>
-      <c r="D19" s="88"/>
+      <c r="D19" s="109"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="109" t="s">
         <v>689</v>
       </c>
-      <c r="D20" s="88"/>
+      <c r="D20" s="109"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="109" t="s">
         <v>690</v>
       </c>
-      <c r="D21" s="88"/>
+      <c r="D21" s="109"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="109" t="s">
         <v>691</v>
       </c>
-      <c r="D22" s="88"/>
+      <c r="D22" s="109"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="109" t="s">
         <v>692</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="109"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -32502,38 +32511,38 @@
       <c r="B25" s="63" t="s">
         <v>694</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="109" t="s">
         <v>695</v>
       </c>
-      <c r="D25" s="88"/>
+      <c r="D25" s="109"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="109" t="s">
         <v>696</v>
       </c>
-      <c r="D26" s="88"/>
+      <c r="D26" s="109"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="109" t="s">
         <v>697</v>
       </c>
-      <c r="D27" s="88"/>
+      <c r="D27" s="109"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="109" t="s">
         <v>698</v>
       </c>
-      <c r="D28" s="88"/>
+      <c r="D28" s="109"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="109" t="s">
         <v>699</v>
       </c>
-      <c r="D29" s="88"/>
+      <c r="D29" s="109"/>
     </row>
     <row r="30" spans="2:4" ht="39">
       <c r="B30" s="27" t="s">
@@ -32593,38 +32602,38 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="120" customHeight="1">
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="99" t="s">
         <v>708</v>
       </c>
-      <c r="D4" s="80"/>
+      <c r="D4" s="99"/>
     </row>
     <row r="5" spans="2:4" ht="75" customHeight="1">
-      <c r="C5" s="80" t="s">
-        <v>739</v>
-      </c>
-      <c r="D5" s="80"/>
+      <c r="C5" s="99" t="s">
+        <v>738</v>
+      </c>
+      <c r="D5" s="99"/>
     </row>
     <row r="6" spans="2:4" ht="90" customHeight="1">
-      <c r="C6" s="80" t="s">
-        <v>737</v>
-      </c>
-      <c r="D6" s="80"/>
+      <c r="C6" s="99" t="s">
+        <v>736</v>
+      </c>
+      <c r="D6" s="99"/>
     </row>
     <row r="7" spans="2:4" ht="75" customHeight="1">
-      <c r="C7" s="80" t="s">
-        <v>727</v>
-      </c>
-      <c r="D7" s="80"/>
+      <c r="C7" s="99" t="s">
+        <v>726</v>
+      </c>
+      <c r="D7" s="99"/>
     </row>
     <row r="9" spans="2:4" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="D9" s="26" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="29">
@@ -32632,18 +32641,18 @@
         <v>706</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="72.5">
       <c r="B11" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>710</v>
@@ -32654,74 +32663,74 @@
         <v>709</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="87">
       <c r="B13" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="29">
       <c r="B14" s="46" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>734</v>
-      </c>
       <c r="D14" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="87">
       <c r="B15" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="105" customHeight="1">
       <c r="B16" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>749</v>
-      </c>
       <c r="D16" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="180" customHeight="1">
       <c r="B17" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="E17" s="110" t="s">
         <v>753</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>755</v>
-      </c>
-      <c r="E17" s="89" t="s">
-        <v>754</v>
-      </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -33088,12 +33097,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="111" t="s">
         <v>358</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -33101,11 +33110,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -33123,19 +33132,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="111" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="27" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="111" t="s">
         <v>365</v>
       </c>
-      <c r="C12" s="90"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="27" t="s">
         <v>367</v>
       </c>
@@ -33172,7 +33181,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="29">
       <c r="B4" s="39" t="s">
         <v>418</v>
       </c>
@@ -33400,7 +33409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B4C89-AE87-4187-8C18-5F20544A3D88}">
   <dimension ref="A3:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -33528,7 +33537,7 @@
         <v>274</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>215</v>
@@ -34686,14 +34695,14 @@
       <c r="D18" s="66" t="s">
         <v>582</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="97" t="s">
         <v>583</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
     </row>
     <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
@@ -34705,17 +34714,17 @@
       <c r="D19" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="97" t="s">
         <v>587</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
     </row>
     <row r="20" spans="2:13" ht="29">
       <c r="B20" s="7" t="s">
@@ -34736,19 +34745,19 @@
         <v>592</v>
       </c>
       <c r="D21" s="66" t="s">
+        <v>756</v>
+      </c>
+      <c r="E21" s="97" t="s">
         <v>757</v>
       </c>
-      <c r="E21" s="78" t="s">
-        <v>758</v>
-      </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -34763,10 +34772,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
-  <dimension ref="B2:D71"/>
+  <dimension ref="B2:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -34861,7 +34870,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="27" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>720</v>
@@ -34883,24 +34892,24 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C16" s="70" t="s">
+        <v>784</v>
+      </c>
+      <c r="D16" s="69" t="s">
         <v>785</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="74" customFormat="1">
       <c r="B17" s="74" t="s">
+        <v>793</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>792</v>
+      </c>
+      <c r="D17" s="72" t="s">
         <v>794</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>793</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="74" customFormat="1">
@@ -34909,355 +34918,360 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="60" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="27" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="78" customFormat="1">
+      <c r="B21" s="112" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C22" s="43" t="s">
         <v>622</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D22" s="61" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="60"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="60" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="60"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="60" t="s">
         <v>722</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="27" t="s">
-        <v>618</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>616</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C28" s="43" t="s">
         <v>619</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D28" s="21" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="C28" s="43"/>
-      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="2:4">
       <c r="C29" s="43"/>
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="110" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="101" t="s">
+        <v>788</v>
+      </c>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="88" t="s">
+        <v>763</v>
+      </c>
+      <c r="C32" s="89"/>
+      <c r="D32" s="90"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="82" t="s">
+        <v>761</v>
+      </c>
+      <c r="C33" s="91"/>
+      <c r="D33" s="82"/>
+    </row>
+    <row r="34" spans="2:4" s="71" customFormat="1" ht="29">
+      <c r="B34" s="85" t="s">
+        <v>762</v>
+      </c>
+      <c r="C34" s="89"/>
+      <c r="D34" s="88"/>
+    </row>
+    <row r="35" spans="2:4" s="71" customFormat="1">
+      <c r="B35" s="92" t="s">
+        <v>764</v>
+      </c>
+      <c r="C35" s="91"/>
+      <c r="D35" s="82"/>
+    </row>
+    <row r="36" spans="2:4" s="71" customFormat="1">
+      <c r="B36" s="85" t="s">
+        <v>765</v>
+      </c>
+      <c r="C36" s="89"/>
+      <c r="D36" s="88"/>
+    </row>
+    <row r="37" spans="2:4" s="71" customFormat="1">
+      <c r="B37" s="92" t="s">
+        <v>766</v>
+      </c>
+      <c r="C37" s="91"/>
+      <c r="D37" s="82"/>
+    </row>
+    <row r="38" spans="2:4" s="71" customFormat="1" ht="29">
+      <c r="B38" s="85" t="s">
+        <v>767</v>
+      </c>
+      <c r="C38" s="89"/>
+      <c r="D38" s="88"/>
+    </row>
+    <row r="39" spans="2:4" s="71" customFormat="1" ht="29">
+      <c r="B39" s="93" t="s">
+        <v>771</v>
+      </c>
+      <c r="C39" s="83" t="s">
+        <v>768</v>
+      </c>
+      <c r="D39" s="84" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="71" customFormat="1">
+      <c r="B40" s="94" t="s">
+        <v>770</v>
+      </c>
+      <c r="C40" s="86" t="s">
+        <v>616</v>
+      </c>
+      <c r="D40" s="81" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="71" customFormat="1">
+      <c r="B41" s="93" t="s">
+        <v>772</v>
+      </c>
+      <c r="C41" s="83" t="s">
+        <v>773</v>
+      </c>
+      <c r="D41" s="95" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="71" customFormat="1" ht="43.5">
+      <c r="B42" s="94" t="s">
+        <v>776</v>
+      </c>
+      <c r="C42" s="86" t="s">
+        <v>777</v>
+      </c>
+      <c r="D42" s="81" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" s="71" customFormat="1" ht="58">
+      <c r="B43" s="93" t="s">
+        <v>781</v>
+      </c>
+      <c r="C43" s="83" t="s">
+        <v>778</v>
+      </c>
+      <c r="D43" s="95" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" s="71" customFormat="1" ht="29">
+      <c r="B44" s="94" t="s">
         <v>789</v>
       </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="100" t="s">
-        <v>764</v>
-      </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="94" t="s">
-        <v>762</v>
-      </c>
-      <c r="C32" s="103"/>
-      <c r="D32" s="94"/>
-    </row>
-    <row r="33" spans="2:4" s="71" customFormat="1" ht="29">
-      <c r="B33" s="97" t="s">
-        <v>763</v>
-      </c>
-      <c r="C33" s="101"/>
-      <c r="D33" s="100"/>
-    </row>
-    <row r="34" spans="2:4" s="71" customFormat="1">
-      <c r="B34" s="104" t="s">
-        <v>765</v>
-      </c>
-      <c r="C34" s="103"/>
-      <c r="D34" s="94"/>
-    </row>
-    <row r="35" spans="2:4" s="71" customFormat="1">
-      <c r="B35" s="97" t="s">
-        <v>766</v>
-      </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="100"/>
-    </row>
-    <row r="36" spans="2:4" s="71" customFormat="1">
-      <c r="B36" s="104" t="s">
-        <v>767</v>
-      </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="94"/>
-    </row>
-    <row r="37" spans="2:4" s="71" customFormat="1" ht="29">
-      <c r="B37" s="97" t="s">
-        <v>768</v>
-      </c>
-      <c r="C37" s="101"/>
-      <c r="D37" s="100"/>
-    </row>
-    <row r="38" spans="2:4" s="71" customFormat="1" ht="29">
-      <c r="B38" s="105" t="s">
-        <v>772</v>
-      </c>
-      <c r="C38" s="95" t="s">
-        <v>769</v>
-      </c>
-      <c r="D38" s="96" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" s="71" customFormat="1">
-      <c r="B39" s="106" t="s">
-        <v>771</v>
-      </c>
-      <c r="C39" s="98" t="s">
-        <v>616</v>
-      </c>
-      <c r="D39" s="93" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="71" customFormat="1">
-      <c r="B40" s="105" t="s">
-        <v>773</v>
-      </c>
-      <c r="C40" s="95" t="s">
-        <v>774</v>
-      </c>
-      <c r="D40" s="107" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" s="71" customFormat="1" ht="43.5">
-      <c r="B41" s="106" t="s">
-        <v>777</v>
-      </c>
-      <c r="C41" s="98" t="s">
-        <v>778</v>
-      </c>
-      <c r="D41" s="93" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" s="71" customFormat="1" ht="58">
-      <c r="B42" s="105" t="s">
+      <c r="C44" s="86" t="s">
         <v>782</v>
       </c>
-      <c r="C42" s="95" t="s">
-        <v>779</v>
-      </c>
-      <c r="D42" s="107" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" s="71" customFormat="1" ht="29">
-      <c r="B43" s="106" t="s">
+      <c r="D44" s="96" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" s="71" customFormat="1">
+      <c r="B45" s="6"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="68"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="60" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="60" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="29">
+      <c r="B53" s="38" t="s">
+        <v>714</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="29">
+      <c r="B55" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="C55" s="99" t="s">
+        <v>719</v>
+      </c>
+      <c r="D55" s="100"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="60" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="101" t="s">
+        <v>758</v>
+      </c>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+    </row>
+    <row r="63" spans="2:4" s="67" customFormat="1" ht="217.5">
+      <c r="B63" s="79" t="s">
+        <v>760</v>
+      </c>
+      <c r="C63" s="80" t="s">
         <v>790</v>
       </c>
-      <c r="C43" s="98" t="s">
-        <v>783</v>
-      </c>
-      <c r="D43" s="108" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" s="71" customFormat="1">
-      <c r="B44" s="6"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="68"/>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="60" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="60" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="29">
-      <c r="B52" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="27" t="s">
-        <v>716</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="29">
-      <c r="B54" s="38" t="s">
-        <v>718</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>719</v>
-      </c>
-      <c r="D54" s="81"/>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="60" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="27" t="s">
-        <v>746</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="110" t="s">
+      <c r="D63" s="81" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="29">
+      <c r="B64" s="82"/>
+      <c r="C64" s="83" t="s">
         <v>759</v>
       </c>
-      <c r="C61" s="110"/>
-      <c r="D61" s="110"/>
-    </row>
-    <row r="62" spans="2:4" s="67" customFormat="1" ht="217.5">
-      <c r="B62" s="91" t="s">
-        <v>761</v>
-      </c>
-      <c r="C62" s="92" t="s">
-        <v>791</v>
-      </c>
-      <c r="D62" s="93" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" ht="29">
-      <c r="B63" s="94"/>
-      <c r="C63" s="95" t="s">
-        <v>760</v>
-      </c>
-      <c r="D63" s="96" t="s">
+      <c r="D64" s="84" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="72.5">
+      <c r="B65" s="85" t="s">
+        <v>798</v>
+      </c>
+      <c r="C65" s="86" t="s">
+        <v>799</v>
+      </c>
+      <c r="D65" s="81" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="72.5">
-      <c r="B64" s="97" t="s">
-        <v>799</v>
-      </c>
-      <c r="C64" s="98" t="s">
-        <v>800</v>
-      </c>
-      <c r="D64" s="93" t="s">
+    <row r="66" spans="2:4" ht="29">
+      <c r="B66" s="87" t="s">
+        <v>795</v>
+      </c>
+      <c r="C66" s="83" t="s">
+        <v>796</v>
+      </c>
+      <c r="D66" s="84" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="102" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" ht="29">
-      <c r="B65" s="99" t="s">
-        <v>796</v>
-      </c>
-      <c r="C65" s="95" t="s">
-        <v>797</v>
-      </c>
-      <c r="D65" s="96" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="109" t="s">
-        <v>803</v>
-      </c>
-      <c r="C68" s="109"/>
-      <c r="D68" s="109"/>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="76" t="s">
-        <v>804</v>
-      </c>
-      <c r="C69" s="76" t="s">
-        <v>804</v>
-      </c>
-      <c r="D69" s="75" t="s">
-        <v>805</v>
-      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="76" t="s">
+        <v>803</v>
+      </c>
+      <c r="C70" s="76" t="s">
+        <v>803</v>
+      </c>
+      <c r="D70" s="75" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="76" t="s">
+        <v>807</v>
+      </c>
+      <c r="C71" s="76" t="s">
+        <v>805</v>
+      </c>
+      <c r="D71" s="75" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="29">
+      <c r="B72" s="77" t="s">
         <v>808</v>
       </c>
-      <c r="C70" s="76" t="s">
-        <v>806</v>
-      </c>
-      <c r="D70" s="75" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="29">
-      <c r="B71" s="77" t="s">
+      <c r="C72" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D72" s="75" t="s">
         <v>810</v>
-      </c>
-      <c r="D71" s="75" t="s">
-        <v>811</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B69:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -35433,17 +35447,17 @@
       <c r="A2" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="104" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="83"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="105" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -35451,10 +35465,10 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="106" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="85"/>
+      <c r="B6" s="106"/>
     </row>
     <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="35" t="s">
@@ -35583,88 +35597,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="103" t="s">
         <v>316</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="103" t="s">
         <v>319</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="103" t="s">
         <v>323</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="104" t="s">
         <v>331</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="104" t="s">
         <v>339</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="103" t="s">
         <v>341</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoyle\github\Linux-cmds-cheat-sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B52207-E42C-44D4-9315-EAE4D6D0BCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5946E5B-399D-4889-B348-6F37DD328DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="815">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -26485,143 +26485,6 @@
   </si>
   <si>
     <t>fetch all remote repo differences</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">host firewall installed by default on Linux systems. 
-It uses 3 lists or 'chains':
-Input chain: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>list that</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>controls behavior for incoming connections</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Forward chain: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">list that controls incoming connections not meant for the local system but rather just being passed through or 'forwarded' on to another destination
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Output chain: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">list that controls how data being sent </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">out </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">of the local host to another destination is handled
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">IMPORTANT: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>almost all connections need to talk back and forth, so both 'input' and 'output' chains are used!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://www.howtogeek.com/177621/the-beginners-guide-to-iptables-the-linux-firewall/</t>
-    </r>
   </si>
   <si>
     <r>
@@ -30850,6 +30713,152 @@
   </si>
   <si>
     <t>CD to local main github folder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">host firewall installed by default on Linux systems
+(packet filter rules in Linux kernel)
+It uses 3 lists or 'chains':
+Input chain: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list that</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>controls behavior for incoming connections</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Forward chain: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">list that controls incoming connections not meant for the local system but rather just being passed through or 'forwarded' on to another destination
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Output chain: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">list that controls how data being sent </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">of the local host to another destination is handled
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IMPORTANT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>almost all connections need to talk back and forth, so both 'input' and 'output' chains are used!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.howtogeek.com/177621/the-beginners-guide-to-iptables-the-linux-firewall/</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">setup, maintain, and inspect the tables of packet filter rules in the Linux kernel.
+A table consists of a number of built-in 'chains' and may also contain user-defined 'chains'.
+A chain contains a list of 'rules' that specify what to do with a packet it matches.
+A 'target' is what action is taken with a packet that matches a 'rule'.
+A 'target' may be a 'jump' (go-to action) to a user-defined 'chain' in the same 'table'
+</t>
   </si>
 </sst>
 </file>
@@ -31043,7 +31052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -31233,43 +31242,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -31295,9 +31268,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -31367,9 +31337,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -31692,11 +31659,11 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -31731,7 +31698,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="7" t="s">
         <v>63</v>
       </c>
@@ -31742,7 +31709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="159.5">
+    <row r="9" spans="1:3" ht="165">
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
@@ -31753,7 +31720,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="59.5" customHeight="1">
+    <row r="10" spans="1:3" ht="59.45" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>82</v>
       </c>
@@ -31764,7 +31731,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="58">
+    <row r="11" spans="1:3" ht="60">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -31775,7 +31742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="58">
+    <row r="12" spans="1:3" ht="60">
       <c r="A12" s="8" t="s">
         <v>68</v>
       </c>
@@ -31797,7 +31764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" s="8" t="s">
         <v>170</v>
       </c>
@@ -31808,7 +31775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="8" t="s">
         <v>169</v>
       </c>
@@ -31841,7 +31808,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
@@ -31899,11 +31866,11 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="4" width="55.7265625" customWidth="1"/>
-    <col min="5" max="5" width="59.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="4" width="55.7109375" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -31913,7 +31880,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:13" ht="101.5">
+    <row r="3" spans="1:13" ht="120">
       <c r="A3" s="28"/>
       <c r="B3" s="3"/>
       <c r="C3" s="39" t="s">
@@ -31963,7 +31930,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="94" t="s">
         <v>413</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -31976,8 +31943,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="72.5">
-      <c r="A9" s="107"/>
+    <row r="9" spans="1:13" ht="75">
+      <c r="A9" s="94"/>
       <c r="B9" s="6" t="s">
         <v>402</v>
       </c>
@@ -31988,8 +31955,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="29">
-      <c r="A10" s="107"/>
+    <row r="10" spans="1:13" ht="30">
+      <c r="A10" s="94"/>
       <c r="B10" s="6" t="s">
         <v>403</v>
       </c>
@@ -32000,8 +31967,8 @@
         <v>513</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.5">
-      <c r="A11" s="107"/>
+    <row r="11" spans="1:13" ht="45">
+      <c r="A11" s="94"/>
       <c r="B11" s="6" t="s">
         <v>405</v>
       </c>
@@ -32012,8 +31979,8 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.5">
-      <c r="A12" s="107"/>
+    <row r="12" spans="1:13" ht="45">
+      <c r="A12" s="94"/>
       <c r="B12" s="47" t="s">
         <v>407</v>
       </c>
@@ -32029,8 +31996,8 @@
       <c r="C14" s="9"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:13" ht="43.5">
-      <c r="A15" s="108" t="s">
+    <row r="15" spans="1:13" ht="60">
+      <c r="A15" s="95" t="s">
         <v>414</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -32043,8 +32010,8 @@
         <v>411</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="72.5">
-      <c r="A16" s="108"/>
+    <row r="16" spans="1:13" ht="75">
+      <c r="A16" s="95"/>
       <c r="B16" s="8" t="s">
         <v>412</v>
       </c>
@@ -32055,8 +32022,8 @@
         <v>522</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="87">
-      <c r="A17" s="108"/>
+    <row r="17" spans="1:13" ht="105">
+      <c r="A17" s="95"/>
       <c r="B17" s="8" t="s">
         <v>517</v>
       </c>
@@ -32067,8 +32034,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="87">
-      <c r="A18" s="108"/>
+    <row r="18" spans="1:13" ht="105">
+      <c r="A18" s="95"/>
       <c r="B18" s="8" t="s">
         <v>518</v>
       </c>
@@ -32079,8 +32046,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="58">
-      <c r="A19" s="108" t="s">
+    <row r="19" spans="1:13" ht="60">
+      <c r="A19" s="95" t="s">
         <v>414</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -32093,8 +32060,8 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="58">
-      <c r="A20" s="108"/>
+    <row r="20" spans="1:13" ht="60">
+      <c r="A20" s="95"/>
       <c r="B20" s="11" t="s">
         <v>526</v>
       </c>
@@ -32105,8 +32072,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="101.5">
-      <c r="A21" s="108"/>
+    <row r="21" spans="1:13" ht="105">
+      <c r="A21" s="95"/>
       <c r="B21" s="11" t="s">
         <v>529</v>
       </c>
@@ -32117,8 +32084,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="58">
-      <c r="A22" s="108"/>
+    <row r="22" spans="1:13" ht="60">
+      <c r="A22" s="95"/>
       <c r="B22" s="55" t="s">
         <v>531</v>
       </c>
@@ -32151,7 +32118,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" ht="130.5">
+    <row r="25" spans="1:13" ht="150">
       <c r="B25" s="11" t="s">
         <v>537</v>
       </c>
@@ -32173,7 +32140,7 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" ht="145">
+    <row r="26" spans="1:13" ht="150">
       <c r="A26" s="28"/>
       <c r="B26" s="11" t="s">
         <v>628</v>
@@ -32196,7 +32163,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" ht="145">
+    <row r="27" spans="1:13" ht="165">
       <c r="B27" s="11" t="s">
         <v>631</v>
       </c>
@@ -32216,7 +32183,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" ht="200.15" customHeight="1">
+    <row r="28" spans="1:13" ht="200.1" customHeight="1">
       <c r="B28" s="11" t="s">
         <v>634</v>
       </c>
@@ -32252,7 +32219,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="211" customHeight="1">
+    <row r="30" spans="1:13" ht="210.95" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>642</v>
       </c>
@@ -32266,7 +32233,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="232">
+    <row r="31" spans="1:13" ht="270">
       <c r="B31" s="11" t="s">
         <v>646</v>
       </c>
@@ -32280,7 +32247,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="72.5">
+    <row r="32" spans="1:13" ht="75">
       <c r="B32" s="11" t="s">
         <v>650</v>
       </c>
@@ -32309,10 +32276,10 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="4" width="53.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="4" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4">
@@ -32467,38 +32434,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="96" t="s">
         <v>688</v>
       </c>
-      <c r="D19" s="109"/>
+      <c r="D19" s="96"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="96" t="s">
         <v>689</v>
       </c>
-      <c r="D20" s="109"/>
+      <c r="D20" s="96"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="96" t="s">
         <v>690</v>
       </c>
-      <c r="D21" s="109"/>
+      <c r="D21" s="96"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="96" t="s">
         <v>691</v>
       </c>
-      <c r="D22" s="109"/>
+      <c r="D22" s="96"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="96" t="s">
         <v>692</v>
       </c>
-      <c r="D23" s="109"/>
+      <c r="D23" s="96"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -32511,40 +32478,40 @@
       <c r="B25" s="63" t="s">
         <v>694</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="96" t="s">
         <v>695</v>
       </c>
-      <c r="D25" s="109"/>
+      <c r="D25" s="96"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="96" t="s">
         <v>696</v>
       </c>
-      <c r="D26" s="109"/>
+      <c r="D26" s="96"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="96" t="s">
         <v>697</v>
       </c>
-      <c r="D27" s="109"/>
+      <c r="D27" s="96"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="96" t="s">
         <v>698</v>
       </c>
-      <c r="D28" s="109"/>
+      <c r="D28" s="96"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="109" t="s">
+      <c r="C29" s="96" t="s">
         <v>699</v>
       </c>
-      <c r="D29" s="109"/>
-    </row>
-    <row r="30" spans="2:4" ht="39">
+      <c r="D29" s="96"/>
+    </row>
+    <row r="30" spans="2:4" ht="38.25">
       <c r="B30" s="27" t="s">
         <v>700</v>
       </c>
@@ -32581,164 +32548,176 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
-  <dimension ref="B3:J17"/>
+  <dimension ref="B3:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="27"/>
-    <col min="2" max="2" width="43.7265625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="51.81640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="56.7265625" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="27"/>
+    <col min="1" max="1" width="9.140625" style="27"/>
+    <col min="2" max="2" width="43.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:13">
       <c r="B3" s="43" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="120" customHeight="1">
-      <c r="C4" s="99" t="s">
-        <v>708</v>
-      </c>
-      <c r="D4" s="99"/>
-    </row>
-    <row r="5" spans="2:4" ht="75" customHeight="1">
-      <c r="C5" s="99" t="s">
+    <row r="4" spans="2:13" ht="120" customHeight="1">
+      <c r="C4" s="86" t="s">
+        <v>813</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="91" t="s">
+        <v>814</v>
+      </c>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+    </row>
+    <row r="5" spans="2:13" ht="75" customHeight="1">
+      <c r="C5" s="86" t="s">
+        <v>737</v>
+      </c>
+      <c r="D5" s="86"/>
+    </row>
+    <row r="6" spans="2:13" ht="90" customHeight="1">
+      <c r="C6" s="86" t="s">
+        <v>735</v>
+      </c>
+      <c r="D6" s="86"/>
+    </row>
+    <row r="7" spans="2:13" ht="75" customHeight="1">
+      <c r="C7" s="86" t="s">
+        <v>725</v>
+      </c>
+      <c r="D7" s="86"/>
+    </row>
+    <row r="9" spans="2:13" ht="75" customHeight="1">
+      <c r="B9" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="D5" s="99"/>
-    </row>
-    <row r="6" spans="2:4" ht="90" customHeight="1">
-      <c r="C6" s="99" t="s">
-        <v>736</v>
-      </c>
-      <c r="D6" s="99"/>
-    </row>
-    <row r="7" spans="2:4" ht="75" customHeight="1">
-      <c r="C7" s="99" t="s">
-        <v>726</v>
-      </c>
-      <c r="D7" s="99"/>
-    </row>
-    <row r="9" spans="2:4" ht="75" customHeight="1">
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>740</v>
-      </c>
       <c r="D9" s="26" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="29">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="30">
       <c r="B10" s="45" t="s">
         <v>706</v>
       </c>
       <c r="C10" s="43" t="s">
+        <v>726</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="75">
+      <c r="B11" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="60">
+      <c r="B12" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="72.5">
-      <c r="B11" s="8" t="s">
-        <v>725</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="13" spans="2:13" ht="90">
+      <c r="B13" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="58">
-      <c r="B12" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="87">
-      <c r="B13" s="8" t="s">
+      <c r="D13" s="19" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="30">
+      <c r="B14" s="46" t="s">
         <v>731</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="C14" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="90">
+      <c r="B15" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="105" customHeight="1">
+      <c r="B16" s="8" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" ht="29">
-      <c r="B14" s="46" t="s">
-        <v>732</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="87">
-      <c r="B15" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="C16" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>749</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="105" customHeight="1">
-      <c r="B16" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="180" customHeight="1">
       <c r="B17" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="E17" s="97" t="s">
         <v>752</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>754</v>
-      </c>
-      <c r="E17" s="110" t="s">
-        <v>753</v>
-      </c>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32753,16 +32732,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="27"/>
-    <col min="2" max="2" width="43.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.54296875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" style="27" customWidth="1"/>
-    <col min="7" max="8" width="40.54296875" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="8.85546875" style="27"/>
+    <col min="2" max="2" width="43.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" style="27" customWidth="1"/>
+    <col min="7" max="8" width="40.5703125" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
@@ -32775,7 +32754,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="29.5" customHeight="1">
+    <row r="5" spans="2:8" ht="29.45" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>465</v>
       </c>
@@ -32799,7 +32778,7 @@
       </c>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="2:8" ht="29.15" customHeight="1">
+    <row r="7" spans="2:8" ht="29.1" customHeight="1">
       <c r="C7" s="27" t="s">
         <v>464</v>
       </c>
@@ -32808,7 +32787,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="2:8" ht="43.5">
+    <row r="8" spans="2:8" ht="45">
       <c r="C8" s="27" t="s">
         <v>466</v>
       </c>
@@ -32825,7 +32804,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:8" ht="29">
+    <row r="11" spans="2:8" ht="30">
       <c r="B11" s="10" t="s">
         <v>476</v>
       </c>
@@ -32837,7 +32816,7 @@
       </c>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="2:8" ht="115.4" customHeight="1">
+    <row r="12" spans="2:8" ht="115.35" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>471</v>
       </c>
@@ -32849,7 +32828,7 @@
       </c>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="2:8" ht="43.5">
+    <row r="13" spans="2:8" ht="45">
       <c r="B13" s="46" t="s">
         <v>458</v>
       </c>
@@ -32861,7 +32840,7 @@
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="2:8" ht="29">
+    <row r="14" spans="2:8" ht="30">
       <c r="B14" s="46" t="s">
         <v>477</v>
       </c>
@@ -32873,7 +32852,7 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:8" ht="101.15" customHeight="1">
+    <row r="15" spans="2:8" ht="101.1" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>480</v>
       </c>
@@ -32885,7 +32864,7 @@
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="2:8" ht="72.5">
+    <row r="16" spans="2:8" ht="75">
       <c r="B16" s="8" t="s">
         <v>494</v>
       </c>
@@ -32908,7 +32887,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="58">
+    <row r="17" spans="2:8" ht="90">
       <c r="B17" s="8" t="s">
         <v>493</v>
       </c>
@@ -32923,7 +32902,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="2:8" ht="43.5">
+    <row r="18" spans="2:8" ht="45">
       <c r="B18" s="8" t="s">
         <v>490</v>
       </c>
@@ -32938,7 +32917,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="2:8" ht="72.5">
+    <row r="19" spans="2:8" ht="75">
       <c r="B19" s="8" t="s">
         <v>495</v>
       </c>
@@ -32953,7 +32932,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="2:8" ht="116">
+    <row r="20" spans="2:8" ht="120">
       <c r="B20" s="8" t="s">
         <v>500</v>
       </c>
@@ -32970,7 +32949,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="2:8" ht="43.4" customHeight="1">
+    <row r="21" spans="2:8" ht="43.35" customHeight="1">
       <c r="B21" s="8" t="s">
         <v>503</v>
       </c>
@@ -32985,7 +32964,7 @@
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="2:8" ht="87">
+    <row r="22" spans="2:8" ht="90">
       <c r="B22" s="8" t="s">
         <v>509</v>
       </c>
@@ -33000,7 +32979,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" ht="30">
       <c r="B23" s="8" t="s">
         <v>542</v>
       </c>
@@ -33029,7 +33008,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="2:8" ht="29">
+    <row r="26" spans="2:8" ht="30">
       <c r="B26" s="10" t="s">
         <v>504</v>
       </c>
@@ -33065,7 +33044,7 @@
       </c>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="2:8" ht="29">
+    <row r="30" spans="2:8" ht="30">
       <c r="B30" s="46" t="s">
         <v>508</v>
       </c>
@@ -33076,7 +33055,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="14.5" customHeight="1"/>
+    <row r="32" spans="2:8" ht="14.45" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
@@ -33091,18 +33070,18 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="98" t="s">
         <v>358</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -33110,11 +33089,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="90" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -33132,19 +33111,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="111"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="27" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="98" t="s">
         <v>365</v>
       </c>
-      <c r="C12" s="111"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="27" t="s">
         <v>367</v>
       </c>
@@ -33168,12 +33147,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="16.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -33181,13 +33160,13 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29">
+    <row r="4" spans="1:3" ht="30">
       <c r="B4" s="39" t="s">
         <v>418</v>
       </c>
       <c r="C4" s="38"/>
     </row>
-    <row r="6" spans="1:3" ht="87">
+    <row r="6" spans="1:3" ht="90">
       <c r="A6" s="44" t="s">
         <v>419</v>
       </c>
@@ -33212,12 +33191,12 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -33230,7 +33209,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="46" t="s">
         <v>429</v>
       </c>
@@ -33265,12 +33244,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -33283,7 +33262,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="46" t="s">
         <v>437</v>
       </c>
@@ -33294,7 +33273,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="46" t="s">
         <v>440</v>
       </c>
@@ -33318,12 +33297,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="38"/>
+    <col min="1" max="1" width="23.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -33331,12 +33310,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29">
+    <row r="4" spans="1:3" ht="30">
       <c r="B4" s="39" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="46" t="s">
         <v>445</v>
       </c>
@@ -33347,7 +33326,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="46" t="s">
         <v>447</v>
       </c>
@@ -33371,12 +33350,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="43.54296875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="54.54296875" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="23.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -33384,12 +33363,12 @@
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.5">
+    <row r="4" spans="1:3" ht="45">
       <c r="B4" s="39" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="46" t="s">
         <v>425</v>
       </c>
@@ -33413,12 +33392,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.453125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="63.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
@@ -33427,7 +33406,7 @@
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="43.5">
+    <row r="4" spans="1:4" ht="45">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -33448,7 +33427,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.5">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -33460,7 +33439,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="43.5">
+    <row r="8" spans="1:4" ht="45">
       <c r="A8" s="7" t="s">
         <v>87</v>
       </c>
@@ -33472,7 +33451,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="72.5">
+    <row r="9" spans="1:4" ht="90">
       <c r="A9" s="8" t="s">
         <v>269</v>
       </c>
@@ -33484,7 +33463,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="43.5">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -33496,7 +33475,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="58">
+    <row r="11" spans="1:4" ht="75">
       <c r="A11" s="8" t="s">
         <v>264</v>
       </c>
@@ -33508,7 +33487,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" ht="43.5">
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="45">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -33520,7 +33499,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" ht="43.5">
+    <row r="13" spans="1:4" s="12" customFormat="1" ht="45">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -33532,19 +33511,19 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="43.5">
+    <row r="14" spans="1:4" ht="45">
       <c r="A14" s="8" t="s">
         <v>274</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>215</v>
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" ht="43.5">
+    <row r="15" spans="1:4" s="3" customFormat="1" ht="45">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -33556,7 +33535,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="43.5">
+    <row r="16" spans="1:4" ht="45">
       <c r="A16" s="8" t="s">
         <v>218</v>
       </c>
@@ -33568,7 +33547,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" ht="43.5">
+    <row r="17" spans="1:4" ht="60">
       <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
@@ -33580,7 +33559,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="43.5">
+    <row r="18" spans="1:4" ht="60">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
@@ -33592,7 +33571,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="72.5">
+    <row r="19" spans="1:4" ht="75">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -33604,7 +33583,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="87">
+    <row r="20" spans="1:4" ht="90">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -33616,7 +33595,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" ht="58">
+    <row r="21" spans="1:4" ht="60">
       <c r="A21" s="30" t="s">
         <v>224</v>
       </c>
@@ -33628,7 +33607,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="29">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="12" t="s">
         <v>22</v>
       </c>
@@ -33640,7 +33619,7 @@
       </c>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="29">
+    <row r="23" spans="1:4" s="3" customFormat="1" ht="30">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
@@ -33662,7 +33641,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="72.5">
+    <row r="25" spans="1:4" ht="75">
       <c r="A25" s="8" t="s">
         <v>227</v>
       </c>
@@ -33674,7 +33653,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" ht="87">
+    <row r="26" spans="1:4" ht="120">
       <c r="A26" s="6" t="s">
         <v>229</v>
       </c>
@@ -33686,7 +33665,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="58">
+    <row r="27" spans="1:4" ht="60">
       <c r="A27" s="6" t="s">
         <v>231</v>
       </c>
@@ -33734,11 +33713,11 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.54296875" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -33760,7 +33739,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="43.5">
+    <row r="5" spans="1:6" ht="45">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -33771,7 +33750,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -33782,7 +33761,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="58">
+    <row r="7" spans="1:6" ht="60">
       <c r="A7" s="6" t="s">
         <v>104</v>
       </c>
@@ -33793,7 +33772,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="6" t="s">
         <v>89</v>
       </c>
@@ -33807,7 +33786,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="174">
+    <row r="9" spans="1:6" ht="195">
       <c r="A9" s="8" t="s">
         <v>119</v>
       </c>
@@ -33818,7 +33797,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="43.5">
+    <row r="10" spans="1:6" ht="45">
       <c r="A10" s="8" t="s">
         <v>90</v>
       </c>
@@ -33829,7 +33808,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="72.5">
+    <row r="11" spans="1:6" ht="75">
       <c r="A11" s="8" t="s">
         <v>92</v>
       </c>
@@ -33840,7 +33819,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="58">
+    <row r="12" spans="1:6" ht="60">
       <c r="A12" s="8" t="s">
         <v>93</v>
       </c>
@@ -33851,7 +33830,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="72.5">
+    <row r="13" spans="1:6" ht="75">
       <c r="A13" s="8" t="s">
         <v>97</v>
       </c>
@@ -33862,7 +33841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="72.5">
+    <row r="14" spans="1:6" ht="90">
       <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
@@ -33873,7 +33852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="58">
+    <row r="15" spans="1:6" ht="60">
       <c r="A15" s="8" t="s">
         <v>99</v>
       </c>
@@ -33884,7 +33863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="87">
+    <row r="16" spans="1:6" ht="90">
       <c r="A16" s="8" t="s">
         <v>103</v>
       </c>
@@ -33895,7 +33874,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="72.5">
+    <row r="17" spans="1:3" ht="75">
       <c r="A17" s="8" t="s">
         <v>101</v>
       </c>
@@ -33906,7 +33885,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="87">
+    <row r="18" spans="1:3" ht="105">
       <c r="A18" s="8" t="s">
         <v>196</v>
       </c>
@@ -33917,7 +33896,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="87">
+    <row r="19" spans="1:3" ht="90">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -33928,7 +33907,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.5">
+    <row r="20" spans="1:3" ht="60">
       <c r="A20" s="8" t="s">
         <v>203</v>
       </c>
@@ -33939,7 +33918,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="87">
+    <row r="21" spans="1:3" ht="90">
       <c r="A21" s="8" t="s">
         <v>106</v>
       </c>
@@ -33950,7 +33929,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72.5">
+    <row r="22" spans="1:3" ht="75">
       <c r="A22" s="8" t="s">
         <v>108</v>
       </c>
@@ -33961,7 +33940,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="87">
+    <row r="23" spans="1:3" ht="90">
       <c r="A23" s="8" t="s">
         <v>109</v>
       </c>
@@ -33972,7 +33951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="87">
+    <row r="24" spans="1:3" ht="105">
       <c r="A24" s="8" t="s">
         <v>110</v>
       </c>
@@ -33994,7 +33973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72.5">
+    <row r="26" spans="1:3" ht="90">
       <c r="A26" s="8" t="s">
         <v>111</v>
       </c>
@@ -34005,7 +33984,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="87">
+    <row r="27" spans="1:3" ht="90">
       <c r="A27" s="8" t="s">
         <v>113</v>
       </c>
@@ -34016,7 +33995,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="72.5">
+    <row r="28" spans="1:3" ht="75">
       <c r="A28" s="8" t="s">
         <v>114</v>
       </c>
@@ -34027,7 +34006,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="116">
+    <row r="29" spans="1:3" ht="120">
       <c r="A29" s="8" t="s">
         <v>115</v>
       </c>
@@ -34038,7 +34017,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="174">
+    <row r="30" spans="1:3" ht="195">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -34049,7 +34028,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="159.5">
+    <row r="31" spans="1:3" ht="210">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -34060,7 +34039,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="203">
+    <row r="32" spans="1:3" ht="240">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -34096,11 +34075,11 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -34125,7 +34104,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:3" ht="29">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -34136,7 +34115,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.5">
+    <row r="6" spans="1:3" ht="60">
       <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
@@ -34147,7 +34126,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="10" t="s">
         <v>136</v>
       </c>
@@ -34158,7 +34137,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="10" t="s">
         <v>139</v>
       </c>
@@ -34169,7 +34148,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.5">
+    <row r="9" spans="1:3" ht="45">
       <c r="A9" s="10" t="s">
         <v>140</v>
       </c>
@@ -34180,7 +34159,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.5">
+    <row r="10" spans="1:3" ht="45">
       <c r="A10" s="10" t="s">
         <v>142</v>
       </c>
@@ -34202,7 +34181,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.5">
+    <row r="12" spans="1:3" ht="45">
       <c r="A12" s="10" t="s">
         <v>152</v>
       </c>
@@ -34213,7 +34192,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.5">
+    <row r="13" spans="1:3" ht="45">
       <c r="A13" s="8" t="s">
         <v>156</v>
       </c>
@@ -34224,7 +34203,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.5">
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" s="8" t="s">
         <v>161</v>
       </c>
@@ -34235,7 +34214,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="72.5">
+    <row r="15" spans="1:3" ht="75">
       <c r="A15" s="8" t="s">
         <v>166</v>
       </c>
@@ -34246,7 +34225,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="43.5">
+    <row r="16" spans="1:3" ht="45">
       <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
@@ -34257,7 +34236,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="43.5">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" s="8" t="s">
         <v>177</v>
       </c>
@@ -34268,7 +34247,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.5">
+    <row r="18" spans="1:3" ht="45">
       <c r="A18" s="8" t="s">
         <v>178</v>
       </c>
@@ -34279,7 +34258,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.5">
+    <row r="19" spans="1:3" ht="45">
       <c r="A19" s="8" t="s">
         <v>181</v>
       </c>
@@ -34290,7 +34269,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="58">
+    <row r="20" spans="1:3" ht="60">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -34301,7 +34280,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="72.5">
+    <row r="21" spans="1:3" ht="90">
       <c r="A21" s="10" t="s">
         <v>150</v>
       </c>
@@ -34312,7 +34291,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="72.5">
+    <row r="22" spans="1:3" ht="75">
       <c r="A22" s="8" t="s">
         <v>183</v>
       </c>
@@ -34323,7 +34302,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="58">
+    <row r="23" spans="1:3" ht="60">
       <c r="A23" s="10" t="s">
         <v>67</v>
       </c>
@@ -34334,7 +34313,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="87">
+    <row r="24" spans="1:3" ht="90">
       <c r="A24" s="8" t="s">
         <v>186</v>
       </c>
@@ -34345,7 +34324,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="101.5">
+    <row r="25" spans="1:3" ht="120">
       <c r="A25" s="10" t="s">
         <v>232</v>
       </c>
@@ -34356,7 +34335,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="72.5">
+    <row r="26" spans="1:3" ht="90">
       <c r="A26" s="8" t="s">
         <v>234</v>
       </c>
@@ -34367,7 +34346,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="72.5">
+    <row r="27" spans="1:3" ht="75">
       <c r="A27" s="10" t="s">
         <v>236</v>
       </c>
@@ -34378,7 +34357,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="43.5">
+    <row r="28" spans="1:3" ht="45">
       <c r="A28" s="7" t="s">
         <v>240</v>
       </c>
@@ -34389,7 +34368,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="58">
+    <row r="29" spans="1:3" ht="75">
       <c r="A29" s="7" t="s">
         <v>242</v>
       </c>
@@ -34400,7 +34379,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45.65" customHeight="1">
+    <row r="30" spans="1:3" ht="45.6" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>245</v>
       </c>
@@ -34411,7 +34390,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="43.5">
+    <row r="31" spans="1:3" ht="45">
       <c r="A31" s="7" t="s">
         <v>247</v>
       </c>
@@ -34422,7 +34401,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.5">
+    <row r="32" spans="1:3" ht="45">
       <c r="A32" s="7" t="s">
         <v>251</v>
       </c>
@@ -34433,7 +34412,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="43.5">
+    <row r="33" spans="1:3" ht="45">
       <c r="A33" s="8" t="s">
         <v>148</v>
       </c>
@@ -34444,7 +34423,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="58">
+    <row r="34" spans="1:3" ht="60">
       <c r="A34" s="8" t="s">
         <v>148</v>
       </c>
@@ -34537,13 +34516,13 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="28"/>
-    <col min="2" max="2" width="30.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="52.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="28"/>
+    <col min="1" max="1" width="8.85546875" style="28"/>
+    <col min="2" max="2" width="30.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -34551,7 +34530,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="58">
+    <row r="3" spans="2:4" ht="60">
       <c r="C3" s="37" t="s">
         <v>544</v>
       </c>
@@ -34575,7 +34554,7 @@
       <c r="B7" s="59"/>
       <c r="C7" s="34"/>
     </row>
-    <row r="8" spans="2:4" ht="29">
+    <row r="8" spans="2:4" ht="30">
       <c r="B8" s="11" t="s">
         <v>559</v>
       </c>
@@ -34586,7 +34565,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="29">
+    <row r="9" spans="2:4" ht="30">
       <c r="B9" s="7" t="s">
         <v>552</v>
       </c>
@@ -34597,7 +34576,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29">
+    <row r="10" spans="2:4" ht="30">
       <c r="B10" s="7" t="s">
         <v>555</v>
       </c>
@@ -34608,7 +34587,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="29">
+    <row r="11" spans="2:4" ht="30">
       <c r="B11" s="11" t="s">
         <v>558</v>
       </c>
@@ -34619,7 +34598,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="29">
+    <row r="12" spans="2:4" ht="30">
       <c r="B12" s="11" t="s">
         <v>562</v>
       </c>
@@ -34630,7 +34609,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="43.5">
+    <row r="13" spans="2:4" ht="45">
       <c r="B13" s="11" t="s">
         <v>564</v>
       </c>
@@ -34641,7 +34620,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="43.5">
+    <row r="14" spans="2:4" ht="45">
       <c r="B14" s="11" t="s">
         <v>568</v>
       </c>
@@ -34652,7 +34631,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="43.5">
+    <row r="15" spans="2:4" ht="45">
       <c r="B15" s="11" t="s">
         <v>570</v>
       </c>
@@ -34663,7 +34642,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="29">
+    <row r="16" spans="2:4" ht="30">
       <c r="B16" s="7" t="s">
         <v>573</v>
       </c>
@@ -34674,7 +34653,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="159.5">
+    <row r="17" spans="2:13" ht="165">
       <c r="B17" s="7" t="s">
         <v>577</v>
       </c>
@@ -34685,7 +34664,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="145" customHeight="1">
+    <row r="18" spans="2:13" ht="144.94999999999999" customHeight="1">
       <c r="B18" s="11" t="s">
         <v>580</v>
       </c>
@@ -34695,14 +34674,14 @@
       <c r="D18" s="66" t="s">
         <v>582</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="84" t="s">
         <v>583</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
     </row>
     <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
@@ -34714,19 +34693,19 @@
       <c r="D19" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="84" t="s">
         <v>587</v>
       </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-    </row>
-    <row r="20" spans="2:13" ht="29">
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+    </row>
+    <row r="20" spans="2:13" ht="30">
       <c r="B20" s="7" t="s">
         <v>588</v>
       </c>
@@ -34737,7 +34716,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="238" customHeight="1">
+    <row r="21" spans="2:13" ht="237.95" customHeight="1">
       <c r="B21" s="7" t="s">
         <v>591</v>
       </c>
@@ -34745,19 +34724,19 @@
         <v>592</v>
       </c>
       <c r="D21" s="66" t="s">
+        <v>755</v>
+      </c>
+      <c r="E21" s="84" t="s">
         <v>756</v>
       </c>
-      <c r="E21" s="97" t="s">
-        <v>757</v>
-      </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -34774,17 +34753,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
   <dimension ref="B2:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="27"/>
-    <col min="2" max="2" width="54.08984375" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.54296875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="27"/>
+    <col min="1" max="1" width="8.7109375" style="27"/>
+    <col min="2" max="2" width="54.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -34870,13 +34849,13 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="27" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C14" s="43" t="s">
+        <v>719</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>720</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -34892,38 +34871,38 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="C16" s="70" t="s">
+        <v>785</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>783</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>784</v>
       </c>
-      <c r="D16" s="69" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" s="74" customFormat="1">
-      <c r="B17" s="74" t="s">
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>791</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>793</v>
       </c>
-      <c r="C17" s="73" t="s">
-        <v>792</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="74" customFormat="1">
-      <c r="C18" s="73"/>
-      <c r="D18" s="72"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" s="43"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="60" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" s="78" customFormat="1">
-      <c r="B21" s="112" t="s">
-        <v>813</v>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="27" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -34942,7 +34921,7 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="60" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -34987,135 +34966,135 @@
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="88" t="s">
+        <v>787</v>
+      </c>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="67" t="s">
+        <v>762</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="70" t="s">
+        <v>760</v>
+      </c>
+      <c r="C33" s="78"/>
+      <c r="D33" s="70"/>
+    </row>
+    <row r="34" spans="2:4" ht="30">
+      <c r="B34" s="73" t="s">
+        <v>761</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="67"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="79" t="s">
+        <v>763</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="70"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="73" t="s">
+        <v>764</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="67"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="79" t="s">
+        <v>765</v>
+      </c>
+      <c r="C37" s="78"/>
+      <c r="D37" s="70"/>
+    </row>
+    <row r="38" spans="2:4" ht="30">
+      <c r="B38" s="73" t="s">
+        <v>766</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="67"/>
+    </row>
+    <row r="39" spans="2:4" ht="30">
+      <c r="B39" s="80" t="s">
+        <v>770</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>767</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="81" t="s">
+        <v>769</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>616</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="30">
+      <c r="B41" s="80" t="s">
+        <v>771</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>772</v>
+      </c>
+      <c r="D41" s="82" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="45">
+      <c r="B42" s="81" t="s">
+        <v>775</v>
+      </c>
+      <c r="C42" s="74" t="s">
+        <v>776</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="60">
+      <c r="B43" s="80" t="s">
+        <v>780</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>777</v>
+      </c>
+      <c r="D43" s="82" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="30">
+      <c r="B44" s="81" t="s">
         <v>788</v>
       </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="88" t="s">
-        <v>763</v>
-      </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="82" t="s">
-        <v>761</v>
-      </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="82"/>
-    </row>
-    <row r="34" spans="2:4" s="71" customFormat="1" ht="29">
-      <c r="B34" s="85" t="s">
-        <v>762</v>
-      </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="88"/>
-    </row>
-    <row r="35" spans="2:4" s="71" customFormat="1">
-      <c r="B35" s="92" t="s">
-        <v>764</v>
-      </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="82"/>
-    </row>
-    <row r="36" spans="2:4" s="71" customFormat="1">
-      <c r="B36" s="85" t="s">
-        <v>765</v>
-      </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="88"/>
-    </row>
-    <row r="37" spans="2:4" s="71" customFormat="1">
-      <c r="B37" s="92" t="s">
-        <v>766</v>
-      </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="82"/>
-    </row>
-    <row r="38" spans="2:4" s="71" customFormat="1" ht="29">
-      <c r="B38" s="85" t="s">
-        <v>767</v>
-      </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="88"/>
-    </row>
-    <row r="39" spans="2:4" s="71" customFormat="1" ht="29">
-      <c r="B39" s="93" t="s">
-        <v>771</v>
-      </c>
-      <c r="C39" s="83" t="s">
-        <v>768</v>
-      </c>
-      <c r="D39" s="84" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="71" customFormat="1">
-      <c r="B40" s="94" t="s">
-        <v>770</v>
-      </c>
-      <c r="C40" s="86" t="s">
-        <v>616</v>
-      </c>
-      <c r="D40" s="81" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" s="71" customFormat="1">
-      <c r="B41" s="93" t="s">
-        <v>772</v>
-      </c>
-      <c r="C41" s="83" t="s">
-        <v>773</v>
-      </c>
-      <c r="D41" s="95" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" s="71" customFormat="1" ht="43.5">
-      <c r="B42" s="94" t="s">
-        <v>776</v>
-      </c>
-      <c r="C42" s="86" t="s">
-        <v>777</v>
-      </c>
-      <c r="D42" s="81" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" s="71" customFormat="1" ht="58">
-      <c r="B43" s="93" t="s">
+      <c r="C44" s="74" t="s">
         <v>781</v>
       </c>
-      <c r="C43" s="83" t="s">
-        <v>778</v>
-      </c>
-      <c r="D43" s="95" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" s="71" customFormat="1" ht="29">
-      <c r="B44" s="94" t="s">
-        <v>789</v>
-      </c>
-      <c r="C44" s="86" t="s">
+      <c r="D44" s="83" t="s">
         <v>782</v>
       </c>
-      <c r="D44" s="96" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" s="71" customFormat="1">
+    </row>
+    <row r="45" spans="2:4">
       <c r="B45" s="6"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="68"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="60" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -35123,147 +35102,147 @@
         <v>707</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="60" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="C52" s="43" t="s">
         <v>712</v>
       </c>
-      <c r="C52" s="43" t="s">
+    </row>
+    <row r="53" spans="2:4" ht="30">
+      <c r="B53" s="38" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" ht="29">
-      <c r="B53" s="38" t="s">
+      <c r="C53" s="39" t="s">
         <v>714</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="C54" s="43" t="s">
         <v>716</v>
       </c>
-      <c r="C54" s="43" t="s">
+    </row>
+    <row r="55" spans="2:4" ht="30">
+      <c r="B55" s="38" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" ht="29">
-      <c r="B55" s="38" t="s">
+      <c r="C55" s="86" t="s">
         <v>718</v>
       </c>
-      <c r="C55" s="99" t="s">
-        <v>719</v>
-      </c>
-      <c r="D55" s="100"/>
+      <c r="D55" s="87"/>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="60" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="27" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="101" t="s">
+      <c r="B62" s="88" t="s">
+        <v>757</v>
+      </c>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
+    </row>
+    <row r="63" spans="2:4" ht="255">
+      <c r="B63" s="67" t="s">
+        <v>759</v>
+      </c>
+      <c r="C63" s="68" t="s">
+        <v>789</v>
+      </c>
+      <c r="D63" s="69" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="30">
+      <c r="B64" s="70"/>
+      <c r="C64" s="71" t="s">
         <v>758</v>
       </c>
-      <c r="C62" s="101"/>
-      <c r="D62" s="101"/>
-    </row>
-    <row r="63" spans="2:4" s="67" customFormat="1" ht="217.5">
-      <c r="B63" s="79" t="s">
-        <v>760</v>
-      </c>
-      <c r="C63" s="80" t="s">
-        <v>790</v>
-      </c>
-      <c r="D63" s="81" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="29">
-      <c r="B64" s="82"/>
-      <c r="C64" s="83" t="s">
-        <v>759</v>
-      </c>
-      <c r="D64" s="84" t="s">
+      <c r="D64" s="72" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="75">
+      <c r="B65" s="73" t="s">
+        <v>797</v>
+      </c>
+      <c r="C65" s="74" t="s">
+        <v>798</v>
+      </c>
+      <c r="D65" s="69" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="72.5">
-      <c r="B65" s="85" t="s">
-        <v>798</v>
-      </c>
-      <c r="C65" s="86" t="s">
-        <v>799</v>
-      </c>
-      <c r="D65" s="81" t="s">
+    <row r="66" spans="2:4" ht="30">
+      <c r="B66" s="75" t="s">
+        <v>794</v>
+      </c>
+      <c r="C66" s="71" t="s">
+        <v>795</v>
+      </c>
+      <c r="D66" s="72" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="89" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" ht="29">
-      <c r="B66" s="87" t="s">
-        <v>795</v>
-      </c>
-      <c r="C66" s="83" t="s">
-        <v>796</v>
-      </c>
-      <c r="D66" s="84" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="102" t="s">
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="43" t="s">
         <v>802</v>
       </c>
-      <c r="C69" s="102"/>
-      <c r="D69" s="102"/>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="76" t="s">
+      <c r="C70" s="43" t="s">
+        <v>802</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>803</v>
       </c>
-      <c r="C70" s="76" t="s">
-        <v>803</v>
-      </c>
-      <c r="D70" s="75" t="s">
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="43" t="s">
+        <v>806</v>
+      </c>
+      <c r="C71" s="43" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="76" t="s">
+      <c r="D71" s="21" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="30">
+      <c r="B72" s="38" t="s">
         <v>807</v>
       </c>
-      <c r="C71" s="76" t="s">
-        <v>805</v>
-      </c>
-      <c r="D71" s="75" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="29">
-      <c r="B72" s="77" t="s">
+      <c r="C72" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="21" t="s">
         <v>809</v>
-      </c>
-      <c r="D72" s="75" t="s">
-        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -35286,13 +35265,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="27"/>
-    <col min="2" max="2" width="30.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="52.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="8.85546875" style="27"/>
+    <col min="2" max="2" width="30.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -35320,7 +35299,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="43"/>
     </row>
-    <row r="7" spans="2:4" ht="29">
+    <row r="7" spans="2:4" ht="30">
       <c r="B7" s="46" t="s">
         <v>549</v>
       </c>
@@ -35332,7 +35311,7 @@
     <row r="9" spans="2:4">
       <c r="B9" s="45"/>
     </row>
-    <row r="10" spans="2:4" ht="101.5" customHeight="1">
+    <row r="10" spans="2:4" ht="101.45" customHeight="1">
       <c r="B10" s="45"/>
       <c r="C10" s="43"/>
       <c r="D10" s="38"/>
@@ -35354,10 +35333,10 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3">
@@ -35396,7 +35375,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="101.5" customHeight="1">
+    <row r="9" spans="1:3" ht="101.45" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>294</v>
       </c>
@@ -35429,13 +35408,13 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.453125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="48.81640625" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="28"/>
+    <col min="1" max="1" width="30.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -35447,17 +35426,17 @@
       <c r="A2" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="91" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="104"/>
+      <c r="C2" s="91"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="92" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -35465,12 +35444,12 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="93" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="106"/>
-    </row>
-    <row r="7" spans="1:4" ht="43.5">
+      <c r="B6" s="93"/>
+    </row>
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="35" t="s">
         <v>344</v>
       </c>
@@ -35503,7 +35482,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72.5">
+    <row r="10" spans="1:4" ht="90">
       <c r="A10" s="9" t="s">
         <v>350</v>
       </c>
@@ -35563,7 +35542,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="4" t="s">
         <v>354</v>
       </c>
@@ -35585,7 +35564,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="58">
+    <row r="20" spans="1:3" ht="75">
       <c r="A20" s="4" t="s">
         <v>368</v>
       </c>
@@ -35597,88 +35576,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="90" t="s">
         <v>316</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="90" t="s">
         <v>325</v>
       </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="103" t="s">
+      <c r="A26" s="90" t="s">
         <v>326</v>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="90" t="s">
         <v>327</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="90" t="s">
         <v>329</v>
       </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="103" t="s">
+      <c r="A29" s="90" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="91" t="s">
         <v>331</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="91" t="s">
         <v>339</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="103" t="s">
+      <c r="A32" s="90" t="s">
         <v>340</v>
       </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="90" t="s">
         <v>341</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5946E5B-399D-4889-B348-6F37DD328DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8ACD48-573E-4BE0-971F-8B4CE5DF6A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="825">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -30859,6 +30859,36 @@
 A 'target' is what action is taken with a packet that matches a 'rule'.
 A 'target' may be a 'jump' (go-to action) to a user-defined 'chain' in the same 'table'
 </t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>built-in chains</t>
+  </si>
+  <si>
+    <t>user-defined chains</t>
+  </si>
+  <si>
+    <t>custom chain 1</t>
+  </si>
+  <si>
+    <t>built-in chain 1</t>
+  </si>
+  <si>
+    <t>rule 1</t>
+  </si>
+  <si>
+    <t>rule 2</t>
+  </si>
+  <si>
+    <t>rule 3</t>
+  </si>
+  <si>
+    <t>IPTABLES</t>
+  </si>
+  <si>
+    <t>rule 4</t>
   </si>
 </sst>
 </file>
@@ -30943,7 +30973,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -30974,8 +31004,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -31047,12 +31089,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -31338,6 +31419,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -31354,6 +31450,227 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3176</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connector: Elbow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F348AD89-A7F6-24CF-F6BE-3E7BDBA13E6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="12595226" y="17716500"/>
+          <a:ext cx="911225" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99826"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connector: Elbow 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7251FF1D-2F2F-2681-FE9A-4DD8EE81390E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13519150" y="17719675"/>
+          <a:ext cx="904875" cy="384175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99825"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8F5953-4B31-B4E2-65CD-2812C0FBEA34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12592050" y="18297525"/>
+          <a:ext cx="0" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41151051-C39F-831A-D166-14F339670C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14424025" y="18275300"/>
+          <a:ext cx="0" cy="396875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32548,10 +32865,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
-  <dimension ref="B3:M17"/>
+  <dimension ref="B3:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -32710,8 +33027,74 @@
       <c r="I17" s="84"/>
       <c r="J17" s="84"/>
     </row>
+    <row r="32" spans="2:10">
+      <c r="H32" s="103" t="s">
+        <v>823</v>
+      </c>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+    </row>
+    <row r="33" spans="7:11">
+      <c r="I33" s="102" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="36" spans="7:11">
+      <c r="G36" s="99" t="s">
+        <v>816</v>
+      </c>
+      <c r="H36" s="100"/>
+      <c r="J36" s="99" t="s">
+        <v>817</v>
+      </c>
+      <c r="K36" s="100"/>
+    </row>
+    <row r="39" spans="7:11">
+      <c r="G39" s="99" t="s">
+        <v>819</v>
+      </c>
+      <c r="H39" s="100"/>
+      <c r="J39" s="99" t="s">
+        <v>818</v>
+      </c>
+      <c r="K39" s="100"/>
+    </row>
+    <row r="40" spans="7:11">
+      <c r="G40" s="101" t="s">
+        <v>820</v>
+      </c>
+      <c r="J40" s="101" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="41" spans="7:11">
+      <c r="G41" s="101" t="s">
+        <v>821</v>
+      </c>
+      <c r="J41" s="101" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="42" spans="7:11">
+      <c r="G42" s="101" t="s">
+        <v>822</v>
+      </c>
+      <c r="J42" s="101" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="43" spans="7:11">
+      <c r="J43" s="101" t="s">
+        <v>824</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
@@ -32721,6 +33104,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8ACD48-573E-4BE0-971F-8B4CE5DF6A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F557E6E-73AC-426D-83BE-2457F05C5E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="830">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -26959,66 +26959,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> output</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ACTIONS determine what to do with the data that matches a rule. The main actions are:
-ACCEPT: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">allow data to flow
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>REJECT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: block data flow, and give the sender an error. Use if you want the sender to know they are being blocked by a firewall</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DROP: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block data flow without giving an explanation to the sender. Use if you don't want the sender to know that they are being blocked by a firewall, or that a system exists.</t>
     </r>
   </si>
   <si>
@@ -30715,10 +30655,55 @@
     <t>CD to local main github folder</t>
   </si>
   <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>built-in chains</t>
+  </si>
+  <si>
+    <t>user-defined chains</t>
+  </si>
+  <si>
+    <t>custom chain 1</t>
+  </si>
+  <si>
+    <t>built-in chain 1</t>
+  </si>
+  <si>
+    <t>IPTABLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rule 2 --&gt;  </t>
+  </si>
+  <si>
+    <t>target 2</t>
+  </si>
+  <si>
+    <t>rule 3 --&gt;</t>
+  </si>
+  <si>
+    <t>target 3</t>
+  </si>
+  <si>
+    <t>target 1</t>
+  </si>
+  <si>
+    <t>rule 1 --&gt;</t>
+  </si>
+  <si>
+    <t>target 4</t>
+  </si>
+  <si>
+    <t>rule 2 --&gt;</t>
+  </si>
+  <si>
+    <t>rule 4 --&gt;</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">host firewall installed by default on Linux systems
 (packet filter rules in Linux kernel)
-It uses 3 lists or 'chains':
+It uses 3 default lists or 'chains':
 Input chain: </t>
     </r>
     <r>
@@ -30853,49 +30838,417 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">setup, maintain, and inspect the tables of packet filter rules in the Linux kernel.
-A table consists of a number of built-in 'chains' and may also contain user-defined 'chains'.
-A chain contains a list of 'rules' that specify what to do with a packet it matches.
-A 'target' is what action is taken with a packet that matches a 'rule'.
-A 'target' may be a 'jump' (go-to action) to a user-defined 'chain' in the same 'table'
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>More technical definition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>TABLE</t>
-  </si>
-  <si>
-    <t>built-in chains</t>
-  </si>
-  <si>
-    <t>user-defined chains</t>
-  </si>
-  <si>
-    <t>custom chain 1</t>
-  </si>
-  <si>
-    <t>built-in chain 1</t>
-  </si>
-  <si>
-    <t>rule 1</t>
-  </si>
-  <si>
-    <t>rule 2</t>
-  </si>
-  <si>
-    <t>rule 3</t>
-  </si>
-  <si>
-    <t>IPTABLES</t>
-  </si>
-  <si>
-    <t>rule 4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setup, maintain, and inspect the tables of packet filter rules in the Linux kernel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> consists of a number of built-in '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' and may also contain user-defined '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'.
+A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> contains a list of '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' that specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>what to do with a packet it matches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+A '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is what action is taken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with a packet that matches a '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'.
+A '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' may be a '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jump</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' (go-to action) to a user-defined '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' in the same '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACTIONS determine what to do with the data that matches a rule. The main actions are:
+ACCEPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">allow data to flow
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REJECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: block data flow, and give the sender an error. Use if you want the sender to know they are being blocked by a firewall</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DROP: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block data flow without giving an explanation to the sender. Use if you don't want the sender to know that they are being blocked by a firewall, or that a system exists.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+RETURN: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this action is rarely used. It tells the computer to "stop traversing this chain and resume at the next rule in the calling or previous chain".</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30972,8 +31325,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -31013,6 +31372,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -31133,7 +31498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -31374,6 +31739,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -31413,25 +31784,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -31668,6 +32042,68 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1389BCA6-CCDA-37EA-FAAE-DBCF15655818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11372850" y="2428875"/>
+          <a:ext cx="3057525" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -32247,7 +32683,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="96" t="s">
         <v>413</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -32261,7 +32697,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="75">
-      <c r="A9" s="94"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="6" t="s">
         <v>402</v>
       </c>
@@ -32273,7 +32709,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
-      <c r="A10" s="94"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="6" t="s">
         <v>403</v>
       </c>
@@ -32285,7 +32721,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="45">
-      <c r="A11" s="94"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="6" t="s">
         <v>405</v>
       </c>
@@ -32297,7 +32733,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="94"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="47" t="s">
         <v>407</v>
       </c>
@@ -32314,7 +32750,7 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="60">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="97" t="s">
         <v>414</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -32328,7 +32764,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="75">
-      <c r="A16" s="95"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="8" t="s">
         <v>412</v>
       </c>
@@ -32340,7 +32776,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="105">
-      <c r="A17" s="95"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="8" t="s">
         <v>517</v>
       </c>
@@ -32352,7 +32788,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="105">
-      <c r="A18" s="95"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="8" t="s">
         <v>518</v>
       </c>
@@ -32364,7 +32800,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="60">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="97" t="s">
         <v>414</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -32378,7 +32814,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="60">
-      <c r="A20" s="95"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="11" t="s">
         <v>526</v>
       </c>
@@ -32390,7 +32826,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="105">
-      <c r="A21" s="95"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="11" t="s">
         <v>529</v>
       </c>
@@ -32402,7 +32838,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="60">
-      <c r="A22" s="95"/>
+      <c r="A22" s="97"/>
       <c r="B22" s="55" t="s">
         <v>531</v>
       </c>
@@ -32751,38 +33187,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="98" t="s">
         <v>688</v>
       </c>
-      <c r="D19" s="96"/>
+      <c r="D19" s="98"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="98" t="s">
         <v>689</v>
       </c>
-      <c r="D20" s="96"/>
+      <c r="D20" s="98"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="98" t="s">
         <v>690</v>
       </c>
-      <c r="D21" s="96"/>
+      <c r="D21" s="98"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="98" t="s">
         <v>691</v>
       </c>
-      <c r="D22" s="96"/>
+      <c r="D22" s="98"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="98" t="s">
         <v>692</v>
       </c>
-      <c r="D23" s="96"/>
+      <c r="D23" s="98"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -32795,38 +33231,38 @@
       <c r="B25" s="63" t="s">
         <v>694</v>
       </c>
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="98" t="s">
         <v>695</v>
       </c>
-      <c r="D25" s="96"/>
+      <c r="D25" s="98"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="98" t="s">
         <v>696</v>
       </c>
-      <c r="D26" s="96"/>
+      <c r="D26" s="98"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="98" t="s">
         <v>697</v>
       </c>
-      <c r="D27" s="96"/>
+      <c r="D27" s="98"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="98" t="s">
         <v>698</v>
       </c>
-      <c r="D28" s="96"/>
+      <c r="D28" s="98"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="98" t="s">
         <v>699</v>
       </c>
-      <c r="D29" s="96"/>
+      <c r="D29" s="98"/>
     </row>
     <row r="30" spans="2:4" ht="38.25">
       <c r="B30" s="27" t="s">
@@ -32868,7 +33304,7 @@
   <dimension ref="B3:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -32877,7 +33313,9 @@
     <col min="2" max="2" width="43.7109375" style="27" customWidth="1"/>
     <col min="3" max="3" width="51.85546875" style="27" customWidth="1"/>
     <col min="4" max="4" width="56.7109375" style="27" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="27"/>
+    <col min="5" max="7" width="9.140625" style="27"/>
+    <col min="8" max="8" width="9.140625" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13">
@@ -32886,49 +33324,70 @@
       </c>
     </row>
     <row r="4" spans="2:13" ht="120" customHeight="1">
-      <c r="C4" s="86" t="s">
-        <v>813</v>
-      </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="91" t="s">
-        <v>814</v>
-      </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
+      <c r="C4" s="88" t="s">
+        <v>827</v>
+      </c>
+      <c r="D4" s="88"/>
+      <c r="E4" s="93" t="s">
+        <v>828</v>
+      </c>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
     </row>
     <row r="5" spans="2:13" ht="75" customHeight="1">
-      <c r="C5" s="86" t="s">
-        <v>737</v>
-      </c>
-      <c r="D5" s="86"/>
-    </row>
-    <row r="6" spans="2:13" ht="90" customHeight="1">
-      <c r="C6" s="86" t="s">
-        <v>735</v>
-      </c>
-      <c r="D6" s="86"/>
+      <c r="C5" s="88" t="s">
+        <v>736</v>
+      </c>
+      <c r="D5" s="88"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+    </row>
+    <row r="6" spans="2:13" ht="120" customHeight="1">
+      <c r="C6" s="88" t="s">
+        <v>829</v>
+      </c>
+      <c r="D6" s="88"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
     </row>
     <row r="7" spans="2:13" ht="75" customHeight="1">
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="88" t="s">
         <v>725</v>
       </c>
-      <c r="D7" s="86"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="9" spans="2:13" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>739</v>
-      </c>
       <c r="D9" s="26" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="30">
@@ -32972,7 +33431,7 @@
         <v>728</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="30">
@@ -32983,125 +33442,148 @@
         <v>732</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="90">
       <c r="B15" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="105" customHeight="1">
       <c r="B16" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>747</v>
-      </c>
       <c r="D16" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="180" customHeight="1">
       <c r="B17" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="E17" s="102" t="s">
         <v>751</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="E17" s="97" t="s">
-        <v>752</v>
-      </c>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="H32" s="103" t="s">
-        <v>823</v>
-      </c>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
+      <c r="H32" s="101" t="s">
+        <v>817</v>
+      </c>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
     </row>
     <row r="33" spans="7:11">
-      <c r="I33" s="102" t="s">
-        <v>815</v>
+      <c r="I33" s="85" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="36" spans="7:11">
       <c r="G36" s="99" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="H36" s="100"/>
       <c r="J36" s="99" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="K36" s="100"/>
     </row>
     <row r="39" spans="7:11">
       <c r="G39" s="99" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="H39" s="100"/>
       <c r="J39" s="99" t="s">
+        <v>815</v>
+      </c>
+      <c r="K39" s="100"/>
+    </row>
+    <row r="40" spans="7:11">
+      <c r="G40" s="84" t="s">
+        <v>823</v>
+      </c>
+      <c r="H40" s="104" t="s">
+        <v>822</v>
+      </c>
+      <c r="J40" s="84" t="s">
+        <v>823</v>
+      </c>
+      <c r="K40" s="105" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="41" spans="7:11">
+      <c r="G41" s="84" t="s">
         <v>818</v>
       </c>
-      <c r="K39" s="100"/>
-    </row>
-    <row r="40" spans="7:11">
-      <c r="G40" s="101" t="s">
+      <c r="H41" s="104" t="s">
+        <v>819</v>
+      </c>
+      <c r="J41" s="84" t="s">
+        <v>825</v>
+      </c>
+      <c r="K41" s="105" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="42" spans="7:11">
+      <c r="G42" s="84" t="s">
         <v>820</v>
       </c>
-      <c r="J40" s="101" t="s">
+      <c r="H42" s="104" t="s">
+        <v>821</v>
+      </c>
+      <c r="J42" s="84" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="41" spans="7:11">
-      <c r="G41" s="101" t="s">
+      <c r="K42" s="105" t="s">
         <v>821</v>
       </c>
-      <c r="J41" s="101" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="42" spans="7:11">
-      <c r="G42" s="101" t="s">
-        <v>822</v>
-      </c>
-      <c r="J42" s="101" t="s">
-        <v>822</v>
-      </c>
     </row>
     <row r="43" spans="7:11">
-      <c r="J43" s="101" t="s">
+      <c r="J43" s="84" t="s">
+        <v>826</v>
+      </c>
+      <c r="K43" s="105" t="s">
         <v>824</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H32:J32"/>
+  <mergeCells count="12">
+    <mergeCell ref="E5:K7"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E17:J17"/>
     <mergeCell ref="E4:M4"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H32:J32"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -33460,12 +33942,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="103" t="s">
         <v>358</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -33473,11 +33955,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="92" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -33495,19 +33977,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="103" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="98"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="27" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="103" t="s">
         <v>365</v>
       </c>
-      <c r="C12" s="98"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="27" t="s">
         <v>367</v>
       </c>
@@ -33900,7 +34382,7 @@
         <v>274</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>215</v>
@@ -35058,14 +35540,14 @@
       <c r="D18" s="66" t="s">
         <v>582</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="86" t="s">
         <v>583</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
     </row>
     <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
@@ -35077,17 +35559,17 @@
       <c r="D19" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="86" t="s">
         <v>587</v>
       </c>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
     </row>
     <row r="20" spans="2:13" ht="30">
       <c r="B20" s="7" t="s">
@@ -35108,19 +35590,19 @@
         <v>592</v>
       </c>
       <c r="D21" s="66" t="s">
+        <v>754</v>
+      </c>
+      <c r="E21" s="86" t="s">
         <v>755</v>
       </c>
-      <c r="E21" s="84" t="s">
-        <v>756</v>
-      </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -35233,7 +35715,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="27" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>719</v>
@@ -35255,24 +35737,24 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C16" s="43" t="s">
+        <v>782</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>783</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>790</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>792</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>791</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -35286,7 +35768,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -35350,125 +35832,125 @@
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="88" t="s">
-        <v>787</v>
-      </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
+      <c r="B31" s="90" t="s">
+        <v>786</v>
+      </c>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="67" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C32" s="76"/>
       <c r="D32" s="77"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="70" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="70"/>
     </row>
     <row r="34" spans="2:4" ht="30">
       <c r="B34" s="73" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="67"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="79" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="70"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="73" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="67"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="79" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="70"/>
     </row>
     <row r="38" spans="2:4" ht="30">
       <c r="B38" s="73" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C38" s="76"/>
       <c r="D38" s="67"/>
     </row>
     <row r="39" spans="2:4" ht="30">
       <c r="B39" s="80" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C39" s="71" t="s">
+        <v>766</v>
+      </c>
+      <c r="D39" s="72" t="s">
         <v>767</v>
-      </c>
-      <c r="D39" s="72" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="81" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C40" s="74" t="s">
         <v>616</v>
       </c>
       <c r="D40" s="69" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="30">
       <c r="B41" s="80" t="s">
+        <v>770</v>
+      </c>
+      <c r="C41" s="71" t="s">
         <v>771</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="D41" s="82" t="s">
         <v>772</v>
-      </c>
-      <c r="D41" s="82" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="45">
       <c r="B42" s="81" t="s">
+        <v>774</v>
+      </c>
+      <c r="C42" s="74" t="s">
         <v>775</v>
       </c>
-      <c r="C42" s="74" t="s">
-        <v>776</v>
-      </c>
       <c r="D42" s="69" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="60">
       <c r="B43" s="80" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30">
       <c r="B44" s="81" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C44" s="74" t="s">
+        <v>780</v>
+      </c>
+      <c r="D44" s="83" t="s">
         <v>781</v>
-      </c>
-      <c r="D44" s="83" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -35478,7 +35960,7 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="60" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -35522,111 +36004,111 @@
       <c r="B55" s="38" t="s">
         <v>717</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="88" t="s">
         <v>718</v>
       </c>
-      <c r="D55" s="87"/>
+      <c r="D55" s="89"/>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="60" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="27" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="88" t="s">
-        <v>757</v>
-      </c>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
+      <c r="B62" s="90" t="s">
+        <v>756</v>
+      </c>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
     </row>
     <row r="63" spans="2:4" ht="255">
       <c r="B63" s="67" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C63" s="68" t="s">
+        <v>788</v>
+      </c>
+      <c r="D63" s="69" t="s">
         <v>789</v>
-      </c>
-      <c r="D63" s="69" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="30">
       <c r="B64" s="70"/>
       <c r="C64" s="71" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D64" s="72" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="75">
       <c r="B65" s="73" t="s">
+        <v>796</v>
+      </c>
+      <c r="C65" s="74" t="s">
         <v>797</v>
       </c>
-      <c r="C65" s="74" t="s">
-        <v>798</v>
-      </c>
       <c r="D65" s="69" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="30">
       <c r="B66" s="75" t="s">
+        <v>793</v>
+      </c>
+      <c r="C66" s="71" t="s">
         <v>794</v>
       </c>
-      <c r="C66" s="71" t="s">
+      <c r="D66" s="72" t="s">
         <v>795</v>
       </c>
-      <c r="D66" s="72" t="s">
-        <v>796</v>
-      </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="89" t="s">
-        <v>801</v>
-      </c>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
+      <c r="B69" s="91" t="s">
+        <v>800</v>
+      </c>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="43" t="s">
+        <v>801</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>801</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>802</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>802</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="43" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C71" s="43" t="s">
+        <v>803</v>
+      </c>
+      <c r="D71" s="21" t="s">
         <v>804</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="30">
       <c r="B72" s="38" t="s">
+        <v>806</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="21" t="s">
         <v>808</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -35810,17 +36292,17 @@
       <c r="A2" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="93" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="93"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="94" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -35828,10 +36310,10 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="95" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="93"/>
+      <c r="B6" s="95"/>
     </row>
     <row r="7" spans="1:4" ht="45">
       <c r="A7" s="35" t="s">
@@ -35960,88 +36442,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="92" t="s">
         <v>316</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="92" t="s">
         <v>319</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="92" t="s">
         <v>323</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="92" t="s">
         <v>325</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="92" t="s">
         <v>326</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="92" t="s">
         <v>327</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="92" t="s">
         <v>329</v>
       </c>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="92" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="93" t="s">
         <v>331</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="93" t="s">
         <v>339</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="92" t="s">
         <v>340</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="92" t="s">
         <v>341</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F557E6E-73AC-426D-83BE-2457F05C5E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D10BEA-2C5B-4FF3-BB35-FBDE72EFB70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="ls" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="834">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -30701,10 +30701,605 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>More technical definition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setup, maintain, and inspect the tables of packet filter rules in the Linux kernel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> consists of a number of built-in '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' and may also contain user-defined '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'.
+A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> contains a list of '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' that specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>what to do with a packet it matches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+A '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is what action is taken</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with a packet that matches a '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'.
+A '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' may be a '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jump</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' (go-to action) to a user-defined '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' in the same '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ACTIONS determine what to do with the data that matches a rule. The main actions are:
+ACCEPT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">allow data to flow
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REJECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: block data flow, and give the sender an error. Use if you want the sender to know they are being blocked by a firewall</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DROP: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>block data flow without giving an explanation to the sender. Use if you don't want the sender to know that they are being blocked by a firewall, or that a system exists.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+RETURN: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this action is rarely used. It tells the computer to "stop traversing this chain and resume at the next rule in the calling or previous chain".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-t {table}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = specifies the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which the command should operate on</t>
+    </r>
+  </si>
+  <si>
+    <t>sudo iptables  -t nat -L</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rules</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chains</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nat</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' table
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-t </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= table; allows you to specify a specific table
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-L </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= list all rules and chains</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">host firewall installed by default on Linux systems
 (packet filter rules in Linux kernel)
 It uses 3 default lists or 'chains':
-Input chain: </t>
+INPUT chain: </t>
     </r>
     <r>
       <rPr>
@@ -30735,7 +31330,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>controls behavior for incoming connections</t>
+      <t xml:space="preserve">controls packets destined for your local host
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OUTPUT chain: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list that controls how data being sent out of the local host to another destination is handled</t>
     </r>
     <r>
       <rPr>
@@ -30747,7 +31364,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Forward chain: </t>
+FORWARD chain: </t>
     </r>
     <r>
       <rPr>
@@ -30769,38 +31386,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Output chain: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">list that controls how data being sent </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">out </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">of the local host to another destination is handled
+      <t xml:space="preserve">PREROUTING chain: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">list that specifies how to alter a packet as soon as it comes in
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POSTROUTING chain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> list that controls how to alter packets as they are about to go out
 </t>
     </r>
     <r>
@@ -30841,14 +31459,13 @@
     <r>
       <rPr>
         <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>More technical definition:</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IPTABLES TABLES:</t>
     </r>
     <r>
       <rPr>
@@ -30870,377 +31487,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>setup, maintain, and inspect the tables of packet filter rules in the Linux kernel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> consists of a number of built-in '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chains</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' and may also contain user-defined '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chains</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'.
-A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> contains a list of '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rules</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">' that specify </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>what to do with a packet it matches</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-A '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>target</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">' </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is what action is taken</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with a packet that matches a '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rule</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'.
-A '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>target</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' may be a '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jump</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' (go-to action) to a user-defined '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>chain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' in the same '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'
+      <t xml:space="preserve">FILTER: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">default table. Contains INPUT, OUTPUT, FORWARD chains
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ACTIONS determine what to do with the data that matches a rule. The main actions are:
-ACCEPT: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">allow data to flow
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>REJECT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: block data flow, and give the sender an error. Use if you want the sender to know they are being blocked by a firewall</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DROP: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>block data flow without giving an explanation to the sender. Use if you don't want the sender to know that they are being blocked by a firewall, or that a system exists.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-RETURN: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>this action is rarely used. It tells the computer to "stop traversing this chain and resume at the next rule in the calling or previous chain".</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NAT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table used when a packet that creates a new connection is encountered. 
+NAT contains the following chains: PREROUTING</t>
     </r>
   </si>
 </sst>
@@ -31745,6 +32025,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -31784,6 +32070,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -31793,19 +32082,10 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -32615,7 +32895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D4A975-49E6-4D67-87B6-C134DC574AA3}">
   <dimension ref="A2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -32683,7 +32963,7 @@
       <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="98" t="s">
         <v>413</v>
       </c>
       <c r="B8" s="48" t="s">
@@ -32697,7 +32977,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="75">
-      <c r="A9" s="96"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="6" t="s">
         <v>402</v>
       </c>
@@ -32709,7 +32989,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
-      <c r="A10" s="96"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="6" t="s">
         <v>403</v>
       </c>
@@ -32721,7 +33001,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="45">
-      <c r="A11" s="96"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="6" t="s">
         <v>405</v>
       </c>
@@ -32733,7 +33013,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="45">
-      <c r="A12" s="96"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="47" t="s">
         <v>407</v>
       </c>
@@ -32750,7 +33030,7 @@
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="60">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="99" t="s">
         <v>414</v>
       </c>
       <c r="B15" s="51" t="s">
@@ -32764,7 +33044,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="75">
-      <c r="A16" s="97"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="8" t="s">
         <v>412</v>
       </c>
@@ -32776,7 +33056,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="105">
-      <c r="A17" s="97"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="8" t="s">
         <v>517</v>
       </c>
@@ -32788,7 +33068,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="105">
-      <c r="A18" s="97"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="8" t="s">
         <v>518</v>
       </c>
@@ -32800,7 +33080,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="60">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="99" t="s">
         <v>414</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -32814,7 +33094,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="60">
-      <c r="A20" s="97"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="11" t="s">
         <v>526</v>
       </c>
@@ -32826,7 +33106,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="105">
-      <c r="A21" s="97"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="11" t="s">
         <v>529</v>
       </c>
@@ -32838,7 +33118,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="60">
-      <c r="A22" s="97"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="55" t="s">
         <v>531</v>
       </c>
@@ -33187,38 +33467,38 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="27"/>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="100" t="s">
         <v>688</v>
       </c>
-      <c r="D19" s="98"/>
+      <c r="D19" s="100"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="27"/>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="100" t="s">
         <v>689</v>
       </c>
-      <c r="D20" s="98"/>
+      <c r="D20" s="100"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27"/>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="100" t="s">
         <v>690</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="100"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="27"/>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="100" t="s">
         <v>691</v>
       </c>
-      <c r="D22" s="98"/>
+      <c r="D22" s="100"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="27"/>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="100" t="s">
         <v>692</v>
       </c>
-      <c r="D23" s="98"/>
+      <c r="D23" s="100"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="63" t="s">
@@ -33231,38 +33511,38 @@
       <c r="B25" s="63" t="s">
         <v>694</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="100" t="s">
         <v>695</v>
       </c>
-      <c r="D25" s="98"/>
+      <c r="D25" s="100"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="27"/>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="100" t="s">
         <v>696</v>
       </c>
-      <c r="D26" s="98"/>
+      <c r="D26" s="100"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="27"/>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="100" t="s">
         <v>697</v>
       </c>
-      <c r="D27" s="98"/>
+      <c r="D27" s="100"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="27"/>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="100" t="s">
         <v>698</v>
       </c>
-      <c r="D28" s="98"/>
+      <c r="D28" s="100"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="27"/>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="100" t="s">
         <v>699</v>
       </c>
-      <c r="D29" s="98"/>
+      <c r="D29" s="100"/>
     </row>
     <row r="30" spans="2:4" ht="38.25">
       <c r="B30" s="27" t="s">
@@ -33304,7 +33584,7 @@
   <dimension ref="B3:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -33323,61 +33603,61 @@
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="120" customHeight="1">
-      <c r="C4" s="88" t="s">
+    <row r="4" spans="2:13" ht="165" customHeight="1">
+      <c r="C4" s="90" t="s">
+        <v>832</v>
+      </c>
+      <c r="D4" s="90"/>
+      <c r="E4" s="95" t="s">
         <v>827</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="93" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+    </row>
+    <row r="5" spans="2:13" ht="75" customHeight="1">
+      <c r="C5" s="90" t="s">
+        <v>736</v>
+      </c>
+      <c r="D5" s="90"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+    </row>
+    <row r="6" spans="2:13" ht="120" customHeight="1">
+      <c r="C6" s="90" t="s">
         <v>828</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-    </row>
-    <row r="5" spans="2:13" ht="75" customHeight="1">
-      <c r="C5" s="88" t="s">
-        <v>736</v>
-      </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-    </row>
-    <row r="6" spans="2:13" ht="120" customHeight="1">
-      <c r="C6" s="88" t="s">
-        <v>829</v>
-      </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
     </row>
     <row r="7" spans="2:13" ht="75" customHeight="1">
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="90" t="s">
         <v>725</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
     </row>
     <row r="9" spans="2:13" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
@@ -33477,21 +33757,56 @@
       <c r="D17" s="18" t="s">
         <v>752</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="101" t="s">
         <v>751</v>
       </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+    </row>
+    <row r="18" spans="2:10" ht="45" customHeight="1">
+      <c r="B18" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>831</v>
+      </c>
+      <c r="E18" s="95" t="s">
+        <v>833</v>
+      </c>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="H32" s="101" t="s">
+      <c r="H32" s="104" t="s">
         <v>817</v>
       </c>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
     </row>
     <row r="33" spans="7:11">
       <c r="I33" s="85" t="s">
@@ -33499,36 +33814,36 @@
       </c>
     </row>
     <row r="36" spans="7:11">
-      <c r="G36" s="99" t="s">
+      <c r="G36" s="102" t="s">
         <v>813</v>
       </c>
-      <c r="H36" s="100"/>
-      <c r="J36" s="99" t="s">
+      <c r="H36" s="103"/>
+      <c r="J36" s="102" t="s">
         <v>814</v>
       </c>
-      <c r="K36" s="100"/>
+      <c r="K36" s="103"/>
     </row>
     <row r="39" spans="7:11">
-      <c r="G39" s="99" t="s">
+      <c r="G39" s="102" t="s">
         <v>816</v>
       </c>
-      <c r="H39" s="100"/>
-      <c r="J39" s="99" t="s">
+      <c r="H39" s="103"/>
+      <c r="J39" s="102" t="s">
         <v>815</v>
       </c>
-      <c r="K39" s="100"/>
+      <c r="K39" s="103"/>
     </row>
     <row r="40" spans="7:11">
       <c r="G40" s="84" t="s">
         <v>823</v>
       </c>
-      <c r="H40" s="104" t="s">
+      <c r="H40" s="86" t="s">
         <v>822</v>
       </c>
       <c r="J40" s="84" t="s">
         <v>823</v>
       </c>
-      <c r="K40" s="105" t="s">
+      <c r="K40" s="87" t="s">
         <v>822</v>
       </c>
     </row>
@@ -33536,13 +33851,13 @@
       <c r="G41" s="84" t="s">
         <v>818</v>
       </c>
-      <c r="H41" s="104" t="s">
+      <c r="H41" s="86" t="s">
         <v>819</v>
       </c>
       <c r="J41" s="84" t="s">
         <v>825</v>
       </c>
-      <c r="K41" s="105" t="s">
+      <c r="K41" s="87" t="s">
         <v>819</v>
       </c>
     </row>
@@ -33550,13 +33865,13 @@
       <c r="G42" s="84" t="s">
         <v>820</v>
       </c>
-      <c r="H42" s="104" t="s">
+      <c r="H42" s="86" t="s">
         <v>821</v>
       </c>
       <c r="J42" s="84" t="s">
         <v>820</v>
       </c>
-      <c r="K42" s="105" t="s">
+      <c r="K42" s="87" t="s">
         <v>821</v>
       </c>
     </row>
@@ -33564,17 +33879,17 @@
       <c r="J43" s="84" t="s">
         <v>826</v>
       </c>
-      <c r="K43" s="105" t="s">
+      <c r="K43" s="87" t="s">
         <v>824</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E5:K7"/>
+  <mergeCells count="13">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E18:J20"/>
     <mergeCell ref="E17:J17"/>
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="G36:H36"/>
@@ -33582,6 +33897,7 @@
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="J39:K39"/>
     <mergeCell ref="H32:J32"/>
+    <mergeCell ref="E5:K7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33594,8 +33910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5866F71F-38C4-486B-B894-DFD9311F2D3F}">
   <dimension ref="B3:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -33682,7 +33998,7 @@
       </c>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="2:8" ht="115.35" customHeight="1">
+    <row r="12" spans="2:8" ht="135" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>471</v>
       </c>
@@ -33704,7 +34020,9 @@
       <c r="D13" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="30">
       <c r="B14" s="46" t="s">
@@ -33942,12 +34260,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="106" t="s">
         <v>358</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -33955,11 +34273,11 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="94" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="27" t="s">
@@ -33977,19 +34295,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="106" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="103"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="27" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="C12" s="103"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="27" t="s">
         <v>367</v>
       </c>
@@ -35540,14 +35858,14 @@
       <c r="D18" s="66" t="s">
         <v>582</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="88" t="s">
         <v>583</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
     </row>
     <row r="19" spans="2:13" ht="234" customHeight="1">
       <c r="B19" s="7" t="s">
@@ -35559,17 +35877,17 @@
       <c r="D19" s="66" t="s">
         <v>586</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="88" t="s">
         <v>587</v>
       </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
     </row>
     <row r="20" spans="2:13" ht="30">
       <c r="B20" s="7" t="s">
@@ -35592,17 +35910,17 @@
       <c r="D21" s="66" t="s">
         <v>754</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="88" t="s">
         <v>755</v>
       </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -35619,8 +35937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C07AE43-F09A-4DAB-AE6D-B6737219C51B}">
   <dimension ref="B2:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -35832,11 +36150,11 @@
       <c r="D30" s="21"/>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="92" t="s">
         <v>786</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="67" t="s">
@@ -36004,10 +36322,10 @@
       <c r="B55" s="38" t="s">
         <v>717</v>
       </c>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="90" t="s">
         <v>718</v>
       </c>
-      <c r="D55" s="89"/>
+      <c r="D55" s="91"/>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="60" t="s">
@@ -36023,14 +36341,14 @@
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="90" t="s">
+      <c r="B62" s="92" t="s">
         <v>756</v>
       </c>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
     </row>
     <row r="63" spans="2:4" ht="255">
-      <c r="B63" s="67" t="s">
+      <c r="B63" s="76" t="s">
         <v>758</v>
       </c>
       <c r="C63" s="68" t="s">
@@ -36072,11 +36390,11 @@
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="91" t="s">
+      <c r="B69" s="93" t="s">
         <v>800</v>
       </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="43" t="s">
@@ -36292,17 +36610,17 @@
       <c r="A2" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="95" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="93"/>
+      <c r="C2" s="95"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="96" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
     </row>
     <row r="5" spans="1:4" s="34" customFormat="1">
       <c r="B5" s="20"/>
@@ -36310,10 +36628,10 @@
       <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="97" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="95"/>
+      <c r="B6" s="97"/>
     </row>
     <row r="7" spans="1:4" ht="45">
       <c r="A7" s="35" t="s">
@@ -36442,88 +36760,88 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="94" t="s">
         <v>316</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="94" t="s">
         <v>319</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="94" t="s">
         <v>323</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="94" t="s">
         <v>325</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="94" t="s">
         <v>326</v>
       </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="94" t="s">
         <v>327</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="92" t="s">
+      <c r="A28" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="94" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="95" t="s">
         <v>331</v>
       </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="93" t="s">
+      <c r="A31" s="95" t="s">
         <v>339</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="94" t="s">
         <v>340</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="94" t="s">
         <v>341</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="27" t="s">

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D10BEA-2C5B-4FF3-BB35-FBDE72EFB70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD3F7BA-D093-4E8E-BDDC-D523CEF857F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="835">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -29105,9 +29105,6 @@
   </si>
   <si>
     <t>git diff</t>
-  </si>
-  <si>
-    <t>Basic output guide</t>
   </si>
   <si>
     <r>
@@ -31456,16 +31453,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IPTABLES TABLES:</t>
+    <t>git dif</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IPTABLES DEFAULT TABLES:</t>
     </r>
     <r>
       <rPr>
@@ -31519,8 +31522,73 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> table used when a packet that creates a new connection is encountered. 
-NAT contains the following chains: PREROUTING</t>
+      <t xml:space="preserve"> table used when a packet that creates a new connection is encountered.  NAT contains the following chains: PREROUTING, INPUT, OUTPUT, POSTROUTING
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MANGLE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> specialized table for packet alteration. MANGLE contains PREROUTING, INPUT, FORWARD, OUTPUT, POSTROUTING
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RAW: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">used for configuring exemptions from connection tracking in combination with the NOTRACK target. Functionally speaking, RAW is called before any other table. RAW contains PREROUTING and OUTPUT chains
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SECURITY: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>used for Mandatory Access Control networking rules. (MAC is restricting access based on resource sensitivity and user level of authorization). Functionally, the SECURITY table is called after the default FILTER table. Contains INPUT, OUTPUT and FORWARD chains.</t>
     </r>
   </si>
 </sst>
@@ -31778,7 +31846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -32088,6 +32156,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -32110,15 +32184,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>3176</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32165,15 +32239,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32220,15 +32294,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32273,15 +32347,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -32326,15 +32400,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -33581,10 +33655,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
-  <dimension ref="B3:M43"/>
+  <dimension ref="B3:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -33593,73 +33667,91 @@
     <col min="2" max="2" width="43.7109375" style="27" customWidth="1"/>
     <col min="3" max="3" width="51.85546875" style="27" customWidth="1"/>
     <col min="4" max="4" width="56.7109375" style="27" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="27"/>
-    <col min="8" max="8" width="9.140625" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="27"/>
+    <col min="5" max="5" width="9.140625" style="27" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="27"/>
+    <col min="9" max="9" width="9.140625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:14">
       <c r="B3" s="43" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="165" customHeight="1">
+    <row r="4" spans="2:14" ht="165" customHeight="1">
       <c r="C4" s="90" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D4" s="90"/>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="108" t="s">
+        <v>833</v>
+      </c>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+    </row>
+    <row r="5" spans="2:14" ht="75" customHeight="1">
+      <c r="C5" s="107" t="s">
+        <v>736</v>
+      </c>
+      <c r="D5" s="107"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="95" t="s">
+        <v>826</v>
+      </c>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+    </row>
+    <row r="6" spans="2:14" ht="120" customHeight="1">
+      <c r="C6" s="90" t="s">
         <v>827</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-    </row>
-    <row r="5" spans="2:13" ht="75" customHeight="1">
-      <c r="C5" s="90" t="s">
-        <v>736</v>
-      </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-    </row>
-    <row r="6" spans="2:13" ht="120" customHeight="1">
-      <c r="C6" s="90" t="s">
-        <v>828</v>
-      </c>
       <c r="D6" s="90"/>
-      <c r="E6" s="105"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="105"/>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
       <c r="I6" s="105"/>
       <c r="J6" s="105"/>
       <c r="K6" s="105"/>
-    </row>
-    <row r="7" spans="2:13" ht="75" customHeight="1">
+      <c r="L6" s="105"/>
+    </row>
+    <row r="7" spans="2:14" ht="75" customHeight="1">
       <c r="C7" s="90" t="s">
         <v>725</v>
       </c>
       <c r="D7" s="90"/>
-      <c r="E7" s="105"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="105"/>
       <c r="G7" s="105"/>
       <c r="H7" s="105"/>
       <c r="I7" s="105"/>
       <c r="J7" s="105"/>
       <c r="K7" s="105"/>
-    </row>
-    <row r="9" spans="2:13" ht="75" customHeight="1">
+      <c r="L7" s="105"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+    </row>
+    <row r="9" spans="2:14" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>737</v>
       </c>
@@ -33669,8 +33761,17 @@
       <c r="D9" s="26" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" ht="30">
+      <c r="E9" s="26"/>
+      <c r="F9" s="95" t="s">
+        <v>834</v>
+      </c>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+    </row>
+    <row r="10" spans="2:14" ht="30">
       <c r="B10" s="45" t="s">
         <v>706</v>
       </c>
@@ -33680,8 +33781,15 @@
       <c r="D10" s="19" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" ht="75">
+      <c r="E10" s="19"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+    </row>
+    <row r="11" spans="2:14" ht="75">
       <c r="B11" s="8" t="s">
         <v>724</v>
       </c>
@@ -33691,8 +33799,15 @@
       <c r="D11" s="19" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" ht="60">
+      <c r="E11" s="19"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+    </row>
+    <row r="12" spans="2:14" ht="60">
       <c r="B12" s="10" t="s">
         <v>708</v>
       </c>
@@ -33702,8 +33817,15 @@
       <c r="D12" s="19" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" ht="90">
+      <c r="E12" s="19"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+    </row>
+    <row r="13" spans="2:14" ht="90">
       <c r="B13" s="8" t="s">
         <v>730</v>
       </c>
@@ -33713,8 +33835,15 @@
       <c r="D13" s="19" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" ht="30">
+      <c r="E13" s="19"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+    </row>
+    <row r="14" spans="2:14" ht="30">
       <c r="B14" s="46" t="s">
         <v>731</v>
       </c>
@@ -33724,8 +33853,9 @@
       <c r="D14" s="19" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" ht="90">
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:14" ht="90">
       <c r="B15" s="8" t="s">
         <v>740</v>
       </c>
@@ -33735,8 +33865,9 @@
       <c r="D15" s="19" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" ht="105" customHeight="1">
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="2:14" ht="105" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>745</v>
       </c>
@@ -33746,8 +33877,9 @@
       <c r="D16" s="19" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="180" customHeight="1">
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="2:11" ht="180" customHeight="1">
       <c r="B17" s="8" t="s">
         <v>750</v>
       </c>
@@ -33757,147 +33889,293 @@
       <c r="D17" s="18" t="s">
         <v>752</v>
       </c>
-      <c r="E17" s="101" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="101" t="s">
         <v>751</v>
       </c>
-      <c r="F17" s="88"/>
       <c r="G17" s="88"/>
       <c r="H17" s="88"/>
       <c r="I17" s="88"/>
       <c r="J17" s="88"/>
-    </row>
-    <row r="18" spans="2:10" ht="45" customHeight="1">
+      <c r="K17" s="88"/>
+    </row>
+    <row r="18" spans="2:11" ht="45" customHeight="1">
       <c r="B18" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="19" t="s">
         <v>830</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>831</v>
-      </c>
-      <c r="E18" s="95" t="s">
-        <v>833</v>
-      </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="H32" s="104" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+    </row>
+    <row r="19" spans="2:11" ht="15" customHeight="1">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="6:12">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="6:12">
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="6:12">
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="6:12">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="6:12">
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+    </row>
+    <row r="38" spans="6:12">
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+    </row>
+    <row r="44" spans="6:12">
+      <c r="I44" s="104" t="s">
+        <v>816</v>
+      </c>
+      <c r="J44" s="104"/>
+      <c r="K44" s="104"/>
+    </row>
+    <row r="45" spans="6:12">
+      <c r="J45" s="85" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="48" spans="6:12">
+      <c r="H48" s="102" t="s">
+        <v>812</v>
+      </c>
+      <c r="I48" s="103"/>
+      <c r="K48" s="102" t="s">
+        <v>813</v>
+      </c>
+      <c r="L48" s="103"/>
+    </row>
+    <row r="51" spans="8:12">
+      <c r="H51" s="102" t="s">
+        <v>815</v>
+      </c>
+      <c r="I51" s="103"/>
+      <c r="K51" s="102" t="s">
+        <v>814</v>
+      </c>
+      <c r="L51" s="103"/>
+    </row>
+    <row r="52" spans="8:12">
+      <c r="H52" s="84" t="s">
+        <v>822</v>
+      </c>
+      <c r="I52" s="86" t="s">
+        <v>821</v>
+      </c>
+      <c r="K52" s="84" t="s">
+        <v>822</v>
+      </c>
+      <c r="L52" s="87" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="53" spans="8:12">
+      <c r="H53" s="84" t="s">
         <v>817</v>
       </c>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-    </row>
-    <row r="33" spans="7:11">
-      <c r="I33" s="85" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="36" spans="7:11">
-      <c r="G36" s="102" t="s">
-        <v>813</v>
-      </c>
-      <c r="H36" s="103"/>
-      <c r="J36" s="102" t="s">
-        <v>814</v>
-      </c>
-      <c r="K36" s="103"/>
-    </row>
-    <row r="39" spans="7:11">
-      <c r="G39" s="102" t="s">
-        <v>816</v>
-      </c>
-      <c r="H39" s="103"/>
-      <c r="J39" s="102" t="s">
-        <v>815</v>
-      </c>
-      <c r="K39" s="103"/>
-    </row>
-    <row r="40" spans="7:11">
-      <c r="G40" s="84" t="s">
+      <c r="I53" s="86" t="s">
+        <v>818</v>
+      </c>
+      <c r="K53" s="84" t="s">
+        <v>824</v>
+      </c>
+      <c r="L53" s="87" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="54" spans="8:12">
+      <c r="H54" s="84" t="s">
+        <v>819</v>
+      </c>
+      <c r="I54" s="86" t="s">
+        <v>820</v>
+      </c>
+      <c r="K54" s="84" t="s">
+        <v>819</v>
+      </c>
+      <c r="L54" s="87" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="55" spans="8:12">
+      <c r="K55" s="84" t="s">
+        <v>825</v>
+      </c>
+      <c r="L55" s="87" t="s">
         <v>823</v>
       </c>
-      <c r="H40" s="86" t="s">
-        <v>822</v>
-      </c>
-      <c r="J40" s="84" t="s">
-        <v>823</v>
-      </c>
-      <c r="K40" s="87" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="41" spans="7:11">
-      <c r="G41" s="84" t="s">
-        <v>818</v>
-      </c>
-      <c r="H41" s="86" t="s">
-        <v>819</v>
-      </c>
-      <c r="J41" s="84" t="s">
-        <v>825</v>
-      </c>
-      <c r="K41" s="87" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="42" spans="7:11">
-      <c r="G42" s="84" t="s">
-        <v>820</v>
-      </c>
-      <c r="H42" s="86" t="s">
-        <v>821</v>
-      </c>
-      <c r="J42" s="84" t="s">
-        <v>820</v>
-      </c>
-      <c r="K42" s="87" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="43" spans="7:11">
-      <c r="J43" s="84" t="s">
-        <v>826</v>
-      </c>
-      <c r="K43" s="87" t="s">
-        <v>824</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="F9:K13"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="I44:K44"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E18:J20"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="E5:K7"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="F6:L8"/>
+    <mergeCell ref="E4:N4"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34700,7 +34978,7 @@
         <v>274</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>215</v>
@@ -36033,7 +36311,7 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="27" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>719</v>
@@ -36055,24 +36333,24 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="27" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C16" s="43" t="s">
+        <v>781</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>782</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>789</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>791</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>790</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -36086,7 +36364,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -36151,124 +36429,124 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="92" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C31" s="92"/>
       <c r="D31" s="92"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="67" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C32" s="76"/>
       <c r="D32" s="77"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="70" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="70"/>
     </row>
     <row r="34" spans="2:4" ht="30">
       <c r="B34" s="73" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="67"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="79" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="70"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="73" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C36" s="76"/>
       <c r="D36" s="67"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="79" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="70"/>
     </row>
     <row r="38" spans="2:4" ht="30">
       <c r="B38" s="73" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C38" s="76"/>
       <c r="D38" s="67"/>
     </row>
     <row r="39" spans="2:4" ht="30">
       <c r="B39" s="80" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C39" s="71" t="s">
+        <v>765</v>
+      </c>
+      <c r="D39" s="72" t="s">
         <v>766</v>
-      </c>
-      <c r="D39" s="72" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="81" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C40" s="74" t="s">
         <v>616</v>
       </c>
       <c r="D40" s="69" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="30">
       <c r="B41" s="80" t="s">
+        <v>769</v>
+      </c>
+      <c r="C41" s="71" t="s">
         <v>770</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="D41" s="82" t="s">
         <v>771</v>
-      </c>
-      <c r="D41" s="82" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="45">
       <c r="B42" s="81" t="s">
+        <v>773</v>
+      </c>
+      <c r="C42" s="74" t="s">
         <v>774</v>
       </c>
-      <c r="C42" s="74" t="s">
-        <v>775</v>
-      </c>
       <c r="D42" s="69" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="60">
       <c r="B43" s="80" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C43" s="71" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30">
       <c r="B44" s="81" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C44" s="74" t="s">
+        <v>779</v>
+      </c>
+      <c r="D44" s="83" t="s">
         <v>780</v>
-      </c>
-      <c r="D44" s="83" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -36278,7 +36556,7 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="60" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -36349,13 +36627,13 @@
     </row>
     <row r="63" spans="2:4" ht="255">
       <c r="B63" s="76" t="s">
-        <v>758</v>
+        <v>832</v>
       </c>
       <c r="C63" s="68" t="s">
+        <v>787</v>
+      </c>
+      <c r="D63" s="69" t="s">
         <v>788</v>
-      </c>
-      <c r="D63" s="69" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="30">
@@ -36364,69 +36642,69 @@
         <v>757</v>
       </c>
       <c r="D64" s="72" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="75">
       <c r="B65" s="73" t="s">
+        <v>795</v>
+      </c>
+      <c r="C65" s="74" t="s">
         <v>796</v>
       </c>
-      <c r="C65" s="74" t="s">
-        <v>797</v>
-      </c>
       <c r="D65" s="69" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="30">
       <c r="B66" s="75" t="s">
+        <v>792</v>
+      </c>
+      <c r="C66" s="71" t="s">
         <v>793</v>
       </c>
-      <c r="C66" s="71" t="s">
+      <c r="D66" s="72" t="s">
         <v>794</v>
-      </c>
-      <c r="D66" s="72" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="93" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C69" s="93"/>
       <c r="D69" s="93"/>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="43" t="s">
+        <v>800</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>800</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>801</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>801</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="43" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C71" s="43" t="s">
+        <v>802</v>
+      </c>
+      <c r="D71" s="21" t="s">
         <v>803</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="30">
       <c r="B72" s="38" t="s">
+        <v>805</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="21" t="s">
         <v>807</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>808</v>
       </c>
     </row>
   </sheetData>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD3F7BA-D093-4E8E-BDDC-D523CEF857F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9236F51-7153-4A9D-8143-D5F3753C420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="841">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -31589,6 +31589,197 @@
         <scheme val="minor"/>
       </rPr>
       <t>used for Mandatory Access Control networking rules. (MAC is restricting access based on resource sensitivity and user level of authorization). Functionally, the SECURITY table is called after the default FILTER table. Contains INPUT, OUTPUT and FORWARD chains.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-C {&lt;chain&gt;} ? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= check if a rule matching the parameters you give it exists in a chain</t>
+    </r>
+  </si>
+  <si>
+    <t>iptables -C INPUT ???</t>
+  </si>
+  <si>
+    <t>iptables -D INPUT 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-D {&lt;chain&gt;} {ruleNumber | ruleSpecification} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a rule from a chain</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rule </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' chain
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-D</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = delete a rule</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-R {&lt;CHAIN&gt;} {&lt;RULENUMBER&gt;} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
     </r>
   </si>
 </sst>
@@ -32150,17 +32341,17 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -33657,8 +33848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
   <dimension ref="B3:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -33683,24 +33874,24 @@
         <v>831</v>
       </c>
       <c r="D4" s="90"/>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="107" t="s">
         <v>833</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
     </row>
     <row r="5" spans="2:14" ht="75" customHeight="1">
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="105" t="s">
         <v>736</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="39"/>
       <c r="F5" s="95" t="s">
         <v>826</v>
@@ -33720,13 +33911,13 @@
       </c>
       <c r="D6" s="90"/>
       <c r="E6" s="39"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
     </row>
     <row r="7" spans="2:14" ht="75" customHeight="1">
       <c r="C7" s="90" t="s">
@@ -33734,22 +33925,22 @@
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
     </row>
     <row r="9" spans="2:14" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
@@ -33827,13 +34018,13 @@
     </row>
     <row r="13" spans="2:14" ht="90">
       <c r="B13" s="8" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="95"/>
@@ -33843,51 +34034,48 @@
       <c r="J13" s="95"/>
       <c r="K13" s="95"/>
     </row>
-    <row r="14" spans="2:14" ht="30">
-      <c r="B14" s="46" t="s">
-        <v>731</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>732</v>
+    <row r="14" spans="2:14" ht="120">
+      <c r="B14" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>746</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:14" ht="90">
+    <row r="15" spans="2:14" ht="180">
       <c r="B15" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>747</v>
+        <v>750</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>752</v>
       </c>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="2:14" ht="105" customHeight="1">
       <c r="B16" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>746</v>
+        <v>828</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>829</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>748</v>
+        <v>830</v>
       </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="2:11" ht="180" customHeight="1">
-      <c r="B17" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>752</v>
+      <c r="B17" s="46" t="s">
+        <v>835</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>836</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="101" t="s">
@@ -33900,14 +34088,14 @@
       <c r="K17" s="88"/>
     </row>
     <row r="18" spans="2:11" ht="45" customHeight="1">
-      <c r="B18" s="8" t="s">
-        <v>828</v>
+      <c r="B18" s="46" t="s">
+        <v>838</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="101"/>
@@ -33917,7 +34105,16 @@
       <c r="J18" s="88"/>
       <c r="K18" s="88"/>
     </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1">
+    <row r="19" spans="2:11" ht="30.75" customHeight="1">
+      <c r="B19" s="46" t="s">
+        <v>731</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>735</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -33925,7 +34122,16 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" ht="30.75" customHeight="1">
+      <c r="B20" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>744</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -33934,6 +34140,9 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11">
+      <c r="B21" s="45" t="s">
+        <v>840</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -34161,13 +34370,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F9:K13"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="I44:K44"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
@@ -34176,6 +34378,13 @@
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="F6:L8"/>
     <mergeCell ref="E4:N4"/>
+    <mergeCell ref="F9:K13"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="I44:K44"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34538,12 +34747,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="108" t="s">
         <v>358</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="27" t="s">
@@ -34573,19 +34782,19 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="108" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="106"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="27" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="108" t="s">
         <v>365</v>
       </c>
-      <c r="C12" s="106"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="27" t="s">
         <v>367</v>
       </c>

--- a/Linux_cmd_master_sheet.xlsx
+++ b/Linux_cmd_master_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyle\git\Linux-cmds-cheat-sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9236F51-7153-4A9D-8143-D5F3753C420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA7E8ED-0C09-4862-B8F6-B303D66EF3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{3287689C-6E77-4F11-B67F-07FDB207D0E0}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="844">
   <si>
     <t>Linux cmd 'LS'</t>
   </si>
@@ -31780,6 +31780,67 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">= </t>
+    </r>
+  </si>
+  <si>
+    <t>sudo iptables -L --line-numbers</t>
+  </si>
+  <si>
+    <t>list all rules on all chains (default 'Filter' table)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-L --line-numbers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all rules in selected chain, and show each rules </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line number</t>
     </r>
   </si>
 </sst>
@@ -32329,8 +32390,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -32340,15 +32410,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -33848,8 +33909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C8E1A6-37F1-4C42-99E1-83B41D1CB98D}">
   <dimension ref="B3:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -33874,24 +33935,24 @@
         <v>831</v>
       </c>
       <c r="D4" s="90"/>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="104" t="s">
         <v>833</v>
       </c>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
     </row>
     <row r="5" spans="2:14" ht="75" customHeight="1">
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="101" t="s">
         <v>736</v>
       </c>
-      <c r="D5" s="105"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="39"/>
       <c r="F5" s="95" t="s">
         <v>826</v>
@@ -33911,13 +33972,13 @@
       </c>
       <c r="D6" s="90"/>
       <c r="E6" s="39"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
     </row>
     <row r="7" spans="2:14" ht="75" customHeight="1">
       <c r="C7" s="90" t="s">
@@ -33925,22 +33986,22 @@
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
     </row>
     <row r="9" spans="2:14" ht="75" customHeight="1">
       <c r="B9" s="8" t="s">
@@ -33963,10 +34024,10 @@
       <c r="K9" s="95"/>
     </row>
     <row r="10" spans="2:14" ht="30">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="2" t="s">
         <v>726</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -33980,15 +34041,12 @@
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
     </row>
-    <row r="11" spans="2:14" ht="75">
-      <c r="B11" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>709</v>
+    <row r="11" spans="2:14" ht="30">
+      <c r="B11" s="46" t="s">
+        <v>843</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>841</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="95"/>
@@ -33998,15 +34056,15 @@
       <c r="J11" s="95"/>
       <c r="K11" s="95"/>
     </row>
-    <row r="12" spans="2:14" ht="60">
-      <c r="B12" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>727</v>
+    <row r="12" spans="2:14" ht="75">
+      <c r="B12" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>729</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="95"/>
@@ -34016,15 +34074,15 @@
       <c r="J12" s="95"/>
       <c r="K12" s="95"/>
     </row>
-    <row r="13" spans="2:14" ht="90">
-      <c r="B13" s="8" t="s">
-        <v>740</v>
+    <row r="13" spans="2:14" ht="60">
+      <c r="B13" s="10" t="s">
+        <v>708</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="95"/>
@@ -34034,51 +34092,54 @@
       <c r="J13" s="95"/>
       <c r="K13" s="95"/>
     </row>
-    <row r="14" spans="2:14" ht="120">
+    <row r="14" spans="2:14" ht="90">
       <c r="B14" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:14" ht="120">
+      <c r="B15" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>748</v>
-      </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="2:14" ht="180">
-      <c r="B15" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>752</v>
       </c>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="2:14" ht="105" customHeight="1">
       <c r="B16" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="2:11" ht="180" customHeight="1">
+      <c r="B17" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>830</v>
       </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="2:11" ht="180" customHeight="1">
-      <c r="B17" s="46" t="s">
-        <v>835</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>836</v>
-      </c>
       <c r="E17" s="18"/>
-      <c r="F17" s="101" t="s">
+      <c r="F17" s="102" t="s">
         <v>751</v>
       </c>
       <c r="G17" s="88"/>
@@ -34089,16 +34150,13 @@
     </row>
     <row r="18" spans="2:11" ht="45" customHeight="1">
       <c r="B18" s="46" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E18" s="19"/>
-      <c r="F18" s="101"/>
+      <c r="F18" s="102"/>
       <c r="G18" s="88"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
@@ -34107,13 +34165,13 @@
     </row>
     <row r="19" spans="2:11" ht="30.75" customHeight="1">
       <c r="B19" s="46" t="s">
-        <v>731</v>
+        <v>838</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>732</v>
+        <v>837</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>735</v>
+        <v>839</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -34123,14 +34181,14 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" ht="30.75" customHeight="1">
-      <c r="B20" s="8" t="s">
-        <v>730</v>
+      <c r="B20" s="46" t="s">
+        <v>731</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -34139,9 +34197,15 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="45" t="s">
-        <v>840</v>
+    <row r="21" spans="2:11" ht="90">
+      <c r="B21" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>744</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -34151,6 +34215,15 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11">
+      <c r="B22" s="45" t="s">
+        <v>840</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>841</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>842</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -34287,11 +34360,11 @@
       <c r="K38" s="38"/>
     </row>
     <row r="44" spans="6:12">
-      <c r="I44" s="104" t="s">
+      <c r="I44" s="107" t="s">
         <v>816</v>
       </c>
-      <c r="J44" s="104"/>
-      <c r="K44" s="104"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="107"/>
     </row>
     <row r="45" spans="6:12">
       <c r="J45" s="85" t="s">
@@ -34299,24 +34372,24 @@
       </c>
     </row>
     <row r="48" spans="6:12">
-      <c r="H48" s="102" t="s">
+      <c r="H48" s="105" t="s">
         <v>812</v>
       </c>
-      <c r="I48" s="103"/>
-      <c r="K48" s="102" t="s">
+      <c r="I48" s="106"/>
+      <c r="K48" s="105" t="s">
         <v>813</v>
       </c>
-      <c r="L48" s="103"/>
+      <c r="L48" s="106"/>
     </row>
     <row r="51" spans="8:12">
-      <c r="H51" s="102" t="s">
+      <c r="H51" s="105" t="s">
         <v>815</v>
       </c>
-      <c r="I51" s="103"/>
-      <c r="K51" s="102" t="s">
+      <c r="I51" s="106"/>
+      <c r="K51" s=